--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -106,10 +106,10 @@
     <t>USM Alger</t>
   </si>
   <si>
-    <t>Paradou AC</t>
+    <t>USM Khenchela</t>
   </si>
   <si>
-    <t>USM Khenchela</t>
+    <t>Paradou AC</t>
   </si>
   <si>
     <t>MC Alger</t>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6217141</v>
+        <v>6217142</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2.4</v>
+      </c>
+      <c r="N3">
+        <v>2.2</v>
+      </c>
+      <c r="O3">
         <v>2.9</v>
       </c>
-      <c r="M3">
-        <v>2.7</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
+        <v>1.825</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>1.9</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>2.025</v>
-      </c>
-      <c r="S3">
-        <v>1.775</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1.875</v>
-      </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>1.025</v>
-      </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6217142</v>
+        <v>6217141</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
+        <v>2.9</v>
+      </c>
+      <c r="M4">
+        <v>2.7</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>2.4</v>
-      </c>
-      <c r="N4">
-        <v>2.2</v>
-      </c>
-      <c r="O4">
-        <v>2.9</v>
-      </c>
       <c r="P4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA4">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1702,7 +1702,7 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6313978</v>
+        <v>6217150</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,76 +1791,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
+        <v>2.8</v>
+      </c>
+      <c r="M15">
         <v>3.2</v>
       </c>
-      <c r="M15">
-        <v>3.25</v>
-      </c>
       <c r="N15">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>2.025</v>
+      </c>
+      <c r="S15">
+        <v>1.775</v>
+      </c>
+      <c r="T15">
         <v>1.75</v>
       </c>
-      <c r="S15">
-        <v>2.05</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6217150</v>
+        <v>6313978</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,76 +1880,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6334661</v>
+        <v>6334662</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O23">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P23">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U23">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6334662</v>
+        <v>6334661</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L24">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O24">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P24">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X24">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6371489</v>
+        <v>6371492</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
+        <v>2.75</v>
+      </c>
+      <c r="M27">
+        <v>3.3</v>
+      </c>
+      <c r="N27">
+        <v>2.3</v>
+      </c>
+      <c r="O27">
+        <v>2.8</v>
+      </c>
+      <c r="P27">
         <v>3.2</v>
       </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="N27">
-        <v>1.571</v>
-      </c>
-      <c r="O27">
-        <v>3.2</v>
-      </c>
-      <c r="P27">
-        <v>6.5</v>
-      </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
         <v>1.8</v>
       </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
       <c r="T27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>-0.5</v>
+      </c>
+      <c r="AA27">
         <v>0.4</v>
       </c>
-      <c r="AA27">
-        <v>-0.5</v>
-      </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6371492</v>
+        <v>6371489</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O28">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>0.4</v>
+      </c>
+      <c r="AA28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.4</v>
-      </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3129,7 +3129,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3482,10 +3482,10 @@
         <v>45017.48958333334</v>
       </c>
       <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
         <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6411978</v>
+        <v>6411979</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,13 +3571,13 @@
         <v>45021.75</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3586,43 +3586,43 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N35">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="O35">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>0.5</v>
+        <v>0.181</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3631,16 +3631,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6411979</v>
+        <v>6411978</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,13 +3660,13 @@
         <v>45021.75</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3675,43 +3675,43 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L36">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N36">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="O36">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.181</v>
+        <v>0.5</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6496796</v>
+        <v>6496797</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45024.75</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>3.3</v>
+      </c>
+      <c r="M39">
+        <v>2.1</v>
+      </c>
+      <c r="N39">
         <v>1.727</v>
-      </c>
-      <c r="L39">
-        <v>3.25</v>
-      </c>
-      <c r="M39">
-        <v>4.5</v>
-      </c>
-      <c r="N39">
-        <v>1.909</v>
       </c>
       <c r="O39">
         <v>3.1</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S39">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T39">
         <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6496797</v>
+        <v>6496796</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45024.75</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O40">
         <v>3.1</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
         <v>1.75</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X40">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4194,7 +4194,7 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
         <v>42</v>
@@ -4553,7 +4553,7 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4642,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>45055.5</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6658488</v>
+        <v>6658489</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,40 +5262,40 @@
         <v>45063.5</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R54">
         <v>1.85</v>
@@ -5304,7 +5304,7 @@
         <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
         <v>1.85</v>
@@ -5313,19 +5313,19 @@
         <v>1.95</v>
       </c>
       <c r="W54">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
         <v>-1</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6658490</v>
+        <v>6658488</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,13 +5351,13 @@
         <v>45063.5</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5366,43 +5366,43 @@
         <v>47</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5411,16 +5411,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6658489</v>
+        <v>6658490</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45063.5</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N56">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Q56">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X56">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6629385</v>
+        <v>6629380</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,58 +5707,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
+        <v>1.615</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>6</v>
+      </c>
+      <c r="N59">
         <v>1.571</v>
-      </c>
-      <c r="L59">
-        <v>3.1</v>
-      </c>
-      <c r="M59">
-        <v>6.5</v>
-      </c>
-      <c r="N59">
-        <v>1.444</v>
       </c>
       <c r="O59">
         <v>3.2</v>
       </c>
       <c r="P59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q59">
         <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W59">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5767,13 +5767,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6629380</v>
+        <v>6629385</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5796,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N60">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="O60">
         <v>3.2</v>
       </c>
       <c r="P60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q60">
         <v>-1</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W60">
-        <v>0.571</v>
+        <v>0.444</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,13 +5856,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5885,7 +5885,7 @@
         <v>45067.5</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -5977,7 +5977,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6687386</v>
+        <v>6709150</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,40 +6063,40 @@
         <v>45077.5</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
+        <v>1.615</v>
+      </c>
+      <c r="N63">
+        <v>4.75</v>
+      </c>
+      <c r="O63">
         <v>3.4</v>
       </c>
-      <c r="N63">
-        <v>1.444</v>
-      </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
       <c r="P63">
-        <v>7.5</v>
+        <v>1.7</v>
       </c>
       <c r="Q63">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R63">
         <v>1.775</v>
@@ -6105,34 +6105,34 @@
         <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.925</v>
       </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6709150</v>
+        <v>6687386</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,40 +6152,40 @@
         <v>45077.5</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L64">
+        <v>2.875</v>
+      </c>
+      <c r="M64">
         <v>3.4</v>
       </c>
-      <c r="M64">
-        <v>1.615</v>
-      </c>
       <c r="N64">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R64">
         <v>1.775</v>
@@ -6194,34 +6194,34 @@
         <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
+        <v>1.925</v>
+      </c>
+      <c r="V64">
         <v>1.875</v>
       </c>
-      <c r="V64">
-        <v>1.925</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6687019</v>
+        <v>6687020</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>47</v>
+      </c>
+      <c r="K69">
+        <v>1.666</v>
+      </c>
+      <c r="L69">
         <v>3</v>
       </c>
-      <c r="J69" t="s">
-        <v>49</v>
-      </c>
-      <c r="K69">
-        <v>3.1</v>
-      </c>
-      <c r="L69">
-        <v>2.8</v>
-      </c>
       <c r="M69">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N69">
+        <v>1.666</v>
+      </c>
+      <c r="O69">
         <v>3</v>
       </c>
-      <c r="O69">
-        <v>2.9</v>
-      </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T69">
         <v>1.75</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6687020</v>
+        <v>6687390</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O70">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q70">
         <v>-0.5</v>
       </c>
       <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
         <v>1.8</v>
-      </c>
-      <c r="S70">
-        <v>2</v>
       </c>
       <c r="T70">
         <v>1.75</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
         <v>0.8</v>
       </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
       <c r="AB70">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6687389</v>
+        <v>6687019</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L71">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M71">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P71">
-        <v>7.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6687391</v>
+        <v>6687389</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,13 +6864,13 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6879,43 +6879,43 @@
         <v>47</v>
       </c>
       <c r="K72">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N72">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
+        <v>1.875</v>
+      </c>
+      <c r="S72">
+        <v>1.925</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>1.9</v>
-      </c>
-      <c r="V72">
-        <v>1.9</v>
-      </c>
       <c r="W72">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6924,16 +6924,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
+        <v>0.875</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>-1</v>
+      </c>
+      <c r="AC72">
         <v>0.8</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC72">
-        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6687390</v>
+        <v>6687391</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,73 +7045,73 @@
         <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L74">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X74">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7579,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -8024,7 +8024,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6743977</v>
+        <v>6743297</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,61 +8110,61 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N86">
-        <v>1.363</v>
+        <v>1.166</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="P86">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
@@ -8173,13 +8173,13 @@
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6858630</v>
+        <v>6743977</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,10 +8199,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8214,61 +8214,61 @@
         <v>48</v>
       </c>
       <c r="K87">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
+        <v>7</v>
+      </c>
+      <c r="N87">
+        <v>1.363</v>
+      </c>
+      <c r="O87">
+        <v>3.8</v>
+      </c>
+      <c r="P87">
+        <v>8</v>
+      </c>
+      <c r="Q87">
+        <v>-1.25</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>1.8</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>1.875</v>
+      </c>
+      <c r="V87">
+        <v>1.925</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
         <v>2.8</v>
       </c>
-      <c r="N87">
-        <v>2.45</v>
-      </c>
-      <c r="O87">
-        <v>2.8</v>
-      </c>
-      <c r="P87">
-        <v>3</v>
-      </c>
-      <c r="Q87">
-        <v>-0.25</v>
-      </c>
-      <c r="R87">
-        <v>2.075</v>
-      </c>
-      <c r="S87">
-        <v>1.725</v>
-      </c>
-      <c r="T87">
-        <v>1.75</v>
-      </c>
-      <c r="U87">
-        <v>1.775</v>
-      </c>
-      <c r="V87">
-        <v>2.025</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>1.8</v>
-      </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6744018</v>
+        <v>6743978</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,58 +8288,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
         <v>2.9</v>
       </c>
       <c r="P88">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
         <v>1.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6743297</v>
+        <v>6743989</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,58 +8377,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L89">
+        <v>3.5</v>
+      </c>
+      <c r="M89">
         <v>4.5</v>
       </c>
-      <c r="M89">
-        <v>9</v>
-      </c>
       <c r="N89">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O89">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q89">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
         <v>1.825</v>
       </c>
-      <c r="S89">
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
         <v>1.975</v>
       </c>
-      <c r="T89">
-        <v>2.5</v>
-      </c>
-      <c r="U89">
+      <c r="V89">
         <v>1.825</v>
       </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
       <c r="W89">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
+        <v>-0</v>
+      </c>
+      <c r="AB89">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
         <v>32</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6743989</v>
+        <v>6744018</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,13 +8555,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -8570,43 +8570,43 @@
         <v>47</v>
       </c>
       <c r="K91">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
+        <v>3.2</v>
+      </c>
+      <c r="N91">
+        <v>1.85</v>
+      </c>
+      <c r="O91">
+        <v>2.9</v>
+      </c>
+      <c r="P91">
         <v>4.5</v>
       </c>
-      <c r="N91">
-        <v>1.5</v>
-      </c>
-      <c r="O91">
-        <v>3.75</v>
-      </c>
-      <c r="P91">
-        <v>5.5</v>
-      </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
+        <v>1.9</v>
+      </c>
+      <c r="S91">
+        <v>1.9</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8615,13 +8615,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6743978</v>
+        <v>6858630</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N92">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O92">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T92">
         <v>1.75</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V92">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB92">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6872726</v>
+        <v>6872727</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K93">
+        <v>1.571</v>
+      </c>
+      <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.65</v>
+      </c>
+      <c r="O93">
+        <v>3.3</v>
+      </c>
+      <c r="P93">
+        <v>4.75</v>
+      </c>
+      <c r="Q93">
+        <v>-0.75</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
         <v>1.85</v>
       </c>
-      <c r="L93">
-        <v>3.1</v>
-      </c>
-      <c r="M93">
-        <v>4.2</v>
-      </c>
-      <c r="N93">
-        <v>2.2</v>
-      </c>
-      <c r="O93">
-        <v>2.9</v>
-      </c>
-      <c r="P93">
-        <v>3.3</v>
-      </c>
-      <c r="Q93">
-        <v>-0.25</v>
-      </c>
-      <c r="R93">
-        <v>1.925</v>
-      </c>
-      <c r="S93">
-        <v>1.875</v>
-      </c>
       <c r="T93">
         <v>2</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6872727</v>
+        <v>6872726</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K94">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M94">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N94">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O94">
+        <v>2.9</v>
+      </c>
+      <c r="P94">
         <v>3.3</v>
       </c>
-      <c r="P94">
-        <v>4.75</v>
-      </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T94">
         <v>2</v>
       </c>
       <c r="U94">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y94">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB94">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8914,7 +8914,7 @@
         <v>37</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9003,7 +9003,7 @@
         <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6888614</v>
+        <v>6888609</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>48</v>
+      </c>
+      <c r="K100">
+        <v>1.666</v>
+      </c>
+      <c r="L100">
         <v>3</v>
       </c>
-      <c r="J100" t="s">
-        <v>49</v>
-      </c>
-      <c r="K100">
-        <v>1.8</v>
-      </c>
-      <c r="L100">
-        <v>3.2</v>
-      </c>
       <c r="M100">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N100">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O100">
         <v>3</v>
       </c>
       <c r="P100">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>2.025</v>
+      </c>
+      <c r="S100">
+        <v>1.775</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>1.95</v>
+      </c>
+      <c r="V100">
         <v>1.85</v>
       </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>1.75</v>
-      </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y100">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB100">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6888615</v>
+        <v>6888612</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,13 +9445,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9460,61 +9460,61 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N101">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P101">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q101">
+        <v>-0.75</v>
+      </c>
+      <c r="R101">
+        <v>1.875</v>
+      </c>
+      <c r="S101">
+        <v>1.925</v>
+      </c>
+      <c r="T101">
+        <v>1.75</v>
+      </c>
+      <c r="U101">
+        <v>1.9</v>
+      </c>
+      <c r="V101">
+        <v>1.9</v>
+      </c>
+      <c r="W101">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
+        <v>-1</v>
+      </c>
+      <c r="Z101">
+        <v>0.4375</v>
+      </c>
+      <c r="AA101">
         <v>-0.5</v>
       </c>
-      <c r="R101">
-        <v>1.775</v>
-      </c>
-      <c r="S101">
-        <v>2.025</v>
-      </c>
-      <c r="T101">
-        <v>2</v>
-      </c>
-      <c r="U101">
-        <v>1.875</v>
-      </c>
-      <c r="V101">
-        <v>1.925</v>
-      </c>
-      <c r="W101">
-        <v>0.7</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
-      <c r="Z101">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA101">
-        <v>-1</v>
-      </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6888613</v>
+        <v>6888611</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,13 +9534,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9549,43 +9549,43 @@
         <v>47</v>
       </c>
       <c r="K102">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L102">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M102">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N102">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O102">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T102">
         <v>2.25</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W102">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,13 +9594,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6888612</v>
+        <v>6888615</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,13 +9623,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9638,43 +9638,43 @@
         <v>47</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N103">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
+        <v>1.775</v>
+      </c>
+      <c r="S103">
+        <v>2.025</v>
+      </c>
+      <c r="T103">
+        <v>2</v>
+      </c>
+      <c r="U103">
         <v>1.875</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.925</v>
       </c>
-      <c r="T103">
-        <v>1.75</v>
-      </c>
-      <c r="U103">
-        <v>1.9</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
       <c r="W103">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6888609</v>
+        <v>6888614</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,76 +9712,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K104">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O104">
         <v>3</v>
       </c>
       <c r="P104">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R104">
+        <v>1.85</v>
+      </c>
+      <c r="S104">
+        <v>1.95</v>
+      </c>
+      <c r="T104">
+        <v>1.75</v>
+      </c>
+      <c r="U104">
+        <v>1.775</v>
+      </c>
+      <c r="V104">
         <v>2.025</v>
       </c>
-      <c r="S104">
-        <v>1.775</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.95</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.95</v>
+      </c>
+      <c r="AB104">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AB104">
-        <v>0</v>
-      </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6888611</v>
+        <v>6888613</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,13 +9801,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -9816,43 +9816,43 @@
         <v>47</v>
       </c>
       <c r="K105">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L105">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O105">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P105">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
         <v>2.25</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V105">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W105">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9861,13 +9861,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6913587</v>
+        <v>6913588</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z107">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6913588</v>
+        <v>6913587</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q108">
+        <v>-0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
+        <v>1.875</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.9</v>
+      </c>
+      <c r="V108">
+        <v>1.9</v>
+      </c>
+      <c r="W108">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>0.4625</v>
+      </c>
+      <c r="AA108">
         <v>-0.5</v>
       </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>2</v>
-      </c>
-      <c r="V108">
-        <v>1.8</v>
-      </c>
-      <c r="W108">
-        <v>-1</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>2.6</v>
-      </c>
-      <c r="Z108">
-        <v>-1</v>
-      </c>
-      <c r="AA108">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7129059</v>
+        <v>7130198</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45184.5</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,43 +10172,43 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M109">
+        <v>5</v>
+      </c>
+      <c r="N109">
+        <v>1.6</v>
+      </c>
+      <c r="O109">
         <v>3.4</v>
       </c>
-      <c r="N109">
-        <v>2.2</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
       <c r="P109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
+        <v>1.825</v>
+      </c>
+      <c r="S109">
         <v>1.975</v>
       </c>
-      <c r="S109">
-        <v>1.825</v>
-      </c>
       <c r="T109">
         <v>2</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,16 +10217,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7130198</v>
+        <v>7129059</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45184.5</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,43 +10261,43 @@
         <v>47</v>
       </c>
       <c r="K110">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
         <v>1.825</v>
       </c>
-      <c r="S110">
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.975</v>
       </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,16 +10306,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10872,7 +10872,7 @@
         <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>45196.5</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7230948</v>
+        <v>7230934</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
         <v>3.2</v>
       </c>
       <c r="L123">
+        <v>2.8</v>
+      </c>
+      <c r="M123">
+        <v>2.25</v>
+      </c>
+      <c r="N123">
+        <v>1.95</v>
+      </c>
+      <c r="O123">
         <v>2.9</v>
       </c>
-      <c r="M123">
-        <v>2.2</v>
-      </c>
-      <c r="N123">
-        <v>2.05</v>
-      </c>
-      <c r="O123">
-        <v>3</v>
-      </c>
       <c r="P123">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q123">
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
         <v>1.75</v>
       </c>
       <c r="U123">
+        <v>1.8</v>
+      </c>
+      <c r="V123">
+        <v>2</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>1.9</v>
       </c>
-      <c r="V123">
-        <v>1.9</v>
-      </c>
-      <c r="W123">
-        <v>1.05</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7230934</v>
+        <v>7230948</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>3.2</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M125">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
         <v>1.75</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA125">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12296,7 +12296,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12741,7 +12741,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12827,7 +12827,7 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7427225</v>
+        <v>7427226</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N143">
-        <v>1.6</v>
+        <v>1.285</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P143">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
         <v>1.85</v>
       </c>
-      <c r="S143">
-        <v>1.95</v>
-      </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
         <v>1.8</v>
       </c>
-      <c r="V143">
-        <v>2</v>
-      </c>
       <c r="W143">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
         <v>0.8</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7427226</v>
+        <v>7427225</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N144">
-        <v>1.285</v>
+        <v>1.6</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
         <v>1.95</v>
       </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13898,7 +13898,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7480688</v>
+        <v>7480684</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
         <v>48</v>
       </c>
       <c r="K157">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L157">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="N157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O157">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P157">
         <v>3.8</v>
       </c>
       <c r="Q157">
+        <v>-0.25</v>
+      </c>
+      <c r="R157">
+        <v>1.75</v>
+      </c>
+      <c r="S157">
+        <v>2.05</v>
+      </c>
+      <c r="T157">
+        <v>1.75</v>
+      </c>
+      <c r="U157">
+        <v>1.75</v>
+      </c>
+      <c r="V157">
+        <v>2.05</v>
+      </c>
+      <c r="W157">
+        <v>-1</v>
+      </c>
+      <c r="X157">
+        <v>1.9</v>
+      </c>
+      <c r="Y157">
+        <v>-1</v>
+      </c>
+      <c r="Z157">
         <v>-0.5</v>
       </c>
-      <c r="R157">
-        <v>1.975</v>
-      </c>
-      <c r="S157">
-        <v>1.825</v>
-      </c>
-      <c r="T157">
-        <v>2</v>
-      </c>
-      <c r="U157">
-        <v>1.925</v>
-      </c>
-      <c r="V157">
-        <v>1.875</v>
-      </c>
-      <c r="W157">
-        <v>-1</v>
-      </c>
-      <c r="X157">
-        <v>2</v>
-      </c>
-      <c r="Y157">
-        <v>-1</v>
-      </c>
-      <c r="Z157">
-        <v>-1</v>
-      </c>
       <c r="AA157">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC157">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7480684</v>
+        <v>7480688</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
         <v>48</v>
       </c>
       <c r="K158">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L158">
+        <v>3.2</v>
+      </c>
+      <c r="M158">
+        <v>4.75</v>
+      </c>
+      <c r="N158">
+        <v>1.95</v>
+      </c>
+      <c r="O158">
         <v>3</v>
-      </c>
-      <c r="M158">
-        <v>4.25</v>
-      </c>
-      <c r="N158">
-        <v>2</v>
-      </c>
-      <c r="O158">
-        <v>2.9</v>
       </c>
       <c r="P158">
         <v>3.8</v>
       </c>
       <c r="Q158">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R158">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -14877,7 +14877,7 @@
         <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -15055,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7513409</v>
+        <v>7513410</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45262.53125</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N165">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7513410</v>
+        <v>7513409</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45262.53125</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L166">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N166">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X166">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15411,7 +15411,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>45268.46875</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
         <v>41</v>
@@ -16212,7 +16212,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16479,7 +16479,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7624517</v>
+        <v>7624516</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16746,73 +16746,73 @@
         <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L183">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M183">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N183">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O183">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P183">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
+        <v>1.85</v>
+      </c>
+      <c r="S183">
+        <v>1.95</v>
+      </c>
+      <c r="T183">
+        <v>2</v>
+      </c>
+      <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183">
         <v>1.8</v>
       </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
-      <c r="T183">
-        <v>1.75</v>
-      </c>
-      <c r="U183">
-        <v>1.825</v>
-      </c>
-      <c r="V183">
-        <v>1.975</v>
-      </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X183">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624516</v>
+        <v>7624465</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,49 +16832,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L184">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="M184">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N184">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O184">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
         <v>4.75</v>
       </c>
       <c r="Q184">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S184">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T184">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
         <v>2</v>
@@ -16883,7 +16883,7 @@
         <v>1.8</v>
       </c>
       <c r="W184">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624465</v>
+        <v>7624517</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K185">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L185">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="M185">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N185">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P185">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
+        <v>1.975</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
         <v>1.8</v>
       </c>
-      <c r="W185">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7656900</v>
+        <v>7624664</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45296.46875</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N189">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O189">
+        <v>2.7</v>
+      </c>
+      <c r="P189">
         <v>3</v>
       </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7624664</v>
+        <v>7624657</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,73 +17366,73 @@
         <v>45296.46875</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L190">
         <v>2.8</v>
       </c>
       <c r="M190">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="O190">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W190">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB190">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7624657</v>
+        <v>7656900</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,55 +17455,55 @@
         <v>45296.46875</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>4</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L191">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O191">
         <v>3</v>
       </c>
       <c r="P191">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17512,19 +17512,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.8500000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB191">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -18167,7 +18167,7 @@
         <v>45303.46875</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
         <v>37</v>
@@ -18256,7 +18256,7 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
         <v>46</v>
@@ -18790,7 +18790,7 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18971,7 +18971,7 @@
         <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H208">
         <v>1</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19517,31 +19517,31 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M214">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N214">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2</v>
@@ -19556,16 +19556,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19606,31 +19606,31 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L215">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N215">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O215">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2</v>
@@ -19645,16 +19645,16 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
         <v>-1</v>
@@ -19680,10 +19680,10 @@
         <v>45317.47916666666</v>
       </c>
       <c r="F216" t="s">
+        <v>30</v>
+      </c>
+      <c r="G216" t="s">
         <v>31</v>
-      </c>
-      <c r="G216" t="s">
-        <v>30</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -20751,7 +20751,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -21196,7 +21196,7 @@
         <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7768219</v>
+        <v>7768182</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21374,73 +21374,73 @@
         <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L235">
+        <v>2.9</v>
+      </c>
+      <c r="M235">
+        <v>3.75</v>
+      </c>
+      <c r="N235">
+        <v>2.375</v>
+      </c>
+      <c r="O235">
+        <v>2.9</v>
+      </c>
+      <c r="P235">
         <v>3</v>
       </c>
-      <c r="M235">
-        <v>4.2</v>
-      </c>
-      <c r="N235">
-        <v>1.833</v>
-      </c>
-      <c r="O235">
-        <v>2.8</v>
-      </c>
-      <c r="P235">
-        <v>4.5</v>
-      </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T235">
         <v>1.75</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X235">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7768182</v>
+        <v>7768219</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,73 +21463,73 @@
         <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K236">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L236">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N236">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S236">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T236">
         <v>1.75</v>
       </c>
       <c r="U236">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21653,31 +21653,31 @@
         <v>1.666</v>
       </c>
       <c r="N238">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="O238">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T238">
         <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
         <v>0</v>
@@ -21727,31 +21727,31 @@
         <v>5.25</v>
       </c>
       <c r="N239">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="O239">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q239">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R239">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S239">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T239">
         <v>2</v>
       </c>
       <c r="U239">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="V239">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W239">
         <v>0</v>
@@ -21801,31 +21801,31 @@
         <v>5.25</v>
       </c>
       <c r="N240">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O240">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P240">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q240">
         <v>-0.75</v>
       </c>
       <c r="R240">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T240">
         <v>2</v>
       </c>
       <c r="U240">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V240">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W240">
         <v>0</v>

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>USM Alger</t>
   </si>
   <si>
-    <t>USM Khenchela</t>
+    <t>Paradou AC</t>
   </si>
   <si>
-    <t>Paradou AC</t>
+    <t>USM Khenchela</t>
   </si>
   <si>
     <t>MC Alger</t>
@@ -124,10 +124,10 @@
     <t>ASO Chlef</t>
   </si>
   <si>
-    <t>RC Arba</t>
+    <t>NC Magra</t>
   </si>
   <si>
-    <t>NC Magra</t>
+    <t>RC Arba</t>
   </si>
   <si>
     <t>JS Saoura</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6217142</v>
+        <v>6217141</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
+        <v>2.9</v>
+      </c>
+      <c r="M3">
+        <v>2.7</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>2.4</v>
-      </c>
-      <c r="N3">
-        <v>2.2</v>
-      </c>
-      <c r="O3">
-        <v>2.9</v>
-      </c>
       <c r="P3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA3">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6217141</v>
+        <v>6217142</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2.4</v>
+      </c>
+      <c r="N4">
+        <v>2.2</v>
+      </c>
+      <c r="O4">
         <v>2.9</v>
       </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1.975</v>
+      </c>
+      <c r="V4">
+        <v>1.825</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>1.9</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>-0.5</v>
       </c>
-      <c r="R4">
-        <v>2.025</v>
-      </c>
-      <c r="S4">
-        <v>1.775</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>1.875</v>
-      </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>1.025</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6217137</v>
+        <v>6217145</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,55 +1260,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N9">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>1.9</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6217145</v>
+        <v>6217137</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,55 +1349,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L10">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W10">
-        <v>0.7270000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1702,7 +1702,7 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
@@ -1791,7 +1791,7 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -1883,7 +1883,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6371492</v>
+        <v>6371489</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O27">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X27">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.4</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.4</v>
-      </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6371489</v>
+        <v>6371492</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
+        <v>2.75</v>
+      </c>
+      <c r="M28">
+        <v>3.3</v>
+      </c>
+      <c r="N28">
+        <v>2.3</v>
+      </c>
+      <c r="O28">
+        <v>2.8</v>
+      </c>
+      <c r="P28">
         <v>3.2</v>
       </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="N28">
-        <v>1.571</v>
-      </c>
-      <c r="O28">
-        <v>3.2</v>
-      </c>
-      <c r="P28">
-        <v>6.5</v>
-      </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
         <v>1.8</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
       <c r="T28">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>-0.5</v>
+      </c>
+      <c r="AA28">
         <v>0.4</v>
       </c>
-      <c r="AA28">
-        <v>-0.5</v>
-      </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3129,7 +3129,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>39</v>
@@ -3482,10 +3482,10 @@
         <v>45017.48958333334</v>
       </c>
       <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6411979</v>
+        <v>6411978</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,13 +3571,13 @@
         <v>45021.75</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3586,43 +3586,43 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N35">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="O35">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q35">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>0.181</v>
+        <v>0.5</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3631,16 +3631,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6411978</v>
+        <v>6411979</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,13 +3660,13 @@
         <v>45021.75</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3675,43 +3675,43 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M36">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N36">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>0.5</v>
+        <v>0.181</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3749,10 +3749,10 @@
         <v>45023.48958333334</v>
       </c>
       <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
         <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3930,7 +3930,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4194,7 +4194,7 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
         <v>42</v>
@@ -4461,7 +4461,7 @@
         <v>45027.48958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4553,7 +4553,7 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4642,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>45055.5</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5265,7 +5265,7 @@
         <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5351,7 +5351,7 @@
         <v>45063.5</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6658490</v>
+        <v>6658491</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,40 +5440,40 @@
         <v>45063.5</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>1.8</v>
+        <v>9</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M56">
-        <v>4</v>
+        <v>1.285</v>
       </c>
       <c r="N56">
-        <v>1.533</v>
+        <v>21</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P56">
-        <v>6.5</v>
+        <v>1.125</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R56">
         <v>2</v>
@@ -5482,19 +5482,19 @@
         <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5506,10 +5506,10 @@
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6658491</v>
+        <v>6658490</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,40 +5529,40 @@
         <v>45063.5</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M57">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="N57">
-        <v>21</v>
+        <v>1.533</v>
       </c>
       <c r="O57">
+        <v>3.4</v>
+      </c>
+      <c r="P57">
         <v>6.5</v>
       </c>
-      <c r="P57">
-        <v>1.125</v>
-      </c>
       <c r="Q57">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R57">
         <v>2</v>
@@ -5571,19 +5571,19 @@
         <v>1.8</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X57">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5595,10 +5595,10 @@
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6629380</v>
+        <v>6629385</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,58 +5707,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N59">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="O59">
         <v>3.2</v>
       </c>
       <c r="P59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q59">
         <v>-1</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W59">
-        <v>0.571</v>
+        <v>0.444</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5767,13 +5767,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6629385</v>
+        <v>6629380</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5796,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
+        <v>1.615</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>6</v>
+      </c>
+      <c r="N60">
         <v>1.571</v>
-      </c>
-      <c r="L60">
-        <v>3.1</v>
-      </c>
-      <c r="M60">
-        <v>6.5</v>
-      </c>
-      <c r="N60">
-        <v>1.444</v>
       </c>
       <c r="O60">
         <v>3.2</v>
       </c>
       <c r="P60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q60">
         <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,13 +5856,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5885,7 +5885,7 @@
         <v>45067.5</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -5977,7 +5977,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>45077.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>44</v>
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6687386</v>
+        <v>6687382</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,49 +6152,49 @@
         <v>45077.5</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>49</v>
       </c>
       <c r="K64">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L64">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M64">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N64">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
+        <v>2.8</v>
+      </c>
+      <c r="P64">
         <v>3.6</v>
       </c>
-      <c r="P64">
-        <v>7.5</v>
-      </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U64">
         <v>1.925</v>
@@ -6209,19 +6209,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6687382</v>
+        <v>6687386</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,49 +6241,49 @@
         <v>45077.5</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
         <v>49</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="O65">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
         <v>1.925</v>
@@ -6298,19 +6298,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>2.6</v>
+        <v>6.5</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AB65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6687020</v>
+        <v>6687019</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
+        <v>2.8</v>
+      </c>
+      <c r="M69">
+        <v>2.4</v>
+      </c>
+      <c r="N69">
         <v>3</v>
       </c>
-      <c r="M69">
-        <v>6</v>
-      </c>
-      <c r="N69">
-        <v>1.666</v>
-      </c>
       <c r="O69">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S69">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T69">
         <v>1.75</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>0.75</v>
+      </c>
+      <c r="AB69">
         <v>0.8</v>
       </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.475</v>
-      </c>
       <c r="AC69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6687390</v>
+        <v>6687020</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N70">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q70">
         <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T70">
         <v>1.75</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X70">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6687019</v>
+        <v>6687391</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,73 +6775,73 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L71">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O71">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA71">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6867,7 +6867,7 @@
         <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6956,7 +6956,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6687391</v>
+        <v>6687390</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,73 +7045,73 @@
         <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>48</v>
+      </c>
+      <c r="K74">
+        <v>1.95</v>
+      </c>
+      <c r="L74">
+        <v>2.875</v>
+      </c>
+      <c r="M74">
         <v>4</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>47</v>
-      </c>
-      <c r="K74">
-        <v>1.444</v>
-      </c>
-      <c r="L74">
-        <v>3.6</v>
-      </c>
-      <c r="M74">
-        <v>7</v>
-      </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
         <v>1.8</v>
       </c>
-      <c r="S74">
-        <v>2</v>
-      </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U74">
+        <v>1.8</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
         <v>1.9</v>
       </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
-      <c r="W74">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
         <v>0.8</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7579,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -7754,7 +7754,7 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>43</v>
@@ -8024,7 +8024,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6743297</v>
+        <v>6743977</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,61 +8110,61 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L86">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N86">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O86">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q86">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
         <v>-1</v>
@@ -8173,13 +8173,13 @@
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6743977</v>
+        <v>6858630</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,10 +8199,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8214,61 +8214,61 @@
         <v>48</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M87">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N87">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P87">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S87">
+        <v>1.725</v>
+      </c>
+      <c r="T87">
+        <v>1.75</v>
+      </c>
+      <c r="U87">
+        <v>1.775</v>
+      </c>
+      <c r="V87">
+        <v>2.025</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
         <v>1.8</v>
       </c>
-      <c r="T87">
-        <v>2.25</v>
-      </c>
-      <c r="U87">
-        <v>1.875</v>
-      </c>
-      <c r="V87">
-        <v>1.925</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>2.8</v>
-      </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6743978</v>
+        <v>6744018</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,58 +8288,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M88">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>2.9</v>
       </c>
       <c r="P88">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
         <v>1.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.825</v>
       </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.375</v>
-      </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6743989</v>
+        <v>6743297</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,58 +8377,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P89">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R89">
+        <v>1.825</v>
+      </c>
+      <c r="S89">
         <v>1.975</v>
       </c>
-      <c r="S89">
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
         <v>1.825</v>
       </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
+      <c r="V89">
         <v>1.975</v>
       </c>
-      <c r="V89">
-        <v>1.825</v>
-      </c>
       <c r="W89">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8466,7 +8466,7 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
         <v>32</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6744018</v>
+        <v>6743989</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,13 +8555,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -8570,43 +8570,43 @@
         <v>47</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N91">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O91">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8615,13 +8615,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB91">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6858630</v>
+        <v>6743978</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N92">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
         <v>1.75</v>
       </c>
       <c r="U92">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
+        <v>0.825</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>0.375</v>
+      </c>
+      <c r="AC92">
         <v>-0.5</v>
-      </c>
-      <c r="AA92">
-        <v>0.3625</v>
-      </c>
-      <c r="AB92">
-        <v>-1</v>
-      </c>
-      <c r="AC92">
-        <v>1.025</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6872727</v>
+        <v>6872726</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,76 +8733,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N93">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O93">
+        <v>2.9</v>
+      </c>
+      <c r="P93">
         <v>3.3</v>
       </c>
-      <c r="P93">
-        <v>4.75</v>
-      </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T93">
         <v>2</v>
       </c>
       <c r="U93">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
         <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y93">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB93">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6872726</v>
+        <v>6872727</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,76 +8822,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K94">
+        <v>1.571</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>6</v>
+      </c>
+      <c r="N94">
+        <v>1.65</v>
+      </c>
+      <c r="O94">
+        <v>3.3</v>
+      </c>
+      <c r="P94">
+        <v>4.75</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
         <v>1.85</v>
       </c>
-      <c r="L94">
-        <v>3.1</v>
-      </c>
-      <c r="M94">
-        <v>4.2</v>
-      </c>
-      <c r="N94">
-        <v>2.2</v>
-      </c>
-      <c r="O94">
-        <v>2.9</v>
-      </c>
-      <c r="P94">
-        <v>3.3</v>
-      </c>
-      <c r="Q94">
-        <v>-0.25</v>
-      </c>
-      <c r="R94">
-        <v>1.925</v>
-      </c>
-      <c r="S94">
-        <v>1.875</v>
-      </c>
       <c r="T94">
         <v>2</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W94">
         <v>-1</v>
       </c>
       <c r="X94">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC94">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8911,10 +8911,10 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9003,7 +9003,7 @@
         <v>38</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6888609</v>
+        <v>6888610</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,70 +9356,70 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K100">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L100">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M100">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="N100">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P100">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q100">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
         <v>2.025</v>
       </c>
-      <c r="S100">
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
         <v>1.775</v>
       </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.95</v>
-      </c>
       <c r="V100">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X100">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA100">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6888612</v>
+        <v>6888611</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,55 +9445,55 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
         <v>1</v>
-      </c>
-      <c r="I101">
-        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>47</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M101">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
         <v>1.65</v>
       </c>
       <c r="O101">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q101">
         <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V101">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W101">
         <v>0.6499999999999999</v>
@@ -9505,16 +9505,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6888611</v>
+        <v>6888609</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K102">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L102">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N102">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB102">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6888615</v>
+        <v>6888612</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,13 +9623,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9638,61 +9638,61 @@
         <v>47</v>
       </c>
       <c r="K103">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N103">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O103">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
+        <v>-0.75</v>
+      </c>
+      <c r="R103">
+        <v>1.875</v>
+      </c>
+      <c r="S103">
+        <v>1.925</v>
+      </c>
+      <c r="T103">
+        <v>1.75</v>
+      </c>
+      <c r="U103">
+        <v>1.9</v>
+      </c>
+      <c r="V103">
+        <v>1.9</v>
+      </c>
+      <c r="W103">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
+        <v>0.4375</v>
+      </c>
+      <c r="AA103">
         <v>-0.5</v>
       </c>
-      <c r="R103">
-        <v>1.775</v>
-      </c>
-      <c r="S103">
-        <v>2.025</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.875</v>
-      </c>
-      <c r="V103">
-        <v>1.925</v>
-      </c>
-      <c r="W103">
-        <v>0.7</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
-      <c r="Z103">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
-      </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6888614</v>
+        <v>6888613</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,73 +9712,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
       </c>
-      <c r="I104">
-        <v>3</v>
-      </c>
       <c r="J104" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P104">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB104">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6888613</v>
+        <v>6888615</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9804,55 +9804,55 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>47</v>
       </c>
       <c r="K105">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="L105">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M105">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N105">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O105">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>2.025</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>1.875</v>
+      </c>
+      <c r="V105">
         <v>1.925</v>
       </c>
-      <c r="S105">
-        <v>1.875</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.975</v>
-      </c>
-      <c r="V105">
-        <v>1.825</v>
-      </c>
       <c r="W105">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9861,13 +9861,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA105">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6888610</v>
+        <v>6888614</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,49 +9890,49 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N106">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O106">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>12</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
         <v>1.775</v>
@@ -9941,25 +9941,25 @@
         <v>2.025</v>
       </c>
       <c r="W106">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>0.95</v>
+      </c>
+      <c r="AB106">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>0</v>
-      </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9979,10 +9979,10 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7130198</v>
+        <v>7129059</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45184.5</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,43 +10172,43 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N109">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
         <v>1.825</v>
       </c>
-      <c r="S109">
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
         <v>1.975</v>
       </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,16 +10217,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7129059</v>
+        <v>7130198</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45184.5</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,43 +10261,43 @@
         <v>47</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>1.6</v>
+      </c>
+      <c r="O110">
         <v>3.4</v>
       </c>
-      <c r="N110">
-        <v>2.2</v>
-      </c>
-      <c r="O110">
-        <v>3.2</v>
-      </c>
       <c r="P110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
+        <v>1.825</v>
+      </c>
+      <c r="S110">
         <v>1.975</v>
       </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,16 +10306,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>45185.5</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10872,7 +10872,7 @@
         <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11314,7 +11314,7 @@
         <v>45196.5</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11492,7 +11492,7 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
         <v>39</v>
@@ -11581,7 +11581,7 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
         <v>42</v>
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,10 +11759,10 @@
         <v>45199.625</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11774,25 +11774,25 @@
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L127">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O127">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
         <v>1.95</v>
@@ -11801,16 +11801,16 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,16 +11819,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,10 +11848,10 @@
         <v>45199.625</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11863,25 +11863,25 @@
         <v>47</v>
       </c>
       <c r="K128">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N128">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
         <v>1.95</v>
@@ -11890,16 +11890,16 @@
         <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11908,16 +11908,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12118,7 +12118,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12207,7 +12207,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12296,7 +12296,7 @@
         <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12741,7 +12741,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12827,7 +12827,7 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -13183,7 +13183,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
         <v>39</v>
@@ -13272,7 +13272,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
         <v>45</v>
@@ -13539,7 +13539,7 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13720,7 +13720,7 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13898,7 +13898,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14429,7 +14429,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G157" t="s">
         <v>41</v>
@@ -14518,7 +14518,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>43</v>
@@ -14607,7 +14607,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -14877,7 +14877,7 @@
         <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14966,7 +14966,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15055,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7513410</v>
+        <v>7513409</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45262.53125</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L165">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M165">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N165">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="O165">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X165">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7513409</v>
+        <v>7513410</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45262.53125</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N166">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15411,7 +15411,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>45268.46875</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>41</v>
@@ -15675,7 +15675,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -16212,7 +16212,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16390,7 +16390,7 @@
         <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16479,7 +16479,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7624516</v>
+        <v>7624465</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,49 +16743,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>47</v>
       </c>
       <c r="K183">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L183">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="M183">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N183">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O183">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P183">
         <v>4.75</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
         <v>2</v>
@@ -16794,7 +16794,7 @@
         <v>1.8</v>
       </c>
       <c r="W183">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16803,16 +16803,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624465</v>
+        <v>7624516</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,49 +16832,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F184" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
         <v>1</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P184">
         <v>4.75</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U184">
         <v>2</v>
@@ -16883,7 +16883,7 @@
         <v>1.8</v>
       </c>
       <c r="W184">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>45289.46875</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7624664</v>
+        <v>7656900</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45296.46875</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189">
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L189">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O189">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7624657</v>
+        <v>7624664</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,73 +17366,73 @@
         <v>45296.46875</v>
       </c>
       <c r="F190" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H190">
+        <v>2</v>
+      </c>
+      <c r="I190">
         <v>1</v>
       </c>
-      <c r="I190">
-        <v>4</v>
-      </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L190">
         <v>2.8</v>
       </c>
       <c r="M190">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N190">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="O190">
+        <v>2.7</v>
+      </c>
+      <c r="P190">
         <v>3</v>
       </c>
-      <c r="P190">
-        <v>1.85</v>
-      </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S190">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA190">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7656900</v>
+        <v>7624657</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,55 +17455,55 @@
         <v>45296.46875</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M191">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N191">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O191">
         <v>3</v>
       </c>
       <c r="P191">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17512,19 +17512,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -18167,10 +18167,10 @@
         <v>45303.46875</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18256,7 +18256,7 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
         <v>46</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7567343</v>
+        <v>7567342</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F206" t="s">
+        <v>36</v>
+      </c>
+      <c r="G206" t="s">
         <v>31</v>
-      </c>
-      <c r="G206" t="s">
-        <v>33</v>
       </c>
       <c r="H206">
         <v>1</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K206">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M206">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N206">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O206">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P206">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T206">
         <v>1.75</v>
       </c>
       <c r="U206">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V206">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W206">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA206">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC206">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7567341</v>
+        <v>7567343</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K207">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L207">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N207">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O207">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P207">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q207">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
+        <v>1.95</v>
+      </c>
+      <c r="S207">
         <v>1.85</v>
       </c>
-      <c r="S207">
-        <v>1.95</v>
-      </c>
       <c r="T207">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X207">
         <v>-1</v>
       </c>
       <c r="Y207">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA207">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7567342</v>
+        <v>7567341</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
         <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K208">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L208">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N208">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O208">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="P208">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V208">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB208">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19517,31 +19517,31 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L214">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N214">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O214">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2</v>
@@ -19556,16 +19556,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19606,31 +19606,31 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N215">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2</v>
@@ -19645,16 +19645,16 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
         <v>-1</v>
@@ -19680,10 +19680,10 @@
         <v>45317.47916666666</v>
       </c>
       <c r="F216" t="s">
+        <v>31</v>
+      </c>
+      <c r="G216" t="s">
         <v>30</v>
-      </c>
-      <c r="G216" t="s">
-        <v>31</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7680043</v>
+        <v>7680045</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,58 +20036,58 @@
         <v>45318.5</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
       </c>
       <c r="K220">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L220">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M220">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="N220">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O220">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P220">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
+        <v>1.775</v>
+      </c>
+      <c r="S220">
+        <v>2.025</v>
+      </c>
+      <c r="T220">
+        <v>2</v>
+      </c>
+      <c r="U220">
         <v>1.95</v>
       </c>
-      <c r="S220">
+      <c r="V220">
         <v>1.85</v>
       </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>1.925</v>
-      </c>
-      <c r="V220">
-        <v>1.875</v>
-      </c>
       <c r="W220">
-        <v>0.222</v>
+        <v>1.05</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20096,16 +20096,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7680045</v>
+        <v>7680043</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,58 +20125,58 @@
         <v>45318.5</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>47</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L221">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M221">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O221">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>0.222</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20185,16 +20185,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H223">
         <v>3</v>
@@ -20751,7 +20751,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20840,7 +20840,7 @@
         <v>42</v>
       </c>
       <c r="G229" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -21196,7 +21196,7 @@
         <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21371,7 +21371,7 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G235" t="s">
         <v>29</v>
@@ -21460,7 +21460,7 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
         <v>42</v>
@@ -21619,228 +21619,6 @@
       </c>
       <c r="AC237">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>7768222</v>
-      </c>
-      <c r="C238" t="s">
-        <v>28</v>
-      </c>
-      <c r="D238" t="s">
-        <v>28</v>
-      </c>
-      <c r="E238" s="2">
-        <v>45339.47916666666</v>
-      </c>
-      <c r="F238" t="s">
-        <v>46</v>
-      </c>
-      <c r="G238" t="s">
-        <v>39</v>
-      </c>
-      <c r="K238">
-        <v>4.5</v>
-      </c>
-      <c r="L238">
-        <v>3.4</v>
-      </c>
-      <c r="M238">
-        <v>1.666</v>
-      </c>
-      <c r="N238">
-        <v>3.75</v>
-      </c>
-      <c r="O238">
-        <v>3.2</v>
-      </c>
-      <c r="P238">
-        <v>1.909</v>
-      </c>
-      <c r="Q238">
-        <v>0.5</v>
-      </c>
-      <c r="R238">
-        <v>1.85</v>
-      </c>
-      <c r="S238">
-        <v>1.95</v>
-      </c>
-      <c r="T238">
-        <v>2.25</v>
-      </c>
-      <c r="U238">
-        <v>2</v>
-      </c>
-      <c r="V238">
-        <v>1.8</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Y238">
-        <v>0</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-      <c r="AA238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>7768224</v>
-      </c>
-      <c r="C239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45339.53125</v>
-      </c>
-      <c r="F239" t="s">
-        <v>38</v>
-      </c>
-      <c r="G239" t="s">
-        <v>34</v>
-      </c>
-      <c r="K239">
-        <v>1.615</v>
-      </c>
-      <c r="L239">
-        <v>3.25</v>
-      </c>
-      <c r="M239">
-        <v>5.25</v>
-      </c>
-      <c r="N239">
-        <v>1.45</v>
-      </c>
-      <c r="O239">
-        <v>3.5</v>
-      </c>
-      <c r="P239">
-        <v>6.5</v>
-      </c>
-      <c r="Q239">
-        <v>-1</v>
-      </c>
-      <c r="R239">
-        <v>1.9</v>
-      </c>
-      <c r="S239">
-        <v>1.9</v>
-      </c>
-      <c r="T239">
-        <v>2</v>
-      </c>
-      <c r="U239">
-        <v>1.875</v>
-      </c>
-      <c r="V239">
-        <v>1.925</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-      <c r="Y239">
-        <v>0</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-      <c r="AA239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>7768221</v>
-      </c>
-      <c r="C240" t="s">
-        <v>28</v>
-      </c>
-      <c r="D240" t="s">
-        <v>28</v>
-      </c>
-      <c r="E240" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F240" t="s">
-        <v>32</v>
-      </c>
-      <c r="G240" t="s">
-        <v>43</v>
-      </c>
-      <c r="K240">
-        <v>1.571</v>
-      </c>
-      <c r="L240">
-        <v>3.5</v>
-      </c>
-      <c r="M240">
-        <v>5.25</v>
-      </c>
-      <c r="N240">
-        <v>1.65</v>
-      </c>
-      <c r="O240">
-        <v>3.4</v>
-      </c>
-      <c r="P240">
-        <v>4.75</v>
-      </c>
-      <c r="Q240">
-        <v>-0.75</v>
-      </c>
-      <c r="R240">
-        <v>1.9</v>
-      </c>
-      <c r="S240">
-        <v>1.9</v>
-      </c>
-      <c r="T240">
-        <v>2</v>
-      </c>
-      <c r="U240">
-        <v>1.875</v>
-      </c>
-      <c r="V240">
-        <v>1.925</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
-      </c>
-      <c r="Z240">
-        <v>0</v>
-      </c>
-      <c r="AA240">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>USM Alger</t>
   </si>
   <si>
-    <t>Paradou AC</t>
+    <t>USM Khenchela</t>
   </si>
   <si>
-    <t>USM Khenchela</t>
+    <t>Paradou AC</t>
   </si>
   <si>
     <t>MC Alger</t>
@@ -124,10 +124,10 @@
     <t>ASO Chlef</t>
   </si>
   <si>
-    <t>NC Magra</t>
+    <t>RC Arba</t>
   </si>
   <si>
-    <t>RC Arba</t>
+    <t>NC Magra</t>
   </si>
   <si>
     <t>JS Saoura</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC237"/>
+  <dimension ref="A1:AC240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6217141</v>
+        <v>6217142</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2.4</v>
+      </c>
+      <c r="N3">
+        <v>2.2</v>
+      </c>
+      <c r="O3">
         <v>2.9</v>
       </c>
-      <c r="M3">
-        <v>2.7</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
+        <v>1.825</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>1.9</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>2.025</v>
-      </c>
-      <c r="S3">
-        <v>1.775</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1.875</v>
-      </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>1.025</v>
-      </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6217142</v>
+        <v>6217141</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
+        <v>2.9</v>
+      </c>
+      <c r="M4">
+        <v>2.7</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>2.4</v>
-      </c>
-      <c r="N4">
-        <v>2.2</v>
-      </c>
-      <c r="O4">
-        <v>2.9</v>
-      </c>
       <c r="P4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA4">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6217145</v>
+        <v>6217137</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,55 +1260,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L9">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M9">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
-        <v>0.7270000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6217137</v>
+        <v>6217145</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,55 +1349,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L10">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M10">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O10">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>1.9</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6217149</v>
+        <v>6217148</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,76 +1613,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="Q13">
-        <v>3.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6217148</v>
+        <v>6217149</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,76 +1702,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P14">
+        <v>1.03</v>
+      </c>
+      <c r="Q14">
         <v>3.5</v>
       </c>
-      <c r="Q14">
-        <v>-0.25</v>
-      </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6217150</v>
+        <v>6313978</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,76 +1791,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P15">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R15">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA15">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6313978</v>
+        <v>6217150</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,76 +1880,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L16">
+        <v>2.8</v>
+      </c>
+      <c r="M16">
         <v>3.2</v>
       </c>
-      <c r="M16">
-        <v>3.25</v>
-      </c>
       <c r="N16">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O16">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R16">
+        <v>2.025</v>
+      </c>
+      <c r="S16">
+        <v>1.775</v>
+      </c>
+      <c r="T16">
         <v>1.75</v>
       </c>
-      <c r="S16">
-        <v>2.05</v>
-      </c>
-      <c r="T16">
-        <v>2</v>
-      </c>
       <c r="U16">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W16">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z16">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6334662</v>
+        <v>6334661</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L23">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O23">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X23">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6334661</v>
+        <v>6334662</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M24">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P24">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2862,7 +2862,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6411973</v>
+        <v>6411974</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N31">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.925</v>
+      </c>
+      <c r="S31">
         <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.925</v>
       </c>
       <c r="T31">
         <v>1.75</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
+        <v>-0.5</v>
+      </c>
+      <c r="AA31">
+        <v>0.4375</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.875</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>0.375</v>
-      </c>
-      <c r="AC31">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6411974</v>
+        <v>6411975</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O32">
         <v>2.9</v>
       </c>
       <c r="P32">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X32">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6411975</v>
+        <v>6411973</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,16 +3393,16 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>47</v>
@@ -3411,40 +3411,40 @@
         <v>1.909</v>
       </c>
       <c r="L33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M33">
         <v>4</v>
       </c>
       <c r="N33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W33">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3453,16 +3453,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3482,10 +3482,10 @@
         <v>45017.48958333334</v>
       </c>
       <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
         <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6411978</v>
+        <v>6411979</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,13 +3571,13 @@
         <v>45021.75</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3586,43 +3586,43 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N35">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="O35">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>0.5</v>
+        <v>0.181</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3631,16 +3631,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6411979</v>
+        <v>6411978</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,13 +3660,13 @@
         <v>45021.75</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3675,43 +3675,43 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L36">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N36">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="O36">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.181</v>
+        <v>0.5</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3749,10 +3749,10 @@
         <v>45023.48958333334</v>
       </c>
       <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3930,7 +3930,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6411986</v>
+        <v>6411985</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="N41">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="O41">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P41">
+        <v>3.4</v>
+      </c>
+      <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.95</v>
+      </c>
+      <c r="S41">
+        <v>1.85</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>1.95</v>
+      </c>
+      <c r="V41">
+        <v>1.85</v>
+      </c>
+      <c r="W41">
         <v>1.2</v>
       </c>
-      <c r="Q41">
-        <v>1.75</v>
-      </c>
-      <c r="R41">
-        <v>1.825</v>
-      </c>
-      <c r="S41">
-        <v>1.975</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6411985</v>
+        <v>6411986</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="O42">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P42">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>45027.48958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4553,7 +4553,7 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4642,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>45055.5</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6658489</v>
+        <v>6658491</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45063.5</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>48</v>
       </c>
       <c r="K54">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M54">
-        <v>7.5</v>
+        <v>1.285</v>
       </c>
       <c r="N54">
-        <v>1.25</v>
+        <v>21</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P54">
-        <v>11</v>
+        <v>1.125</v>
       </c>
       <c r="Q54">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5351,7 +5351,7 @@
         <v>45063.5</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6658491</v>
+        <v>6658490</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,40 +5440,40 @@
         <v>45063.5</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>9</v>
+        <v>1.8</v>
       </c>
       <c r="L56">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>1.285</v>
+        <v>4</v>
       </c>
       <c r="N56">
-        <v>21</v>
+        <v>1.533</v>
       </c>
       <c r="O56">
+        <v>3.4</v>
+      </c>
+      <c r="P56">
         <v>6.5</v>
       </c>
-      <c r="P56">
-        <v>1.125</v>
-      </c>
       <c r="Q56">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R56">
         <v>2</v>
@@ -5482,19 +5482,19 @@
         <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X56">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5506,10 +5506,10 @@
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6658490</v>
+        <v>6658489</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45063.5</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L57">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
+        <v>7.5</v>
+      </c>
+      <c r="N57">
+        <v>1.25</v>
+      </c>
+      <c r="O57">
+        <v>5</v>
+      </c>
+      <c r="P57">
+        <v>11</v>
+      </c>
+      <c r="Q57">
+        <v>-1.5</v>
+      </c>
+      <c r="R57">
+        <v>1.85</v>
+      </c>
+      <c r="S57">
+        <v>1.95</v>
+      </c>
+      <c r="T57">
+        <v>2.5</v>
+      </c>
+      <c r="U57">
+        <v>1.85</v>
+      </c>
+      <c r="V57">
+        <v>1.95</v>
+      </c>
+      <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
         <v>4</v>
       </c>
-      <c r="N57">
-        <v>1.533</v>
-      </c>
-      <c r="O57">
-        <v>3.4</v>
-      </c>
-      <c r="P57">
-        <v>6.5</v>
-      </c>
-      <c r="Q57">
-        <v>-1</v>
-      </c>
-      <c r="R57">
-        <v>2</v>
-      </c>
-      <c r="S57">
-        <v>1.8</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
-      <c r="U57">
-        <v>1.775</v>
-      </c>
-      <c r="V57">
-        <v>2.025</v>
-      </c>
-      <c r="W57">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5885,7 +5885,7 @@
         <v>45067.5</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -5977,7 +5977,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>45077.5</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>44</v>
@@ -6152,7 +6152,7 @@
         <v>45077.5</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>35</v>
@@ -6241,7 +6241,7 @@
         <v>45077.5</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6687385</v>
+        <v>6687383</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,58 +6330,58 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
       <c r="K66">
-        <v>1.166</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P66">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q66">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W66">
-        <v>0.1659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6390,16 +6390,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6687383</v>
+        <v>6687385</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,58 +6419,58 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>1.166</v>
       </c>
       <c r="L67">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N67">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O67">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.25</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6479,16 +6479,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6687019</v>
+        <v>6687387</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,55 +6597,55 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>3</v>
       </c>
       <c r="J69" t="s">
         <v>49</v>
       </c>
       <c r="K69">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L69">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O69">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S69">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T69">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W69">
         <v>-1</v>
@@ -6654,19 +6654,19 @@
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.45</v>
+        <v>5.5</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6687020</v>
+        <v>6687019</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L70">
+        <v>2.8</v>
+      </c>
+      <c r="M70">
+        <v>2.4</v>
+      </c>
+      <c r="N70">
         <v>3</v>
       </c>
-      <c r="M70">
-        <v>6</v>
-      </c>
-      <c r="N70">
-        <v>1.666</v>
-      </c>
       <c r="O70">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T70">
         <v>1.75</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>0.75</v>
+      </c>
+      <c r="AB70">
         <v>0.8</v>
       </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>0.475</v>
-      </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6687391</v>
+        <v>6687389</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,13 +6775,13 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -6790,43 +6790,43 @@
         <v>47</v>
       </c>
       <c r="K71">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N71">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
+        <v>1.875</v>
+      </c>
+      <c r="S71">
+        <v>1.925</v>
+      </c>
+      <c r="T71">
+        <v>2.5</v>
+      </c>
+      <c r="U71">
+        <v>2</v>
+      </c>
+      <c r="V71">
         <v>1.8</v>
       </c>
-      <c r="S71">
-        <v>2</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.9</v>
-      </c>
-      <c r="V71">
-        <v>1.9</v>
-      </c>
       <c r="W71">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6835,16 +6835,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
+        <v>0.875</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
+        <v>-1</v>
+      </c>
+      <c r="AC71">
         <v>0.8</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC71">
-        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6687389</v>
+        <v>6687020</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,10 +6864,10 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6879,43 +6879,43 @@
         <v>47</v>
       </c>
       <c r="K72">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="L72">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N72">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>0.363</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6924,16 +6924,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6687387</v>
+        <v>6687391</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N73">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>38</v>
@@ -7579,7 +7579,7 @@
         <v>39</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7665,7 +7665,7 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6765583</v>
+        <v>6765519</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,73 +7754,73 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M82">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O82">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P82">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q82">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U82">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB82">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
         <v>-1</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6765519</v>
+        <v>6765583</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,73 +7843,73 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N83">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S83">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T83">
+        <v>2</v>
+      </c>
+      <c r="U83">
+        <v>2.05</v>
+      </c>
+      <c r="V83">
         <v>1.75</v>
       </c>
-      <c r="U83">
-        <v>1.9</v>
-      </c>
-      <c r="V83">
-        <v>1.9</v>
-      </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X83">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8024,7 +8024,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6743977</v>
+        <v>6743989</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>36</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="N86">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P86">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6858630</v>
+        <v>6743977</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,10 +8199,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8214,61 +8214,61 @@
         <v>48</v>
       </c>
       <c r="K87">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
+        <v>7</v>
+      </c>
+      <c r="N87">
+        <v>1.363</v>
+      </c>
+      <c r="O87">
+        <v>3.8</v>
+      </c>
+      <c r="P87">
+        <v>8</v>
+      </c>
+      <c r="Q87">
+        <v>-1.25</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>1.8</v>
+      </c>
+      <c r="T87">
+        <v>2.25</v>
+      </c>
+      <c r="U87">
+        <v>1.875</v>
+      </c>
+      <c r="V87">
+        <v>1.925</v>
+      </c>
+      <c r="W87">
+        <v>-1</v>
+      </c>
+      <c r="X87">
         <v>2.8</v>
       </c>
-      <c r="N87">
-        <v>2.45</v>
-      </c>
-      <c r="O87">
-        <v>2.8</v>
-      </c>
-      <c r="P87">
-        <v>3</v>
-      </c>
-      <c r="Q87">
-        <v>-0.25</v>
-      </c>
-      <c r="R87">
-        <v>2.075</v>
-      </c>
-      <c r="S87">
-        <v>1.725</v>
-      </c>
-      <c r="T87">
-        <v>1.75</v>
-      </c>
-      <c r="U87">
-        <v>1.775</v>
-      </c>
-      <c r="V87">
-        <v>2.025</v>
-      </c>
-      <c r="W87">
-        <v>-1</v>
-      </c>
-      <c r="X87">
-        <v>1.8</v>
-      </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB87">
         <v>-1</v>
       </c>
       <c r="AC87">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6744018</v>
+        <v>6743297</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L88">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>1.166</v>
       </c>
       <c r="O88">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="P88">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8339,7 +8339,7 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>0.8500000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6743297</v>
+        <v>6744005</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,10 +8377,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8392,43 +8392,43 @@
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="Q89">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6744005</v>
+        <v>6743978</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,13 +8466,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8481,43 +8481,43 @@
         <v>47</v>
       </c>
       <c r="K90">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
+        <v>1.825</v>
+      </c>
+      <c r="S90">
+        <v>1.975</v>
+      </c>
+      <c r="T90">
+        <v>1.75</v>
+      </c>
+      <c r="U90">
+        <v>1.75</v>
+      </c>
+      <c r="V90">
         <v>2.05</v>
       </c>
-      <c r="S90">
-        <v>1.75</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>1.85</v>
-      </c>
-      <c r="V90">
-        <v>1.95</v>
-      </c>
       <c r="W90">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8526,16 +8526,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
+        <v>0.825</v>
+      </c>
+      <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>0.375</v>
+      </c>
+      <c r="AC90">
         <v>-0.5</v>
-      </c>
-      <c r="AA90">
-        <v>0.375</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
-      <c r="AC90">
-        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6743989</v>
+        <v>6744018</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,13 +8555,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -8570,43 +8570,43 @@
         <v>47</v>
       </c>
       <c r="K91">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M91">
+        <v>3.2</v>
+      </c>
+      <c r="N91">
+        <v>1.85</v>
+      </c>
+      <c r="O91">
+        <v>2.9</v>
+      </c>
+      <c r="P91">
         <v>4.5</v>
       </c>
-      <c r="N91">
-        <v>1.5</v>
-      </c>
-      <c r="O91">
-        <v>3.75</v>
-      </c>
-      <c r="P91">
-        <v>5.5</v>
-      </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
+        <v>1.9</v>
+      </c>
+      <c r="S91">
+        <v>1.9</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
-      <c r="T91">
-        <v>2.25</v>
-      </c>
-      <c r="U91">
-        <v>1.975</v>
-      </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8615,13 +8615,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6743978</v>
+        <v>6858630</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N92">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O92">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q92">
         <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T92">
         <v>1.75</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V92">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W92">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB92">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6872726</v>
+        <v>6872721</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,61 +8733,61 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L93">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
+        <v>7</v>
+      </c>
+      <c r="N93">
+        <v>1.363</v>
+      </c>
+      <c r="O93">
         <v>4.2</v>
       </c>
-      <c r="N93">
-        <v>2.2</v>
-      </c>
-      <c r="O93">
-        <v>2.9</v>
-      </c>
       <c r="P93">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
+        <v>2.025</v>
+      </c>
+      <c r="S93">
+        <v>1.775</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
         <v>1.925</v>
       </c>
-      <c r="S93">
+      <c r="V93">
         <v>1.875</v>
       </c>
-      <c r="T93">
-        <v>2</v>
-      </c>
-      <c r="U93">
-        <v>2</v>
-      </c>
-      <c r="V93">
-        <v>1.8</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X93">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
@@ -8796,13 +8796,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA93">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6872727</v>
+        <v>6872722</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,40 +8822,40 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N94">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
         <v>1.95</v>
@@ -8867,28 +8867,28 @@
         <v>2</v>
       </c>
       <c r="U94">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6872725</v>
+        <v>6872726</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8914,73 +8914,73 @@
         <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K95">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="N95">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P95">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
+        <v>1.925</v>
+      </c>
+      <c r="S95">
+        <v>1.875</v>
+      </c>
+      <c r="T95">
+        <v>2</v>
+      </c>
+      <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
+        <v>1.8</v>
+      </c>
+      <c r="W95">
+        <v>-1</v>
+      </c>
+      <c r="X95">
         <v>1.9</v>
       </c>
-      <c r="S95">
-        <v>1.9</v>
-      </c>
-      <c r="T95">
-        <v>2.25</v>
-      </c>
-      <c r="U95">
-        <v>1.85</v>
-      </c>
-      <c r="V95">
-        <v>1.95</v>
-      </c>
-      <c r="W95">
-        <v>0.25</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA95">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6872723</v>
+        <v>6872725</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,76 +9000,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
         <v>30</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L96">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="N96">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P96">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6872722</v>
+        <v>6872724</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>47</v>
       </c>
       <c r="K97">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
         <v>6.5</v>
       </c>
       <c r="N97">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
         <v>3.1</v>
       </c>
       <c r="P97">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q97">
+        <v>-0.75</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
+        <v>1.75</v>
+      </c>
+      <c r="U97">
+        <v>1.75</v>
+      </c>
+      <c r="V97">
+        <v>2.05</v>
+      </c>
+      <c r="W97">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>0.45</v>
+      </c>
+      <c r="AA97">
         <v>-0.5</v>
       </c>
-      <c r="R97">
-        <v>1.95</v>
-      </c>
-      <c r="S97">
-        <v>1.85</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>2.025</v>
-      </c>
-      <c r="V97">
-        <v>1.775</v>
-      </c>
-      <c r="W97">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>0.95</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
       <c r="AB97">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6872721</v>
+        <v>6872723</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M98">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="N98">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="O98">
+        <v>3.3</v>
+      </c>
+      <c r="P98">
         <v>4.2</v>
       </c>
-      <c r="P98">
-        <v>7</v>
-      </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T98">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6872724</v>
+        <v>6872727</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,49 +9267,49 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N99">
         <v>1.65</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U99">
         <v>1.75</v>
@@ -9318,25 +9318,25 @@
         <v>2.05</v>
       </c>
       <c r="W99">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z99">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC99">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6888610</v>
+        <v>6888615</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,13 +9356,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9371,25 +9371,25 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L100">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M100">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="N100">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="O100">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>12</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
         <v>1.775</v>
@@ -9401,13 +9401,13 @@
         <v>2</v>
       </c>
       <c r="U100">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9422,10 +9422,10 @@
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6888611</v>
+        <v>6888614</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,73 +9445,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K101">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U101">
+        <v>1.775</v>
+      </c>
+      <c r="V101">
         <v>2.025</v>
       </c>
-      <c r="V101">
-        <v>1.775</v>
-      </c>
       <c r="W101">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6888609</v>
+        <v>6888611</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M102">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N102">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
+        <v>1.9</v>
+      </c>
+      <c r="S102">
+        <v>1.9</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
         <v>2.025</v>
       </c>
-      <c r="S102">
+      <c r="V102">
         <v>1.775</v>
       </c>
-      <c r="T102">
-        <v>2</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
       <c r="W102">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X102">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6888613</v>
+        <v>6888610</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,58 +9712,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="N104">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q104">
         <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6888615</v>
+        <v>6888609</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,76 +9801,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K105">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L105">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M105">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N105">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O105">
         <v>3</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q105">
         <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>2.025</v>
+      </c>
+      <c r="S105">
         <v>1.775</v>
       </c>
-      <c r="S105">
-        <v>2.025</v>
-      </c>
       <c r="T105">
         <v>2</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X105">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6888614</v>
+        <v>6888613</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,73 +9890,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>3</v>
-      </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M106">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N106">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P106">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V106">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>0.4375</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6913588</v>
+        <v>6913587</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q107">
+        <v>-0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
+        <v>1.875</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.9</v>
+      </c>
+      <c r="V107">
+        <v>1.9</v>
+      </c>
+      <c r="W107">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>0.4625</v>
+      </c>
+      <c r="AA107">
         <v>-0.5</v>
       </c>
-      <c r="R107">
-        <v>1.95</v>
-      </c>
-      <c r="S107">
-        <v>1.85</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>2</v>
-      </c>
-      <c r="V107">
-        <v>1.8</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>2.6</v>
-      </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
-      <c r="AA107">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6913587</v>
+        <v>6913588</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z108">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7129059</v>
+        <v>7130198</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45184.5</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,43 +10172,43 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M109">
+        <v>5</v>
+      </c>
+      <c r="N109">
+        <v>1.6</v>
+      </c>
+      <c r="O109">
         <v>3.4</v>
       </c>
-      <c r="N109">
-        <v>2.2</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
       <c r="P109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
+        <v>1.825</v>
+      </c>
+      <c r="S109">
         <v>1.975</v>
       </c>
-      <c r="S109">
-        <v>1.825</v>
-      </c>
       <c r="T109">
         <v>2</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,16 +10217,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7130198</v>
+        <v>7129059</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45184.5</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,43 +10261,43 @@
         <v>47</v>
       </c>
       <c r="K110">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
         <v>1.825</v>
       </c>
-      <c r="S110">
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.975</v>
       </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,16 +10306,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>45185.5</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7230929</v>
+        <v>7239829</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,73 +10691,73 @@
         <v>45191.5</v>
       </c>
       <c r="F115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K115">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="L115">
         <v>3</v>
       </c>
       <c r="M115">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O115">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P115">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V115">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X115">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7239829</v>
+        <v>7230929</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,73 +10780,73 @@
         <v>45191.5</v>
       </c>
       <c r="F116" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N116">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="O116">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P116">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q116">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T116">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U116">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V116">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W116">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB116">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10872,7 +10872,7 @@
         <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7230931</v>
+        <v>7230933</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,13 +11047,13 @@
         <v>45192.625</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11062,34 +11062,34 @@
         <v>47</v>
       </c>
       <c r="K119">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
+        <v>3.75</v>
+      </c>
+      <c r="N119">
+        <v>1.8</v>
+      </c>
+      <c r="O119">
+        <v>3</v>
+      </c>
+      <c r="P119">
         <v>4.5</v>
       </c>
-      <c r="N119">
-        <v>1.65</v>
-      </c>
-      <c r="O119">
-        <v>3.2</v>
-      </c>
-      <c r="P119">
-        <v>5.25</v>
-      </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U119">
         <v>1.825</v>
@@ -11098,7 +11098,7 @@
         <v>1.975</v>
       </c>
       <c r="W119">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,7 +11107,7 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7230933</v>
+        <v>7230931</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,13 +11136,13 @@
         <v>45192.625</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11151,34 +11151,34 @@
         <v>47</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U120">
         <v>1.825</v>
@@ -11187,7 +11187,7 @@
         <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0.8</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,7 +11196,7 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
         <v>-1</v>
@@ -11314,7 +11314,7 @@
         <v>45196.5</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7230934</v>
+        <v>7230936</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,34 +11403,34 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O123">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P123">
         <v>3.75</v>
@@ -11439,40 +11439,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T123">
         <v>1.75</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X123">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA123">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7230936</v>
+        <v>7230948</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,10 +11492,10 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11507,43 +11507,43 @@
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M124">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O124">
         <v>3</v>
       </c>
       <c r="P124">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
         <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11552,13 +11552,13 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7230948</v>
+        <v>7230934</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>3.2</v>
       </c>
       <c r="L125">
+        <v>2.8</v>
+      </c>
+      <c r="M125">
+        <v>2.25</v>
+      </c>
+      <c r="N125">
+        <v>1.95</v>
+      </c>
+      <c r="O125">
         <v>2.9</v>
       </c>
-      <c r="M125">
-        <v>2.2</v>
-      </c>
-      <c r="N125">
-        <v>2.05</v>
-      </c>
-      <c r="O125">
-        <v>3</v>
-      </c>
       <c r="P125">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
         <v>1.75</v>
       </c>
       <c r="U125">
+        <v>1.8</v>
+      </c>
+      <c r="V125">
+        <v>2</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
         <v>1.9</v>
       </c>
-      <c r="V125">
-        <v>1.9</v>
-      </c>
-      <c r="W125">
-        <v>1.05</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,10 +11759,10 @@
         <v>45199.625</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11774,25 +11774,25 @@
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L127">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N127">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P127">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R127">
         <v>1.95</v>
@@ -11801,16 +11801,16 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,16 +11819,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,10 +11848,10 @@
         <v>45199.625</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11863,25 +11863,25 @@
         <v>47</v>
       </c>
       <c r="K128">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O128">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
         <v>1.95</v>
@@ -11890,16 +11890,16 @@
         <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11908,16 +11908,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7230950</v>
+        <v>7230942</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,58 +11937,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,13 +11997,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7230942</v>
+        <v>7230950</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,58 +12026,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H130">
+        <v>5</v>
+      </c>
+      <c r="I130">
         <v>3</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>47</v>
       </c>
       <c r="K130">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
+        <v>3.25</v>
+      </c>
+      <c r="M130">
+        <v>4.333</v>
+      </c>
+      <c r="N130">
+        <v>1.5</v>
+      </c>
+      <c r="O130">
         <v>3.5</v>
       </c>
-      <c r="M130">
-        <v>5.25</v>
-      </c>
-      <c r="N130">
-        <v>1.666</v>
-      </c>
-      <c r="O130">
-        <v>3.3</v>
-      </c>
       <c r="P130">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,13 +12086,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7230940</v>
+        <v>7230941</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45205.625</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L131">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
         <v>1.975</v>
       </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y131">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7230941</v>
+        <v>7230940</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45205.625</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M132">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
+        <v>1.975</v>
+      </c>
+      <c r="S132">
         <v>1.825</v>
       </c>
-      <c r="S132">
-        <v>1.975</v>
-      </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7230951</v>
+        <v>7230944</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N133">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7230944</v>
+        <v>7230951</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N134">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12827,7 +12827,7 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7427226</v>
+        <v>7427225</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N143">
-        <v>1.285</v>
+        <v>1.6</v>
       </c>
       <c r="O143">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R143">
+        <v>1.85</v>
+      </c>
+      <c r="S143">
         <v>1.95</v>
       </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7427225</v>
+        <v>7427226</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N144">
-        <v>1.6</v>
+        <v>1.285</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P144">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
         <v>1.85</v>
       </c>
-      <c r="S144">
-        <v>1.95</v>
-      </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
         <v>1.8</v>
       </c>
-      <c r="V144">
-        <v>2</v>
-      </c>
       <c r="W144">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
       <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.8</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13720,7 +13720,7 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13898,7 +13898,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14417,7 +14417,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7480684</v>
+        <v>7480688</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14429,76 +14429,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F157" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J157" t="s">
         <v>48</v>
       </c>
       <c r="K157">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L157">
+        <v>3.2</v>
+      </c>
+      <c r="M157">
+        <v>4.75</v>
+      </c>
+      <c r="N157">
+        <v>1.95</v>
+      </c>
+      <c r="O157">
         <v>3</v>
-      </c>
-      <c r="M157">
-        <v>4.25</v>
-      </c>
-      <c r="N157">
-        <v>2</v>
-      </c>
-      <c r="O157">
-        <v>2.9</v>
       </c>
       <c r="P157">
         <v>3.8</v>
       </c>
       <c r="Q157">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R157">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S157">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T157">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA157">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB157">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC157">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14506,7 +14506,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7480688</v>
+        <v>7480684</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14518,76 +14518,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>48</v>
       </c>
       <c r="K158">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L158">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="N158">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P158">
         <v>3.8</v>
       </c>
       <c r="Q158">
+        <v>-0.25</v>
+      </c>
+      <c r="R158">
+        <v>1.75</v>
+      </c>
+      <c r="S158">
+        <v>2.05</v>
+      </c>
+      <c r="T158">
+        <v>1.75</v>
+      </c>
+      <c r="U158">
+        <v>1.75</v>
+      </c>
+      <c r="V158">
+        <v>2.05</v>
+      </c>
+      <c r="W158">
+        <v>-1</v>
+      </c>
+      <c r="X158">
+        <v>1.9</v>
+      </c>
+      <c r="Y158">
+        <v>-1</v>
+      </c>
+      <c r="Z158">
         <v>-0.5</v>
       </c>
-      <c r="R158">
-        <v>1.975</v>
-      </c>
-      <c r="S158">
-        <v>1.825</v>
-      </c>
-      <c r="T158">
-        <v>2</v>
-      </c>
-      <c r="U158">
-        <v>1.925</v>
-      </c>
-      <c r="V158">
-        <v>1.875</v>
-      </c>
-      <c r="W158">
-        <v>-1</v>
-      </c>
-      <c r="X158">
-        <v>2</v>
-      </c>
-      <c r="Y158">
-        <v>-1</v>
-      </c>
-      <c r="Z158">
-        <v>-1</v>
-      </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC158">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14607,7 +14607,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -14877,7 +14877,7 @@
         <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14966,7 +14966,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15055,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15411,7 +15411,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>45268.46875</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
         <v>41</v>
@@ -15675,7 +15675,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -16212,7 +16212,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16390,7 +16390,7 @@
         <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16479,7 +16479,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7624465</v>
+        <v>7624516</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,49 +16743,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H183">
+        <v>2</v>
+      </c>
+      <c r="I183">
         <v>1</v>
-      </c>
-      <c r="I183">
-        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>47</v>
       </c>
       <c r="K183">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L183">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N183">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P183">
         <v>4.75</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U183">
         <v>2</v>
@@ -16794,7 +16794,7 @@
         <v>1.8</v>
       </c>
       <c r="W183">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16803,16 +16803,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB183">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC183">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624516</v>
+        <v>7624517</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,73 +16835,73 @@
         <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L184">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M184">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N184">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O184">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P184">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q184">
+        <v>-0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
+        <v>2</v>
+      </c>
+      <c r="T184">
+        <v>1.75</v>
+      </c>
+      <c r="U184">
+        <v>1.825</v>
+      </c>
+      <c r="V184">
+        <v>1.975</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>1.8</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
         <v>-0.5</v>
       </c>
-      <c r="R184">
-        <v>1.85</v>
-      </c>
-      <c r="S184">
-        <v>1.95</v>
-      </c>
-      <c r="T184">
-        <v>2</v>
-      </c>
-      <c r="U184">
-        <v>2</v>
-      </c>
-      <c r="V184">
-        <v>1.8</v>
-      </c>
-      <c r="W184">
-        <v>0.833</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
-      <c r="Z184">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624517</v>
+        <v>7624465</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L185">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="M185">
+        <v>7</v>
+      </c>
+      <c r="N185">
+        <v>1.65</v>
+      </c>
+      <c r="O185">
         <v>3.4</v>
       </c>
-      <c r="N185">
-        <v>2.15</v>
-      </c>
-      <c r="O185">
-        <v>2.8</v>
-      </c>
       <c r="P185">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
+        <v>1.9</v>
+      </c>
+      <c r="S185">
+        <v>1.9</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
-      <c r="T185">
-        <v>1.75</v>
-      </c>
-      <c r="U185">
-        <v>1.825</v>
-      </c>
-      <c r="V185">
-        <v>1.975</v>
-      </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X185">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>0.45</v>
+      </c>
+      <c r="AA185">
         <v>-0.5</v>
       </c>
-      <c r="AA185">
-        <v>0.5</v>
-      </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7624597</v>
+        <v>7624498</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L187">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M187">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N187">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O187">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P187">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q187">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC187">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7624498</v>
+        <v>7624597</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA188">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17277,7 +17277,7 @@
         <v>45296.46875</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
         <v>33</v>
@@ -17458,7 +17458,7 @@
         <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -18167,10 +18167,10 @@
         <v>45303.46875</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18256,7 +18256,7 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
         <v>46</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7567342</v>
+        <v>7567343</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H206">
         <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N206">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O206">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P206">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
         <v>1.75</v>
       </c>
       <c r="U206">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V206">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X206">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
         <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA206">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7567343</v>
+        <v>7567342</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F207" t="s">
+        <v>37</v>
+      </c>
+      <c r="G207" t="s">
         <v>30</v>
-      </c>
-      <c r="G207" t="s">
-        <v>33</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K207">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M207">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N207">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O207">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P207">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T207">
         <v>1.75</v>
       </c>
       <c r="U207">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V207">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W207">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC207">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19517,31 +19517,31 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M214">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N214">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2</v>
@@ -19556,16 +19556,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19606,31 +19606,31 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L215">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N215">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O215">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2</v>
@@ -19645,16 +19645,16 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
         <v>-1</v>
@@ -19680,10 +19680,10 @@
         <v>45317.47916666666</v>
       </c>
       <c r="F216" t="s">
+        <v>30</v>
+      </c>
+      <c r="G216" t="s">
         <v>31</v>
-      </c>
-      <c r="G216" t="s">
-        <v>30</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7680045</v>
+        <v>7680043</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,58 +20036,58 @@
         <v>45318.5</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G220" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
       </c>
       <c r="K220">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L220">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M220">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="N220">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O220">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
-        <v>1.05</v>
+        <v>0.222</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20096,16 +20096,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7680043</v>
+        <v>7680045</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,58 +20125,58 @@
         <v>45318.5</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>47</v>
       </c>
       <c r="K221">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L221">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M221">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="N221">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O221">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P221">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
+        <v>1.775</v>
+      </c>
+      <c r="S221">
+        <v>2.025</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
         <v>1.95</v>
       </c>
-      <c r="S221">
+      <c r="V221">
         <v>1.85</v>
       </c>
-      <c r="T221">
-        <v>2.5</v>
-      </c>
-      <c r="U221">
-        <v>1.925</v>
-      </c>
-      <c r="V221">
-        <v>1.875</v>
-      </c>
       <c r="W221">
-        <v>0.222</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20185,16 +20185,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H223">
         <v>3</v>
@@ -20751,7 +20751,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7768215</v>
+        <v>7768217</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,58 +20837,58 @@
         <v>45332.5</v>
       </c>
       <c r="F229" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
         <v>1</v>
-      </c>
-      <c r="I229">
-        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L229">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N229">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O229">
         <v>3.6</v>
       </c>
       <c r="P229">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q229">
         <v>-1.25</v>
       </c>
       <c r="R229">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
         <v>2</v>
       </c>
       <c r="U229">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20900,13 +20900,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7768217</v>
+        <v>7768215</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,58 +21015,58 @@
         <v>45332.5</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N231">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O231">
         <v>3.6</v>
       </c>
       <c r="P231">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q231">
         <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21078,13 +21078,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA231">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AB231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21371,7 +21371,7 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G235" t="s">
         <v>29</v>
@@ -21460,7 +21460,7 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>42</v>
@@ -21619,6 +21619,273 @@
       </c>
       <c r="AC237">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>7768222</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45339.47916666666</v>
+      </c>
+      <c r="F238" t="s">
+        <v>46</v>
+      </c>
+      <c r="G238" t="s">
+        <v>39</v>
+      </c>
+      <c r="H238">
+        <v>2</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238" t="s">
+        <v>47</v>
+      </c>
+      <c r="K238">
+        <v>4.5</v>
+      </c>
+      <c r="L238">
+        <v>3.4</v>
+      </c>
+      <c r="M238">
+        <v>1.666</v>
+      </c>
+      <c r="N238">
+        <v>3.75</v>
+      </c>
+      <c r="O238">
+        <v>3.2</v>
+      </c>
+      <c r="P238">
+        <v>1.909</v>
+      </c>
+      <c r="Q238">
+        <v>0.5</v>
+      </c>
+      <c r="R238">
+        <v>1.825</v>
+      </c>
+      <c r="S238">
+        <v>1.975</v>
+      </c>
+      <c r="T238">
+        <v>2.25</v>
+      </c>
+      <c r="U238">
+        <v>2.025</v>
+      </c>
+      <c r="V238">
+        <v>1.775</v>
+      </c>
+      <c r="W238">
+        <v>2.75</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>-1</v>
+      </c>
+      <c r="Z238">
+        <v>0.825</v>
+      </c>
+      <c r="AA238">
+        <v>-1</v>
+      </c>
+      <c r="AB238">
+        <v>-0.5</v>
+      </c>
+      <c r="AC238">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>7768224</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45339.53125</v>
+      </c>
+      <c r="F239" t="s">
+        <v>38</v>
+      </c>
+      <c r="G239" t="s">
+        <v>34</v>
+      </c>
+      <c r="H239">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>48</v>
+      </c>
+      <c r="K239">
+        <v>1.615</v>
+      </c>
+      <c r="L239">
+        <v>3.25</v>
+      </c>
+      <c r="M239">
+        <v>5.25</v>
+      </c>
+      <c r="N239">
+        <v>1.55</v>
+      </c>
+      <c r="O239">
+        <v>3.25</v>
+      </c>
+      <c r="P239">
+        <v>6</v>
+      </c>
+      <c r="Q239">
+        <v>-0.75</v>
+      </c>
+      <c r="R239">
+        <v>1.75</v>
+      </c>
+      <c r="S239">
+        <v>2.05</v>
+      </c>
+      <c r="T239">
+        <v>2</v>
+      </c>
+      <c r="U239">
+        <v>2.025</v>
+      </c>
+      <c r="V239">
+        <v>1.775</v>
+      </c>
+      <c r="W239">
+        <v>-1</v>
+      </c>
+      <c r="X239">
+        <v>2.25</v>
+      </c>
+      <c r="Y239">
+        <v>-1</v>
+      </c>
+      <c r="Z239">
+        <v>-1</v>
+      </c>
+      <c r="AA239">
+        <v>1.05</v>
+      </c>
+      <c r="AB239">
+        <v>0</v>
+      </c>
+      <c r="AC239">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7768221</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45339.58333333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>32</v>
+      </c>
+      <c r="G240" t="s">
+        <v>43</v>
+      </c>
+      <c r="H240">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240" t="s">
+        <v>47</v>
+      </c>
+      <c r="K240">
+        <v>1.571</v>
+      </c>
+      <c r="L240">
+        <v>3.5</v>
+      </c>
+      <c r="M240">
+        <v>5.25</v>
+      </c>
+      <c r="N240">
+        <v>1.65</v>
+      </c>
+      <c r="O240">
+        <v>3.3</v>
+      </c>
+      <c r="P240">
+        <v>5</v>
+      </c>
+      <c r="Q240">
+        <v>-0.75</v>
+      </c>
+      <c r="R240">
+        <v>1.9</v>
+      </c>
+      <c r="S240">
+        <v>1.9</v>
+      </c>
+      <c r="T240">
+        <v>2</v>
+      </c>
+      <c r="U240">
+        <v>1.9</v>
+      </c>
+      <c r="V240">
+        <v>1.9</v>
+      </c>
+      <c r="W240">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X240">
+        <v>-1</v>
+      </c>
+      <c r="Y240">
+        <v>-1</v>
+      </c>
+      <c r="Z240">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA240">
+        <v>-1</v>
+      </c>
+      <c r="AB240">
+        <v>0</v>
+      </c>
+      <c r="AC240">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -106,10 +106,10 @@
     <t>USM Alger</t>
   </si>
   <si>
-    <t>USM Khenchela</t>
+    <t>Paradou AC</t>
   </si>
   <si>
-    <t>Paradou AC</t>
+    <t>USM Khenchela</t>
   </si>
   <si>
     <t>MC Alger</t>
@@ -124,10 +124,10 @@
     <t>ASO Chlef</t>
   </si>
   <si>
-    <t>RC Arba</t>
+    <t>NC Magra</t>
   </si>
   <si>
-    <t>NC Magra</t>
+    <t>RC Arba</t>
   </si>
   <si>
     <t>JS Saoura</t>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6217142</v>
+        <v>6217141</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
+        <v>2.9</v>
+      </c>
+      <c r="M3">
+        <v>2.7</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>2.4</v>
-      </c>
-      <c r="N3">
-        <v>2.2</v>
-      </c>
-      <c r="O3">
-        <v>2.9</v>
-      </c>
       <c r="P3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA3">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6217141</v>
+        <v>6217142</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2.4</v>
+      </c>
+      <c r="N4">
+        <v>2.2</v>
+      </c>
+      <c r="O4">
         <v>2.9</v>
       </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1.975</v>
+      </c>
+      <c r="V4">
+        <v>1.825</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>1.9</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>-0.5</v>
       </c>
-      <c r="R4">
-        <v>2.025</v>
-      </c>
-      <c r="S4">
-        <v>1.775</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>1.875</v>
-      </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>1.025</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6217137</v>
+        <v>6217145</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,55 +1260,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N9">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>1.9</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6217145</v>
+        <v>6217137</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,55 +1349,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L10">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W10">
-        <v>0.7270000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6217148</v>
+        <v>6217149</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,76 +1613,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P13">
+        <v>1.03</v>
+      </c>
+      <c r="Q13">
         <v>3.5</v>
       </c>
-      <c r="Q13">
-        <v>-0.25</v>
-      </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6217149</v>
+        <v>6217148</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,76 +1702,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M14">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>3.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2503,7 +2503,7 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2862,7 +2862,7 @@
         <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3482,10 +3482,10 @@
         <v>45017.48958333334</v>
       </c>
       <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6411979</v>
+        <v>6411978</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,13 +3571,13 @@
         <v>45021.75</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3586,43 +3586,43 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N35">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="O35">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q35">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>0.181</v>
+        <v>0.5</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3631,16 +3631,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6411978</v>
+        <v>6411979</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,13 +3660,13 @@
         <v>45021.75</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3675,43 +3675,43 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M36">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N36">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>0.5</v>
+        <v>0.181</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3749,10 +3749,10 @@
         <v>45023.48958333334</v>
       </c>
       <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
         <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3930,7 +3930,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6411985</v>
+        <v>6411986</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M41">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="O41">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6411986</v>
+        <v>6411985</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="N42">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P42">
+        <v>3.4</v>
+      </c>
+      <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.85</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
+        <v>1.85</v>
+      </c>
+      <c r="W42">
         <v>1.2</v>
       </c>
-      <c r="Q42">
-        <v>1.75</v>
-      </c>
-      <c r="R42">
-        <v>1.825</v>
-      </c>
-      <c r="S42">
-        <v>1.975</v>
-      </c>
-      <c r="T42">
-        <v>2.25</v>
-      </c>
-      <c r="U42">
-        <v>1.8</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6411982</v>
+        <v>6411983</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,10 +4283,10 @@
         <v>45025.75</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4298,61 +4298,61 @@
         <v>48</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L43">
         <v>3.1</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P43">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
+        <v>2.025</v>
+      </c>
+      <c r="S43">
+        <v>1.775</v>
+      </c>
+      <c r="T43">
+        <v>1.75</v>
+      </c>
+      <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
+        <v>1.85</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
         <v>1.9</v>
       </c>
-      <c r="S43">
-        <v>1.9</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>1.75</v>
-      </c>
-      <c r="V43">
-        <v>2.05</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
-      <c r="X43">
-        <v>2.8</v>
-      </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC43">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6411983</v>
+        <v>6411982</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,10 +4372,10 @@
         <v>45025.75</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4387,61 +4387,61 @@
         <v>48</v>
       </c>
       <c r="K44">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
         <v>3.1</v>
       </c>
       <c r="M44">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-1</v>
+      </c>
+      <c r="R44">
+        <v>1.9</v>
+      </c>
+      <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
+        <v>1.75</v>
+      </c>
+      <c r="V44">
         <v>2.05</v>
       </c>
-      <c r="Q44">
-        <v>0.25</v>
-      </c>
-      <c r="R44">
-        <v>2.025</v>
-      </c>
-      <c r="S44">
-        <v>1.775</v>
-      </c>
-      <c r="T44">
-        <v>1.75</v>
-      </c>
-      <c r="U44">
-        <v>1.95</v>
-      </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>45027.48958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4553,7 +4553,7 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4642,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>45055.5</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6658491</v>
+        <v>6658489</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45063.5</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>48</v>
       </c>
       <c r="K54">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="L54">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>1.285</v>
+        <v>7.5</v>
       </c>
       <c r="N54">
-        <v>21</v>
+        <v>1.25</v>
       </c>
       <c r="O54">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>1.125</v>
+        <v>11</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6658488</v>
+        <v>6658490</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,13 +5351,13 @@
         <v>45063.5</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5366,43 +5366,43 @@
         <v>47</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W55">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5411,16 +5411,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6658490</v>
+        <v>6658488</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,13 +5440,13 @@
         <v>45063.5</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5455,43 +5455,43 @@
         <v>47</v>
       </c>
       <c r="K56">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O56">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
         <v>2</v>
       </c>
       <c r="U56">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V56">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W56">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5500,16 +5500,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6658489</v>
+        <v>6658491</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45063.5</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>7.5</v>
+        <v>1.285</v>
       </c>
       <c r="N57">
-        <v>1.25</v>
+        <v>21</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P57">
-        <v>11</v>
+        <v>1.125</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6629385</v>
+        <v>6629380</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,58 +5707,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
+        <v>1.615</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>6</v>
+      </c>
+      <c r="N59">
         <v>1.571</v>
-      </c>
-      <c r="L59">
-        <v>3.1</v>
-      </c>
-      <c r="M59">
-        <v>6.5</v>
-      </c>
-      <c r="N59">
-        <v>1.444</v>
       </c>
       <c r="O59">
         <v>3.2</v>
       </c>
       <c r="P59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q59">
         <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W59">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5767,13 +5767,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6629380</v>
+        <v>6629385</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5796,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N60">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="O60">
         <v>3.2</v>
       </c>
       <c r="P60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q60">
         <v>-1</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W60">
-        <v>0.571</v>
+        <v>0.444</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,13 +5856,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5885,7 +5885,7 @@
         <v>45067.5</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -5977,7 +5977,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6709150</v>
+        <v>6687382</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M63">
-        <v>1.615</v>
+        <v>3.2</v>
       </c>
       <c r="N63">
-        <v>4.75</v>
+        <v>2.15</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P63">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
         <v>1.875</v>
       </c>
-      <c r="V63">
-        <v>1.925</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6687382</v>
+        <v>6709150</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6155,73 +6155,73 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="L64">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N64">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="O64">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S64">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
+        <v>1.875</v>
+      </c>
+      <c r="V64">
         <v>1.925</v>
       </c>
-      <c r="V64">
-        <v>1.875</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
+        <v>-1</v>
+      </c>
+      <c r="AC64">
         <v>0.925</v>
-      </c>
-      <c r="AC64">
-        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>45077.5</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>41</v>
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6687387</v>
+        <v>6687389</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
         <v>37</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K69">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M69">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N69">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P69">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R69">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
         <v>-1</v>
       </c>
       <c r="AC69">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6687019</v>
+        <v>6687390</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,46 +6686,46 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L70">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O70">
         <v>2.9</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
         <v>1.75</v>
@@ -6740,22 +6740,22 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y70">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6687389</v>
+        <v>6687019</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K71">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L71">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M71">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P71">
-        <v>7.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6687391</v>
+        <v>6687387</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N73">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6687390</v>
+        <v>6687391</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7045,73 +7045,73 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L74">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X74">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6765585</v>
+        <v>6765522</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,40 +7487,40 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L79">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N79">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O79">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R79">
         <v>1.75</v>
@@ -7529,34 +7529,34 @@
         <v>2.05</v>
       </c>
       <c r="T79">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V79">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X79">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA79">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB79">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6765586</v>
+        <v>6765583</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,58 +7576,58 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H80">
+        <v>2</v>
+      </c>
+      <c r="I80">
         <v>1</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>47</v>
       </c>
       <c r="K80">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="N80">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P80">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="T80">
+        <v>2</v>
+      </c>
+      <c r="U80">
+        <v>2.05</v>
+      </c>
+      <c r="V80">
         <v>1.75</v>
       </c>
-      <c r="U80">
-        <v>1.775</v>
-      </c>
-      <c r="V80">
-        <v>2.025</v>
-      </c>
       <c r="W80">
-        <v>0.6499999999999999</v>
+        <v>1</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,16 +7636,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4625</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC80">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7665,7 +7665,7 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6765519</v>
+        <v>6765586</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,28 +7754,28 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L82">
         <v>3.2</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N82">
         <v>1.65</v>
@@ -7784,46 +7784,46 @@
         <v>3.1</v>
       </c>
       <c r="P82">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q82">
         <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
         <v>1.75</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6765583</v>
+        <v>6765585</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L83">
         <v>2.8</v>
       </c>
       <c r="M83">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N83">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P83">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S83">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U83">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB83">
-        <v>1.05</v>
+        <v>0.4375</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6765522</v>
+        <v>6765519</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,76 +7932,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K84">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M84">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N84">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P84">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R84">
+        <v>1.9</v>
+      </c>
+      <c r="S84">
+        <v>1.9</v>
+      </c>
+      <c r="T84">
         <v>1.75</v>
       </c>
-      <c r="S84">
-        <v>2.05</v>
-      </c>
-      <c r="T84">
-        <v>2.25</v>
-      </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8024,7 +8024,7 @@
         <v>33</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6743989</v>
+        <v>6743297</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,58 +8110,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>47</v>
       </c>
       <c r="K86">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L86">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N86">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P86">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q86">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
+        <v>1.825</v>
+      </c>
+      <c r="S86">
         <v>1.975</v>
       </c>
-      <c r="S86">
+      <c r="T86">
+        <v>2.5</v>
+      </c>
+      <c r="U86">
         <v>1.825</v>
       </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
-      <c r="U86">
+      <c r="V86">
         <v>1.975</v>
       </c>
-      <c r="V86">
-        <v>1.825</v>
-      </c>
       <c r="W86">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
+        <v>-1</v>
+      </c>
+      <c r="AC86">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC86">
-        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8202,7 +8202,7 @@
         <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6743297</v>
+        <v>6744018</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,49 +8288,49 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H88">
+        <v>3</v>
+      </c>
+      <c r="I88">
         <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
+        <v>2.875</v>
+      </c>
+      <c r="M88">
+        <v>3.2</v>
+      </c>
+      <c r="N88">
+        <v>1.85</v>
+      </c>
+      <c r="O88">
+        <v>2.9</v>
+      </c>
+      <c r="P88">
         <v>4.5</v>
       </c>
-      <c r="M88">
-        <v>9</v>
-      </c>
-      <c r="N88">
-        <v>1.166</v>
-      </c>
-      <c r="O88">
-        <v>6</v>
-      </c>
-      <c r="P88">
-        <v>17</v>
-      </c>
       <c r="Q88">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U88">
         <v>1.825</v>
@@ -8339,7 +8339,7 @@
         <v>1.975</v>
       </c>
       <c r="W88">
-        <v>0.1659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8377,7 +8377,7 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6743978</v>
+        <v>6858630</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,76 +8466,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L90">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P90">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q90">
         <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S90">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T90">
         <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V90">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB90">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6744018</v>
+        <v>6743978</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,58 +8555,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>47</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L91">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M91">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N91">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O91">
         <v>2.9</v>
       </c>
       <c r="P91">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
         <v>1.75</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V91">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W91">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8615,16 +8615,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6858630</v>
+        <v>6743989</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,76 +8644,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L92">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>2.45</v>
+        <v>1.5</v>
       </c>
       <c r="O92">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R92">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V92">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X92">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA92">
-        <v>0.3625</v>
+        <v>-0</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6872726</v>
+        <v>6872723</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,49 +8911,49 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
+        <v>4.333</v>
+      </c>
+      <c r="N95">
+        <v>1.8</v>
+      </c>
+      <c r="O95">
+        <v>3.3</v>
+      </c>
+      <c r="P95">
         <v>4.2</v>
       </c>
-      <c r="N95">
-        <v>2.2</v>
-      </c>
-      <c r="O95">
-        <v>2.9</v>
-      </c>
-      <c r="P95">
-        <v>3.3</v>
-      </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
         <v>2</v>
@@ -8965,22 +8965,22 @@
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.4375</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6872725</v>
+        <v>6872724</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,40 +9000,40 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>47</v>
       </c>
       <c r="K96">
-        <v>1.285</v>
+        <v>1.55</v>
       </c>
       <c r="L96">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M96">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N96">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
         <v>1.9</v>
@@ -9042,16 +9042,16 @@
         <v>1.9</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W96">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9060,16 +9060,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6872724</v>
+        <v>6872726</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9089,76 +9089,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K97">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M97">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N97">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O97">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P97">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q97">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
+        <v>1.925</v>
+      </c>
+      <c r="S97">
+        <v>1.875</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
+        <v>2</v>
+      </c>
+      <c r="V97">
+        <v>1.8</v>
+      </c>
+      <c r="W97">
+        <v>-1</v>
+      </c>
+      <c r="X97">
         <v>1.9</v>
       </c>
-      <c r="S97">
-        <v>1.9</v>
-      </c>
-      <c r="T97">
-        <v>1.75</v>
-      </c>
-      <c r="U97">
-        <v>1.75</v>
-      </c>
-      <c r="V97">
-        <v>2.05</v>
-      </c>
-      <c r="W97">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC97">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6872723</v>
+        <v>6872725</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>31</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L98">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M98">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="N98">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P98">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q98">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T98">
         <v>2.25</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6888615</v>
+        <v>6888613</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9359,70 +9359,70 @@
         <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="L100">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>1.363</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q100">
+        <v>-1.25</v>
+      </c>
+      <c r="R100">
+        <v>1.925</v>
+      </c>
+      <c r="S100">
+        <v>1.875</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
+        <v>1.825</v>
+      </c>
+      <c r="W100">
+        <v>0.363</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>-0.5</v>
       </c>
-      <c r="R100">
-        <v>1.775</v>
-      </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.875</v>
-      </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
-      <c r="W100">
-        <v>0.7</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6888614</v>
+        <v>6888611</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,73 +9445,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H101">
+        <v>3</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>3</v>
-      </c>
       <c r="J101" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T101">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
         <v>1.775</v>
       </c>
-      <c r="V101">
-        <v>2.025</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6888611</v>
+        <v>6888615</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,58 +9534,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L102">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N102">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V102">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W102">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,13 +9594,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6888612</v>
+        <v>6888610</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,13 +9623,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9638,43 +9638,43 @@
         <v>47</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="N103">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>0.6499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6888610</v>
+        <v>6888612</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,13 +9712,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9727,43 +9727,43 @@
         <v>47</v>
       </c>
       <c r="K104">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
+        <v>3.2</v>
+      </c>
+      <c r="M104">
         <v>4.5</v>
       </c>
-      <c r="M104">
-        <v>11</v>
-      </c>
       <c r="N104">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O104">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="Q104">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6888613</v>
+        <v>6888614</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,73 +9890,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N106">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O106">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P106">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R106">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V106">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W106">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AB106">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6913587</v>
+        <v>6913588</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z107">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6913588</v>
+        <v>6913587</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q108">
+        <v>-0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
+        <v>1.875</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.9</v>
+      </c>
+      <c r="V108">
+        <v>1.9</v>
+      </c>
+      <c r="W108">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>0.4625</v>
+      </c>
+      <c r="AA108">
         <v>-0.5</v>
       </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>2</v>
-      </c>
-      <c r="V108">
-        <v>1.8</v>
-      </c>
-      <c r="W108">
-        <v>-1</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>2.6</v>
-      </c>
-      <c r="Z108">
-        <v>-1</v>
-      </c>
-      <c r="AA108">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7130198</v>
+        <v>7129059</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45184.5</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,43 +10172,43 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N109">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
         <v>1.825</v>
       </c>
-      <c r="S109">
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
         <v>1.975</v>
       </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,16 +10217,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7129059</v>
+        <v>7130198</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45184.5</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,43 +10261,43 @@
         <v>47</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>1.6</v>
+      </c>
+      <c r="O110">
         <v>3.4</v>
       </c>
-      <c r="N110">
-        <v>2.2</v>
-      </c>
-      <c r="O110">
-        <v>3.2</v>
-      </c>
       <c r="P110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
+        <v>1.825</v>
+      </c>
+      <c r="S110">
         <v>1.975</v>
       </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,16 +10306,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>45185.5</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10872,7 +10872,7 @@
         <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7230933</v>
+        <v>7230932</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45192.625</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L119">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M119">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N119">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P119">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q119">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>1.75</v>
       </c>
       <c r="U119">
+        <v>1.975</v>
+      </c>
+      <c r="V119">
         <v>1.825</v>
       </c>
-      <c r="V119">
-        <v>1.975</v>
-      </c>
       <c r="W119">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7230932</v>
+        <v>7230933</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45192.625</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
+        <v>3.1</v>
+      </c>
+      <c r="M121">
+        <v>3.75</v>
+      </c>
+      <c r="N121">
+        <v>1.8</v>
+      </c>
+      <c r="O121">
         <v>3</v>
       </c>
-      <c r="M121">
-        <v>3.6</v>
-      </c>
-      <c r="N121">
-        <v>2.15</v>
-      </c>
-      <c r="O121">
-        <v>2.9</v>
-      </c>
       <c r="P121">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T121">
         <v>1.75</v>
       </c>
       <c r="U121">
+        <v>1.825</v>
+      </c>
+      <c r="V121">
         <v>1.975</v>
       </c>
-      <c r="V121">
-        <v>1.825</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X121">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>45196.5</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7230936</v>
+        <v>7230934</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,34 +11403,34 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P123">
         <v>3.75</v>
@@ -11439,40 +11439,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
         <v>1.75</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
+        <v>1.9</v>
+      </c>
+      <c r="Y123">
+        <v>-1</v>
+      </c>
+      <c r="Z123">
+        <v>-0.5</v>
+      </c>
+      <c r="AA123">
+        <v>0.5125</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
         <v>1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
-      <c r="Y123">
-        <v>-1</v>
-      </c>
-      <c r="Z123">
-        <v>0.8</v>
-      </c>
-      <c r="AA123">
-        <v>-1</v>
-      </c>
-      <c r="AB123">
-        <v>0.825</v>
-      </c>
-      <c r="AC123">
-        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7230948</v>
+        <v>7230936</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,10 +11492,10 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11507,43 +11507,43 @@
         <v>47</v>
       </c>
       <c r="K124">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O124">
         <v>3</v>
       </c>
       <c r="P124">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T124">
         <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11552,13 +11552,13 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7230934</v>
+        <v>7230948</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>3.2</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M125">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
         <v>1.75</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA125">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,10 +11759,10 @@
         <v>45199.625</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11774,25 +11774,25 @@
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L127">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O127">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
         <v>1.95</v>
@@ -11801,16 +11801,16 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,16 +11819,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,10 +11848,10 @@
         <v>45199.625</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11863,25 +11863,25 @@
         <v>47</v>
       </c>
       <c r="K128">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N128">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
         <v>1.95</v>
@@ -11890,16 +11890,16 @@
         <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11908,16 +11908,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7230941</v>
+        <v>7230940</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45205.625</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L131">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M131">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P131">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q131">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
+        <v>1.975</v>
+      </c>
+      <c r="S131">
         <v>1.825</v>
       </c>
-      <c r="S131">
-        <v>1.975</v>
-      </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7230940</v>
+        <v>7230941</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45205.625</v>
       </c>
       <c r="F132" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L132">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N132">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R132">
+        <v>1.825</v>
+      </c>
+      <c r="S132">
         <v>1.975</v>
       </c>
-      <c r="S132">
-        <v>1.825</v>
-      </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7230951</v>
+        <v>7230943</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,56 +12382,56 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
         <v>49</v>
       </c>
       <c r="K134">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N134">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O134">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q134">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
+        <v>1.825</v>
+      </c>
+      <c r="S134">
+        <v>1.975</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
+        <v>1.775</v>
+      </c>
+      <c r="V134">
         <v>2.025</v>
       </c>
-      <c r="S134">
-        <v>1.775</v>
-      </c>
-      <c r="T134">
-        <v>2.25</v>
-      </c>
-      <c r="U134">
-        <v>1.825</v>
-      </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
       <c r="W134">
         <v>-1</v>
       </c>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7230943</v>
+        <v>7230951</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,56 +12471,56 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
         <v>49</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N135">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
+        <v>2.025</v>
+      </c>
+      <c r="S135">
+        <v>1.775</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
         <v>1.825</v>
       </c>
-      <c r="S135">
+      <c r="V135">
         <v>1.975</v>
       </c>
-      <c r="T135">
-        <v>2</v>
-      </c>
-      <c r="U135">
-        <v>1.775</v>
-      </c>
-      <c r="V135">
-        <v>2.025</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7427219</v>
+        <v>7427220</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
+        <v>4</v>
+      </c>
+      <c r="J139" t="s">
+        <v>49</v>
+      </c>
+      <c r="K139">
+        <v>3.1</v>
+      </c>
+      <c r="L139">
+        <v>2.875</v>
+      </c>
+      <c r="M139">
+        <v>2.25</v>
+      </c>
+      <c r="N139">
+        <v>2.875</v>
+      </c>
+      <c r="O139">
+        <v>2.875</v>
+      </c>
+      <c r="P139">
+        <v>2.375</v>
+      </c>
+      <c r="Q139">
+        <v>0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.75</v>
+      </c>
+      <c r="S139">
+        <v>2.05</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
+        <v>1.8</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>1.375</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>1.05</v>
+      </c>
+      <c r="AB139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" t="s">
-        <v>47</v>
-      </c>
-      <c r="K139">
-        <v>1.4</v>
-      </c>
-      <c r="L139">
-        <v>3.8</v>
-      </c>
-      <c r="M139">
-        <v>7.5</v>
-      </c>
-      <c r="N139">
-        <v>1.4</v>
-      </c>
-      <c r="O139">
-        <v>3.6</v>
-      </c>
-      <c r="P139">
-        <v>7</v>
-      </c>
-      <c r="Q139">
-        <v>-1</v>
-      </c>
-      <c r="R139">
-        <v>1.8</v>
-      </c>
-      <c r="S139">
-        <v>2</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
-      <c r="U139">
-        <v>1.9</v>
-      </c>
-      <c r="V139">
-        <v>1.9</v>
-      </c>
-      <c r="W139">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
-      <c r="Z139">
-        <v>0</v>
-      </c>
-      <c r="AA139">
-        <v>-0</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7427220</v>
+        <v>7427219</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L140">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M140">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N140">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7427225</v>
+        <v>7427226</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N143">
-        <v>1.6</v>
+        <v>1.285</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P143">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
         <v>1.85</v>
       </c>
-      <c r="S143">
-        <v>1.95</v>
-      </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
         <v>1.8</v>
       </c>
-      <c r="V143">
-        <v>2</v>
-      </c>
       <c r="W143">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
         <v>0.8</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7427226</v>
+        <v>7427225</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N144">
-        <v>1.285</v>
+        <v>1.6</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
         <v>1.95</v>
       </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13539,7 +13539,7 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13720,7 +13720,7 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13898,7 +13898,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14429,7 +14429,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
         <v>43</v>
@@ -14518,7 +14518,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14607,7 +14607,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -14877,7 +14877,7 @@
         <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14966,7 +14966,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15055,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15411,7 +15411,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>45268.46875</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>41</v>
@@ -15675,7 +15675,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7567876</v>
+        <v>7567197</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,10 +15942,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15957,61 +15957,61 @@
         <v>48</v>
       </c>
       <c r="K174">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M174">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="N174">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O174">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P174">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
+        <v>1.825</v>
+      </c>
+      <c r="S174">
         <v>1.975</v>
       </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
       <c r="T174">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7567197</v>
+        <v>7567876</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,10 +16031,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16046,61 +16046,61 @@
         <v>48</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L175">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="N175">
+        <v>6</v>
+      </c>
+      <c r="O175">
+        <v>3.1</v>
+      </c>
+      <c r="P175">
+        <v>1.65</v>
+      </c>
+      <c r="Q175">
+        <v>0.75</v>
+      </c>
+      <c r="R175">
+        <v>1.975</v>
+      </c>
+      <c r="S175">
+        <v>1.825</v>
+      </c>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
+        <v>1.8</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
         <v>2.1</v>
       </c>
-      <c r="O175">
-        <v>2.9</v>
-      </c>
-      <c r="P175">
-        <v>3.5</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.825</v>
-      </c>
-      <c r="S175">
-        <v>1.975</v>
-      </c>
-      <c r="T175">
-        <v>1.75</v>
-      </c>
-      <c r="U175">
-        <v>1.85</v>
-      </c>
-      <c r="V175">
-        <v>1.95</v>
-      </c>
-      <c r="W175">
-        <v>-1</v>
-      </c>
-      <c r="X175">
-        <v>1.9</v>
-      </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16390,7 +16390,7 @@
         <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16479,7 +16479,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16743,7 +16743,7 @@
         <v>45289.46875</v>
       </c>
       <c r="F183" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
         <v>35</v>
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624517</v>
+        <v>7624465</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F184" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184">
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L184">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="M184">
+        <v>7</v>
+      </c>
+      <c r="N184">
+        <v>1.65</v>
+      </c>
+      <c r="O184">
         <v>3.4</v>
       </c>
-      <c r="N184">
-        <v>2.15</v>
-      </c>
-      <c r="O184">
-        <v>2.8</v>
-      </c>
       <c r="P184">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R184">
+        <v>1.9</v>
+      </c>
+      <c r="S184">
+        <v>1.9</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
-      <c r="T184">
-        <v>1.75</v>
-      </c>
-      <c r="U184">
-        <v>1.825</v>
-      </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X184">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
+        <v>0.45</v>
+      </c>
+      <c r="AA184">
         <v>-0.5</v>
       </c>
-      <c r="AA184">
-        <v>0.5</v>
-      </c>
       <c r="AB184">
         <v>-1</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624465</v>
+        <v>7624517</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K185">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L185">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="M185">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N185">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P185">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U185">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V185">
+        <v>1.975</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
         <v>1.8</v>
       </c>
-      <c r="W185">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7656900</v>
+        <v>7624664</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45296.46875</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N189">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O189">
+        <v>2.7</v>
+      </c>
+      <c r="P189">
         <v>3</v>
       </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7624664</v>
+        <v>7656900</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45296.46875</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L190">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O190">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17458,7 +17458,7 @@
         <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -18167,10 +18167,10 @@
         <v>45303.46875</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18256,7 +18256,7 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
         <v>46</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7567343</v>
+        <v>7567341</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
         <v>1</v>
       </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K206">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M206">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N206">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O206">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P206">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
         <v>1.95</v>
       </c>
-      <c r="S206">
-        <v>1.85</v>
-      </c>
       <c r="T206">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U206">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
         <v>0.95</v>
       </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18879,10 +18879,10 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7567341</v>
+        <v>7567343</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P208">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
+        <v>1.95</v>
+      </c>
+      <c r="S208">
         <v>1.85</v>
       </c>
-      <c r="S208">
-        <v>1.95</v>
-      </c>
       <c r="T208">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U208">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19517,31 +19517,31 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L214">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N214">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O214">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2</v>
@@ -19556,16 +19556,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19606,31 +19606,31 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N215">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2</v>
@@ -19645,16 +19645,16 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
         <v>-1</v>
@@ -19680,10 +19680,10 @@
         <v>45317.47916666666</v>
       </c>
       <c r="F216" t="s">
+        <v>31</v>
+      </c>
+      <c r="G216" t="s">
         <v>30</v>
-      </c>
-      <c r="G216" t="s">
-        <v>31</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -20306,7 +20306,7 @@
         <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H223">
         <v>3</v>
@@ -20751,7 +20751,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7768217</v>
+        <v>7768215</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,58 +20837,58 @@
         <v>45332.5</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G229" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L229">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M229">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N229">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O229">
         <v>3.6</v>
       </c>
       <c r="P229">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q229">
         <v>-1.25</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S229">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T229">
         <v>2</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W229">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20900,13 +20900,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7768216</v>
+        <v>7768217</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,10 +20926,10 @@
         <v>45332.5</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20941,43 +20941,43 @@
         <v>47</v>
       </c>
       <c r="K230">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L230">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M230">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N230">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O230">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S230">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T230">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U230">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
-        <v>1.5</v>
+        <v>0.363</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,13 +20986,13 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB230">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7768215</v>
+        <v>7768216</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,59 +21015,59 @@
         <v>45332.5</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H231">
+        <v>2</v>
+      </c>
+      <c r="I231">
         <v>1</v>
-      </c>
-      <c r="I231">
-        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
+        <v>2.375</v>
+      </c>
+      <c r="L231">
+        <v>2.75</v>
+      </c>
+      <c r="M231">
+        <v>3.1</v>
+      </c>
+      <c r="N231">
+        <v>2.5</v>
+      </c>
+      <c r="O231">
+        <v>2.625</v>
+      </c>
+      <c r="P231">
+        <v>3.1</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>1.7</v>
+      </c>
+      <c r="S231">
+        <v>2.1</v>
+      </c>
+      <c r="T231">
+        <v>1.75</v>
+      </c>
+      <c r="U231">
+        <v>1.95</v>
+      </c>
+      <c r="V231">
+        <v>1.85</v>
+      </c>
+      <c r="W231">
         <v>1.5</v>
       </c>
-      <c r="L231">
-        <v>3.4</v>
-      </c>
-      <c r="M231">
-        <v>6.5</v>
-      </c>
-      <c r="N231">
-        <v>1.4</v>
-      </c>
-      <c r="O231">
-        <v>3.6</v>
-      </c>
-      <c r="P231">
-        <v>10</v>
-      </c>
-      <c r="Q231">
-        <v>-1.25</v>
-      </c>
-      <c r="R231">
-        <v>2</v>
-      </c>
-      <c r="S231">
-        <v>1.8</v>
-      </c>
-      <c r="T231">
-        <v>2</v>
-      </c>
-      <c r="U231">
-        <v>1.85</v>
-      </c>
-      <c r="V231">
-        <v>1.95</v>
-      </c>
-      <c r="W231">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X231">
         <v>-1</v>
       </c>
@@ -21075,16 +21075,16 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA231">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC231">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21196,7 +21196,7 @@
         <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7768182</v>
+        <v>7768219</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21374,73 +21374,73 @@
         <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K235">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L235">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M235">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N235">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O235">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P235">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S235">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T235">
         <v>1.75</v>
       </c>
       <c r="U235">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7768219</v>
+        <v>7768182</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,73 +21463,73 @@
         <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L236">
+        <v>2.9</v>
+      </c>
+      <c r="M236">
+        <v>3.75</v>
+      </c>
+      <c r="N236">
+        <v>2.375</v>
+      </c>
+      <c r="O236">
+        <v>2.9</v>
+      </c>
+      <c r="P236">
         <v>3</v>
       </c>
-      <c r="M236">
-        <v>4.2</v>
-      </c>
-      <c r="N236">
-        <v>1.833</v>
-      </c>
-      <c r="O236">
-        <v>2.8</v>
-      </c>
-      <c r="P236">
-        <v>4.5</v>
-      </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S236">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T236">
         <v>1.75</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X236">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA236">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="237" spans="1:29">

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -106,10 +106,10 @@
     <t>USM Alger</t>
   </si>
   <si>
-    <t>Paradou AC</t>
+    <t>USM Khenchela</t>
   </si>
   <si>
-    <t>USM Khenchela</t>
+    <t>Paradou AC</t>
   </si>
   <si>
     <t>MC Alger</t>
@@ -124,10 +124,10 @@
     <t>ASO Chlef</t>
   </si>
   <si>
-    <t>NC Magra</t>
+    <t>RC Arba</t>
   </si>
   <si>
-    <t>RC Arba</t>
+    <t>NC Magra</t>
   </si>
   <si>
     <t>JS Saoura</t>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6217141</v>
+        <v>6217142</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K3">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2.4</v>
+      </c>
+      <c r="N3">
+        <v>2.2</v>
+      </c>
+      <c r="O3">
         <v>2.9</v>
       </c>
-      <c r="M3">
-        <v>2.7</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
       <c r="P3">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.9</v>
+      </c>
+      <c r="S3">
+        <v>1.9</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.975</v>
+      </c>
+      <c r="V3">
+        <v>1.825</v>
+      </c>
+      <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>1.9</v>
+      </c>
+      <c r="Y3">
+        <v>-1</v>
+      </c>
+      <c r="Z3">
         <v>-0.5</v>
       </c>
-      <c r="R3">
-        <v>2.025</v>
-      </c>
-      <c r="S3">
-        <v>1.775</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1.875</v>
-      </c>
-      <c r="V3">
-        <v>1.925</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>1.025</v>
-      </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB3">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6217142</v>
+        <v>6217141</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L4">
+        <v>2.9</v>
+      </c>
+      <c r="M4">
+        <v>2.7</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>2.4</v>
-      </c>
-      <c r="N4">
-        <v>2.2</v>
-      </c>
-      <c r="O4">
-        <v>2.9</v>
-      </c>
       <c r="P4">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA4">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC4">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6217145</v>
+        <v>6217137</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,55 +1260,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L9">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M9">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
-        <v>0.7270000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6217137</v>
+        <v>6217145</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,55 +1349,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L10">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M10">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O10">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>1.9</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6217149</v>
+        <v>6217148</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,76 +1613,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="Q13">
-        <v>3.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6217148</v>
+        <v>6217149</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,76 +1702,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P14">
+        <v>1.03</v>
+      </c>
+      <c r="Q14">
         <v>3.5</v>
       </c>
-      <c r="Q14">
-        <v>-0.25</v>
-      </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1794,7 +1794,7 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1880,7 +1880,7 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2503,7 +2503,7 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6371489</v>
+        <v>6371492</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
+        <v>2.75</v>
+      </c>
+      <c r="M27">
+        <v>3.3</v>
+      </c>
+      <c r="N27">
+        <v>2.3</v>
+      </c>
+      <c r="O27">
+        <v>2.8</v>
+      </c>
+      <c r="P27">
         <v>3.2</v>
       </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="N27">
-        <v>1.571</v>
-      </c>
-      <c r="O27">
-        <v>3.2</v>
-      </c>
-      <c r="P27">
-        <v>6.5</v>
-      </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
         <v>1.8</v>
       </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
       <c r="T27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>-0.5</v>
+      </c>
+      <c r="AA27">
         <v>0.4</v>
       </c>
-      <c r="AA27">
-        <v>-0.5</v>
-      </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6371492</v>
+        <v>6371489</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O28">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>0.4</v>
+      </c>
+      <c r="AA28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.4</v>
-      </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6371496</v>
+        <v>6371495</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>1.285</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z29">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6371495</v>
+        <v>6371496</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="L30">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>1.285</v>
+        <v>5.5</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>1.55</v>
       </c>
       <c r="O30">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6411974</v>
+        <v>6411973</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O31">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
         <v>1.925</v>
-      </c>
-      <c r="S31">
-        <v>1.875</v>
       </c>
       <c r="T31">
         <v>1.75</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X31">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
+        <v>0.875</v>
+      </c>
+      <c r="AA31">
+        <v>-1</v>
+      </c>
+      <c r="AB31">
+        <v>0.375</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AA31">
-        <v>0.4375</v>
-      </c>
-      <c r="AB31">
-        <v>-1</v>
-      </c>
-      <c r="AC31">
-        <v>0.875</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3304,7 +3304,7 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>39</v>
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6411973</v>
+        <v>6411974</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
+        <v>1.925</v>
+      </c>
+      <c r="S33">
         <v>1.875</v>
-      </c>
-      <c r="S33">
-        <v>1.925</v>
       </c>
       <c r="T33">
         <v>1.75</v>
       </c>
       <c r="U33">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>-0.5</v>
+      </c>
+      <c r="AA33">
+        <v>0.4375</v>
+      </c>
+      <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.875</v>
-      </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
-      <c r="AB33">
-        <v>0.375</v>
-      </c>
-      <c r="AC33">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3482,10 +3482,10 @@
         <v>45017.48958333334</v>
       </c>
       <c r="F34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G34" t="s">
         <v>31</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3749,10 +3749,10 @@
         <v>45023.48958333334</v>
       </c>
       <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3930,7 +3930,7 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6411986</v>
+        <v>6411985</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="N41">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="O41">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P41">
+        <v>3.4</v>
+      </c>
+      <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.95</v>
+      </c>
+      <c r="S41">
+        <v>1.85</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>1.95</v>
+      </c>
+      <c r="V41">
+        <v>1.85</v>
+      </c>
+      <c r="W41">
         <v>1.2</v>
       </c>
-      <c r="Q41">
-        <v>1.75</v>
-      </c>
-      <c r="R41">
-        <v>1.825</v>
-      </c>
-      <c r="S41">
-        <v>1.975</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6411985</v>
+        <v>6411986</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="O42">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P42">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6411983</v>
+        <v>6411982</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,10 +4283,10 @@
         <v>45025.75</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4298,61 +4298,61 @@
         <v>48</v>
       </c>
       <c r="K43">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="L43">
         <v>3.1</v>
       </c>
       <c r="M43">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N43">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O43">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>-1</v>
+      </c>
+      <c r="R43">
+        <v>1.9</v>
+      </c>
+      <c r="S43">
+        <v>1.9</v>
+      </c>
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
+        <v>1.75</v>
+      </c>
+      <c r="V43">
         <v>2.05</v>
       </c>
-      <c r="Q43">
-        <v>0.25</v>
-      </c>
-      <c r="R43">
-        <v>2.025</v>
-      </c>
-      <c r="S43">
-        <v>1.775</v>
-      </c>
-      <c r="T43">
-        <v>1.75</v>
-      </c>
-      <c r="U43">
-        <v>1.95</v>
-      </c>
-      <c r="V43">
-        <v>1.85</v>
-      </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB43">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6411982</v>
+        <v>6411983</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,10 +4372,10 @@
         <v>45025.75</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4387,61 +4387,61 @@
         <v>48</v>
       </c>
       <c r="K44">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L44">
         <v>3.1</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N44">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P44">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q44">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
+        <v>2.025</v>
+      </c>
+      <c r="S44">
+        <v>1.775</v>
+      </c>
+      <c r="T44">
+        <v>1.75</v>
+      </c>
+      <c r="U44">
+        <v>1.95</v>
+      </c>
+      <c r="V44">
+        <v>1.85</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
         <v>1.9</v>
       </c>
-      <c r="S44">
-        <v>1.9</v>
-      </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
-      <c r="U44">
-        <v>1.75</v>
-      </c>
-      <c r="V44">
-        <v>2.05</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>2.8</v>
-      </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA44">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC44">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>45027.48958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4553,7 +4553,7 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4642,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>45055.5</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5265,7 +5265,7 @@
         <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6658490</v>
+        <v>6658488</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,13 +5351,13 @@
         <v>45063.5</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -5366,43 +5366,43 @@
         <v>47</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q55">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
         <v>2</v>
       </c>
       <c r="U55">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>0.5329999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5411,16 +5411,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6658488</v>
+        <v>6658490</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,13 +5440,13 @@
         <v>45063.5</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -5455,43 +5455,43 @@
         <v>47</v>
       </c>
       <c r="K56">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N56">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
         <v>2</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>1.1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5500,16 +5500,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5532,7 +5532,7 @@
         <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6629380</v>
+        <v>6629385</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,58 +5707,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N59">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="O59">
         <v>3.2</v>
       </c>
       <c r="P59">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q59">
         <v>-1</v>
       </c>
       <c r="R59">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S59">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W59">
-        <v>0.571</v>
+        <v>0.444</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5767,13 +5767,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6629385</v>
+        <v>6629380</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5796,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
+        <v>1.615</v>
+      </c>
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60">
+        <v>6</v>
+      </c>
+      <c r="N60">
         <v>1.571</v>
-      </c>
-      <c r="L60">
-        <v>3.1</v>
-      </c>
-      <c r="M60">
-        <v>6.5</v>
-      </c>
-      <c r="N60">
-        <v>1.444</v>
       </c>
       <c r="O60">
         <v>3.2</v>
       </c>
       <c r="P60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q60">
         <v>-1</v>
       </c>
       <c r="R60">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S60">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,13 +5856,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5885,7 +5885,7 @@
         <v>45067.5</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -5977,7 +5977,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6687382</v>
+        <v>6709150</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6066,73 +6066,73 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="L63">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N63">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="O63">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
+        <v>1.875</v>
+      </c>
+      <c r="V63">
         <v>1.925</v>
       </c>
-      <c r="V63">
-        <v>1.875</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.925</v>
-      </c>
-      <c r="AC63">
-        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6709150</v>
+        <v>6687386</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,40 +6152,40 @@
         <v>45077.5</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L64">
+        <v>2.875</v>
+      </c>
+      <c r="M64">
         <v>3.4</v>
       </c>
-      <c r="M64">
-        <v>1.615</v>
-      </c>
       <c r="N64">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P64">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R64">
         <v>1.775</v>
@@ -6194,34 +6194,34 @@
         <v>2.025</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
+        <v>1.925</v>
+      </c>
+      <c r="V64">
         <v>1.875</v>
       </c>
-      <c r="V64">
-        <v>1.925</v>
-      </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z64">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6687386</v>
+        <v>6687382</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6241,49 +6241,49 @@
         <v>45077.5</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J65" t="s">
         <v>49</v>
       </c>
       <c r="K65">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L65">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M65">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N65">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O65">
+        <v>2.8</v>
+      </c>
+      <c r="P65">
         <v>3.6</v>
       </c>
-      <c r="P65">
-        <v>7.5</v>
-      </c>
       <c r="Q65">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T65">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U65">
         <v>1.925</v>
@@ -6298,19 +6298,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC65">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6687383</v>
+        <v>6687385</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,58 +6330,58 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>47</v>
       </c>
       <c r="K66">
-        <v>3.1</v>
+        <v>1.166</v>
       </c>
       <c r="L66">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="M66">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N66">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O66">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P66">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
-        <v>1.25</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6390,16 +6390,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6687385</v>
+        <v>6687383</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,58 +6419,58 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
       </c>
       <c r="K67">
-        <v>1.166</v>
+        <v>3.1</v>
       </c>
       <c r="L67">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="M67">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="N67">
-        <v>1.166</v>
+        <v>2.25</v>
       </c>
       <c r="O67">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P67">
-        <v>17</v>
+        <v>3.1</v>
       </c>
       <c r="Q67">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W67">
-        <v>0.1659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6479,16 +6479,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA67">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6687389</v>
+        <v>6687391</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,13 +6597,13 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -6612,43 +6612,43 @@
         <v>47</v>
       </c>
       <c r="K69">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N69">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O69">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P69">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q69">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6657,16 +6657,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA69">
         <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6687390</v>
+        <v>6687019</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,46 +6686,46 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="L70">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M70">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="N70">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="O70">
         <v>2.9</v>
       </c>
       <c r="P70">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T70">
         <v>1.75</v>
@@ -6740,22 +6740,22 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
+        <v>0.75</v>
+      </c>
+      <c r="AB70">
         <v>0.8</v>
       </c>
-      <c r="AB70">
-        <v>-1</v>
-      </c>
       <c r="AC70">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6687019</v>
+        <v>6687387</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,55 +6775,55 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>1</v>
-      </c>
-      <c r="I71">
-        <v>3</v>
       </c>
       <c r="J71" t="s">
         <v>49</v>
       </c>
       <c r="K71">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L71">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O71">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R71">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S71">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T71">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W71">
         <v>-1</v>
@@ -6832,19 +6832,19 @@
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.45</v>
+        <v>5.5</v>
       </c>
       <c r="Z71">
         <v>-1</v>
       </c>
       <c r="AA71">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6687020</v>
+        <v>6687389</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,10 +6864,10 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6879,43 +6879,43 @@
         <v>47</v>
       </c>
       <c r="K72">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N72">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
+        <v>1.875</v>
+      </c>
+      <c r="S72">
+        <v>1.925</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>1.75</v>
-      </c>
-      <c r="U72">
-        <v>1.95</v>
-      </c>
-      <c r="V72">
-        <v>1.85</v>
-      </c>
       <c r="W72">
-        <v>0.6659999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6924,16 +6924,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
+        <v>0.875</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>-1</v>
+      </c>
+      <c r="AC72">
         <v>0.8</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0.475</v>
-      </c>
-      <c r="AC72">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6687387</v>
+        <v>6687390</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>0</v>
       </c>
       <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73">
+        <v>1.95</v>
+      </c>
+      <c r="L73">
+        <v>2.875</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>2.05</v>
+      </c>
+      <c r="O73">
+        <v>2.9</v>
+      </c>
+      <c r="P73">
+        <v>3.8</v>
+      </c>
+      <c r="Q73">
+        <v>-0.5</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>1.75</v>
+      </c>
+      <c r="U73">
+        <v>1.8</v>
+      </c>
+      <c r="V73">
+        <v>2</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>1.9</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>0.8</v>
+      </c>
+      <c r="AB73">
+        <v>-1</v>
+      </c>
+      <c r="AC73">
         <v>1</v>
-      </c>
-      <c r="J73" t="s">
-        <v>49</v>
-      </c>
-      <c r="K73">
-        <v>1.5</v>
-      </c>
-      <c r="L73">
-        <v>3.6</v>
-      </c>
-      <c r="M73">
-        <v>6.5</v>
-      </c>
-      <c r="N73">
-        <v>1.5</v>
-      </c>
-      <c r="O73">
-        <v>3.6</v>
-      </c>
-      <c r="P73">
-        <v>6.5</v>
-      </c>
-      <c r="Q73">
-        <v>-1</v>
-      </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>2.025</v>
-      </c>
-      <c r="V73">
-        <v>1.775</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>5.5</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
-      <c r="AA73">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
-      <c r="AC73">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6687391</v>
+        <v>6687020</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,13 +7042,13 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -7057,25 +7057,25 @@
         <v>47</v>
       </c>
       <c r="K74">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R74">
         <v>1.8</v>
@@ -7084,16 +7084,16 @@
         <v>2</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
-        <v>0.6499999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7108,10 +7108,10 @@
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6765522</v>
+        <v>6765583</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,58 +7487,58 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
         <v>1</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>47</v>
       </c>
       <c r="K79">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M79">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="N79">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O79">
+        <v>3</v>
+      </c>
+      <c r="P79">
         <v>3.75</v>
       </c>
-      <c r="P79">
-        <v>7.5</v>
-      </c>
       <c r="Q79">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
+        <v>1.725</v>
+      </c>
+      <c r="S79">
+        <v>2.075</v>
+      </c>
+      <c r="T79">
+        <v>2</v>
+      </c>
+      <c r="U79">
+        <v>2.05</v>
+      </c>
+      <c r="V79">
         <v>1.75</v>
       </c>
-      <c r="S79">
-        <v>2.05</v>
-      </c>
-      <c r="T79">
-        <v>2.25</v>
-      </c>
-      <c r="U79">
-        <v>2.025</v>
-      </c>
-      <c r="V79">
-        <v>1.775</v>
-      </c>
       <c r="W79">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7547,16 +7547,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC79">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6765583</v>
+        <v>6765584</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7579,7 +7579,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7591,43 +7591,43 @@
         <v>47</v>
       </c>
       <c r="K80">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L80">
         <v>2.8</v>
       </c>
       <c r="M80">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O80">
         <v>3</v>
       </c>
       <c r="P80">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q80">
         <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V80">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W80">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7636,13 +7636,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AC80">
         <v>-1</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6765584</v>
+        <v>6765588</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K81">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M81">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N81">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O81">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
         <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7757,7 +7757,7 @@
         <v>39</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6765585</v>
+        <v>6765522</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,40 +7843,40 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L83">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O83">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="P83">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q83">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R83">
         <v>1.75</v>
@@ -7885,34 +7885,34 @@
         <v>2.05</v>
       </c>
       <c r="T83">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X83">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA83">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB83">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6765588</v>
+        <v>6765585</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N85">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O85">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P85">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S85">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC85">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6743297</v>
+        <v>6743977</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,61 +8110,61 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L86">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N86">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O86">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q86">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W86">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
         <v>-1</v>
@@ -8173,13 +8173,13 @@
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6743977</v>
+        <v>6743989</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,76 +8199,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
         <v>36</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M87">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="N87">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
         <v>2.25</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA87">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB87">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6744005</v>
+        <v>6743297</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,10 +8377,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8392,43 +8392,43 @@
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P89">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6743978</v>
+        <v>6744005</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,13 +8555,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8570,43 +8570,43 @@
         <v>47</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L91">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O91">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P91">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V91">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8615,16 +8615,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB91">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6743989</v>
+        <v>6743978</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,58 +8644,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>2</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>47</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M92">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P92">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
+        <v>1.825</v>
+      </c>
+      <c r="S92">
         <v>1.975</v>
       </c>
-      <c r="S92">
-        <v>1.825</v>
-      </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U92">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V92">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W92">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8704,16 +8704,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA92">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6872721</v>
+        <v>6872727</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.65</v>
+      </c>
+      <c r="O93">
+        <v>3.3</v>
+      </c>
+      <c r="P93">
+        <v>4.75</v>
+      </c>
+      <c r="Q93">
+        <v>-0.75</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
+        <v>1.85</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
+        <v>1.75</v>
+      </c>
+      <c r="V93">
+        <v>2.05</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
         <v>3.75</v>
       </c>
-      <c r="M93">
-        <v>7</v>
-      </c>
-      <c r="N93">
-        <v>1.363</v>
-      </c>
-      <c r="O93">
-        <v>4.2</v>
-      </c>
-      <c r="P93">
-        <v>7</v>
-      </c>
-      <c r="Q93">
-        <v>-1.25</v>
-      </c>
-      <c r="R93">
-        <v>2.025</v>
-      </c>
-      <c r="S93">
-        <v>1.775</v>
-      </c>
-      <c r="T93">
-        <v>2</v>
-      </c>
-      <c r="U93">
-        <v>1.925</v>
-      </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
-      <c r="W93">
-        <v>0.363</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6872722</v>
+        <v>6872723</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,34 +8822,34 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M94">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O94">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
         <v>4.2</v>
@@ -8858,40 +8858,40 @@
         <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S94">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V94">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z94">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB94">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6872723</v>
+        <v>6872725</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>30</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.8</v>
+        <v>1.285</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="N95">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="P95">
-        <v>4.2</v>
+        <v>11</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6872724</v>
+        <v>6872722</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,58 +9000,58 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H96">
+        <v>3</v>
+      </c>
+      <c r="I96">
         <v>1</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
       </c>
       <c r="J96" t="s">
         <v>47</v>
       </c>
       <c r="K96">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
         <v>6.5</v>
       </c>
       <c r="N96">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O96">
         <v>3.1</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q96">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V96">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W96">
-        <v>0.6499999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9060,16 +9060,16 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC96">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,7 +9089,7 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>42</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6872725</v>
+        <v>6872721</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,58 +9178,58 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>47</v>
       </c>
       <c r="K98">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N98">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="O98">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W98">
-        <v>0.25</v>
+        <v>0.363</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9238,13 +9238,13 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6872727</v>
+        <v>6872724</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,49 +9267,49 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K99">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N99">
         <v>1.65</v>
       </c>
       <c r="O99">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q99">
         <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
         <v>1.75</v>
@@ -9318,25 +9318,25 @@
         <v>2.05</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA99">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9356,7 +9356,7 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6888611</v>
+        <v>6888610</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,58 +9445,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>47</v>
       </c>
       <c r="K101">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>11</v>
       </c>
       <c r="N101">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U101">
+        <v>1.775</v>
+      </c>
+      <c r="V101">
         <v>2.025</v>
       </c>
-      <c r="V101">
-        <v>1.775</v>
-      </c>
       <c r="W101">
-        <v>0.6499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9505,16 +9505,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6888615</v>
+        <v>6888611</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,58 +9534,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>47</v>
       </c>
       <c r="K102">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L102">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M102">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N102">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q102">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R102">
+        <v>1.9</v>
+      </c>
+      <c r="S102">
+        <v>1.9</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>2.025</v>
+      </c>
+      <c r="V102">
         <v>1.775</v>
       </c>
-      <c r="S102">
-        <v>2.025</v>
-      </c>
-      <c r="T102">
-        <v>2</v>
-      </c>
-      <c r="U102">
-        <v>1.875</v>
-      </c>
-      <c r="V102">
-        <v>1.925</v>
-      </c>
       <c r="W102">
-        <v>0.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X102">
         <v>-1</v>
@@ -9594,13 +9594,13 @@
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6888610</v>
+        <v>6888612</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,13 +9623,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9638,43 +9638,43 @@
         <v>47</v>
       </c>
       <c r="K103">
-        <v>1.25</v>
+        <v>1.727</v>
       </c>
       <c r="L103">
+        <v>3.2</v>
+      </c>
+      <c r="M103">
         <v>4.5</v>
       </c>
-      <c r="M103">
-        <v>11</v>
-      </c>
       <c r="N103">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>12</v>
+        <v>5.75</v>
       </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6888612</v>
+        <v>6888615</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,13 +9712,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -9727,43 +9727,43 @@
         <v>47</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M104">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N104">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R104">
+        <v>1.775</v>
+      </c>
+      <c r="S104">
+        <v>2.025</v>
+      </c>
+      <c r="T104">
+        <v>2</v>
+      </c>
+      <c r="U104">
         <v>1.875</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.925</v>
       </c>
-      <c r="T104">
-        <v>1.75</v>
-      </c>
-      <c r="U104">
-        <v>1.9</v>
-      </c>
-      <c r="V104">
-        <v>1.9</v>
-      </c>
       <c r="W104">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6913588</v>
+        <v>6913587</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F107" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q107">
+        <v>-0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
+        <v>1.875</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.9</v>
+      </c>
+      <c r="V107">
+        <v>1.9</v>
+      </c>
+      <c r="W107">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>0.4625</v>
+      </c>
+      <c r="AA107">
         <v>-0.5</v>
       </c>
-      <c r="R107">
-        <v>1.95</v>
-      </c>
-      <c r="S107">
-        <v>1.85</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>2</v>
-      </c>
-      <c r="V107">
-        <v>1.8</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>2.6</v>
-      </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
-      <c r="AA107">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6913587</v>
+        <v>6913588</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z108">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10246,7 +10246,7 @@
         <v>45184.5</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110" t="s">
         <v>33</v>
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7130200</v>
+        <v>7130570</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45185.5</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K112">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="L112">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M112">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N112">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O112">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P112">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q112">
+        <v>-1.5</v>
+      </c>
+      <c r="R112">
+        <v>1.925</v>
+      </c>
+      <c r="S112">
+        <v>1.875</v>
+      </c>
+      <c r="T112">
+        <v>2.25</v>
+      </c>
+      <c r="U112">
+        <v>1.85</v>
+      </c>
+      <c r="V112">
+        <v>1.95</v>
+      </c>
+      <c r="W112">
         <v>0.25</v>
       </c>
-      <c r="R112">
-        <v>1.9</v>
-      </c>
-      <c r="S112">
-        <v>1.9</v>
-      </c>
-      <c r="T112">
-        <v>1.75</v>
-      </c>
-      <c r="U112">
-        <v>1.875</v>
-      </c>
-      <c r="V112">
-        <v>1.925</v>
-      </c>
-      <c r="W112">
-        <v>-1</v>
-      </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA112">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7130570</v>
+        <v>7130200</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45185.5</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H113">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K113">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="L113">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M113">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N113">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O113">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P113">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q113">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R113">
+        <v>1.9</v>
+      </c>
+      <c r="S113">
+        <v>1.9</v>
+      </c>
+      <c r="T113">
+        <v>1.75</v>
+      </c>
+      <c r="U113">
+        <v>1.875</v>
+      </c>
+      <c r="V113">
         <v>1.925</v>
       </c>
-      <c r="S113">
-        <v>1.875</v>
-      </c>
-      <c r="T113">
-        <v>2.25</v>
-      </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
       <c r="W113">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>0.925</v>
-      </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
-      <c r="AB113">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC113">
-        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10872,7 +10872,7 @@
         <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7230932</v>
+        <v>7230931</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,76 +11047,76 @@
         <v>45192.625</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K119">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L119">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O119">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U119">
+        <v>1.825</v>
+      </c>
+      <c r="V119">
         <v>1.975</v>
       </c>
-      <c r="V119">
-        <v>1.825</v>
-      </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X119">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7230931</v>
+        <v>7230933</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,13 +11136,13 @@
         <v>45192.625</v>
       </c>
       <c r="F120" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -11151,34 +11151,34 @@
         <v>47</v>
       </c>
       <c r="K120">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M120">
+        <v>3.75</v>
+      </c>
+      <c r="N120">
+        <v>1.8</v>
+      </c>
+      <c r="O120">
+        <v>3</v>
+      </c>
+      <c r="P120">
         <v>4.5</v>
       </c>
-      <c r="N120">
-        <v>1.65</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
-      <c r="P120">
-        <v>5.25</v>
-      </c>
       <c r="Q120">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S120">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U120">
         <v>1.825</v>
@@ -11187,7 +11187,7 @@
         <v>1.975</v>
       </c>
       <c r="W120">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11196,7 +11196,7 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7230933</v>
+        <v>7230932</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45192.625</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P121">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q121">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
         <v>1.75</v>
       </c>
       <c r="U121">
+        <v>1.975</v>
+      </c>
+      <c r="V121">
         <v>1.825</v>
       </c>
-      <c r="V121">
-        <v>1.975</v>
-      </c>
       <c r="W121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>45196.5</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7230934</v>
+        <v>7230936</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,34 +11403,34 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L123">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N123">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O123">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P123">
         <v>3.75</v>
@@ -11439,40 +11439,40 @@
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T123">
         <v>1.75</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X123">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA123">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7230936</v>
+        <v>7230948</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,10 +11492,10 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11507,43 +11507,43 @@
         <v>47</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M124">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O124">
         <v>3</v>
       </c>
       <c r="P124">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T124">
         <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11552,13 +11552,13 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7230948</v>
+        <v>7230934</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>3.2</v>
       </c>
       <c r="L125">
+        <v>2.8</v>
+      </c>
+      <c r="M125">
+        <v>2.25</v>
+      </c>
+      <c r="N125">
+        <v>1.95</v>
+      </c>
+      <c r="O125">
         <v>2.9</v>
       </c>
-      <c r="M125">
-        <v>2.2</v>
-      </c>
-      <c r="N125">
-        <v>2.05</v>
-      </c>
-      <c r="O125">
-        <v>3</v>
-      </c>
       <c r="P125">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
         <v>1.75</v>
       </c>
       <c r="U125">
+        <v>1.8</v>
+      </c>
+      <c r="V125">
+        <v>2</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
         <v>1.9</v>
       </c>
-      <c r="V125">
-        <v>1.9</v>
-      </c>
-      <c r="W125">
-        <v>1.05</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,10 +11759,10 @@
         <v>45199.625</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11774,25 +11774,25 @@
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L127">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N127">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P127">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R127">
         <v>1.95</v>
@@ -11801,16 +11801,16 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,16 +11819,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,10 +11848,10 @@
         <v>45199.625</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11863,25 +11863,25 @@
         <v>47</v>
       </c>
       <c r="K128">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O128">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
         <v>1.95</v>
@@ -11890,16 +11890,16 @@
         <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11908,16 +11908,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7230942</v>
+        <v>7230950</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,58 +11937,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H129">
+        <v>5</v>
+      </c>
+      <c r="I129">
         <v>3</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
       </c>
       <c r="K129">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L129">
+        <v>3.25</v>
+      </c>
+      <c r="M129">
+        <v>4.333</v>
+      </c>
+      <c r="N129">
+        <v>1.5</v>
+      </c>
+      <c r="O129">
         <v>3.5</v>
       </c>
-      <c r="M129">
-        <v>5.25</v>
-      </c>
-      <c r="N129">
-        <v>1.666</v>
-      </c>
-      <c r="O129">
-        <v>3.3</v>
-      </c>
       <c r="P129">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,13 +11997,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7230950</v>
+        <v>7230942</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,58 +12026,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>47</v>
       </c>
       <c r="K130">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,13 +12086,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12118,7 +12118,7 @@
         <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12207,7 +12207,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7230944</v>
+        <v>7230951</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,76 +12293,76 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K133">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M133">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N133">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P133">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q133">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T133">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W133">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z133">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7230943</v>
+        <v>7230944</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,34 +12382,34 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M134">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N134">
         <v>1.8</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
         <v>4</v>
@@ -12418,40 +12418,40 @@
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
         <v>2</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7230951</v>
+        <v>7230943</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,56 +12471,56 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>49</v>
       </c>
       <c r="K135">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M135">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N135">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P135">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q135">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R135">
+        <v>1.825</v>
+      </c>
+      <c r="S135">
+        <v>1.975</v>
+      </c>
+      <c r="T135">
+        <v>2</v>
+      </c>
+      <c r="U135">
+        <v>1.775</v>
+      </c>
+      <c r="V135">
         <v>2.025</v>
       </c>
-      <c r="S135">
-        <v>1.775</v>
-      </c>
-      <c r="T135">
-        <v>2.25</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
       <c r="W135">
         <v>-1</v>
       </c>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB135">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12741,7 +12741,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12916,7 +12916,7 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>34</v>
@@ -13183,7 +13183,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
         <v>39</v>
@@ -13272,7 +13272,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>45</v>
@@ -13539,7 +13539,7 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13720,7 +13720,7 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13898,7 +13898,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14429,7 +14429,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G157" t="s">
         <v>43</v>
@@ -14518,7 +14518,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14607,7 +14607,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -14877,7 +14877,7 @@
         <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14966,7 +14966,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15055,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15411,7 +15411,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>45268.46875</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G169" t="s">
         <v>41</v>
@@ -15675,7 +15675,7 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -16212,7 +16212,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16390,7 +16390,7 @@
         <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16479,7 +16479,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7624516</v>
+        <v>7624465</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,49 +16743,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J183" t="s">
         <v>47</v>
       </c>
       <c r="K183">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L183">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="M183">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N183">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O183">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P183">
         <v>4.75</v>
       </c>
       <c r="Q183">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S183">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T183">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U183">
         <v>2</v>
@@ -16794,7 +16794,7 @@
         <v>1.8</v>
       </c>
       <c r="W183">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X183">
         <v>-1</v>
@@ -16803,16 +16803,16 @@
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA183">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB183">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC183">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624465</v>
+        <v>7624516</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,49 +16832,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G184" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H184">
+        <v>2</v>
+      </c>
+      <c r="I184">
         <v>1</v>
-      </c>
-      <c r="I184">
-        <v>0</v>
       </c>
       <c r="J184" t="s">
         <v>47</v>
       </c>
       <c r="K184">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="M184">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P184">
         <v>4.75</v>
       </c>
       <c r="Q184">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S184">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U184">
         <v>2</v>
@@ -16883,7 +16883,7 @@
         <v>1.8</v>
       </c>
       <c r="W184">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X184">
         <v>-1</v>
@@ -16892,16 +16892,16 @@
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC184">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16921,7 +16921,7 @@
         <v>45289.46875</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7624498</v>
+        <v>7624597</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L187">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M187">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N187">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P187">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T187">
         <v>2</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA187">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7624597</v>
+        <v>7624498</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L188">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N188">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O188">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7624664</v>
+        <v>7624657</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,73 +17277,73 @@
         <v>45296.46875</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L189">
         <v>2.8</v>
       </c>
       <c r="M189">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="O189">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W189">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7656900</v>
+        <v>7624664</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45296.46875</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L190">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N190">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O190">
+        <v>2.7</v>
+      </c>
+      <c r="P190">
         <v>3</v>
       </c>
-      <c r="P190">
-        <v>2.625</v>
-      </c>
       <c r="Q190">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7624657</v>
+        <v>7656900</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,55 +17455,55 @@
         <v>45296.46875</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>4</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L191">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O191">
         <v>3</v>
       </c>
       <c r="P191">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17512,19 +17512,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.8500000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB191">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -18167,10 +18167,10 @@
         <v>45303.46875</v>
       </c>
       <c r="F199" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18256,7 +18256,7 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G200" t="s">
         <v>46</v>
@@ -18879,10 +18879,10 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18968,7 +18968,7 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
         <v>33</v>
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19517,31 +19517,31 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M214">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N214">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2</v>
@@ -19556,16 +19556,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19606,31 +19606,31 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L215">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N215">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O215">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2</v>
@@ -19645,16 +19645,16 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
         <v>-1</v>
@@ -19680,10 +19680,10 @@
         <v>45317.47916666666</v>
       </c>
       <c r="F216" t="s">
+        <v>30</v>
+      </c>
+      <c r="G216" t="s">
         <v>31</v>
-      </c>
-      <c r="G216" t="s">
-        <v>30</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7680043</v>
+        <v>7680045</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,58 +20036,58 @@
         <v>45318.5</v>
       </c>
       <c r="F220" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
       </c>
       <c r="K220">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L220">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M220">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="N220">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O220">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P220">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q220">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R220">
+        <v>1.775</v>
+      </c>
+      <c r="S220">
+        <v>2.025</v>
+      </c>
+      <c r="T220">
+        <v>2</v>
+      </c>
+      <c r="U220">
         <v>1.95</v>
       </c>
-      <c r="S220">
+      <c r="V220">
         <v>1.85</v>
       </c>
-      <c r="T220">
-        <v>2.5</v>
-      </c>
-      <c r="U220">
-        <v>1.925</v>
-      </c>
-      <c r="V220">
-        <v>1.875</v>
-      </c>
       <c r="W220">
-        <v>0.222</v>
+        <v>1.05</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20096,16 +20096,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA220">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC220">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7680045</v>
+        <v>7680043</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,58 +20125,58 @@
         <v>45318.5</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G221" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>47</v>
       </c>
       <c r="K221">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L221">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M221">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O221">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P221">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R221">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S221">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T221">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V221">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>0.222</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20185,16 +20185,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB221">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC221">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H223">
         <v>3</v>
@@ -20751,7 +20751,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -20840,7 +20840,7 @@
         <v>42</v>
       </c>
       <c r="G229" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H229">
         <v>1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7768217</v>
+        <v>7768216</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,10 +20926,10 @@
         <v>45332.5</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H230">
         <v>2</v>
@@ -20941,43 +20941,43 @@
         <v>47</v>
       </c>
       <c r="K230">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L230">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M230">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N230">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P230">
-        <v>9.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q230">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R230">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="S230">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T230">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U230">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V230">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W230">
-        <v>0.363</v>
+        <v>1.5</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,13 +20986,13 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA230">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
         <v>-1</v>
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7768216</v>
+        <v>7768217</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,10 +21015,10 @@
         <v>45332.5</v>
       </c>
       <c r="F231" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G231" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H231">
         <v>2</v>
@@ -21030,43 +21030,43 @@
         <v>47</v>
       </c>
       <c r="K231">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L231">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M231">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N231">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O231">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S231">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T231">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U231">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V231">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W231">
-        <v>1.5</v>
+        <v>0.363</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21075,13 +21075,13 @@
         <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB231">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC231">
         <v>-1</v>
@@ -21196,7 +21196,7 @@
         <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7768219</v>
+        <v>7768182</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21374,73 +21374,73 @@
         <v>30</v>
       </c>
       <c r="G235" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K235">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L235">
+        <v>2.9</v>
+      </c>
+      <c r="M235">
+        <v>3.75</v>
+      </c>
+      <c r="N235">
+        <v>2.375</v>
+      </c>
+      <c r="O235">
+        <v>2.9</v>
+      </c>
+      <c r="P235">
         <v>3</v>
       </c>
-      <c r="M235">
-        <v>4.2</v>
-      </c>
-      <c r="N235">
-        <v>1.833</v>
-      </c>
-      <c r="O235">
-        <v>2.8</v>
-      </c>
-      <c r="P235">
-        <v>4.5</v>
-      </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R235">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S235">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T235">
         <v>1.75</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W235">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X235">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA235">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7768182</v>
+        <v>7768219</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21463,73 +21463,73 @@
         <v>31</v>
       </c>
       <c r="G236" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K236">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L236">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N236">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O236">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P236">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q236">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S236">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T236">
         <v>1.75</v>
       </c>
       <c r="U236">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V236">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W236">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="237" spans="1:29">

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6217148</v>
+        <v>6217149</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,76 +1613,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="N13">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P13">
+        <v>1.03</v>
+      </c>
+      <c r="Q13">
         <v>3.5</v>
       </c>
-      <c r="Q13">
-        <v>-0.25</v>
-      </c>
       <c r="R13">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6217149</v>
+        <v>6217148</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,76 +1702,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M14">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="O14">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P14">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>3.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S14">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T14">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6334661</v>
+        <v>6334662</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O23">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P23">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U23">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6334662</v>
+        <v>6334661</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L24">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O24">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P24">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X24">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6371492</v>
+        <v>6371489</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L27">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O27">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X27">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0.4</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.4</v>
-      </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6371489</v>
+        <v>6371492</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
+        <v>2.75</v>
+      </c>
+      <c r="M28">
+        <v>3.3</v>
+      </c>
+      <c r="N28">
+        <v>2.3</v>
+      </c>
+      <c r="O28">
+        <v>2.8</v>
+      </c>
+      <c r="P28">
         <v>3.2</v>
       </c>
-      <c r="M28">
-        <v>5</v>
-      </c>
-      <c r="N28">
-        <v>1.571</v>
-      </c>
-      <c r="O28">
-        <v>3.2</v>
-      </c>
-      <c r="P28">
-        <v>6.5</v>
-      </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
+        <v>2</v>
+      </c>
+      <c r="S28">
         <v>1.8</v>
       </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
       <c r="T28">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U28">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>-0.5</v>
+      </c>
+      <c r="AA28">
         <v>0.4</v>
       </c>
-      <c r="AA28">
-        <v>-0.5</v>
-      </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6371495</v>
+        <v>6371496</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="L29">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>1.285</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>9</v>
+        <v>1.55</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="Q29">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6371496</v>
+        <v>6371495</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K30">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="L30">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M30">
-        <v>5.5</v>
+        <v>1.285</v>
       </c>
       <c r="N30">
-        <v>1.55</v>
+        <v>9</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P30">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z30">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6411973</v>
+        <v>6411975</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,16 +3215,16 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>47</v>
@@ -3233,40 +3233,40 @@
         <v>1.909</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3275,16 +3275,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6411975</v>
+        <v>6411974</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N32">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O32">
         <v>2.9</v>
       </c>
       <c r="P32">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q32">
+        <v>-0.25</v>
+      </c>
+      <c r="R32">
+        <v>1.925</v>
+      </c>
+      <c r="S32">
+        <v>1.875</v>
+      </c>
+      <c r="T32">
+        <v>1.75</v>
+      </c>
+      <c r="U32">
+        <v>1.925</v>
+      </c>
+      <c r="V32">
+        <v>1.875</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>1.9</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>-0.5</v>
       </c>
-      <c r="R32">
-        <v>1.95</v>
-      </c>
-      <c r="S32">
-        <v>1.85</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
-      <c r="W32">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>0.95</v>
-      </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6411974</v>
+        <v>6411973</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,76 +3393,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L33">
         <v>3</v>
       </c>
       <c r="M33">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>1.875</v>
+      </c>
+      <c r="S33">
         <v>1.925</v>
-      </c>
-      <c r="S33">
-        <v>1.875</v>
       </c>
       <c r="T33">
         <v>1.75</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>0.875</v>
+      </c>
+      <c r="AA33">
+        <v>-1</v>
+      </c>
+      <c r="AB33">
+        <v>0.375</v>
+      </c>
+      <c r="AC33">
         <v>-0.5</v>
-      </c>
-      <c r="AA33">
-        <v>0.4375</v>
-      </c>
-      <c r="AB33">
-        <v>-1</v>
-      </c>
-      <c r="AC33">
-        <v>0.875</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6411978</v>
+        <v>6411979</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,13 +3571,13 @@
         <v>45021.75</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3586,43 +3586,43 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N35">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="O35">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q35">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R35">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>0.5</v>
+        <v>0.181</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3631,16 +3631,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6411979</v>
+        <v>6411978</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,13 +3660,13 @@
         <v>45021.75</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3675,43 +3675,43 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L36">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N36">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="O36">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P36">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q36">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R36">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.181</v>
+        <v>0.5</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6496797</v>
+        <v>6496796</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45024.75</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>1.727</v>
       </c>
       <c r="L39">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N39">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O39">
         <v>3.1</v>
       </c>
       <c r="P39">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R39">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S39">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T39">
         <v>1.75</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X39">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA39">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6496796</v>
+        <v>6496797</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45024.75</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>3.3</v>
+      </c>
+      <c r="M40">
+        <v>2.1</v>
+      </c>
+      <c r="N40">
         <v>1.727</v>
-      </c>
-      <c r="L40">
-        <v>3.25</v>
-      </c>
-      <c r="M40">
-        <v>4.5</v>
-      </c>
-      <c r="N40">
-        <v>1.909</v>
       </c>
       <c r="O40">
         <v>3.1</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="Q40">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T40">
         <v>1.75</v>
       </c>
       <c r="U40">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6658489</v>
+        <v>6658490</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45063.5</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N54">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P54">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Q54">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X54">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6658490</v>
+        <v>6658489</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45063.5</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L56">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
+        <v>7.5</v>
+      </c>
+      <c r="N56">
+        <v>1.25</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
+      </c>
+      <c r="P56">
+        <v>11</v>
+      </c>
+      <c r="Q56">
+        <v>-1.5</v>
+      </c>
+      <c r="R56">
+        <v>1.85</v>
+      </c>
+      <c r="S56">
+        <v>1.95</v>
+      </c>
+      <c r="T56">
+        <v>2.5</v>
+      </c>
+      <c r="U56">
+        <v>1.85</v>
+      </c>
+      <c r="V56">
+        <v>1.95</v>
+      </c>
+      <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
         <v>4</v>
       </c>
-      <c r="N56">
-        <v>1.533</v>
-      </c>
-      <c r="O56">
-        <v>3.4</v>
-      </c>
-      <c r="P56">
-        <v>6.5</v>
-      </c>
-      <c r="Q56">
-        <v>-1</v>
-      </c>
-      <c r="R56">
-        <v>2</v>
-      </c>
-      <c r="S56">
-        <v>1.8</v>
-      </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
-      <c r="U56">
-        <v>1.775</v>
-      </c>
-      <c r="V56">
-        <v>2.025</v>
-      </c>
-      <c r="W56">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6687391</v>
+        <v>6687019</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,73 +6597,73 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H69">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M69">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N69">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P69">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
+        <v>1.75</v>
+      </c>
+      <c r="T69">
+        <v>1.75</v>
+      </c>
+      <c r="U69">
         <v>1.8</v>
       </c>
-      <c r="S69">
-        <v>2</v>
-      </c>
-      <c r="T69">
-        <v>2.25</v>
-      </c>
-      <c r="U69">
-        <v>1.9</v>
-      </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z69">
+        <v>-1</v>
+      </c>
+      <c r="AA69">
+        <v>0.75</v>
+      </c>
+      <c r="AB69">
         <v>0.8</v>
-      </c>
-      <c r="AA69">
-        <v>-1</v>
-      </c>
-      <c r="AB69">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6687019</v>
+        <v>6687391</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,73 +6686,73 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="L70">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M70">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="O70">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S70">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA70">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6687387</v>
+        <v>6687389</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L71">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M71">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N71">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P71">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q71">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S71">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V71">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6687389</v>
+        <v>6687387</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K72">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L72">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N72">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q72">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R72">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z72">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6687390</v>
+        <v>6687020</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L73">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N73">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O73">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q73">
         <v>-0.5</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T73">
         <v>1.75</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X73">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC73">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6687020</v>
+        <v>6687390</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P74">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
       </c>
       <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
         <v>1.8</v>
-      </c>
-      <c r="S74">
-        <v>2</v>
       </c>
       <c r="T74">
         <v>1.75</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W74">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
+        <v>-1</v>
+      </c>
+      <c r="AA74">
         <v>0.8</v>
       </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
       <c r="AB74">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6765588</v>
+        <v>6765585</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>48</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M81">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N81">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P81">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6765522</v>
+        <v>6765588</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K83">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M83">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N83">
-        <v>1.4</v>
+        <v>1.727</v>
       </c>
       <c r="O83">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>7.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R83">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V83">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W83">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6765519</v>
+        <v>6765522</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,76 +7932,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K84">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N84">
-        <v>1.65</v>
+        <v>1.4</v>
       </c>
       <c r="O84">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P84">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q84">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R84">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S84">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T84">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X84">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6765585</v>
+        <v>6765519</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,76 +8021,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
       </c>
       <c r="K85">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L85">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M85">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N85">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P85">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T85">
         <v>1.75</v>
       </c>
       <c r="U85">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V85">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB85">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6743989</v>
+        <v>6744005</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,58 +8199,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
         <v>47</v>
       </c>
       <c r="K87">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O87">
         <v>3.75</v>
       </c>
       <c r="P87">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T87">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8259,16 +8259,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6744018</v>
+        <v>6743978</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,58 +8288,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="N88">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
         <v>2.9</v>
       </c>
       <c r="P88">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
         <v>1.75</v>
       </c>
       <c r="U88">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V88">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W88">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.375</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6743297</v>
+        <v>6743989</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,58 +8377,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L89">
+        <v>3.5</v>
+      </c>
+      <c r="M89">
         <v>4.5</v>
       </c>
-      <c r="M89">
-        <v>9</v>
-      </c>
       <c r="N89">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O89">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P89">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q89">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
         <v>1.825</v>
       </c>
-      <c r="S89">
+      <c r="T89">
+        <v>2.25</v>
+      </c>
+      <c r="U89">
         <v>1.975</v>
       </c>
-      <c r="T89">
-        <v>2.5</v>
-      </c>
-      <c r="U89">
+      <c r="V89">
         <v>1.825</v>
       </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
       <c r="W89">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA89">
+        <v>-0</v>
+      </c>
+      <c r="AB89">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB89">
-        <v>-1</v>
-      </c>
       <c r="AC89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6744005</v>
+        <v>6743297</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,10 +8555,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8570,43 +8570,43 @@
         <v>47</v>
       </c>
       <c r="K91">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N91">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="O91">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P91">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R91">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T91">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>0.3999999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8615,16 +8615,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6743978</v>
+        <v>6744018</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,58 +8644,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
         <v>47</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L92">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N92">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O92">
         <v>2.9</v>
       </c>
       <c r="P92">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T92">
         <v>1.75</v>
       </c>
       <c r="U92">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8704,16 +8704,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
         <v>0.825</v>
       </c>
-      <c r="AA92">
-        <v>-1</v>
-      </c>
-      <c r="AB92">
-        <v>0.375</v>
-      </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6872727</v>
+        <v>6872723</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,55 +8733,55 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
         <v>1</v>
-      </c>
-      <c r="I93">
-        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>49</v>
       </c>
       <c r="K93">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N93">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O93">
         <v>3.3</v>
       </c>
       <c r="P93">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S93">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W93">
         <v>-1</v>
@@ -8790,19 +8790,19 @@
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6872723</v>
+        <v>6872722</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,34 +8822,34 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="L94">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N94">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
         <v>4.2</v>
@@ -8858,40 +8858,40 @@
         <v>-0.5</v>
       </c>
       <c r="R94">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC94">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6872725</v>
+        <v>6872724</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,40 +8911,40 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
-        <v>1.285</v>
+        <v>1.55</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="N95">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O95">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
         <v>1.9</v>
@@ -8953,16 +8953,16 @@
         <v>1.9</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W95">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8971,16 +8971,16 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA95">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6872722</v>
+        <v>6872725</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,13 +9000,13 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -9015,58 +9015,58 @@
         <v>47</v>
       </c>
       <c r="K96">
-        <v>1.45</v>
+        <v>1.285</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N96">
+        <v>1.25</v>
+      </c>
+      <c r="O96">
+        <v>5</v>
+      </c>
+      <c r="P96">
+        <v>11</v>
+      </c>
+      <c r="Q96">
+        <v>-1.5</v>
+      </c>
+      <c r="R96">
+        <v>1.9</v>
+      </c>
+      <c r="S96">
+        <v>1.9</v>
+      </c>
+      <c r="T96">
+        <v>2.25</v>
+      </c>
+      <c r="U96">
         <v>1.85</v>
       </c>
-      <c r="O96">
-        <v>3.1</v>
-      </c>
-      <c r="P96">
-        <v>4.2</v>
-      </c>
-      <c r="Q96">
-        <v>-0.5</v>
-      </c>
-      <c r="R96">
+      <c r="V96">
         <v>1.95</v>
       </c>
-      <c r="S96">
-        <v>1.85</v>
-      </c>
-      <c r="T96">
-        <v>2</v>
-      </c>
-      <c r="U96">
-        <v>2.025</v>
-      </c>
-      <c r="V96">
-        <v>1.775</v>
-      </c>
       <c r="W96">
+        <v>0.25</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB96">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X96">
-        <v>-1</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>0.95</v>
-      </c>
-      <c r="AA96">
-        <v>-1</v>
-      </c>
-      <c r="AB96">
-        <v>1.025</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6872721</v>
+        <v>6872727</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,73 +9178,73 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K98">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L98">
+        <v>3.4</v>
+      </c>
+      <c r="M98">
+        <v>6</v>
+      </c>
+      <c r="N98">
+        <v>1.65</v>
+      </c>
+      <c r="O98">
+        <v>3.3</v>
+      </c>
+      <c r="P98">
+        <v>4.75</v>
+      </c>
+      <c r="Q98">
+        <v>-0.75</v>
+      </c>
+      <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
+        <v>1.75</v>
+      </c>
+      <c r="V98">
+        <v>2.05</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
         <v>3.75</v>
       </c>
-      <c r="M98">
-        <v>7</v>
-      </c>
-      <c r="N98">
-        <v>1.363</v>
-      </c>
-      <c r="O98">
-        <v>4.2</v>
-      </c>
-      <c r="P98">
-        <v>7</v>
-      </c>
-      <c r="Q98">
-        <v>-1.25</v>
-      </c>
-      <c r="R98">
-        <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
-      </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>1.925</v>
-      </c>
-      <c r="V98">
-        <v>1.875</v>
-      </c>
-      <c r="W98">
-        <v>0.363</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
       <c r="Z98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC98">
         <v>-1</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6872724</v>
+        <v>6872721</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M99">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N99">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U99">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W99">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC99">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6888610</v>
+        <v>6888615</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,13 +9445,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9460,25 +9460,25 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>1.25</v>
+        <v>3.5</v>
       </c>
       <c r="L101">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="M101">
-        <v>11</v>
+        <v>2.1</v>
       </c>
       <c r="N101">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>12</v>
+        <v>5.25</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
         <v>1.775</v>
@@ -9490,13 +9490,13 @@
         <v>2</v>
       </c>
       <c r="U101">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9511,10 +9511,10 @@
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6888611</v>
+        <v>6888614</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,73 +9534,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
         <v>3</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K102">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L102">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P102">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S102">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U102">
+        <v>1.775</v>
+      </c>
+      <c r="V102">
         <v>2.025</v>
       </c>
-      <c r="V102">
-        <v>1.775</v>
-      </c>
       <c r="W102">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z102">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6888612</v>
+        <v>6888610</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,13 +9623,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -9638,43 +9638,43 @@
         <v>47</v>
       </c>
       <c r="K103">
-        <v>1.727</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="N103">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P103">
-        <v>5.75</v>
+        <v>12</v>
       </c>
       <c r="Q103">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>0.6499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6888615</v>
+        <v>6888611</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,58 +9712,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L104">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M104">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N104">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P104">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="Q104">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
+        <v>1.9</v>
+      </c>
+      <c r="S104">
+        <v>1.9</v>
+      </c>
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
+        <v>2.025</v>
+      </c>
+      <c r="V104">
         <v>1.775</v>
       </c>
-      <c r="S104">
-        <v>2.025</v>
-      </c>
-      <c r="T104">
-        <v>2</v>
-      </c>
-      <c r="U104">
-        <v>1.875</v>
-      </c>
-      <c r="V104">
-        <v>1.925</v>
-      </c>
       <c r="W104">
-        <v>0.7</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,13 +9772,13 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6888609</v>
+        <v>6888612</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,76 +9801,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>1.666</v>
+        <v>1.727</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>4.2</v>
+        <v>5.75</v>
       </c>
       <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>1.875</v>
+      </c>
+      <c r="S105">
+        <v>1.925</v>
+      </c>
+      <c r="T105">
+        <v>1.75</v>
+      </c>
+      <c r="U105">
+        <v>1.9</v>
+      </c>
+      <c r="V105">
+        <v>1.9</v>
+      </c>
+      <c r="W105">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.4375</v>
+      </c>
+      <c r="AA105">
         <v>-0.5</v>
       </c>
-      <c r="R105">
-        <v>2.025</v>
-      </c>
-      <c r="S105">
-        <v>1.775</v>
-      </c>
-      <c r="T105">
-        <v>2</v>
-      </c>
-      <c r="U105">
-        <v>1.95</v>
-      </c>
-      <c r="V105">
-        <v>1.85</v>
-      </c>
-      <c r="W105">
-        <v>-1</v>
-      </c>
-      <c r="X105">
-        <v>2</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>-1</v>
-      </c>
-      <c r="AA105">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6888614</v>
+        <v>6888609</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>48</v>
+      </c>
+      <c r="K106">
+        <v>1.666</v>
+      </c>
+      <c r="L106">
         <v>3</v>
       </c>
-      <c r="J106" t="s">
-        <v>49</v>
-      </c>
-      <c r="K106">
-        <v>1.8</v>
-      </c>
-      <c r="L106">
-        <v>3.2</v>
-      </c>
       <c r="M106">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N106">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O106">
         <v>3</v>
       </c>
       <c r="P106">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
+        <v>2.025</v>
+      </c>
+      <c r="S106">
+        <v>1.775</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.85</v>
       </c>
-      <c r="S106">
-        <v>1.95</v>
-      </c>
-      <c r="T106">
-        <v>1.75</v>
-      </c>
-      <c r="U106">
-        <v>1.775</v>
-      </c>
-      <c r="V106">
-        <v>2.025</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y106">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6913587</v>
+        <v>6913588</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K107">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L107">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N107">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q107">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T107">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z107">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6913588</v>
+        <v>6913587</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O108">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q108">
+        <v>-0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
+        <v>1.875</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.9</v>
+      </c>
+      <c r="V108">
+        <v>1.9</v>
+      </c>
+      <c r="W108">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
+        <v>0.4625</v>
+      </c>
+      <c r="AA108">
         <v>-0.5</v>
       </c>
-      <c r="R108">
-        <v>1.95</v>
-      </c>
-      <c r="S108">
-        <v>1.85</v>
-      </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>2</v>
-      </c>
-      <c r="V108">
-        <v>1.8</v>
-      </c>
-      <c r="W108">
-        <v>-1</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>2.6</v>
-      </c>
-      <c r="Z108">
-        <v>-1</v>
-      </c>
-      <c r="AA108">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7129059</v>
+        <v>7130198</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45184.5</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,43 +10172,43 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L109">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M109">
+        <v>5</v>
+      </c>
+      <c r="N109">
+        <v>1.6</v>
+      </c>
+      <c r="O109">
         <v>3.4</v>
       </c>
-      <c r="N109">
-        <v>2.2</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
       <c r="P109">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
+        <v>1.825</v>
+      </c>
+      <c r="S109">
         <v>1.975</v>
       </c>
-      <c r="S109">
-        <v>1.825</v>
-      </c>
       <c r="T109">
         <v>2</v>
       </c>
       <c r="U109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,16 +10217,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7130198</v>
+        <v>7129059</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45184.5</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,43 +10261,43 @@
         <v>47</v>
       </c>
       <c r="K110">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q110">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
+        <v>1.975</v>
+      </c>
+      <c r="S110">
         <v>1.825</v>
       </c>
-      <c r="S110">
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.975</v>
       </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,16 +10306,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10412,7 +10412,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7130570</v>
+        <v>7130200</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10424,76 +10424,76 @@
         <v>45185.5</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="L112">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M112">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N112">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O112">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P112">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q112">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
+        <v>1.9</v>
+      </c>
+      <c r="S112">
+        <v>1.9</v>
+      </c>
+      <c r="T112">
+        <v>1.75</v>
+      </c>
+      <c r="U112">
+        <v>1.875</v>
+      </c>
+      <c r="V112">
         <v>1.925</v>
       </c>
-      <c r="S112">
-        <v>1.875</v>
-      </c>
-      <c r="T112">
-        <v>2.25</v>
-      </c>
-      <c r="U112">
-        <v>1.85</v>
-      </c>
-      <c r="V112">
-        <v>1.95</v>
-      </c>
       <c r="W112">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z112">
+        <v>-1</v>
+      </c>
+      <c r="AA112">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB112">
+        <v>-1</v>
+      </c>
+      <c r="AC112">
         <v>0.925</v>
-      </c>
-      <c r="AA112">
-        <v>-1</v>
-      </c>
-      <c r="AB112">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC112">
-        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10501,7 +10501,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7130200</v>
+        <v>7130570</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10513,76 +10513,76 @@
         <v>45185.5</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G113" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K113">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="L113">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M113">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N113">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O113">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P113">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q113">
+        <v>-1.5</v>
+      </c>
+      <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
+        <v>1.875</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>1.85</v>
+      </c>
+      <c r="V113">
+        <v>1.95</v>
+      </c>
+      <c r="W113">
         <v>0.25</v>
       </c>
-      <c r="R113">
-        <v>1.9</v>
-      </c>
-      <c r="S113">
-        <v>1.9</v>
-      </c>
-      <c r="T113">
-        <v>1.75</v>
-      </c>
-      <c r="U113">
-        <v>1.875</v>
-      </c>
-      <c r="V113">
-        <v>1.925</v>
-      </c>
-      <c r="W113">
-        <v>-1</v>
-      </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA113">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10679,7 +10679,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7239829</v>
+        <v>7230929</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10691,73 +10691,73 @@
         <v>45191.5</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K115">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="L115">
         <v>3</v>
       </c>
       <c r="M115">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N115">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P115">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S115">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T115">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W115">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC115">
         <v>-1</v>
@@ -10768,7 +10768,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7230929</v>
+        <v>7239829</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10780,73 +10780,73 @@
         <v>45191.5</v>
       </c>
       <c r="F116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H116">
         <v>2</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="L116">
         <v>3</v>
       </c>
       <c r="M116">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N116">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P116">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R116">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U116">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V116">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X116">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7230931</v>
+        <v>7230933</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,13 +11047,13 @@
         <v>45192.625</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -11062,34 +11062,34 @@
         <v>47</v>
       </c>
       <c r="K119">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M119">
+        <v>3.75</v>
+      </c>
+      <c r="N119">
+        <v>1.8</v>
+      </c>
+      <c r="O119">
+        <v>3</v>
+      </c>
+      <c r="P119">
         <v>4.5</v>
       </c>
-      <c r="N119">
-        <v>1.65</v>
-      </c>
-      <c r="O119">
-        <v>3.2</v>
-      </c>
-      <c r="P119">
-        <v>5.25</v>
-      </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U119">
         <v>1.825</v>
@@ -11098,7 +11098,7 @@
         <v>1.975</v>
       </c>
       <c r="W119">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,7 +11107,7 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
         <v>-1</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7230933</v>
+        <v>7230932</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45192.625</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N120">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P120">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
         <v>1.75</v>
       </c>
       <c r="U120">
+        <v>1.975</v>
+      </c>
+      <c r="V120">
         <v>1.825</v>
       </c>
-      <c r="V120">
-        <v>1.975</v>
-      </c>
       <c r="W120">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB120">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7230932</v>
+        <v>7230931</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45192.625</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N121">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O121">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P121">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T121">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U121">
+        <v>1.825</v>
+      </c>
+      <c r="V121">
         <v>1.975</v>
       </c>
-      <c r="V121">
-        <v>1.825</v>
-      </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X121">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA121">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7230948</v>
+        <v>7230934</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
         <v>3.2</v>
       </c>
       <c r="L124">
+        <v>2.8</v>
+      </c>
+      <c r="M124">
+        <v>2.25</v>
+      </c>
+      <c r="N124">
+        <v>1.95</v>
+      </c>
+      <c r="O124">
         <v>2.9</v>
       </c>
-      <c r="M124">
-        <v>2.2</v>
-      </c>
-      <c r="N124">
-        <v>2.05</v>
-      </c>
-      <c r="O124">
-        <v>3</v>
-      </c>
       <c r="P124">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q124">
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>1.75</v>
       </c>
       <c r="U124">
+        <v>1.8</v>
+      </c>
+      <c r="V124">
+        <v>2</v>
+      </c>
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
         <v>1.9</v>
       </c>
-      <c r="V124">
-        <v>1.9</v>
-      </c>
-      <c r="W124">
-        <v>1.05</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7230934</v>
+        <v>7230948</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>3.2</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M125">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O125">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T125">
         <v>1.75</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA125">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,10 +11759,10 @@
         <v>45199.625</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11774,25 +11774,25 @@
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L127">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O127">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P127">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q127">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
         <v>1.95</v>
@@ -11801,16 +11801,16 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,16 +11819,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA127">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,10 +11848,10 @@
         <v>45199.625</v>
       </c>
       <c r="F128" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G128" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11863,25 +11863,25 @@
         <v>47</v>
       </c>
       <c r="K128">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L128">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M128">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N128">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O128">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P128">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R128">
         <v>1.95</v>
@@ -11890,16 +11890,16 @@
         <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W128">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11908,16 +11908,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7230950</v>
+        <v>7230942</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,58 +11937,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,13 +11997,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7230942</v>
+        <v>7230950</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,58 +12026,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H130">
+        <v>5</v>
+      </c>
+      <c r="I130">
         <v>3</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>47</v>
       </c>
       <c r="K130">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
+        <v>3.25</v>
+      </c>
+      <c r="M130">
+        <v>4.333</v>
+      </c>
+      <c r="N130">
+        <v>1.5</v>
+      </c>
+      <c r="O130">
         <v>3.5</v>
       </c>
-      <c r="M130">
-        <v>5.25</v>
-      </c>
-      <c r="N130">
-        <v>1.666</v>
-      </c>
-      <c r="O130">
-        <v>3.3</v>
-      </c>
       <c r="P130">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,13 +12086,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7230944</v>
+        <v>7230943</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,34 +12382,34 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F134" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
         <v>1</v>
       </c>
-      <c r="I134">
-        <v>0</v>
-      </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K134">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="L134">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M134">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N134">
         <v>1.8</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P134">
         <v>4</v>
@@ -12418,40 +12418,40 @@
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T134">
         <v>2</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z134">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7230943</v>
+        <v>7230944</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,34 +12471,34 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L135">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M135">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N135">
         <v>1.8</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
         <v>4</v>
@@ -12507,40 +12507,40 @@
         <v>-0.5</v>
       </c>
       <c r="R135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T135">
         <v>2</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA135">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7427220</v>
+        <v>7427219</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L139">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M139">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N139">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7427219</v>
+        <v>7427220</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140" t="s">
+        <v>49</v>
+      </c>
+      <c r="K140">
+        <v>3.1</v>
+      </c>
+      <c r="L140">
+        <v>2.875</v>
+      </c>
+      <c r="M140">
+        <v>2.25</v>
+      </c>
+      <c r="N140">
+        <v>2.875</v>
+      </c>
+      <c r="O140">
+        <v>2.875</v>
+      </c>
+      <c r="P140">
+        <v>2.375</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.75</v>
+      </c>
+      <c r="S140">
+        <v>2.05</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
+        <v>1.8</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>1.375</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>1.05</v>
+      </c>
+      <c r="AB140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" t="s">
-        <v>47</v>
-      </c>
-      <c r="K140">
-        <v>1.4</v>
-      </c>
-      <c r="L140">
-        <v>3.8</v>
-      </c>
-      <c r="M140">
-        <v>7.5</v>
-      </c>
-      <c r="N140">
-        <v>1.4</v>
-      </c>
-      <c r="O140">
-        <v>3.6</v>
-      </c>
-      <c r="P140">
-        <v>7</v>
-      </c>
-      <c r="Q140">
-        <v>-1</v>
-      </c>
-      <c r="R140">
-        <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>1.9</v>
-      </c>
-      <c r="V140">
-        <v>1.9</v>
-      </c>
-      <c r="W140">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-      <c r="AA140">
-        <v>-0</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7427226</v>
+        <v>7427225</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N143">
-        <v>1.285</v>
+        <v>1.6</v>
       </c>
       <c r="O143">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q143">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R143">
+        <v>1.85</v>
+      </c>
+      <c r="S143">
         <v>1.95</v>
       </c>
-      <c r="S143">
-        <v>1.85</v>
-      </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V143">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W143">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7427225</v>
+        <v>7427226</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K144">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M144">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N144">
-        <v>1.6</v>
+        <v>1.285</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P144">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q144">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R144">
+        <v>1.95</v>
+      </c>
+      <c r="S144">
         <v>1.85</v>
       </c>
-      <c r="S144">
-        <v>1.95</v>
-      </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
         <v>1.8</v>
       </c>
-      <c r="V144">
-        <v>2</v>
-      </c>
       <c r="W144">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z144">
+        <v>-1</v>
+      </c>
+      <c r="AA144">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA144">
-        <v>-1</v>
-      </c>
       <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.8</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7513409</v>
+        <v>7513410</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45262.53125</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K165">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L165">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M165">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N165">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O165">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P165">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q165">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V165">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7513410</v>
+        <v>7513409</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45262.53125</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K166">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L166">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M166">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N166">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="O166">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P166">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R166">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S166">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T166">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V166">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X166">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7537790</v>
+        <v>7537791</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,76 +15675,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L171">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M171">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N171">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O171">
         <v>2.875</v>
       </c>
       <c r="P171">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T171">
         <v>2</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7537791</v>
+        <v>7537790</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15764,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L172">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N172">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O172">
         <v>2.875</v>
       </c>
       <c r="P172">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T172">
         <v>2</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
+        <v>1.825</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
         <v>1.875</v>
       </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
       <c r="Y172">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7567197</v>
+        <v>7567876</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,10 +15942,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G174" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15957,61 +15957,61 @@
         <v>48</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L174">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="N174">
+        <v>6</v>
+      </c>
+      <c r="O174">
+        <v>3.1</v>
+      </c>
+      <c r="P174">
+        <v>1.65</v>
+      </c>
+      <c r="Q174">
+        <v>0.75</v>
+      </c>
+      <c r="R174">
+        <v>1.975</v>
+      </c>
+      <c r="S174">
+        <v>1.825</v>
+      </c>
+      <c r="T174">
+        <v>2</v>
+      </c>
+      <c r="U174">
+        <v>2</v>
+      </c>
+      <c r="V174">
+        <v>1.8</v>
+      </c>
+      <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
         <v>2.1</v>
       </c>
-      <c r="O174">
-        <v>2.9</v>
-      </c>
-      <c r="P174">
-        <v>3.5</v>
-      </c>
-      <c r="Q174">
-        <v>-0.25</v>
-      </c>
-      <c r="R174">
-        <v>1.825</v>
-      </c>
-      <c r="S174">
-        <v>1.975</v>
-      </c>
-      <c r="T174">
-        <v>1.75</v>
-      </c>
-      <c r="U174">
-        <v>1.85</v>
-      </c>
-      <c r="V174">
-        <v>1.95</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
-      <c r="X174">
-        <v>1.9</v>
-      </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA174">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC174">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7567876</v>
+        <v>7567197</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,10 +16031,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F175" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16046,61 +16046,61 @@
         <v>48</v>
       </c>
       <c r="K175">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M175">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="N175">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O175">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P175">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q175">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
+        <v>1.825</v>
+      </c>
+      <c r="S175">
         <v>1.975</v>
       </c>
-      <c r="S175">
-        <v>1.825</v>
-      </c>
       <c r="T175">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U175">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V175">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W175">
         <v>-1</v>
       </c>
       <c r="X175">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB175">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC175">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7624465</v>
+        <v>7624517</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L183">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N183">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P183">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
+        <v>1.975</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
         <v>1.8</v>
       </c>
-      <c r="W183">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624517</v>
+        <v>7624465</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F185" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L185">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="M185">
+        <v>7</v>
+      </c>
+      <c r="N185">
+        <v>1.65</v>
+      </c>
+      <c r="O185">
         <v>3.4</v>
       </c>
-      <c r="N185">
-        <v>2.15</v>
-      </c>
-      <c r="O185">
-        <v>2.8</v>
-      </c>
       <c r="P185">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
+        <v>1.9</v>
+      </c>
+      <c r="S185">
+        <v>1.9</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
-      <c r="T185">
-        <v>1.75</v>
-      </c>
-      <c r="U185">
-        <v>1.825</v>
-      </c>
-      <c r="V185">
-        <v>1.975</v>
-      </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X185">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>0.45</v>
+      </c>
+      <c r="AA185">
         <v>-0.5</v>
       </c>
-      <c r="AA185">
-        <v>0.5</v>
-      </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7624657</v>
+        <v>7656900</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,55 +17277,55 @@
         <v>45296.46875</v>
       </c>
       <c r="F189" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H189">
+        <v>0</v>
+      </c>
+      <c r="I189">
         <v>1</v>
-      </c>
-      <c r="I189">
-        <v>4</v>
       </c>
       <c r="J189" t="s">
         <v>49</v>
       </c>
       <c r="K189">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L189">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M189">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N189">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O189">
         <v>3</v>
       </c>
       <c r="P189">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S189">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T189">
         <v>2</v>
       </c>
       <c r="U189">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V189">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17334,19 +17334,19 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>0.8500000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="Z189">
         <v>-1</v>
       </c>
       <c r="AA189">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB189">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC189">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7656900</v>
+        <v>7624657</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,55 +17455,55 @@
         <v>45296.46875</v>
       </c>
       <c r="F191" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L191">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M191">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N191">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O191">
         <v>3</v>
       </c>
       <c r="P191">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17512,19 +17512,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB191">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7567342</v>
+        <v>7567343</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K207">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L207">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N207">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O207">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P207">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S207">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
         <v>1.75</v>
       </c>
       <c r="U207">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V207">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X207">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7567343</v>
+        <v>7567342</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N208">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O208">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P208">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S208">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T208">
         <v>1.75</v>
       </c>
       <c r="U208">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V208">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC208">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G214" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19517,31 +19517,31 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L214">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M214">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N214">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O214">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R214">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S214">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
         <v>2</v>
@@ -19556,16 +19556,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G215" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19606,31 +19606,31 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L215">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M215">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N215">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P215">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q215">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T215">
         <v>2</v>
@@ -19645,16 +19645,16 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA215">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
         <v>-1</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7768215</v>
+        <v>7768216</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,59 +20837,59 @@
         <v>45332.5</v>
       </c>
       <c r="F229" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G229" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
         <v>1</v>
-      </c>
-      <c r="I229">
-        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>47</v>
       </c>
       <c r="K229">
+        <v>2.375</v>
+      </c>
+      <c r="L229">
+        <v>2.75</v>
+      </c>
+      <c r="M229">
+        <v>3.1</v>
+      </c>
+      <c r="N229">
+        <v>2.5</v>
+      </c>
+      <c r="O229">
+        <v>2.625</v>
+      </c>
+      <c r="P229">
+        <v>3.1</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>1.7</v>
+      </c>
+      <c r="S229">
+        <v>2.1</v>
+      </c>
+      <c r="T229">
+        <v>1.75</v>
+      </c>
+      <c r="U229">
+        <v>1.95</v>
+      </c>
+      <c r="V229">
+        <v>1.85</v>
+      </c>
+      <c r="W229">
         <v>1.5</v>
       </c>
-      <c r="L229">
-        <v>3.4</v>
-      </c>
-      <c r="M229">
-        <v>6.5</v>
-      </c>
-      <c r="N229">
-        <v>1.4</v>
-      </c>
-      <c r="O229">
-        <v>3.6</v>
-      </c>
-      <c r="P229">
-        <v>10</v>
-      </c>
-      <c r="Q229">
-        <v>-1.25</v>
-      </c>
-      <c r="R229">
-        <v>2</v>
-      </c>
-      <c r="S229">
-        <v>1.8</v>
-      </c>
-      <c r="T229">
-        <v>2</v>
-      </c>
-      <c r="U229">
-        <v>1.85</v>
-      </c>
-      <c r="V229">
-        <v>1.95</v>
-      </c>
-      <c r="W229">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X229">
         <v>-1</v>
       </c>
@@ -20897,16 +20897,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA229">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC229">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7768216</v>
+        <v>7768215</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,58 +20926,58 @@
         <v>45332.5</v>
       </c>
       <c r="F230" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="L230">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="N230">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O230">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q230">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R230">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S230">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T230">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U230">
+        <v>1.85</v>
+      </c>
+      <c r="V230">
         <v>1.95</v>
       </c>
-      <c r="V230">
-        <v>1.85</v>
-      </c>
       <c r="W230">
-        <v>1.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X230">
         <v>-1</v>
@@ -20986,16 +20986,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA230">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
         <v>0.95</v>
-      </c>
-      <c r="AC230">
-        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -124,10 +124,10 @@
     <t>ASO Chlef</t>
   </si>
   <si>
-    <t>RC Arba</t>
+    <t>NC Magra</t>
   </si>
   <si>
-    <t>NC Magra</t>
+    <t>RC Arba</t>
   </si>
   <si>
     <t>JS Saoura</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC240"/>
+  <dimension ref="A1:AC246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -815,7 +815,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6217137</v>
+        <v>6217145</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,55 +1260,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L9">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M9">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N9">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O9">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P9">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U9">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
-        <v>1.9</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6217145</v>
+        <v>6217137</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,55 +1349,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L10">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M10">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N10">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O10">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P10">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q10">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T10">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V10">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W10">
-        <v>0.7270000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC10">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1601,7 +1601,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6217149</v>
+        <v>6217148</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1613,76 +1613,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>1.285</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>1.03</v>
+        <v>3.5</v>
       </c>
       <c r="Q13">
-        <v>3.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S13">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T13">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6217148</v>
+        <v>6217149</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,76 +1702,76 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>3.4</v>
+        <v>1.285</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P14">
+        <v>1.03</v>
+      </c>
+      <c r="Q14">
         <v>3.5</v>
       </c>
-      <c r="Q14">
-        <v>-0.25</v>
-      </c>
       <c r="R14">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA14">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6313978</v>
+        <v>6217150</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,76 +1791,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L15">
+        <v>2.8</v>
+      </c>
+      <c r="M15">
         <v>3.2</v>
       </c>
-      <c r="M15">
-        <v>3.25</v>
-      </c>
       <c r="N15">
-        <v>1.444</v>
+        <v>1.727</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>2.025</v>
+      </c>
+      <c r="S15">
+        <v>1.775</v>
+      </c>
+      <c r="T15">
         <v>1.75</v>
       </c>
-      <c r="S15">
-        <v>2.05</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
       <c r="U15">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W15">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z15">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6217150</v>
+        <v>6313978</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,76 +1880,76 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
-        <v>1.727</v>
+        <v>1.444</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P16">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q16">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V16">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2592,7 +2592,7 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6371489</v>
+        <v>6371492</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
+        <v>2.75</v>
+      </c>
+      <c r="M27">
+        <v>3.3</v>
+      </c>
+      <c r="N27">
+        <v>2.3</v>
+      </c>
+      <c r="O27">
+        <v>2.8</v>
+      </c>
+      <c r="P27">
         <v>3.2</v>
       </c>
-      <c r="M27">
-        <v>5</v>
-      </c>
-      <c r="N27">
-        <v>1.571</v>
-      </c>
-      <c r="O27">
-        <v>3.2</v>
-      </c>
-      <c r="P27">
-        <v>6.5</v>
-      </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
         <v>1.8</v>
       </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
       <c r="T27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U27">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>-0.5</v>
+      </c>
+      <c r="AA27">
         <v>0.4</v>
       </c>
-      <c r="AA27">
-        <v>-0.5</v>
-      </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6371492</v>
+        <v>6371489</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45002.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="L28">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N28">
-        <v>2.3</v>
+        <v>1.571</v>
       </c>
       <c r="O28">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X28">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>0.4</v>
+      </c>
+      <c r="AA28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.4</v>
-      </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6411975</v>
+        <v>6411973</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,16 +3215,16 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>47</v>
@@ -3233,40 +3233,40 @@
         <v>1.909</v>
       </c>
       <c r="L31">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O31">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q31">
         <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3275,16 +3275,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
         <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6411973</v>
+        <v>6411975</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,16 +3393,16 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>47</v>
@@ -3411,40 +3411,40 @@
         <v>1.909</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M33">
         <v>4</v>
       </c>
       <c r="N33">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P33">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V33">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3453,16 +3453,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3749,10 +3749,10 @@
         <v>45023.48958333334</v>
       </c>
       <c r="F37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" t="s">
         <v>36</v>
-      </c>
-      <c r="G37" t="s">
-        <v>37</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6411985</v>
+        <v>6411986</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F41" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M41">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="O41">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6411986</v>
+        <v>6411985</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="N42">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P42">
+        <v>3.4</v>
+      </c>
+      <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.85</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
+        <v>1.85</v>
+      </c>
+      <c r="W42">
         <v>1.2</v>
       </c>
-      <c r="Q42">
-        <v>1.75</v>
-      </c>
-      <c r="R42">
-        <v>1.825</v>
-      </c>
-      <c r="S42">
-        <v>1.975</v>
-      </c>
-      <c r="T42">
-        <v>2.25</v>
-      </c>
-      <c r="U42">
-        <v>1.8</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6411982</v>
+        <v>6411983</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4283,10 +4283,10 @@
         <v>45025.75</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4298,61 +4298,61 @@
         <v>48</v>
       </c>
       <c r="K43">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L43">
         <v>3.1</v>
       </c>
       <c r="M43">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="N43">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="O43">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P43">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R43">
+        <v>2.025</v>
+      </c>
+      <c r="S43">
+        <v>1.775</v>
+      </c>
+      <c r="T43">
+        <v>1.75</v>
+      </c>
+      <c r="U43">
+        <v>1.95</v>
+      </c>
+      <c r="V43">
+        <v>1.85</v>
+      </c>
+      <c r="W43">
+        <v>-1</v>
+      </c>
+      <c r="X43">
         <v>1.9</v>
       </c>
-      <c r="S43">
-        <v>1.9</v>
-      </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>1.75</v>
-      </c>
-      <c r="V43">
-        <v>2.05</v>
-      </c>
-      <c r="W43">
-        <v>-1</v>
-      </c>
-      <c r="X43">
-        <v>2.8</v>
-      </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA43">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC43">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4360,7 +4360,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6411983</v>
+        <v>6411982</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4372,10 +4372,10 @@
         <v>45025.75</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4387,61 +4387,61 @@
         <v>48</v>
       </c>
       <c r="K44">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="L44">
         <v>3.1</v>
       </c>
       <c r="M44">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="N44">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
+        <v>6</v>
+      </c>
+      <c r="Q44">
+        <v>-1</v>
+      </c>
+      <c r="R44">
+        <v>1.9</v>
+      </c>
+      <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
+        <v>2</v>
+      </c>
+      <c r="U44">
+        <v>1.75</v>
+      </c>
+      <c r="V44">
         <v>2.05</v>
       </c>
-      <c r="Q44">
-        <v>0.25</v>
-      </c>
-      <c r="R44">
-        <v>2.025</v>
-      </c>
-      <c r="S44">
-        <v>1.775</v>
-      </c>
-      <c r="T44">
-        <v>1.75</v>
-      </c>
-      <c r="U44">
-        <v>1.95</v>
-      </c>
-      <c r="V44">
-        <v>1.85</v>
-      </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB44">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>45027.48958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6658490</v>
+        <v>6658489</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45063.5</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
+        <v>7.5</v>
+      </c>
+      <c r="N54">
+        <v>1.25</v>
+      </c>
+      <c r="O54">
+        <v>5</v>
+      </c>
+      <c r="P54">
+        <v>11</v>
+      </c>
+      <c r="Q54">
+        <v>-1.5</v>
+      </c>
+      <c r="R54">
+        <v>1.85</v>
+      </c>
+      <c r="S54">
+        <v>1.95</v>
+      </c>
+      <c r="T54">
+        <v>2.5</v>
+      </c>
+      <c r="U54">
+        <v>1.85</v>
+      </c>
+      <c r="V54">
+        <v>1.95</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
         <v>4</v>
       </c>
-      <c r="N54">
-        <v>1.533</v>
-      </c>
-      <c r="O54">
-        <v>3.4</v>
-      </c>
-      <c r="P54">
-        <v>6.5</v>
-      </c>
-      <c r="Q54">
-        <v>-1</v>
-      </c>
-      <c r="R54">
-        <v>2</v>
-      </c>
-      <c r="S54">
-        <v>1.8</v>
-      </c>
-      <c r="T54">
-        <v>2</v>
-      </c>
-      <c r="U54">
-        <v>1.775</v>
-      </c>
-      <c r="V54">
-        <v>2.025</v>
-      </c>
-      <c r="W54">
-        <v>0.5329999999999999</v>
-      </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6658488</v>
+        <v>6658491</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,67 +5351,67 @@
         <v>45063.5</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K55">
-        <v>2.25</v>
+        <v>9</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M55">
-        <v>3</v>
+        <v>1.285</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>21</v>
       </c>
       <c r="O55">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="P55">
-        <v>3.25</v>
+        <v>1.125</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>2</v>
       </c>
       <c r="R55">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W55">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5420,7 +5420,7 @@
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6658489</v>
+        <v>6658490</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,76 +5440,76 @@
         <v>45063.5</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N56">
-        <v>1.25</v>
+        <v>1.533</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Q56">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R56">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X56">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6658491</v>
+        <v>6658488</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,67 +5529,67 @@
         <v>45063.5</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="N57">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="O57">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>1.125</v>
+        <v>3.25</v>
       </c>
       <c r="Q57">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T57">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X57">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA57">
         <v>-1</v>
@@ -5598,7 +5598,7 @@
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6063,7 +6063,7 @@
         <v>45077.5</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>44</v>
@@ -6241,7 +6241,7 @@
         <v>45077.5</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6687385</v>
+        <v>6687016</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K66">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L66">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="N66">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P66">
-        <v>17</v>
+        <v>5.25</v>
       </c>
       <c r="Q66">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
         <v>-0</v>
-      </c>
-      <c r="AB66">
-        <v>-1</v>
-      </c>
-      <c r="AC66">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6687016</v>
+        <v>6687385</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>1.166</v>
       </c>
       <c r="L68">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>17</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>1.166</v>
       </c>
       <c r="O68">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>17</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X68">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6687019</v>
+        <v>6687390</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,46 +6597,46 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K69">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L69">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M69">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O69">
         <v>2.9</v>
       </c>
       <c r="P69">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T69">
         <v>1.75</v>
@@ -6651,22 +6651,22 @@
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y69">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6687391</v>
+        <v>6687020</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,13 +6686,13 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -6701,25 +6701,25 @@
         <v>47</v>
       </c>
       <c r="K70">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L70">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N70">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
         <v>1.8</v>
@@ -6728,16 +6728,16 @@
         <v>2</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V70">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>0.6499999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6752,10 +6752,10 @@
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6778,7 +6778,7 @@
         <v>43</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6867,7 +6867,7 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6687020</v>
+        <v>6687019</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K73">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L73">
+        <v>2.8</v>
+      </c>
+      <c r="M73">
+        <v>2.4</v>
+      </c>
+      <c r="N73">
         <v>3</v>
       </c>
-      <c r="M73">
-        <v>6</v>
-      </c>
-      <c r="N73">
-        <v>1.666</v>
-      </c>
       <c r="O73">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P73">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T73">
         <v>1.75</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>0.75</v>
+      </c>
+      <c r="AB73">
         <v>0.8</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0.475</v>
-      </c>
       <c r="AC73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6687390</v>
+        <v>6687391</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L74">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O74">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X74">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6765583</v>
+        <v>6765519</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,73 +7487,73 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H79">
         <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="L79">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
-        <v>2.55</v>
+        <v>4.2</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="O79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P79">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="S79">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U79">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V79">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W79">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6765584</v>
+        <v>6765585</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,49 +7576,49 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L80">
         <v>2.8</v>
       </c>
       <c r="M80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N80">
         <v>2.05</v>
       </c>
       <c r="O80">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P80">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q80">
         <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U80">
         <v>1.875</v>
@@ -7627,25 +7627,25 @@
         <v>1.925</v>
       </c>
       <c r="W80">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB80">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6765585</v>
+        <v>6765588</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
         <v>48</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L81">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N81">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O81">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="P81">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="T81">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.5249999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB81">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6765588</v>
+        <v>6765584</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,76 +7843,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K83">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M83">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P83">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q83">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6765519</v>
+        <v>6765583</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,73 +8021,73 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K85">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L85">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M85">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N85">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="O85">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P85">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q85">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="S85">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
+        <v>2.05</v>
+      </c>
+      <c r="V85">
         <v>1.75</v>
       </c>
-      <c r="U85">
-        <v>1.9</v>
-      </c>
-      <c r="V85">
-        <v>1.9</v>
-      </c>
       <c r="W85">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X85">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA85">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6743977</v>
+        <v>6858630</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,10 +8110,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8125,61 +8125,61 @@
         <v>48</v>
       </c>
       <c r="K86">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L86">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N86">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P86">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q86">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S86">
+        <v>1.725</v>
+      </c>
+      <c r="T86">
+        <v>1.75</v>
+      </c>
+      <c r="U86">
+        <v>1.775</v>
+      </c>
+      <c r="V86">
+        <v>2.025</v>
+      </c>
+      <c r="W86">
+        <v>-1</v>
+      </c>
+      <c r="X86">
         <v>1.8</v>
       </c>
-      <c r="T86">
-        <v>2.25</v>
-      </c>
-      <c r="U86">
-        <v>1.875</v>
-      </c>
-      <c r="V86">
-        <v>1.925</v>
-      </c>
-      <c r="W86">
-        <v>-1</v>
-      </c>
-      <c r="X86">
-        <v>2.8</v>
-      </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA86">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6744005</v>
+        <v>6743978</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,13 +8199,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8214,43 +8214,43 @@
         <v>47</v>
       </c>
       <c r="K87">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L87">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N87">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O87">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P87">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q87">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R87">
+        <v>1.825</v>
+      </c>
+      <c r="S87">
+        <v>1.975</v>
+      </c>
+      <c r="T87">
+        <v>1.75</v>
+      </c>
+      <c r="U87">
+        <v>1.75</v>
+      </c>
+      <c r="V87">
         <v>2.05</v>
       </c>
-      <c r="S87">
-        <v>1.75</v>
-      </c>
-      <c r="T87">
-        <v>2</v>
-      </c>
-      <c r="U87">
-        <v>1.85</v>
-      </c>
-      <c r="V87">
-        <v>1.95</v>
-      </c>
       <c r="W87">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8259,16 +8259,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
+        <v>0.825</v>
+      </c>
+      <c r="AA87">
+        <v>-1</v>
+      </c>
+      <c r="AB87">
+        <v>0.375</v>
+      </c>
+      <c r="AC87">
         <v>-0.5</v>
-      </c>
-      <c r="AA87">
-        <v>0.375</v>
-      </c>
-      <c r="AB87">
-        <v>-1</v>
-      </c>
-      <c r="AC87">
-        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6743978</v>
+        <v>6744018</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,58 +8288,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M88">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="N88">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>2.9</v>
       </c>
       <c r="P88">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q88">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T88">
         <v>1.75</v>
       </c>
       <c r="U88">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.825</v>
       </c>
-      <c r="AA88">
-        <v>-1</v>
-      </c>
-      <c r="AB88">
-        <v>0.375</v>
-      </c>
       <c r="AC88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6743989</v>
+        <v>6744005</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,58 +8377,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M89">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O89">
         <v>3.75</v>
       </c>
       <c r="P89">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S89">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6858630</v>
+        <v>6743977</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,10 +8466,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8481,61 +8481,61 @@
         <v>48</v>
       </c>
       <c r="K90">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
+        <v>7</v>
+      </c>
+      <c r="N90">
+        <v>1.363</v>
+      </c>
+      <c r="O90">
+        <v>3.8</v>
+      </c>
+      <c r="P90">
+        <v>8</v>
+      </c>
+      <c r="Q90">
+        <v>-1.25</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90">
+        <v>1.8</v>
+      </c>
+      <c r="T90">
+        <v>2.25</v>
+      </c>
+      <c r="U90">
+        <v>1.875</v>
+      </c>
+      <c r="V90">
+        <v>1.925</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
         <v>2.8</v>
       </c>
-      <c r="N90">
-        <v>2.45</v>
-      </c>
-      <c r="O90">
-        <v>2.8</v>
-      </c>
-      <c r="P90">
-        <v>3</v>
-      </c>
-      <c r="Q90">
-        <v>-0.25</v>
-      </c>
-      <c r="R90">
-        <v>2.075</v>
-      </c>
-      <c r="S90">
-        <v>1.725</v>
-      </c>
-      <c r="T90">
-        <v>1.75</v>
-      </c>
-      <c r="U90">
-        <v>1.775</v>
-      </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>1.8</v>
-      </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6743297</v>
+        <v>6743989</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,58 +8555,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H91">
+        <v>2</v>
+      </c>
+      <c r="I91">
         <v>1</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>47</v>
       </c>
       <c r="K91">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="L91">
+        <v>3.5</v>
+      </c>
+      <c r="M91">
         <v>4.5</v>
       </c>
-      <c r="M91">
-        <v>9</v>
-      </c>
       <c r="N91">
-        <v>1.166</v>
+        <v>1.5</v>
       </c>
       <c r="O91">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P91">
-        <v>17</v>
+        <v>5.5</v>
       </c>
       <c r="Q91">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R91">
+        <v>1.975</v>
+      </c>
+      <c r="S91">
         <v>1.825</v>
       </c>
-      <c r="S91">
+      <c r="T91">
+        <v>2.25</v>
+      </c>
+      <c r="U91">
         <v>1.975</v>
       </c>
-      <c r="T91">
-        <v>2.5</v>
-      </c>
-      <c r="U91">
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
-        <v>0.1659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8615,16 +8615,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA91">
+        <v>-0</v>
+      </c>
+      <c r="AB91">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB91">
-        <v>-1</v>
-      </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6744018</v>
+        <v>6743297</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,49 +8644,49 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>47</v>
       </c>
       <c r="K92">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L92">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>3.2</v>
+        <v>9</v>
       </c>
       <c r="N92">
-        <v>1.85</v>
+        <v>1.166</v>
       </c>
       <c r="O92">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
         <v>1.825</v>
@@ -8695,7 +8695,7 @@
         <v>1.975</v>
       </c>
       <c r="W92">
-        <v>0.8500000000000001</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8704,16 +8704,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6872723</v>
+        <v>6872722</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,34 +8733,34 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K93">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="L93">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P93">
         <v>4.2</v>
@@ -8769,40 +8769,40 @@
         <v>-0.5</v>
       </c>
       <c r="R93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S93">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V93">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA93">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6872722</v>
+        <v>6872721</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,73 +8822,73 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H94">
         <v>3</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>47</v>
       </c>
       <c r="K94">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N94">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O94">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P94">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q94">
+        <v>-1.25</v>
+      </c>
+      <c r="R94">
+        <v>2.025</v>
+      </c>
+      <c r="S94">
+        <v>1.775</v>
+      </c>
+      <c r="T94">
+        <v>2</v>
+      </c>
+      <c r="U94">
+        <v>1.925</v>
+      </c>
+      <c r="V94">
+        <v>1.875</v>
+      </c>
+      <c r="W94">
+        <v>0.363</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94">
         <v>-0.5</v>
       </c>
-      <c r="R94">
-        <v>1.95</v>
-      </c>
-      <c r="S94">
-        <v>1.85</v>
-      </c>
-      <c r="T94">
-        <v>2</v>
-      </c>
-      <c r="U94">
-        <v>2.025</v>
-      </c>
-      <c r="V94">
-        <v>1.775</v>
-      </c>
-      <c r="W94">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
-      <c r="Z94">
-        <v>0.95</v>
-      </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB94">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6872724</v>
+        <v>6872723</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,76 +8911,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>1</v>
       </c>
-      <c r="I95">
-        <v>0</v>
-      </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K95">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M95">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N95">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O95">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T95">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z95">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6872725</v>
+        <v>6872727</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,73 +9000,73 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F96" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K96">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L96">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O96">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P96">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W96">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB96">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9077,7 +9077,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6872726</v>
+        <v>6872725</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9092,73 +9092,73 @@
         <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K97">
+        <v>1.285</v>
+      </c>
+      <c r="L97">
+        <v>4.5</v>
+      </c>
+      <c r="M97">
+        <v>10</v>
+      </c>
+      <c r="N97">
+        <v>1.25</v>
+      </c>
+      <c r="O97">
+        <v>5</v>
+      </c>
+      <c r="P97">
+        <v>11</v>
+      </c>
+      <c r="Q97">
+        <v>-1.5</v>
+      </c>
+      <c r="R97">
+        <v>1.9</v>
+      </c>
+      <c r="S97">
+        <v>1.9</v>
+      </c>
+      <c r="T97">
+        <v>2.25</v>
+      </c>
+      <c r="U97">
         <v>1.85</v>
       </c>
-      <c r="L97">
-        <v>3.1</v>
-      </c>
-      <c r="M97">
-        <v>4.2</v>
-      </c>
-      <c r="N97">
-        <v>2.2</v>
-      </c>
-      <c r="O97">
-        <v>2.9</v>
-      </c>
-      <c r="P97">
-        <v>3.3</v>
-      </c>
-      <c r="Q97">
-        <v>-0.25</v>
-      </c>
-      <c r="R97">
-        <v>1.925</v>
-      </c>
-      <c r="S97">
-        <v>1.875</v>
-      </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X97">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB97">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9166,7 +9166,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6872727</v>
+        <v>6872726</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9178,76 +9178,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K98">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M98">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N98">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O98">
+        <v>2.9</v>
+      </c>
+      <c r="P98">
         <v>3.3</v>
       </c>
-      <c r="P98">
-        <v>4.75</v>
-      </c>
       <c r="Q98">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S98">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
         <v>2</v>
       </c>
       <c r="U98">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V98">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y98">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB98">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6872721</v>
+        <v>6872724</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,58 +9267,58 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F99" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
         <v>47</v>
       </c>
       <c r="K99">
-        <v>1.444</v>
+        <v>1.55</v>
       </c>
       <c r="L99">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N99">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O99">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="P99">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V99">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="W99">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9327,16 +9327,16 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.45</v>
+      </c>
+      <c r="AA99">
         <v>-0.5</v>
       </c>
-      <c r="AA99">
-        <v>0.3875</v>
-      </c>
       <c r="AB99">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6888613</v>
+        <v>6888615</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,58 +9356,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>47</v>
       </c>
       <c r="K100">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="M100">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="N100">
-        <v>1.363</v>
+        <v>1.7</v>
       </c>
       <c r="O100">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q100">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
         <v>1.925</v>
       </c>
-      <c r="S100">
-        <v>1.875</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
       <c r="W100">
-        <v>0.363</v>
+        <v>0.7</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9416,13 +9416,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA100">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6888615</v>
+        <v>6888610</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,13 +9445,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -9460,25 +9460,25 @@
         <v>47</v>
       </c>
       <c r="K101">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="L101">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="M101">
-        <v>2.1</v>
+        <v>11</v>
       </c>
       <c r="N101">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P101">
-        <v>5.25</v>
+        <v>12</v>
       </c>
       <c r="Q101">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R101">
         <v>1.775</v>
@@ -9490,13 +9490,13 @@
         <v>2</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
-        <v>0.7</v>
+        <v>0.25</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9511,10 +9511,10 @@
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6888610</v>
+        <v>6888613</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,58 +9623,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H103">
         <v>2</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L103">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M103">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="O103">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P103">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q103">
         <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W103">
-        <v>0.25</v>
+        <v>0.363</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6888611</v>
+        <v>6888612</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,55 +9712,55 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="L104">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M104">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N104">
         <v>1.65</v>
       </c>
       <c r="O104">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="P104">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="Q104">
         <v>-0.75</v>
       </c>
       <c r="R104">
+        <v>1.875</v>
+      </c>
+      <c r="S104">
+        <v>1.925</v>
+      </c>
+      <c r="T104">
+        <v>1.75</v>
+      </c>
+      <c r="U104">
         <v>1.9</v>
       </c>
-      <c r="S104">
+      <c r="V104">
         <v>1.9</v>
-      </c>
-      <c r="T104">
-        <v>2.25</v>
-      </c>
-      <c r="U104">
-        <v>2.025</v>
-      </c>
-      <c r="V104">
-        <v>1.775</v>
       </c>
       <c r="W104">
         <v>0.6499999999999999</v>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>0.4375</v>
+      </c>
+      <c r="AA104">
+        <v>-0.5</v>
+      </c>
+      <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>1.025</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6888612</v>
+        <v>6888611</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,55 +9801,55 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
         <v>1</v>
-      </c>
-      <c r="I105">
-        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>47</v>
       </c>
       <c r="K105">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="L105">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N105">
         <v>1.65</v>
       </c>
       <c r="O105">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P105">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="Q105">
         <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T105">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V105">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W105">
         <v>0.6499999999999999</v>
@@ -9861,16 +9861,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC105">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9967,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6913588</v>
+        <v>6913587</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9979,76 +9979,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K107">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O107">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P107">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q107">
+        <v>-0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
+        <v>1.875</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.9</v>
+      </c>
+      <c r="V107">
+        <v>1.9</v>
+      </c>
+      <c r="W107">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>0.4625</v>
+      </c>
+      <c r="AA107">
         <v>-0.5</v>
       </c>
-      <c r="R107">
-        <v>1.95</v>
-      </c>
-      <c r="S107">
-        <v>1.85</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>2</v>
-      </c>
-      <c r="V107">
-        <v>1.8</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>2.6</v>
-      </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
-      <c r="AA107">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6913587</v>
+        <v>6913588</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,76 +10068,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N108">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P108">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W108">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z108">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>45185.5</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10961,7 +10961,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11124,7 +11124,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7230932</v>
+        <v>7230931</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11136,76 +11136,76 @@
         <v>45192.625</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K120">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L120">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N120">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O120">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T120">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U120">
+        <v>1.825</v>
+      </c>
+      <c r="V120">
         <v>1.975</v>
       </c>
-      <c r="V120">
-        <v>1.825</v>
-      </c>
       <c r="W120">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X120">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7230931</v>
+        <v>7230932</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45192.625</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K121">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M121">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N121">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P121">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U121">
+        <v>1.975</v>
+      </c>
+      <c r="V121">
         <v>1.825</v>
       </c>
-      <c r="V121">
-        <v>1.975</v>
-      </c>
       <c r="W121">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB121">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7230936</v>
+        <v>7230948</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,10 +11403,10 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11418,43 +11418,43 @@
         <v>47</v>
       </c>
       <c r="K123">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L123">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M123">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N123">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O123">
         <v>3</v>
       </c>
       <c r="P123">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q123">
         <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
         <v>1.75</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11463,13 +11463,13 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA123">
         <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7230934</v>
+        <v>7230936</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,34 +11492,34 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L124">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M124">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N124">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O124">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P124">
         <v>3.75</v>
@@ -11528,40 +11528,40 @@
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T124">
         <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X124">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA124">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7230948</v>
+        <v>7230934</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G125" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>3.2</v>
       </c>
       <c r="L125">
+        <v>2.8</v>
+      </c>
+      <c r="M125">
+        <v>2.25</v>
+      </c>
+      <c r="N125">
+        <v>1.95</v>
+      </c>
+      <c r="O125">
         <v>2.9</v>
       </c>
-      <c r="M125">
-        <v>2.2</v>
-      </c>
-      <c r="N125">
-        <v>2.05</v>
-      </c>
-      <c r="O125">
-        <v>3</v>
-      </c>
       <c r="P125">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S125">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T125">
         <v>1.75</v>
       </c>
       <c r="U125">
+        <v>1.8</v>
+      </c>
+      <c r="V125">
+        <v>2</v>
+      </c>
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
         <v>1.9</v>
       </c>
-      <c r="V125">
-        <v>1.9</v>
-      </c>
-      <c r="W125">
-        <v>1.05</v>
-      </c>
-      <c r="X125">
-        <v>-1</v>
-      </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB125">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,10 +11759,10 @@
         <v>45199.625</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G127" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -11774,25 +11774,25 @@
         <v>47</v>
       </c>
       <c r="K127">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L127">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M127">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N127">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P127">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R127">
         <v>1.95</v>
@@ -11801,16 +11801,16 @@
         <v>1.85</v>
       </c>
       <c r="T127">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X127">
         <v>-1</v>
@@ -11819,16 +11819,16 @@
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11836,7 +11836,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11848,10 +11848,10 @@
         <v>45199.625</v>
       </c>
       <c r="F128" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11863,25 +11863,25 @@
         <v>47</v>
       </c>
       <c r="K128">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L128">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M128">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N128">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O128">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P128">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q128">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R128">
         <v>1.95</v>
@@ -11890,16 +11890,16 @@
         <v>1.85</v>
       </c>
       <c r="T128">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U128">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V128">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W128">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X128">
         <v>-1</v>
@@ -11908,16 +11908,16 @@
         <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA128">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB128">
         <v>-1</v>
       </c>
       <c r="AC128">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -12207,7 +12207,7 @@
         <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>7230951</v>
+        <v>7230943</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12293,56 +12293,56 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>49</v>
       </c>
       <c r="K133">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M133">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="N133">
-        <v>1.444</v>
+        <v>1.8</v>
       </c>
       <c r="O133">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P133">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q133">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R133">
+        <v>1.825</v>
+      </c>
+      <c r="S133">
+        <v>1.975</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
+        <v>1.775</v>
+      </c>
+      <c r="V133">
         <v>2.025</v>
       </c>
-      <c r="S133">
-        <v>1.775</v>
-      </c>
-      <c r="T133">
-        <v>2.25</v>
-      </c>
-      <c r="U133">
-        <v>1.825</v>
-      </c>
-      <c r="V133">
-        <v>1.975</v>
-      </c>
       <c r="W133">
         <v>-1</v>
       </c>
@@ -12350,19 +12350,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7230943</v>
+        <v>7230944</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,34 +12382,34 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F134" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L134">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M134">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N134">
         <v>1.8</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
         <v>4</v>
@@ -12418,40 +12418,40 @@
         <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S134">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
         <v>2</v>
       </c>
       <c r="U134">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA134">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7230944</v>
+        <v>7230951</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K135">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L135">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N135">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R135">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z135">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC135">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7427219</v>
+        <v>7427220</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G139" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
+        <v>4</v>
+      </c>
+      <c r="J139" t="s">
+        <v>49</v>
+      </c>
+      <c r="K139">
+        <v>3.1</v>
+      </c>
+      <c r="L139">
+        <v>2.875</v>
+      </c>
+      <c r="M139">
+        <v>2.25</v>
+      </c>
+      <c r="N139">
+        <v>2.875</v>
+      </c>
+      <c r="O139">
+        <v>2.875</v>
+      </c>
+      <c r="P139">
+        <v>2.375</v>
+      </c>
+      <c r="Q139">
+        <v>0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.75</v>
+      </c>
+      <c r="S139">
+        <v>2.05</v>
+      </c>
+      <c r="T139">
+        <v>2</v>
+      </c>
+      <c r="U139">
+        <v>2</v>
+      </c>
+      <c r="V139">
+        <v>1.8</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>-1</v>
+      </c>
+      <c r="Y139">
+        <v>1.375</v>
+      </c>
+      <c r="Z139">
+        <v>-1</v>
+      </c>
+      <c r="AA139">
+        <v>1.05</v>
+      </c>
+      <c r="AB139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>0</v>
-      </c>
-      <c r="J139" t="s">
-        <v>47</v>
-      </c>
-      <c r="K139">
-        <v>1.4</v>
-      </c>
-      <c r="L139">
-        <v>3.8</v>
-      </c>
-      <c r="M139">
-        <v>7.5</v>
-      </c>
-      <c r="N139">
-        <v>1.4</v>
-      </c>
-      <c r="O139">
-        <v>3.6</v>
-      </c>
-      <c r="P139">
-        <v>7</v>
-      </c>
-      <c r="Q139">
-        <v>-1</v>
-      </c>
-      <c r="R139">
-        <v>1.8</v>
-      </c>
-      <c r="S139">
-        <v>2</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
-      <c r="U139">
-        <v>1.9</v>
-      </c>
-      <c r="V139">
-        <v>1.9</v>
-      </c>
-      <c r="W139">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X139">
-        <v>-1</v>
-      </c>
-      <c r="Y139">
-        <v>-1</v>
-      </c>
-      <c r="Z139">
-        <v>0</v>
-      </c>
-      <c r="AA139">
-        <v>-0</v>
-      </c>
-      <c r="AB139">
-        <v>-1</v>
-      </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7427220</v>
+        <v>7427219</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L140">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M140">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N140">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O140">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P140">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q140">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S140">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T140">
         <v>2</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>7427225</v>
+        <v>7427226</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13183,76 +13183,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K143">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N143">
-        <v>1.6</v>
+        <v>1.285</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P143">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q143">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R143">
+        <v>1.95</v>
+      </c>
+      <c r="S143">
         <v>1.85</v>
       </c>
-      <c r="S143">
-        <v>1.95</v>
-      </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
+        <v>2</v>
+      </c>
+      <c r="V143">
         <v>1.8</v>
       </c>
-      <c r="V143">
-        <v>2</v>
-      </c>
       <c r="W143">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z143">
+        <v>-1</v>
+      </c>
+      <c r="AA143">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA143">
-        <v>-1</v>
-      </c>
       <c r="AB143">
+        <v>-1</v>
+      </c>
+      <c r="AC143">
         <v>0.8</v>
-      </c>
-      <c r="AC143">
-        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13260,7 +13260,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>7427226</v>
+        <v>7427225</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13272,76 +13272,76 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K144">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L144">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N144">
-        <v>1.285</v>
+        <v>1.6</v>
       </c>
       <c r="O144">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R144">
+        <v>1.85</v>
+      </c>
+      <c r="S144">
         <v>1.95</v>
       </c>
-      <c r="S144">
-        <v>1.85</v>
-      </c>
       <c r="T144">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U144">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V144">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA144">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13720,7 +13720,7 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -14518,7 +14518,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14966,7 +14966,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7537791</v>
+        <v>7537790</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,76 +15675,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K171">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L171">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N171">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O171">
         <v>2.875</v>
       </c>
       <c r="P171">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q171">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R171">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S171">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T171">
         <v>2</v>
       </c>
       <c r="U171">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
+        <v>1.825</v>
+      </c>
+      <c r="W171">
+        <v>-1</v>
+      </c>
+      <c r="X171">
         <v>1.875</v>
       </c>
-      <c r="W171">
-        <v>-1</v>
-      </c>
-      <c r="X171">
-        <v>-1</v>
-      </c>
       <c r="Y171">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA171">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AB171">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC171">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7537790</v>
+        <v>7537791</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15764,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G172" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K172">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M172">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N172">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O172">
         <v>2.875</v>
       </c>
       <c r="P172">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q172">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R172">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S172">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T172">
         <v>2</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W172">
         <v>-1</v>
       </c>
       <c r="X172">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AB172">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC172">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16390,7 +16390,7 @@
         <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7624517</v>
+        <v>7624465</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F183" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G183" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K183">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L183">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="M183">
+        <v>7</v>
+      </c>
+      <c r="N183">
+        <v>1.65</v>
+      </c>
+      <c r="O183">
         <v>3.4</v>
       </c>
-      <c r="N183">
-        <v>2.15</v>
-      </c>
-      <c r="O183">
-        <v>2.8</v>
-      </c>
       <c r="P183">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q183">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R183">
+        <v>1.9</v>
+      </c>
+      <c r="S183">
+        <v>1.9</v>
+      </c>
+      <c r="T183">
+        <v>2.25</v>
+      </c>
+      <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183">
         <v>1.8</v>
       </c>
-      <c r="S183">
-        <v>2</v>
-      </c>
-      <c r="T183">
-        <v>1.75</v>
-      </c>
-      <c r="U183">
-        <v>1.825</v>
-      </c>
-      <c r="V183">
-        <v>1.975</v>
-      </c>
       <c r="W183">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X183">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
+        <v>0.45</v>
+      </c>
+      <c r="AA183">
         <v>-0.5</v>
       </c>
-      <c r="AA183">
-        <v>0.5</v>
-      </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624516</v>
+        <v>7624517</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16832,76 +16832,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F184" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K184">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L184">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M184">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N184">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O184">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P184">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q184">
+        <v>-0.25</v>
+      </c>
+      <c r="R184">
+        <v>1.8</v>
+      </c>
+      <c r="S184">
+        <v>2</v>
+      </c>
+      <c r="T184">
+        <v>1.75</v>
+      </c>
+      <c r="U184">
+        <v>1.825</v>
+      </c>
+      <c r="V184">
+        <v>1.975</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>1.8</v>
+      </c>
+      <c r="Y184">
+        <v>-1</v>
+      </c>
+      <c r="Z184">
         <v>-0.5</v>
       </c>
-      <c r="R184">
-        <v>1.85</v>
-      </c>
-      <c r="S184">
-        <v>1.95</v>
-      </c>
-      <c r="T184">
-        <v>2</v>
-      </c>
-      <c r="U184">
-        <v>2</v>
-      </c>
-      <c r="V184">
-        <v>1.8</v>
-      </c>
-      <c r="W184">
-        <v>0.833</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>-1</v>
-      </c>
-      <c r="Z184">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA184">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB184">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624465</v>
+        <v>7624516</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,49 +16921,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H185">
+        <v>2</v>
+      </c>
+      <c r="I185">
         <v>1</v>
-      </c>
-      <c r="I185">
-        <v>0</v>
       </c>
       <c r="J185" t="s">
         <v>47</v>
       </c>
       <c r="K185">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L185">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="M185">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N185">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P185">
         <v>4.75</v>
       </c>
       <c r="Q185">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R185">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S185">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U185">
         <v>2</v>
@@ -16972,7 +16972,7 @@
         <v>1.8</v>
       </c>
       <c r="W185">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X185">
         <v>-1</v>
@@ -16981,16 +16981,16 @@
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC185">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7624597</v>
+        <v>7624498</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G187" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L187">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M187">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N187">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O187">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P187">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q187">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R187">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2</v>
       </c>
       <c r="U187">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V187">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA187">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC187">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7624498</v>
+        <v>7624597</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G188" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M188">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O188">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P188">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q188">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R188">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V188">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA188">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB188">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7656900</v>
+        <v>7624664</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,76 +17277,76 @@
         <v>45296.46875</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189">
         <v>1</v>
       </c>
       <c r="J189" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K189">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L189">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M189">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N189">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O189">
+        <v>2.7</v>
+      </c>
+      <c r="P189">
         <v>3</v>
       </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
       <c r="Q189">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R189">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S189">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T189">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U189">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V189">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W189">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z189">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA189">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC189">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7624664</v>
+        <v>7656900</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45296.46875</v>
       </c>
       <c r="F190" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K190">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L190">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M190">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N190">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O190">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P190">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q190">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R190">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S190">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T190">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U190">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V190">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W190">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z190">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA190">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB190">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -18170,7 +18170,7 @@
         <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7567343</v>
+        <v>7567342</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G207" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K207">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L207">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M207">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N207">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O207">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P207">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q207">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S207">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T207">
         <v>1.75</v>
       </c>
       <c r="U207">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V207">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W207">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA207">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC207">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7567342</v>
+        <v>7567343</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G208" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O208">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P208">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S208">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T208">
         <v>1.75</v>
       </c>
       <c r="U208">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V208">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X208">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H223">
         <v>3</v>
@@ -20825,7 +20825,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7768216</v>
+        <v>7768217</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20837,10 +20837,10 @@
         <v>45332.5</v>
       </c>
       <c r="F229" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -20852,43 +20852,43 @@
         <v>47</v>
       </c>
       <c r="K229">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L229">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M229">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N229">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O229">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P229">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R229">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T229">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U229">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W229">
-        <v>1.5</v>
+        <v>0.363</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20897,13 +20897,13 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB229">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
         <v>-1</v>
@@ -20914,7 +20914,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7768215</v>
+        <v>7768216</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20926,59 +20926,59 @@
         <v>45332.5</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G230" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H230">
+        <v>2</v>
+      </c>
+      <c r="I230">
         <v>1</v>
-      </c>
-      <c r="I230">
-        <v>0</v>
       </c>
       <c r="J230" t="s">
         <v>47</v>
       </c>
       <c r="K230">
+        <v>2.375</v>
+      </c>
+      <c r="L230">
+        <v>2.75</v>
+      </c>
+      <c r="M230">
+        <v>3.1</v>
+      </c>
+      <c r="N230">
+        <v>2.5</v>
+      </c>
+      <c r="O230">
+        <v>2.625</v>
+      </c>
+      <c r="P230">
+        <v>3.1</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>1.7</v>
+      </c>
+      <c r="S230">
+        <v>2.1</v>
+      </c>
+      <c r="T230">
+        <v>1.75</v>
+      </c>
+      <c r="U230">
+        <v>1.95</v>
+      </c>
+      <c r="V230">
+        <v>1.85</v>
+      </c>
+      <c r="W230">
         <v>1.5</v>
       </c>
-      <c r="L230">
-        <v>3.4</v>
-      </c>
-      <c r="M230">
-        <v>6.5</v>
-      </c>
-      <c r="N230">
-        <v>1.4</v>
-      </c>
-      <c r="O230">
-        <v>3.6</v>
-      </c>
-      <c r="P230">
-        <v>10</v>
-      </c>
-      <c r="Q230">
-        <v>-1.25</v>
-      </c>
-      <c r="R230">
-        <v>2</v>
-      </c>
-      <c r="S230">
-        <v>1.8</v>
-      </c>
-      <c r="T230">
-        <v>2</v>
-      </c>
-      <c r="U230">
-        <v>1.85</v>
-      </c>
-      <c r="V230">
-        <v>1.95</v>
-      </c>
-      <c r="W230">
-        <v>0.3999999999999999</v>
-      </c>
       <c r="X230">
         <v>-1</v>
       </c>
@@ -20986,16 +20986,16 @@
         <v>-1</v>
       </c>
       <c r="Z230">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA230">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB230">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC230">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -21003,7 +21003,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7768217</v>
+        <v>7768215</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21015,58 +21015,58 @@
         <v>45332.5</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G231" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J231" t="s">
         <v>47</v>
       </c>
       <c r="K231">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L231">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N231">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O231">
         <v>3.6</v>
       </c>
       <c r="P231">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q231">
         <v>-1.25</v>
       </c>
       <c r="R231">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
         <v>2</v>
       </c>
       <c r="U231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X231">
         <v>-1</v>
@@ -21078,13 +21078,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA231">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AB231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21359,7 +21359,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7768182</v>
+        <v>7768219</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21371,76 +21371,76 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G235" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235">
         <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K235">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L235">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M235">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N235">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O235">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P235">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q235">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S235">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T235">
         <v>1.75</v>
       </c>
       <c r="U235">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V235">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W235">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y235">
         <v>-1</v>
       </c>
       <c r="Z235">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB235">
         <v>-1</v>
       </c>
       <c r="AC235">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21448,7 +21448,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7768219</v>
+        <v>7768182</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21460,76 +21460,76 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F236" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G236" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236">
         <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K236">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L236">
+        <v>2.9</v>
+      </c>
+      <c r="M236">
+        <v>3.75</v>
+      </c>
+      <c r="N236">
+        <v>2.375</v>
+      </c>
+      <c r="O236">
+        <v>2.9</v>
+      </c>
+      <c r="P236">
         <v>3</v>
       </c>
-      <c r="M236">
-        <v>4.2</v>
-      </c>
-      <c r="N236">
-        <v>1.833</v>
-      </c>
-      <c r="O236">
-        <v>2.8</v>
-      </c>
-      <c r="P236">
-        <v>4.5</v>
-      </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R236">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S236">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T236">
         <v>1.75</v>
       </c>
       <c r="U236">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V236">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W236">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X236">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA236">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
         <v>-1</v>
       </c>
       <c r="AC236">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21886,6 +21886,450 @@
       </c>
       <c r="AC240">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>7823447</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45345.5</v>
+      </c>
+      <c r="F241" t="s">
+        <v>45</v>
+      </c>
+      <c r="G241" t="s">
+        <v>38</v>
+      </c>
+      <c r="K241">
+        <v>2.875</v>
+      </c>
+      <c r="L241">
+        <v>2.75</v>
+      </c>
+      <c r="M241">
+        <v>2.5</v>
+      </c>
+      <c r="N241">
+        <v>1.95</v>
+      </c>
+      <c r="O241">
+        <v>3</v>
+      </c>
+      <c r="P241">
+        <v>3.6</v>
+      </c>
+      <c r="Q241">
+        <v>-0.25</v>
+      </c>
+      <c r="R241">
+        <v>1.75</v>
+      </c>
+      <c r="S241">
+        <v>2.05</v>
+      </c>
+      <c r="T241">
+        <v>2.25</v>
+      </c>
+      <c r="U241">
+        <v>1.9</v>
+      </c>
+      <c r="V241">
+        <v>1.9</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>7823443</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45345.5</v>
+      </c>
+      <c r="F242" t="s">
+        <v>39</v>
+      </c>
+      <c r="G242" t="s">
+        <v>36</v>
+      </c>
+      <c r="K242">
+        <v>1.8</v>
+      </c>
+      <c r="L242">
+        <v>3.1</v>
+      </c>
+      <c r="M242">
+        <v>4.2</v>
+      </c>
+      <c r="N242">
+        <v>1.615</v>
+      </c>
+      <c r="O242">
+        <v>3.25</v>
+      </c>
+      <c r="P242">
+        <v>5.25</v>
+      </c>
+      <c r="Q242">
+        <v>-0.75</v>
+      </c>
+      <c r="R242">
+        <v>1.875</v>
+      </c>
+      <c r="S242">
+        <v>1.925</v>
+      </c>
+      <c r="T242">
+        <v>2</v>
+      </c>
+      <c r="U242">
+        <v>1.875</v>
+      </c>
+      <c r="V242">
+        <v>1.925</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7823442</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F243" t="s">
+        <v>42</v>
+      </c>
+      <c r="G243" t="s">
+        <v>30</v>
+      </c>
+      <c r="K243">
+        <v>1.5</v>
+      </c>
+      <c r="L243">
+        <v>3.4</v>
+      </c>
+      <c r="M243">
+        <v>6.5</v>
+      </c>
+      <c r="N243">
+        <v>1.615</v>
+      </c>
+      <c r="O243">
+        <v>3.1</v>
+      </c>
+      <c r="P243">
+        <v>5.75</v>
+      </c>
+      <c r="Q243">
+        <v>-0.75</v>
+      </c>
+      <c r="R243">
+        <v>1.875</v>
+      </c>
+      <c r="S243">
+        <v>1.925</v>
+      </c>
+      <c r="T243">
+        <v>1.75</v>
+      </c>
+      <c r="U243">
+        <v>1.75</v>
+      </c>
+      <c r="V243">
+        <v>2.05</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7823444</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F244" t="s">
+        <v>41</v>
+      </c>
+      <c r="G244" t="s">
+        <v>32</v>
+      </c>
+      <c r="K244">
+        <v>2.75</v>
+      </c>
+      <c r="L244">
+        <v>2.875</v>
+      </c>
+      <c r="M244">
+        <v>2.5</v>
+      </c>
+      <c r="N244">
+        <v>3.3</v>
+      </c>
+      <c r="O244">
+        <v>2.9</v>
+      </c>
+      <c r="P244">
+        <v>2.15</v>
+      </c>
+      <c r="Q244">
+        <v>0.25</v>
+      </c>
+      <c r="R244">
+        <v>1.925</v>
+      </c>
+      <c r="S244">
+        <v>1.875</v>
+      </c>
+      <c r="T244">
+        <v>2</v>
+      </c>
+      <c r="U244">
+        <v>1.875</v>
+      </c>
+      <c r="V244">
+        <v>1.925</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7823445</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45346.53125</v>
+      </c>
+      <c r="F245" t="s">
+        <v>34</v>
+      </c>
+      <c r="G245" t="s">
+        <v>46</v>
+      </c>
+      <c r="K245">
+        <v>1.666</v>
+      </c>
+      <c r="L245">
+        <v>3.25</v>
+      </c>
+      <c r="M245">
+        <v>5</v>
+      </c>
+      <c r="N245">
+        <v>1.4</v>
+      </c>
+      <c r="O245">
+        <v>3.6</v>
+      </c>
+      <c r="P245">
+        <v>8</v>
+      </c>
+      <c r="Q245">
+        <v>-1.25</v>
+      </c>
+      <c r="R245">
+        <v>2</v>
+      </c>
+      <c r="S245">
+        <v>1.8</v>
+      </c>
+      <c r="T245">
+        <v>2.25</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
+      <c r="V245">
+        <v>1.8</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7823446</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45346.53125</v>
+      </c>
+      <c r="F246" t="s">
+        <v>43</v>
+      </c>
+      <c r="G246" t="s">
+        <v>35</v>
+      </c>
+      <c r="K246">
+        <v>1.444</v>
+      </c>
+      <c r="L246">
+        <v>3.5</v>
+      </c>
+      <c r="M246">
+        <v>7.5</v>
+      </c>
+      <c r="N246">
+        <v>1.5</v>
+      </c>
+      <c r="O246">
+        <v>3.6</v>
+      </c>
+      <c r="P246">
+        <v>7</v>
+      </c>
+      <c r="Q246">
+        <v>-1</v>
+      </c>
+      <c r="R246">
+        <v>1.875</v>
+      </c>
+      <c r="S246">
+        <v>1.925</v>
+      </c>
+      <c r="T246">
+        <v>2.25</v>
+      </c>
+      <c r="U246">
+        <v>1.975</v>
+      </c>
+      <c r="V246">
+        <v>1.825</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>USM Alger</t>
   </si>
   <si>
-    <t>USM Khenchela</t>
+    <t>Paradou AC</t>
   </si>
   <si>
-    <t>Paradou AC</t>
+    <t>USM Khenchela</t>
   </si>
   <si>
     <t>MC Alger</t>
@@ -124,10 +124,10 @@
     <t>ASO Chlef</t>
   </si>
   <si>
-    <t>NC Magra</t>
+    <t>RC Arba</t>
   </si>
   <si>
-    <t>RC Arba</t>
+    <t>NC Magra</t>
   </si>
   <si>
     <t>JS Saoura</t>
@@ -637,7 +637,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6217142</v>
+        <v>6217141</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -726,73 +726,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L3">
+        <v>2.9</v>
+      </c>
+      <c r="M3">
+        <v>2.7</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>2.4</v>
-      </c>
-      <c r="N3">
-        <v>2.2</v>
-      </c>
-      <c r="O3">
-        <v>2.9</v>
-      </c>
       <c r="P3">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA3">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC3">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6217141</v>
+        <v>6217142</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -815,73 +815,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>2.4</v>
+      </c>
+      <c r="N4">
+        <v>2.2</v>
+      </c>
+      <c r="O4">
         <v>2.9</v>
       </c>
-      <c r="M4">
-        <v>2.7</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
       <c r="P4">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
+        <v>1.9</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1.975</v>
+      </c>
+      <c r="V4">
+        <v>1.825</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>1.9</v>
+      </c>
+      <c r="Y4">
+        <v>-1</v>
+      </c>
+      <c r="Z4">
         <v>-0.5</v>
       </c>
-      <c r="R4">
-        <v>2.025</v>
-      </c>
-      <c r="S4">
-        <v>1.775</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>1.875</v>
-      </c>
-      <c r="V4">
-        <v>1.925</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>-1</v>
-      </c>
-      <c r="Z4">
-        <v>1.025</v>
-      </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB4">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1082,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6217145</v>
+        <v>6217137</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1260,55 +1260,55 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>47</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L9">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M9">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="N9">
-        <v>1.727</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="P9">
-        <v>5</v>
+        <v>2.375</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S9">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W9">
-        <v>0.7270000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="X9">
         <v>-1</v>
@@ -1317,16 +1317,16 @@
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA9">
         <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1334,7 +1334,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6217137</v>
+        <v>6217145</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1349,55 +1349,55 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L10">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M10">
-        <v>2.7</v>
+        <v>3.25</v>
       </c>
       <c r="N10">
-        <v>2.9</v>
+        <v>1.727</v>
       </c>
       <c r="O10">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="P10">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R10">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U10">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V10">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W10">
-        <v>1.9</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1406,16 +1406,16 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1613,7 +1613,7 @@
         <v>44981.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
@@ -1791,7 +1791,7 @@
         <v>44982.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>41</v>
@@ -1883,7 +1883,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1972,7 +1972,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6334662</v>
+        <v>6334661</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L23">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O23">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T23">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V23">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X23">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6334661</v>
+        <v>6334662</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L24">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M24">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N24">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P24">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U24">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2951,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3025,7 +3025,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6371496</v>
+        <v>6371495</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3037,76 +3037,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>1.533</v>
+        <v>9</v>
       </c>
       <c r="L29">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>1.285</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>9</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
-        <v>5.25</v>
+        <v>1.285</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R29">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Z29">
-        <v>0.375</v>
+        <v>0.8</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3114,7 +3114,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6371495</v>
+        <v>6371496</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3126,76 +3126,76 @@
         <v>45003.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K30">
-        <v>9</v>
+        <v>1.533</v>
       </c>
       <c r="L30">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M30">
-        <v>1.285</v>
+        <v>5.5</v>
       </c>
       <c r="N30">
-        <v>9</v>
+        <v>1.55</v>
       </c>
       <c r="O30">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>1.285</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8</v>
+        <v>0.375</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6411973</v>
+        <v>6411974</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K31">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>3</v>
       </c>
       <c r="M31">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N31">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
+        <v>1.925</v>
+      </c>
+      <c r="S31">
         <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>1.925</v>
       </c>
       <c r="T31">
         <v>1.75</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
+        <v>-0.5</v>
+      </c>
+      <c r="AA31">
+        <v>0.4375</v>
+      </c>
+      <c r="AB31">
+        <v>-1</v>
+      </c>
+      <c r="AC31">
         <v>0.875</v>
-      </c>
-      <c r="AA31">
-        <v>-1</v>
-      </c>
-      <c r="AB31">
-        <v>0.375</v>
-      </c>
-      <c r="AC31">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6411974</v>
+        <v>6411975</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M32">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N32">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O32">
         <v>2.9</v>
       </c>
       <c r="P32">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X32">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6411975</v>
+        <v>6411973</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,16 +3393,16 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>47</v>
@@ -3411,40 +3411,40 @@
         <v>1.909</v>
       </c>
       <c r="L33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M33">
         <v>4</v>
       </c>
       <c r="N33">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O33">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U33">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W33">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3453,16 +3453,16 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3482,10 +3482,10 @@
         <v>45017.48958333334</v>
       </c>
       <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
       </c>
       <c r="H34">
         <v>3</v>
@@ -3749,10 +3749,10 @@
         <v>45023.48958333334</v>
       </c>
       <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" t="s">
         <v>37</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -4019,7 +4019,7 @@
         <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6411986</v>
+        <v>6411985</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K41">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="L41">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M41">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="N41">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="O41">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P41">
+        <v>3.4</v>
+      </c>
+      <c r="Q41">
+        <v>-0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.95</v>
+      </c>
+      <c r="S41">
+        <v>1.85</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>1.95</v>
+      </c>
+      <c r="V41">
+        <v>1.85</v>
+      </c>
+      <c r="W41">
         <v>1.2</v>
       </c>
-      <c r="Q41">
-        <v>1.75</v>
-      </c>
-      <c r="R41">
-        <v>1.825</v>
-      </c>
-      <c r="S41">
-        <v>1.975</v>
-      </c>
-      <c r="T41">
-        <v>2.25</v>
-      </c>
-      <c r="U41">
-        <v>1.8</v>
-      </c>
-      <c r="V41">
-        <v>2</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA41">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6411985</v>
+        <v>6411986</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="L42">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M42">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="N42">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="O42">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P42">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R42">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S42">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V42">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z42">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC42">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4461,7 +4461,7 @@
         <v>45027.48958333334</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -4553,7 +4553,7 @@
         <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4642,7 +4642,7 @@
         <v>44</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4995,7 +4995,7 @@
         <v>45055.5</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>42</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6658489</v>
+        <v>6658491</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45063.5</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>48</v>
       </c>
       <c r="K54">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M54">
-        <v>7.5</v>
+        <v>1.285</v>
       </c>
       <c r="N54">
-        <v>1.25</v>
+        <v>21</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P54">
-        <v>11</v>
+        <v>1.125</v>
       </c>
       <c r="Q54">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5339,7 +5339,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6658491</v>
+        <v>6658488</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5351,67 +5351,67 @@
         <v>45063.5</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="L55">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>1.285</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>21</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>1.125</v>
+        <v>3.25</v>
       </c>
       <c r="Q55">
-        <v>2</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V55">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X55">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA55">
         <v>-1</v>
@@ -5420,7 +5420,7 @@
         <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6658488</v>
+        <v>6658489</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,40 +5529,40 @@
         <v>45063.5</v>
       </c>
       <c r="F57" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="N57">
-        <v>2.1</v>
+        <v>1.25</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>3.25</v>
+        <v>11</v>
       </c>
       <c r="Q57">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R57">
         <v>1.85</v>
@@ -5571,7 +5571,7 @@
         <v>1.95</v>
       </c>
       <c r="T57">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
         <v>1.85</v>
@@ -5580,19 +5580,19 @@
         <v>1.95</v>
       </c>
       <c r="W57">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB57">
         <v>-1</v>
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6629385</v>
+        <v>6629380</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,58 +5707,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>47</v>
       </c>
       <c r="K59">
+        <v>1.615</v>
+      </c>
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59">
+        <v>6</v>
+      </c>
+      <c r="N59">
         <v>1.571</v>
-      </c>
-      <c r="L59">
-        <v>3.1</v>
-      </c>
-      <c r="M59">
-        <v>6.5</v>
-      </c>
-      <c r="N59">
-        <v>1.444</v>
       </c>
       <c r="O59">
         <v>3.2</v>
       </c>
       <c r="P59">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Q59">
         <v>-1</v>
       </c>
       <c r="R59">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V59">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W59">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5767,13 +5767,13 @@
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6629380</v>
+        <v>6629385</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,58 +5796,58 @@
         <v>45064.58333333334</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>47</v>
       </c>
       <c r="K60">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N60">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="O60">
         <v>3.2</v>
       </c>
       <c r="P60">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q60">
         <v>-1</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S60">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W60">
-        <v>0.571</v>
+        <v>0.444</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5856,13 +5856,13 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5885,7 +5885,7 @@
         <v>45067.5</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -5977,7 +5977,7 @@
         <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6709150</v>
+        <v>6687386</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,40 +6063,40 @@
         <v>45077.5</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="L63">
+        <v>2.875</v>
+      </c>
+      <c r="M63">
         <v>3.4</v>
       </c>
-      <c r="M63">
-        <v>1.615</v>
-      </c>
       <c r="N63">
-        <v>4.75</v>
+        <v>1.444</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P63">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R63">
         <v>1.775</v>
@@ -6105,34 +6105,34 @@
         <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
         <v>1.875</v>
       </c>
-      <c r="V63">
-        <v>1.925</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z63">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6687386</v>
+        <v>6687382</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,49 +6152,49 @@
         <v>45077.5</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J64" t="s">
         <v>49</v>
       </c>
       <c r="K64">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L64">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="M64">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N64">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="O64">
+        <v>2.8</v>
+      </c>
+      <c r="P64">
         <v>3.6</v>
       </c>
-      <c r="P64">
-        <v>7.5</v>
-      </c>
       <c r="Q64">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R64">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U64">
         <v>1.925</v>
@@ -6209,19 +6209,19 @@
         <v>-1</v>
       </c>
       <c r="Y64">
-        <v>6.5</v>
+        <v>2.6</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6229,7 +6229,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6687382</v>
+        <v>6709150</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6244,73 +6244,73 @@
         <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K65">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="L65">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>3.2</v>
+        <v>1.615</v>
       </c>
       <c r="N65">
-        <v>2.15</v>
+        <v>4.75</v>
       </c>
       <c r="O65">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S65">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65">
+        <v>1.875</v>
+      </c>
+      <c r="V65">
         <v>1.925</v>
       </c>
-      <c r="V65">
-        <v>1.875</v>
-      </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.925</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6318,7 +6318,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6687016</v>
+        <v>6687383</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6330,76 +6330,76 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H66">
+        <v>3</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66" t="s">
+        <v>47</v>
+      </c>
+      <c r="K66">
+        <v>3.1</v>
+      </c>
+      <c r="L66">
+        <v>2.9</v>
+      </c>
+      <c r="M66">
+        <v>2.25</v>
+      </c>
+      <c r="N66">
+        <v>2.25</v>
+      </c>
+      <c r="O66">
+        <v>2.9</v>
+      </c>
+      <c r="P66">
+        <v>3.1</v>
+      </c>
+      <c r="Q66">
+        <v>-0.25</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>1.8</v>
+      </c>
+      <c r="T66">
+        <v>1.75</v>
+      </c>
+      <c r="U66">
+        <v>1.875</v>
+      </c>
+      <c r="V66">
+        <v>1.925</v>
+      </c>
+      <c r="W66">
+        <v>1.25</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
+        <v>-1</v>
+      </c>
+      <c r="Z66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>48</v>
-      </c>
-      <c r="K66">
-        <v>1.8</v>
-      </c>
-      <c r="L66">
-        <v>3.4</v>
-      </c>
-      <c r="M66">
-        <v>3.75</v>
-      </c>
-      <c r="N66">
-        <v>1.75</v>
-      </c>
-      <c r="O66">
-        <v>3</v>
-      </c>
-      <c r="P66">
-        <v>5.25</v>
-      </c>
-      <c r="Q66">
-        <v>-0.75</v>
-      </c>
-      <c r="R66">
-        <v>1.95</v>
-      </c>
-      <c r="S66">
-        <v>1.85</v>
-      </c>
-      <c r="T66">
-        <v>2</v>
-      </c>
-      <c r="U66">
-        <v>1.95</v>
-      </c>
-      <c r="V66">
-        <v>1.85</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>2</v>
-      </c>
-      <c r="Y66">
-        <v>-1</v>
-      </c>
-      <c r="Z66">
-        <v>-1</v>
-      </c>
       <c r="AA66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC66">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6687383</v>
+        <v>6687385</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,58 +6419,58 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>47</v>
       </c>
       <c r="K67">
-        <v>3.1</v>
+        <v>1.166</v>
       </c>
       <c r="L67">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>2.25</v>
+        <v>17</v>
       </c>
       <c r="N67">
-        <v>2.25</v>
+        <v>1.166</v>
       </c>
       <c r="O67">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P67">
-        <v>3.1</v>
+        <v>17</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T67">
-        <v>1.75</v>
+        <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>1.25</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X67">
         <v>-1</v>
@@ -6479,16 +6479,16 @@
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB67">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6687385</v>
+        <v>6687016</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,76 +6508,76 @@
         <v>45077.58333333334</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K68">
-        <v>1.166</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>1.166</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P68">
-        <v>17</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
         <v>-0</v>
-      </c>
-      <c r="AB68">
-        <v>-1</v>
-      </c>
-      <c r="AC68">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6687390</v>
+        <v>6687389</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K69">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L69">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="M69">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="N69">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="O69">
-        <v>2.9</v>
+        <v>4.333</v>
       </c>
       <c r="P69">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="Q69">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
+        <v>1.925</v>
+      </c>
+      <c r="T69">
+        <v>2.5</v>
+      </c>
+      <c r="U69">
+        <v>2</v>
+      </c>
+      <c r="V69">
         <v>1.8</v>
       </c>
-      <c r="T69">
-        <v>1.75</v>
-      </c>
-      <c r="U69">
-        <v>1.8</v>
-      </c>
-      <c r="V69">
-        <v>2</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X69">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA69">
+        <v>-1</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>0.8</v>
-      </c>
-      <c r="AB69">
-        <v>-1</v>
-      </c>
-      <c r="AC69">
-        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6687020</v>
+        <v>6687019</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,76 +6686,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L70">
+        <v>2.8</v>
+      </c>
+      <c r="M70">
+        <v>2.4</v>
+      </c>
+      <c r="N70">
         <v>3</v>
       </c>
-      <c r="M70">
-        <v>6</v>
-      </c>
-      <c r="N70">
-        <v>1.666</v>
-      </c>
       <c r="O70">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q70">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R70">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T70">
         <v>1.75</v>
       </c>
       <c r="U70">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z70">
+        <v>-1</v>
+      </c>
+      <c r="AA70">
+        <v>0.75</v>
+      </c>
+      <c r="AB70">
         <v>0.8</v>
       </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>0.475</v>
-      </c>
       <c r="AC70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6687389</v>
+        <v>6687390</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K71">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L71">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="M71">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="O71">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P71">
-        <v>7.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q71">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R71">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
         <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6687387</v>
+        <v>6687020</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L72">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N72">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2</v>
+      </c>
+      <c r="T72">
+        <v>1.75</v>
+      </c>
+      <c r="U72">
         <v>1.95</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>1.85</v>
       </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>2.025</v>
-      </c>
-      <c r="V72">
-        <v>1.775</v>
-      </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC72">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6687019</v>
+        <v>6687387</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,55 +6953,55 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>1</v>
-      </c>
-      <c r="I73">
-        <v>3</v>
       </c>
       <c r="J73" t="s">
         <v>49</v>
       </c>
       <c r="K73">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L73">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O73">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>2.45</v>
+        <v>6.5</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
         <v>-1</v>
@@ -7010,19 +7010,19 @@
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.45</v>
+        <v>5.5</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7042,7 +7042,7 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
         <v>34</v>
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6765519</v>
+        <v>6765586</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,28 +7487,28 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L79">
         <v>3.2</v>
       </c>
       <c r="M79">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N79">
         <v>1.65</v>
@@ -7517,46 +7517,46 @@
         <v>3.1</v>
       </c>
       <c r="P79">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
         <v>1.75</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X79">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7564,7 +7564,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6765585</v>
+        <v>6765519</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7576,76 +7576,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>48</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L80">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N80">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O80">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P80">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S80">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
         <v>1.75</v>
       </c>
       <c r="U80">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V80">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.5249999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
-        <v>0.4375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6765588</v>
+        <v>6765585</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>48</v>
       </c>
       <c r="K81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L81">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M81">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N81">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P81">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R81">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S81">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA81">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6765586</v>
+        <v>6765588</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,76 +7754,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>30</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L82">
         <v>3.2</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N82">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O82">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q82">
         <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T82">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6765584</v>
+        <v>6765583</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7846,7 +7846,7 @@
         <v>37</v>
       </c>
       <c r="G83" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7858,58 +7858,58 @@
         <v>47</v>
       </c>
       <c r="K83">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="L83">
         <v>2.8</v>
       </c>
       <c r="M83">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="N83">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S83">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T83">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W83">
+        <v>1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>1.05</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
-        <v>0.825</v>
-      </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6765522</v>
+        <v>6765584</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H84">
+        <v>2</v>
+      </c>
+      <c r="I84">
         <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M84">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N84">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O84">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P84">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R84">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W84">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6765583</v>
+        <v>6765522</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G85" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L85">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O85">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P85">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q85">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S85">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T85">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V85">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6858630</v>
+        <v>6743297</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,76 +8110,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K86">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M86">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N86">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="O86">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="P86">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q86">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R86">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X86">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6744018</v>
+        <v>6744005</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,76 +8288,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>47</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="L88">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M88">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="N88">
+        <v>1.4</v>
+      </c>
+      <c r="O88">
+        <v>3.75</v>
+      </c>
+      <c r="P88">
+        <v>7.5</v>
+      </c>
+      <c r="Q88">
+        <v>-1.25</v>
+      </c>
+      <c r="R88">
+        <v>2.05</v>
+      </c>
+      <c r="S88">
+        <v>1.75</v>
+      </c>
+      <c r="T88">
+        <v>2</v>
+      </c>
+      <c r="U88">
         <v>1.85</v>
       </c>
-      <c r="O88">
-        <v>2.9</v>
-      </c>
-      <c r="P88">
-        <v>4.5</v>
-      </c>
-      <c r="Q88">
+      <c r="V88">
+        <v>1.95</v>
+      </c>
+      <c r="W88">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="X88">
+        <v>-1</v>
+      </c>
+      <c r="Y88">
+        <v>-1</v>
+      </c>
+      <c r="Z88">
         <v>-0.5</v>
       </c>
-      <c r="R88">
-        <v>1.9</v>
-      </c>
-      <c r="S88">
-        <v>1.9</v>
-      </c>
-      <c r="T88">
-        <v>1.75</v>
-      </c>
-      <c r="U88">
-        <v>1.825</v>
-      </c>
-      <c r="V88">
-        <v>1.975</v>
-      </c>
-      <c r="W88">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X88">
-        <v>-1</v>
-      </c>
-      <c r="Y88">
-        <v>-1</v>
-      </c>
-      <c r="Z88">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6744005</v>
+        <v>6743989</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8380,55 +8380,55 @@
         <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
         <v>1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L89">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N89">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O89">
         <v>3.75</v>
       </c>
       <c r="P89">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q89">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA89">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6743977</v>
+        <v>6744018</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,76 +8466,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="N90">
-        <v>1.363</v>
+        <v>1.85</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X90">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6743989</v>
+        <v>6858630</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,76 +8555,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K91">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="N91">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="O91">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="P91">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W91">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>-0</v>
+        <v>0.3625</v>
       </c>
       <c r="AB91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6743297</v>
+        <v>6743977</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,61 +8644,61 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K92">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L92">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N92">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O92">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P92">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q92">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y92">
         <v>-1</v>
@@ -8707,13 +8707,13 @@
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6872722</v>
+        <v>6872721</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F93" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H93">
         <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>47</v>
       </c>
       <c r="K93">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N93">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O93">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P93">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q93">
+        <v>-1.25</v>
+      </c>
+      <c r="R93">
+        <v>2.025</v>
+      </c>
+      <c r="S93">
+        <v>1.775</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
+        <v>1.875</v>
+      </c>
+      <c r="W93">
+        <v>0.363</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93">
         <v>-0.5</v>
       </c>
-      <c r="R93">
-        <v>1.95</v>
-      </c>
-      <c r="S93">
-        <v>1.85</v>
-      </c>
-      <c r="T93">
-        <v>2</v>
-      </c>
-      <c r="U93">
-        <v>2.025</v>
-      </c>
-      <c r="V93">
-        <v>1.775</v>
-      </c>
-      <c r="W93">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
-      <c r="Z93">
-        <v>0.95</v>
-      </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB93">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6872721</v>
+        <v>6872727</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,73 +8822,73 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K94">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>6</v>
+      </c>
+      <c r="N94">
+        <v>1.65</v>
+      </c>
+      <c r="O94">
+        <v>3.3</v>
+      </c>
+      <c r="P94">
+        <v>4.75</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>1.85</v>
+      </c>
+      <c r="T94">
+        <v>2</v>
+      </c>
+      <c r="U94">
+        <v>1.75</v>
+      </c>
+      <c r="V94">
+        <v>2.05</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
+        <v>-1</v>
+      </c>
+      <c r="Y94">
         <v>3.75</v>
       </c>
-      <c r="M94">
-        <v>7</v>
-      </c>
-      <c r="N94">
-        <v>1.363</v>
-      </c>
-      <c r="O94">
-        <v>4.2</v>
-      </c>
-      <c r="P94">
-        <v>7</v>
-      </c>
-      <c r="Q94">
-        <v>-1.25</v>
-      </c>
-      <c r="R94">
-        <v>2.025</v>
-      </c>
-      <c r="S94">
-        <v>1.775</v>
-      </c>
-      <c r="T94">
-        <v>2</v>
-      </c>
-      <c r="U94">
-        <v>1.925</v>
-      </c>
-      <c r="V94">
-        <v>1.875</v>
-      </c>
-      <c r="W94">
-        <v>0.363</v>
-      </c>
-      <c r="X94">
-        <v>-1</v>
-      </c>
-      <c r="Y94">
-        <v>-1</v>
-      </c>
       <c r="Z94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6872723</v>
+        <v>6872722</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,34 +8911,34 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K95">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="L95">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O95">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P95">
         <v>4.2</v>
@@ -8947,40 +8947,40 @@
         <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6872727</v>
+        <v>6872724</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,49 +9000,49 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K96">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N96">
         <v>1.65</v>
       </c>
       <c r="O96">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P96">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
         <v>-0.75</v>
       </c>
       <c r="R96">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U96">
         <v>1.75</v>
@@ -9051,25 +9051,25 @@
         <v>2.05</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA96">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9089,10 +9089,10 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9178,7 +9178,7 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>42</v>
@@ -9255,7 +9255,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6872724</v>
+        <v>6872723</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9267,76 +9267,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
         <v>1</v>
       </c>
-      <c r="I99">
-        <v>0</v>
-      </c>
       <c r="J99" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K99">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M99">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="N99">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O99">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q99">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S99">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T99">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z99">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6888615</v>
+        <v>6888612</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,13 +9356,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -9371,61 +9371,61 @@
         <v>47</v>
       </c>
       <c r="K100">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L100">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N100">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.875</v>
+      </c>
+      <c r="S100">
+        <v>1.925</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.9</v>
+      </c>
+      <c r="V100">
+        <v>1.9</v>
+      </c>
+      <c r="W100">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.4375</v>
+      </c>
+      <c r="AA100">
         <v>-0.5</v>
       </c>
-      <c r="R100">
-        <v>1.775</v>
-      </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.875</v>
-      </c>
-      <c r="V100">
-        <v>1.925</v>
-      </c>
-      <c r="W100">
-        <v>0.7</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6888610</v>
+        <v>6888611</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,58 +9445,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>47</v>
       </c>
       <c r="K101">
-        <v>1.25</v>
+        <v>2.05</v>
       </c>
       <c r="L101">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="M101">
-        <v>11</v>
+        <v>3.6</v>
       </c>
       <c r="N101">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O101">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q101">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.9</v>
+      </c>
+      <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
         <v>1.775</v>
       </c>
-      <c r="S101">
-        <v>2.025</v>
-      </c>
-      <c r="T101">
-        <v>2</v>
-      </c>
-      <c r="U101">
-        <v>1.775</v>
-      </c>
-      <c r="V101">
-        <v>2.025</v>
-      </c>
       <c r="W101">
-        <v>0.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9505,16 +9505,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6888614</v>
+        <v>6888609</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>48</v>
+      </c>
+      <c r="K102">
+        <v>1.666</v>
+      </c>
+      <c r="L102">
         <v>3</v>
       </c>
-      <c r="J102" t="s">
-        <v>49</v>
-      </c>
-      <c r="K102">
-        <v>1.8</v>
-      </c>
-      <c r="L102">
-        <v>3.2</v>
-      </c>
       <c r="M102">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N102">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="O102">
         <v>3</v>
       </c>
       <c r="P102">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R102">
+        <v>2.025</v>
+      </c>
+      <c r="S102">
+        <v>1.775</v>
+      </c>
+      <c r="T102">
+        <v>2</v>
+      </c>
+      <c r="U102">
+        <v>1.95</v>
+      </c>
+      <c r="V102">
         <v>1.85</v>
       </c>
-      <c r="S102">
-        <v>1.95</v>
-      </c>
-      <c r="T102">
-        <v>1.75</v>
-      </c>
-      <c r="U102">
-        <v>1.775</v>
-      </c>
-      <c r="V102">
-        <v>2.025</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y102">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB102">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6888613</v>
+        <v>6888610</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,58 +9623,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G103" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L103">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M103">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="N103">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O103">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P103">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q103">
         <v>-1.25</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X103">
         <v>-1</v>
@@ -9683,16 +9683,16 @@
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA103">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6888612</v>
+        <v>6888613</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,58 +9712,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H104">
+        <v>2</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M104">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O104">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P104">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="Q104">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R104">
+        <v>1.925</v>
+      </c>
+      <c r="S104">
         <v>1.875</v>
       </c>
-      <c r="S104">
-        <v>1.925</v>
-      </c>
       <c r="T104">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W104">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
+        <v>-0.5</v>
+      </c>
+      <c r="AA104">
         <v>0.4375</v>
       </c>
-      <c r="AA104">
-        <v>-0.5</v>
-      </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6888611</v>
+        <v>6888615</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,58 +9801,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>47</v>
       </c>
       <c r="K105">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L105">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M105">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N105">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T105">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U105">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9861,13 +9861,13 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC105">
         <v>-1</v>
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6888609</v>
+        <v>6888614</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,76 +9890,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K106">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L106">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M106">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N106">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="O106">
         <v>3</v>
       </c>
       <c r="P106">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R106">
+        <v>1.85</v>
+      </c>
+      <c r="S106">
+        <v>1.95</v>
+      </c>
+      <c r="T106">
+        <v>1.75</v>
+      </c>
+      <c r="U106">
+        <v>1.775</v>
+      </c>
+      <c r="V106">
         <v>2.025</v>
       </c>
-      <c r="S106">
-        <v>1.775</v>
-      </c>
-      <c r="T106">
-        <v>2</v>
-      </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
         <v>-1</v>
       </c>
       <c r="X106">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z106">
         <v>-1</v>
       </c>
       <c r="AA106">
+        <v>0.95</v>
+      </c>
+      <c r="AB106">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AB106">
-        <v>0</v>
-      </c>
       <c r="AC106">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10068,10 +10068,10 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7130198</v>
+        <v>7129059</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45184.5</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,43 +10172,43 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N109">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
+        <v>1.975</v>
+      </c>
+      <c r="S109">
         <v>1.825</v>
       </c>
-      <c r="S109">
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
         <v>1.975</v>
       </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W109">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10217,16 +10217,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7129059</v>
+        <v>7130198</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,10 +10246,10 @@
         <v>45184.5</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10261,43 +10261,43 @@
         <v>47</v>
       </c>
       <c r="K110">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>1.6</v>
+      </c>
+      <c r="O110">
         <v>3.4</v>
       </c>
-      <c r="N110">
-        <v>2.2</v>
-      </c>
-      <c r="O110">
-        <v>3.2</v>
-      </c>
       <c r="P110">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R110">
+        <v>1.825</v>
+      </c>
+      <c r="S110">
         <v>1.975</v>
       </c>
-      <c r="S110">
-        <v>1.825</v>
-      </c>
       <c r="T110">
         <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W110">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X110">
         <v>-1</v>
@@ -10306,16 +10306,16 @@
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10424,7 +10424,7 @@
         <v>45185.5</v>
       </c>
       <c r="F112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G112" t="s">
         <v>42</v>
@@ -10872,7 +10872,7 @@
         <v>42</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -11314,7 +11314,7 @@
         <v>45196.5</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
         <v>29</v>
@@ -11403,7 +11403,7 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
         <v>42</v>
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7230936</v>
+        <v>7230934</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,34 +11492,34 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L124">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M124">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P124">
         <v>3.75</v>
@@ -11528,40 +11528,40 @@
         <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>1.9</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>-0.5</v>
+      </c>
+      <c r="AA124">
+        <v>0.5125</v>
+      </c>
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>1</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.8</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.825</v>
-      </c>
-      <c r="AC124">
-        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7230934</v>
+        <v>7230936</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,34 +11581,34 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L125">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M125">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O125">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P125">
         <v>3.75</v>
@@ -11617,40 +11617,40 @@
         <v>-0.25</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>1.75</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X125">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA125">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7230942</v>
+        <v>7230950</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,58 +11937,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H129">
+        <v>5</v>
+      </c>
+      <c r="I129">
         <v>3</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
       </c>
       <c r="K129">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L129">
+        <v>3.25</v>
+      </c>
+      <c r="M129">
+        <v>4.333</v>
+      </c>
+      <c r="N129">
+        <v>1.5</v>
+      </c>
+      <c r="O129">
         <v>3.5</v>
       </c>
-      <c r="M129">
-        <v>5.25</v>
-      </c>
-      <c r="N129">
-        <v>1.666</v>
-      </c>
-      <c r="O129">
-        <v>3.3</v>
-      </c>
       <c r="P129">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q129">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,13 +11997,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7230950</v>
+        <v>7230942</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,58 +12026,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>47</v>
       </c>
       <c r="K130">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L130">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M130">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N130">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P130">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,13 +12086,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7230940</v>
+        <v>7230941</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45205.625</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>0</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L131">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N131">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q131">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
         <v>1.975</v>
       </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
       <c r="T131">
         <v>2</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y131">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
         <v>-1</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7230941</v>
+        <v>7230940</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45205.625</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H132">
         <v>0</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M132">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N132">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q132">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R132">
+        <v>1.975</v>
+      </c>
+      <c r="S132">
         <v>1.825</v>
       </c>
-      <c r="S132">
-        <v>1.975</v>
-      </c>
       <c r="T132">
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z132">
         <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12474,7 +12474,7 @@
         <v>44</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12741,7 +12741,7 @@
         <v>29</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>3</v>
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7427220</v>
+        <v>7427219</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L139">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M139">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N139">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O139">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P139">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q139">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R139">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S139">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T139">
         <v>2</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA139">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB139">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7427219</v>
+        <v>7427220</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G140" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H140">
+        <v>3</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140" t="s">
+        <v>49</v>
+      </c>
+      <c r="K140">
+        <v>3.1</v>
+      </c>
+      <c r="L140">
+        <v>2.875</v>
+      </c>
+      <c r="M140">
+        <v>2.25</v>
+      </c>
+      <c r="N140">
+        <v>2.875</v>
+      </c>
+      <c r="O140">
+        <v>2.875</v>
+      </c>
+      <c r="P140">
+        <v>2.375</v>
+      </c>
+      <c r="Q140">
+        <v>0.25</v>
+      </c>
+      <c r="R140">
+        <v>1.75</v>
+      </c>
+      <c r="S140">
+        <v>2.05</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>2</v>
+      </c>
+      <c r="V140">
+        <v>1.8</v>
+      </c>
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>-1</v>
+      </c>
+      <c r="Y140">
+        <v>1.375</v>
+      </c>
+      <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
+        <v>1.05</v>
+      </c>
+      <c r="AB140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
-      <c r="J140" t="s">
-        <v>47</v>
-      </c>
-      <c r="K140">
-        <v>1.4</v>
-      </c>
-      <c r="L140">
-        <v>3.8</v>
-      </c>
-      <c r="M140">
-        <v>7.5</v>
-      </c>
-      <c r="N140">
-        <v>1.4</v>
-      </c>
-      <c r="O140">
-        <v>3.6</v>
-      </c>
-      <c r="P140">
-        <v>7</v>
-      </c>
-      <c r="Q140">
-        <v>-1</v>
-      </c>
-      <c r="R140">
-        <v>1.8</v>
-      </c>
-      <c r="S140">
-        <v>2</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
-      <c r="U140">
-        <v>1.9</v>
-      </c>
-      <c r="V140">
-        <v>1.9</v>
-      </c>
-      <c r="W140">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X140">
-        <v>-1</v>
-      </c>
-      <c r="Y140">
-        <v>-1</v>
-      </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-      <c r="AA140">
-        <v>-0</v>
-      </c>
-      <c r="AB140">
-        <v>-1</v>
-      </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13183,7 +13183,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
         <v>39</v>
@@ -13272,7 +13272,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>45</v>
@@ -13539,7 +13539,7 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>44</v>
@@ -13720,7 +13720,7 @@
         <v>43</v>
       </c>
       <c r="G149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13898,7 +13898,7 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>45</v>
       </c>
       <c r="G153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14429,7 +14429,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G157" t="s">
         <v>43</v>
@@ -14518,7 +14518,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G158" t="s">
         <v>41</v>
@@ -14607,7 +14607,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
         <v>45</v>
@@ -14877,7 +14877,7 @@
         <v>41</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14966,7 +14966,7 @@
         <v>32</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15055,7 +15055,7 @@
         <v>43</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15411,7 +15411,7 @@
         <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15497,7 +15497,7 @@
         <v>45268.46875</v>
       </c>
       <c r="F169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
         <v>41</v>
@@ -15663,7 +15663,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7537790</v>
+        <v>7537791</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15675,76 +15675,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G171" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K171">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L171">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M171">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N171">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O171">
         <v>2.875</v>
       </c>
       <c r="P171">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q171">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R171">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S171">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T171">
         <v>2</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W171">
         <v>-1</v>
       </c>
       <c r="X171">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AB171">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC171">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15752,7 +15752,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7537791</v>
+        <v>7537790</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15764,76 +15764,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F172" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G172" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I172">
         <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K172">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L172">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N172">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O172">
         <v>2.875</v>
       </c>
       <c r="P172">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q172">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R172">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S172">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T172">
         <v>2</v>
       </c>
       <c r="U172">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
+        <v>1.825</v>
+      </c>
+      <c r="W172">
+        <v>-1</v>
+      </c>
+      <c r="X172">
         <v>1.875</v>
       </c>
-      <c r="W172">
-        <v>-1</v>
-      </c>
-      <c r="X172">
-        <v>-1</v>
-      </c>
       <c r="Y172">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA172">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AB172">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC172">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16212,7 +16212,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16390,7 +16390,7 @@
         <v>38</v>
       </c>
       <c r="G179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -16479,7 +16479,7 @@
         <v>32</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H180">
         <v>3</v>
@@ -16743,7 +16743,7 @@
         <v>45289.46875</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G183" t="s">
         <v>46</v>
@@ -16820,7 +16820,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7624517</v>
+        <v>7624516</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16835,73 +16835,73 @@
         <v>31</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K184">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L184">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M184">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N184">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O184">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P184">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q184">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
+        <v>1.85</v>
+      </c>
+      <c r="S184">
+        <v>1.95</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
+        <v>2</v>
+      </c>
+      <c r="V184">
         <v>1.8</v>
       </c>
-      <c r="S184">
-        <v>2</v>
-      </c>
-      <c r="T184">
-        <v>1.75</v>
-      </c>
-      <c r="U184">
-        <v>1.825</v>
-      </c>
-      <c r="V184">
-        <v>1.975</v>
-      </c>
       <c r="W184">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X184">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA184">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC184">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624516</v>
+        <v>7624517</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16924,73 +16924,73 @@
         <v>30</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K185">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L185">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M185">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N185">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O185">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P185">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q185">
+        <v>-0.25</v>
+      </c>
+      <c r="R185">
+        <v>1.8</v>
+      </c>
+      <c r="S185">
+        <v>2</v>
+      </c>
+      <c r="T185">
+        <v>1.75</v>
+      </c>
+      <c r="U185">
+        <v>1.825</v>
+      </c>
+      <c r="V185">
+        <v>1.975</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>1.8</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
         <v>-0.5</v>
       </c>
-      <c r="R185">
-        <v>1.85</v>
-      </c>
-      <c r="S185">
-        <v>1.95</v>
-      </c>
-      <c r="T185">
-        <v>2</v>
-      </c>
-      <c r="U185">
-        <v>2</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
-      <c r="W185">
-        <v>0.833</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>-1</v>
-      </c>
-      <c r="Z185">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA185">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB185">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17087,7 +17087,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7624498</v>
+        <v>7624597</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17099,76 +17099,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>48</v>
       </c>
       <c r="K187">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L187">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M187">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N187">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O187">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P187">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q187">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T187">
         <v>2</v>
       </c>
       <c r="U187">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V187">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W187">
         <v>-1</v>
       </c>
       <c r="X187">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Y187">
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA187">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB187">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17176,7 +17176,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7624597</v>
+        <v>7624498</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17188,76 +17188,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G188" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>48</v>
       </c>
       <c r="K188">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L188">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M188">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N188">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O188">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P188">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q188">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R188">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S188">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2</v>
       </c>
       <c r="U188">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V188">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA188">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC188">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17366,7 +17366,7 @@
         <v>45296.46875</v>
       </c>
       <c r="F190" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G190" t="s">
         <v>33</v>
@@ -17458,7 +17458,7 @@
         <v>46</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17725,7 +17725,7 @@
         <v>38</v>
       </c>
       <c r="G194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -18167,10 +18167,10 @@
         <v>45303.46875</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -18256,7 +18256,7 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F200" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
         <v>46</v>
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7567341</v>
+        <v>7567343</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M206">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N206">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P206">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q206">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R206">
+        <v>1.95</v>
+      </c>
+      <c r="S206">
         <v>1.85</v>
       </c>
-      <c r="S206">
-        <v>1.95</v>
-      </c>
       <c r="T206">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U206">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V206">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W206">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA206">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18879,10 +18879,10 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7567343</v>
+        <v>7567341</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208">
         <v>1</v>
       </c>
-      <c r="I208">
-        <v>0</v>
-      </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N208">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O208">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P208">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
+        <v>1.85</v>
+      </c>
+      <c r="S208">
         <v>1.95</v>
       </c>
-      <c r="S208">
-        <v>1.85</v>
-      </c>
       <c r="T208">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U208">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V208">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W208">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
         <v>0.95</v>
       </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19490,7 +19490,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19502,10 +19502,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F214" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G214" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19517,31 +19517,31 @@
         <v>48</v>
       </c>
       <c r="K214">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L214">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M214">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N214">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P214">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q214">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T214">
         <v>2</v>
@@ -19556,16 +19556,16 @@
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA214">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
         <v>-1</v>
@@ -19579,7 +19579,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19591,10 +19591,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F215" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G215" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -19606,31 +19606,31 @@
         <v>48</v>
       </c>
       <c r="K215">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L215">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M215">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N215">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O215">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P215">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q215">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R215">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T215">
         <v>2</v>
@@ -19645,16 +19645,16 @@
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y215">
         <v>-1</v>
       </c>
       <c r="Z215">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB215">
         <v>-1</v>
@@ -19680,10 +19680,10 @@
         <v>45317.47916666666</v>
       </c>
       <c r="F216" t="s">
+        <v>31</v>
+      </c>
+      <c r="G216" t="s">
         <v>30</v>
-      </c>
-      <c r="G216" t="s">
-        <v>31</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -20024,7 +20024,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7680045</v>
+        <v>7680043</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20036,58 +20036,58 @@
         <v>45318.5</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G220" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>47</v>
       </c>
       <c r="K220">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L220">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M220">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="N220">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O220">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P220">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T220">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V220">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
-        <v>1.05</v>
+        <v>0.222</v>
       </c>
       <c r="X220">
         <v>-1</v>
@@ -20096,16 +20096,16 @@
         <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA220">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB220">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC220">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20113,7 +20113,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7680043</v>
+        <v>7680045</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20125,58 +20125,58 @@
         <v>45318.5</v>
       </c>
       <c r="F221" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="H221">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J221" t="s">
         <v>47</v>
       </c>
       <c r="K221">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L221">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M221">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="N221">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O221">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P221">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q221">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
+        <v>1.775</v>
+      </c>
+      <c r="S221">
+        <v>2.025</v>
+      </c>
+      <c r="T221">
+        <v>2</v>
+      </c>
+      <c r="U221">
         <v>1.95</v>
       </c>
-      <c r="S221">
+      <c r="V221">
         <v>1.85</v>
       </c>
-      <c r="T221">
-        <v>2.5</v>
-      </c>
-      <c r="U221">
-        <v>1.925</v>
-      </c>
-      <c r="V221">
-        <v>1.875</v>
-      </c>
       <c r="W221">
-        <v>0.222</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20185,16 +20185,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC221">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20306,7 +20306,7 @@
         <v>29</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H223">
         <v>3</v>
@@ -20751,7 +20751,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H228">
         <v>2</v>
@@ -21018,7 +21018,7 @@
         <v>42</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21196,7 +21196,7 @@
         <v>29</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H233">
         <v>1</v>
@@ -21371,7 +21371,7 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G235" t="s">
         <v>42</v>
@@ -21460,7 +21460,7 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G236" t="s">
         <v>29</v>
@@ -21888,12 +21888,12 @@
         <v>-0</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7823447</v>
+        <v>7823443</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21905,40 +21905,49 @@
         <v>45345.5</v>
       </c>
       <c r="F241" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G241" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="H241">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>49</v>
       </c>
       <c r="K241">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L241">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M241">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N241">
-        <v>1.95</v>
+        <v>1.615</v>
       </c>
       <c r="O241">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P241">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q241">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R241">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S241">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U241">
         <v>1.9</v>
@@ -21947,27 +21956,33 @@
         <v>1.9</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
+        <v>1</v>
+      </c>
+      <c r="AB241">
+        <v>-1</v>
+      </c>
+      <c r="AC241">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7823443</v>
+        <v>7823447</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21979,64 +21994,79 @@
         <v>45345.5</v>
       </c>
       <c r="F242" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G242" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="H242">
+        <v>2</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242" t="s">
+        <v>47</v>
       </c>
       <c r="K242">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L242">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M242">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N242">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O242">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P242">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q242">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R242">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S242">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T242">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V242">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="W242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB242">
+        <v>-0.5</v>
+      </c>
+      <c r="AC242">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="243" spans="1:29">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -22056,7 +22086,7 @@
         <v>42</v>
       </c>
       <c r="G243" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K243">
         <v>1.5</v>
@@ -22074,26 +22104,26 @@
         <v>3.1</v>
       </c>
       <c r="P243">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="Q243">
         <v>-0.75</v>
       </c>
       <c r="R243">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S243">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T243">
+        <v>2</v>
+      </c>
+      <c r="U243">
+        <v>2.05</v>
+      </c>
+      <c r="V243">
         <v>1.75</v>
       </c>
-      <c r="U243">
-        <v>1.75</v>
-      </c>
-      <c r="V243">
-        <v>2.05</v>
-      </c>
       <c r="W243">
         <v>0</v>
       </c>
@@ -22110,7 +22140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:29">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -22142,31 +22172,31 @@
         <v>2.5</v>
       </c>
       <c r="N244">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O244">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P244">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R244">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S244">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T244">
         <v>2</v>
       </c>
       <c r="U244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22184,7 +22214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:29">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -22228,19 +22258,19 @@
         <v>-1.25</v>
       </c>
       <c r="R245">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S245">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T245">
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22258,7 +22288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:27">
+    <row r="246" spans="1:29">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -22302,10 +22332,10 @@
         <v>-1</v>
       </c>
       <c r="R246">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S246">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T246">
         <v>2.25</v>

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -2491,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6334661</v>
+        <v>6334662</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2503,76 +2503,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>2.6</v>
+        <v>1.833</v>
       </c>
       <c r="L23">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="O23">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="P23">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R23">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S23">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="U23">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V23">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W23">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6334662</v>
+        <v>6334661</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>44995.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.833</v>
+        <v>2.6</v>
       </c>
       <c r="L24">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O24">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="P24">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q24">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T24">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X24">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -3203,7 +3203,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6411974</v>
+        <v>6411975</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3215,76 +3215,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M31">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N31">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O31">
         <v>2.9</v>
       </c>
       <c r="P31">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X31">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3292,7 +3292,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6411975</v>
+        <v>6411974</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,76 +3304,76 @@
         <v>45016.48958333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N32">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="O32">
         <v>2.9</v>
       </c>
       <c r="P32">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q32">
+        <v>-0.25</v>
+      </c>
+      <c r="R32">
+        <v>1.925</v>
+      </c>
+      <c r="S32">
+        <v>1.875</v>
+      </c>
+      <c r="T32">
+        <v>1.75</v>
+      </c>
+      <c r="U32">
+        <v>1.925</v>
+      </c>
+      <c r="V32">
+        <v>1.875</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>1.9</v>
+      </c>
+      <c r="Y32">
+        <v>-1</v>
+      </c>
+      <c r="Z32">
         <v>-0.5</v>
       </c>
-      <c r="R32">
-        <v>1.95</v>
-      </c>
-      <c r="S32">
-        <v>1.85</v>
-      </c>
-      <c r="T32">
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>2</v>
-      </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
-      <c r="W32">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>0.95</v>
-      </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6411979</v>
+        <v>6411978</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,13 +3571,13 @@
         <v>45021.75</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -3586,43 +3586,43 @@
         <v>47</v>
       </c>
       <c r="K35">
-        <v>1.3</v>
+        <v>1.666</v>
       </c>
       <c r="L35">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="N35">
-        <v>1.181</v>
+        <v>1.5</v>
       </c>
       <c r="O35">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="P35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q35">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>0.181</v>
+        <v>0.5</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3631,16 +3631,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6411978</v>
+        <v>6411979</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,13 +3660,13 @@
         <v>45021.75</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3675,43 +3675,43 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>1.666</v>
+        <v>1.3</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M36">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N36">
-        <v>1.5</v>
+        <v>1.181</v>
       </c>
       <c r="O36">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="P36">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q36">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W36">
-        <v>0.5</v>
+        <v>0.181</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3720,16 +3720,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6411985</v>
+        <v>6411986</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K41">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="L41">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="M41">
-        <v>3.25</v>
+        <v>1.166</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>15</v>
       </c>
       <c r="O41">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P41">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R41">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6411986</v>
+        <v>6411985</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45025.48958333334</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="L42">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M42">
-        <v>1.166</v>
+        <v>3.25</v>
       </c>
       <c r="N42">
-        <v>15</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P42">
+        <v>3.4</v>
+      </c>
+      <c r="Q42">
+        <v>-0.25</v>
+      </c>
+      <c r="R42">
+        <v>1.95</v>
+      </c>
+      <c r="S42">
+        <v>1.85</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>1.95</v>
+      </c>
+      <c r="V42">
+        <v>1.85</v>
+      </c>
+      <c r="W42">
         <v>1.2</v>
       </c>
-      <c r="Q42">
-        <v>1.75</v>
-      </c>
-      <c r="R42">
-        <v>1.825</v>
-      </c>
-      <c r="S42">
-        <v>1.975</v>
-      </c>
-      <c r="T42">
-        <v>2.25</v>
-      </c>
-      <c r="U42">
-        <v>1.8</v>
-      </c>
-      <c r="V42">
-        <v>2</v>
-      </c>
-      <c r="W42">
-        <v>-1</v>
-      </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6658491</v>
+        <v>6658489</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,76 +5262,76 @@
         <v>45063.5</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
         <v>48</v>
       </c>
       <c r="K54">
-        <v>9</v>
+        <v>1.4</v>
       </c>
       <c r="L54">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>1.285</v>
+        <v>7.5</v>
       </c>
       <c r="N54">
-        <v>21</v>
+        <v>1.25</v>
       </c>
       <c r="O54">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="P54">
-        <v>1.125</v>
+        <v>11</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>-1.5</v>
       </c>
       <c r="R54">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6658489</v>
+        <v>6658491</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,76 +5529,76 @@
         <v>45063.5</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>7.5</v>
+        <v>1.285</v>
       </c>
       <c r="N57">
-        <v>1.25</v>
+        <v>21</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="P57">
-        <v>11</v>
+        <v>1.125</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="R57">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U57">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V57">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
         <v>-1</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -6585,7 +6585,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6687389</v>
+        <v>6687019</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6597,76 +6597,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K69">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L69">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M69">
-        <v>7.5</v>
+        <v>2.4</v>
       </c>
       <c r="N69">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="O69">
-        <v>4.333</v>
+        <v>2.9</v>
       </c>
       <c r="P69">
-        <v>7.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q69">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S69">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V69">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z69">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC69">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6674,7 +6674,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6687019</v>
+        <v>6687390</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6686,46 +6686,46 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K70">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L70">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M70">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O70">
         <v>2.9</v>
       </c>
       <c r="P70">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q70">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
         <v>1.75</v>
@@ -6740,22 +6740,22 @@
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y70">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6763,7 +6763,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6687390</v>
+        <v>6687391</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6775,76 +6775,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K71">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L71">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O71">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X71">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6687020</v>
+        <v>6687389</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,10 +6864,10 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6879,43 +6879,43 @@
         <v>47</v>
       </c>
       <c r="K72">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M72">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N72">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q72">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R72">
+        <v>1.875</v>
+      </c>
+      <c r="S72">
+        <v>1.925</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
         <v>1.8</v>
       </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>1.75</v>
-      </c>
-      <c r="U72">
-        <v>1.95</v>
-      </c>
-      <c r="V72">
-        <v>1.85</v>
-      </c>
       <c r="W72">
-        <v>0.6659999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6924,16 +6924,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
+        <v>0.875</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
+        <v>-1</v>
+      </c>
+      <c r="AC72">
         <v>0.8</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0.475</v>
-      </c>
-      <c r="AC72">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6687387</v>
+        <v>6687020</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="L73">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N73">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+      <c r="T73">
+        <v>1.75</v>
+      </c>
+      <c r="U73">
         <v>1.95</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.85</v>
       </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>2.025</v>
-      </c>
-      <c r="V73">
-        <v>1.775</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC73">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6687391</v>
+        <v>6687387</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,76 +7042,76 @@
         <v>45083.52083333334</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N74">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R74">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W74">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7475,7 +7475,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6765586</v>
+        <v>6765588</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7487,76 +7487,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K79">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L79">
         <v>3.2</v>
       </c>
       <c r="M79">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N79">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O79">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q79">
         <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T79">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V79">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6765585</v>
+        <v>6765586</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,76 +7665,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="L81">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N81">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O81">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S81">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T81">
         <v>1.75</v>
       </c>
       <c r="U81">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V81">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X81">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>0.4625</v>
+      </c>
+      <c r="AA81">
         <v>-0.5</v>
       </c>
-      <c r="AA81">
-        <v>0.5249999999999999</v>
-      </c>
       <c r="AB81">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6765588</v>
+        <v>6765585</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,76 +7754,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
         <v>48</v>
       </c>
       <c r="K82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M82">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O82">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P82">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S82">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T82">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.7749999999999999</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6765583</v>
+        <v>6765584</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7843,10 +7843,10 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <v>2</v>
@@ -7858,43 +7858,43 @@
         <v>47</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L83">
         <v>2.8</v>
       </c>
       <c r="M83">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="N83">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O83">
         <v>3</v>
       </c>
       <c r="P83">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q83">
         <v>-0.25</v>
       </c>
       <c r="R83">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V83">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="W83">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7903,13 +7903,13 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6765584</v>
+        <v>6765522</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7932,58 +7932,58 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
         <v>47</v>
       </c>
       <c r="K84">
-        <v>2.4</v>
+        <v>1.363</v>
       </c>
       <c r="L84">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N84">
+        <v>1.4</v>
+      </c>
+      <c r="O84">
+        <v>3.75</v>
+      </c>
+      <c r="P84">
+        <v>7.5</v>
+      </c>
+      <c r="Q84">
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <v>1.75</v>
+      </c>
+      <c r="S84">
         <v>2.05</v>
-      </c>
-      <c r="O84">
-        <v>3</v>
-      </c>
-      <c r="P84">
-        <v>3.3</v>
-      </c>
-      <c r="Q84">
-        <v>-0.25</v>
-      </c>
-      <c r="R84">
-        <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
       </c>
       <c r="T84">
         <v>2.25</v>
       </c>
       <c r="U84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V84">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W84">
-        <v>1.05</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7992,16 +7992,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6765522</v>
+        <v>6765583</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8021,58 +8021,58 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
         <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>47</v>
       </c>
       <c r="K85">
-        <v>1.363</v>
+        <v>2.8</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M85">
-        <v>8</v>
+        <v>2.55</v>
       </c>
       <c r="N85">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="O85">
+        <v>3</v>
+      </c>
+      <c r="P85">
         <v>3.75</v>
       </c>
-      <c r="P85">
-        <v>7.5</v>
-      </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
+        <v>1.725</v>
+      </c>
+      <c r="S85">
+        <v>2.075</v>
+      </c>
+      <c r="T85">
+        <v>2</v>
+      </c>
+      <c r="U85">
+        <v>2.05</v>
+      </c>
+      <c r="V85">
         <v>1.75</v>
       </c>
-      <c r="S85">
-        <v>2.05</v>
-      </c>
-      <c r="T85">
-        <v>2.25</v>
-      </c>
-      <c r="U85">
-        <v>2.025</v>
-      </c>
-      <c r="V85">
-        <v>1.775</v>
-      </c>
       <c r="W85">
-        <v>0.3999999999999999</v>
+        <v>1</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8081,16 +8081,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA85">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC85">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6743297</v>
+        <v>6744018</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8110,49 +8110,49 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F86" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
         <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>47</v>
       </c>
       <c r="K86">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="L86">
+        <v>2.875</v>
+      </c>
+      <c r="M86">
+        <v>3.2</v>
+      </c>
+      <c r="N86">
+        <v>1.85</v>
+      </c>
+      <c r="O86">
+        <v>2.9</v>
+      </c>
+      <c r="P86">
         <v>4.5</v>
       </c>
-      <c r="M86">
-        <v>9</v>
-      </c>
-      <c r="N86">
-        <v>1.166</v>
-      </c>
-      <c r="O86">
-        <v>6</v>
-      </c>
-      <c r="P86">
-        <v>17</v>
-      </c>
       <c r="Q86">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U86">
         <v>1.825</v>
@@ -8161,7 +8161,7 @@
         <v>1.975</v>
       </c>
       <c r="W86">
-        <v>0.1659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8170,16 +8170,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8187,7 +8187,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6743978</v>
+        <v>6744005</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8199,13 +8199,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -8214,43 +8214,43 @@
         <v>47</v>
       </c>
       <c r="K87">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L87">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M87">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O87">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P87">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q87">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R87">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S87">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T87">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U87">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V87">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W87">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8259,16 +8259,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB87">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6744005</v>
+        <v>6743978</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,13 +8288,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -8303,43 +8303,43 @@
         <v>47</v>
       </c>
       <c r="K88">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N88">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O88">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P88">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R88">
+        <v>1.825</v>
+      </c>
+      <c r="S88">
+        <v>1.975</v>
+      </c>
+      <c r="T88">
+        <v>1.75</v>
+      </c>
+      <c r="U88">
+        <v>1.75</v>
+      </c>
+      <c r="V88">
         <v>2.05</v>
       </c>
-      <c r="S88">
-        <v>1.75</v>
-      </c>
-      <c r="T88">
-        <v>2</v>
-      </c>
-      <c r="U88">
-        <v>1.85</v>
-      </c>
-      <c r="V88">
-        <v>1.95</v>
-      </c>
       <c r="W88">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8348,16 +8348,16 @@
         <v>-1</v>
       </c>
       <c r="Z88">
+        <v>0.825</v>
+      </c>
+      <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
+        <v>0.375</v>
+      </c>
+      <c r="AC88">
         <v>-0.5</v>
-      </c>
-      <c r="AA88">
-        <v>0.375</v>
-      </c>
-      <c r="AB88">
-        <v>-1</v>
-      </c>
-      <c r="AC88">
-        <v>0.95</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6743989</v>
+        <v>6743297</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,58 +8377,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
         <v>47</v>
       </c>
       <c r="K89">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M89">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N89">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O89">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P89">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R89">
+        <v>1.825</v>
+      </c>
+      <c r="S89">
         <v>1.975</v>
       </c>
-      <c r="S89">
+      <c r="T89">
+        <v>2.5</v>
+      </c>
+      <c r="U89">
         <v>1.825</v>
       </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
+      <c r="V89">
         <v>1.975</v>
       </c>
-      <c r="V89">
-        <v>1.825</v>
-      </c>
       <c r="W89">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8437,16 +8437,16 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
+        <v>-1</v>
+      </c>
+      <c r="AC89">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC89">
-        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8454,7 +8454,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6744018</v>
+        <v>6743989</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8466,13 +8466,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -8481,43 +8481,43 @@
         <v>47</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L90">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N90">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O90">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U90">
+        <v>1.975</v>
+      </c>
+      <c r="V90">
         <v>1.825</v>
       </c>
-      <c r="V90">
-        <v>1.975</v>
-      </c>
       <c r="W90">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8526,13 +8526,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8543,7 +8543,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6858630</v>
+        <v>6743977</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8555,10 +8555,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8570,61 +8570,61 @@
         <v>48</v>
       </c>
       <c r="K91">
-        <v>2.375</v>
+        <v>1.444</v>
       </c>
       <c r="L91">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
+        <v>7</v>
+      </c>
+      <c r="N91">
+        <v>1.363</v>
+      </c>
+      <c r="O91">
+        <v>3.8</v>
+      </c>
+      <c r="P91">
+        <v>8</v>
+      </c>
+      <c r="Q91">
+        <v>-1.25</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
+        <v>1.8</v>
+      </c>
+      <c r="T91">
+        <v>2.25</v>
+      </c>
+      <c r="U91">
+        <v>1.875</v>
+      </c>
+      <c r="V91">
+        <v>1.925</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
         <v>2.8</v>
       </c>
-      <c r="N91">
-        <v>2.45</v>
-      </c>
-      <c r="O91">
-        <v>2.8</v>
-      </c>
-      <c r="P91">
-        <v>3</v>
-      </c>
-      <c r="Q91">
-        <v>-0.25</v>
-      </c>
-      <c r="R91">
-        <v>2.075</v>
-      </c>
-      <c r="S91">
-        <v>1.725</v>
-      </c>
-      <c r="T91">
-        <v>1.75</v>
-      </c>
-      <c r="U91">
-        <v>1.775</v>
-      </c>
-      <c r="V91">
-        <v>2.025</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
-      <c r="X91">
-        <v>1.8</v>
-      </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.3625</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8632,7 +8632,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6743977</v>
+        <v>6858630</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8644,10 +8644,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -8659,61 +8659,61 @@
         <v>48</v>
       </c>
       <c r="K92">
-        <v>1.444</v>
+        <v>2.375</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="N92">
-        <v>1.363</v>
+        <v>2.45</v>
       </c>
       <c r="O92">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="P92">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S92">
+        <v>1.725</v>
+      </c>
+      <c r="T92">
+        <v>1.75</v>
+      </c>
+      <c r="U92">
+        <v>1.775</v>
+      </c>
+      <c r="V92">
+        <v>2.025</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
         <v>1.8</v>
       </c>
-      <c r="T92">
-        <v>2.25</v>
-      </c>
-      <c r="U92">
-        <v>1.875</v>
-      </c>
-      <c r="V92">
-        <v>1.925</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>2.8</v>
-      </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>0.3625</v>
       </c>
       <c r="AB92">
         <v>-1</v>
       </c>
       <c r="AC92">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6872721</v>
+        <v>6872727</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,73 +8733,73 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K93">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
+        <v>6</v>
+      </c>
+      <c r="N93">
+        <v>1.65</v>
+      </c>
+      <c r="O93">
+        <v>3.3</v>
+      </c>
+      <c r="P93">
+        <v>4.75</v>
+      </c>
+      <c r="Q93">
+        <v>-0.75</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
+        <v>1.85</v>
+      </c>
+      <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
+        <v>1.75</v>
+      </c>
+      <c r="V93">
+        <v>2.05</v>
+      </c>
+      <c r="W93">
+        <v>-1</v>
+      </c>
+      <c r="X93">
+        <v>-1</v>
+      </c>
+      <c r="Y93">
         <v>3.75</v>
       </c>
-      <c r="M93">
-        <v>7</v>
-      </c>
-      <c r="N93">
-        <v>1.363</v>
-      </c>
-      <c r="O93">
-        <v>4.2</v>
-      </c>
-      <c r="P93">
-        <v>7</v>
-      </c>
-      <c r="Q93">
-        <v>-1.25</v>
-      </c>
-      <c r="R93">
-        <v>2.025</v>
-      </c>
-      <c r="S93">
-        <v>1.775</v>
-      </c>
-      <c r="T93">
-        <v>2</v>
-      </c>
-      <c r="U93">
-        <v>1.925</v>
-      </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
-      <c r="W93">
-        <v>0.363</v>
-      </c>
-      <c r="X93">
-        <v>-1</v>
-      </c>
-      <c r="Y93">
-        <v>-1</v>
-      </c>
       <c r="Z93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6872727</v>
+        <v>6872722</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,40 +8822,40 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H94">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>1</v>
       </c>
-      <c r="I94">
-        <v>2</v>
-      </c>
       <c r="J94" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K94">
-        <v>1.571</v>
+        <v>1.45</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N94">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O94">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P94">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R94">
         <v>1.95</v>
@@ -8867,28 +8867,28 @@
         <v>2</v>
       </c>
       <c r="U94">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="V94">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA94">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.75</v>
+        <v>1.025</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6872722</v>
+        <v>6872721</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,73 +8911,73 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H95">
         <v>3</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>47</v>
       </c>
       <c r="K95">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N95">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O95">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P95">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q95">
+        <v>-1.25</v>
+      </c>
+      <c r="R95">
+        <v>2.025</v>
+      </c>
+      <c r="S95">
+        <v>1.775</v>
+      </c>
+      <c r="T95">
+        <v>2</v>
+      </c>
+      <c r="U95">
+        <v>1.925</v>
+      </c>
+      <c r="V95">
+        <v>1.875</v>
+      </c>
+      <c r="W95">
+        <v>0.363</v>
+      </c>
+      <c r="X95">
+        <v>-1</v>
+      </c>
+      <c r="Y95">
+        <v>-1</v>
+      </c>
+      <c r="Z95">
         <v>-0.5</v>
       </c>
-      <c r="R95">
-        <v>1.95</v>
-      </c>
-      <c r="S95">
-        <v>1.85</v>
-      </c>
-      <c r="T95">
-        <v>2</v>
-      </c>
-      <c r="U95">
-        <v>2.025</v>
-      </c>
-      <c r="V95">
-        <v>1.775</v>
-      </c>
-      <c r="W95">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X95">
-        <v>-1</v>
-      </c>
-      <c r="Y95">
-        <v>-1</v>
-      </c>
-      <c r="Z95">
-        <v>0.95</v>
-      </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB95">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -9344,7 +9344,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6888612</v>
+        <v>6888614</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9356,76 +9356,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K100">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
         <v>3.2</v>
       </c>
       <c r="M100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O100">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S100">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T100">
         <v>1.75</v>
       </c>
       <c r="U100">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V100">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z100">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC100">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9433,7 +9433,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6888611</v>
+        <v>6888615</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9445,58 +9445,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G101" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>47</v>
       </c>
       <c r="K101">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L101">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N101">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P101">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9505,13 +9505,13 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9522,7 +9522,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6888609</v>
+        <v>6888613</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9534,76 +9534,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K102">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L102">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M102">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="N102">
-        <v>1.833</v>
+        <v>1.363</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P102">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q102">
+        <v>-1.25</v>
+      </c>
+      <c r="R102">
+        <v>1.925</v>
+      </c>
+      <c r="S102">
+        <v>1.875</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.975</v>
+      </c>
+      <c r="V102">
+        <v>1.825</v>
+      </c>
+      <c r="W102">
+        <v>0.363</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>-0.5</v>
       </c>
-      <c r="R102">
-        <v>2.025</v>
-      </c>
-      <c r="S102">
-        <v>1.775</v>
-      </c>
-      <c r="T102">
-        <v>2</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.85</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>2</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
-        <v>0.7749999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6888610</v>
+        <v>6888609</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,70 +9623,70 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K103">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L103">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="N103">
-        <v>1.25</v>
+        <v>1.833</v>
       </c>
       <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
         <v>4.2</v>
       </c>
-      <c r="P103">
-        <v>12</v>
-      </c>
       <c r="Q103">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R103">
+        <v>2.025</v>
+      </c>
+      <c r="S103">
         <v>1.775</v>
       </c>
-      <c r="S103">
-        <v>2.025</v>
-      </c>
       <c r="T103">
         <v>2</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
+        <v>-1</v>
+      </c>
+      <c r="AA103">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA103">
-        <v>-1</v>
       </c>
       <c r="AB103">
         <v>0</v>
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6888613</v>
+        <v>6888610</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,58 +9712,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L104">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M104">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="N104">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O104">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P104">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q104">
         <v>-1.25</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X104">
         <v>-1</v>
@@ -9772,16 +9772,16 @@
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA104">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6888615</v>
+        <v>6888612</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9801,13 +9801,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9816,61 +9816,61 @@
         <v>47</v>
       </c>
       <c r="K105">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L105">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M105">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q105">
+        <v>-0.75</v>
+      </c>
+      <c r="R105">
+        <v>1.875</v>
+      </c>
+      <c r="S105">
+        <v>1.925</v>
+      </c>
+      <c r="T105">
+        <v>1.75</v>
+      </c>
+      <c r="U105">
+        <v>1.9</v>
+      </c>
+      <c r="V105">
+        <v>1.9</v>
+      </c>
+      <c r="W105">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>-1</v>
+      </c>
+      <c r="Z105">
+        <v>0.4375</v>
+      </c>
+      <c r="AA105">
         <v>-0.5</v>
       </c>
-      <c r="R105">
-        <v>1.775</v>
-      </c>
-      <c r="S105">
-        <v>2.025</v>
-      </c>
-      <c r="T105">
-        <v>2</v>
-      </c>
-      <c r="U105">
-        <v>1.875</v>
-      </c>
-      <c r="V105">
-        <v>1.925</v>
-      </c>
-      <c r="W105">
-        <v>0.7</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
       <c r="AB105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9878,7 +9878,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6888614</v>
+        <v>6888611</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9890,73 +9890,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H106">
+        <v>3</v>
+      </c>
+      <c r="I106">
         <v>1</v>
       </c>
-      <c r="I106">
-        <v>3</v>
-      </c>
       <c r="J106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K106">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L106">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M106">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N106">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O106">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P106">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T106">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
+        <v>2.025</v>
+      </c>
+      <c r="V106">
         <v>1.775</v>
       </c>
-      <c r="V106">
-        <v>2.025</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7230950</v>
+        <v>7230942</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,58 +11937,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>47</v>
       </c>
       <c r="K129">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L129">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M129">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O129">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P129">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q129">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
         <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,13 +11997,13 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC129">
         <v>-1</v>
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7230942</v>
+        <v>7230950</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,58 +12026,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H130">
+        <v>5</v>
+      </c>
+      <c r="I130">
         <v>3</v>
-      </c>
-      <c r="I130">
-        <v>0</v>
       </c>
       <c r="J130" t="s">
         <v>47</v>
       </c>
       <c r="K130">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L130">
+        <v>3.25</v>
+      </c>
+      <c r="M130">
+        <v>4.333</v>
+      </c>
+      <c r="N130">
+        <v>1.5</v>
+      </c>
+      <c r="O130">
         <v>3.5</v>
       </c>
-      <c r="M130">
-        <v>5.25</v>
-      </c>
-      <c r="N130">
-        <v>1.666</v>
-      </c>
-      <c r="O130">
-        <v>3.3</v>
-      </c>
       <c r="P130">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
         <v>2</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,13 +12086,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -15129,7 +15129,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7513410</v>
+        <v>7513409</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15141,76 +15141,76 @@
         <v>45262.53125</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165">
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K165">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L165">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="M165">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="N165">
-        <v>1.65</v>
+        <v>1.285</v>
       </c>
       <c r="O165">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P165">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U165">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X165">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-1</v>
       </c>
       <c r="AC165">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15218,7 +15218,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>7513409</v>
+        <v>7513410</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15230,76 +15230,76 @@
         <v>45262.53125</v>
       </c>
       <c r="F166" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G166" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K166">
-        <v>1.25</v>
+        <v>1.666</v>
       </c>
       <c r="L166">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="M166">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="N166">
-        <v>1.285</v>
+        <v>1.65</v>
       </c>
       <c r="O166">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P166">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="Q166">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R166">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S166">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U166">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V166">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W166">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
         <v>-1</v>
       </c>
       <c r="AC166">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15930,7 +15930,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7567876</v>
+        <v>7567197</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15942,10 +15942,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F174" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G174" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H174">
         <v>1</v>
@@ -15957,61 +15957,61 @@
         <v>48</v>
       </c>
       <c r="K174">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L174">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M174">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="N174">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O174">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P174">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q174">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R174">
+        <v>1.825</v>
+      </c>
+      <c r="S174">
         <v>1.975</v>
       </c>
-      <c r="S174">
-        <v>1.825</v>
-      </c>
       <c r="T174">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U174">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V174">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W174">
         <v>-1</v>
       </c>
       <c r="X174">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y174">
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16019,7 +16019,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7567197</v>
+        <v>7567876</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16031,10 +16031,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G175" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H175">
         <v>1</v>
@@ -16046,61 +16046,61 @@
         <v>48</v>
       </c>
       <c r="K175">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L175">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="N175">
+        <v>6</v>
+      </c>
+      <c r="O175">
+        <v>3.1</v>
+      </c>
+      <c r="P175">
+        <v>1.65</v>
+      </c>
+      <c r="Q175">
+        <v>0.75</v>
+      </c>
+      <c r="R175">
+        <v>1.975</v>
+      </c>
+      <c r="S175">
+        <v>1.825</v>
+      </c>
+      <c r="T175">
+        <v>2</v>
+      </c>
+      <c r="U175">
+        <v>2</v>
+      </c>
+      <c r="V175">
+        <v>1.8</v>
+      </c>
+      <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
         <v>2.1</v>
       </c>
-      <c r="O175">
-        <v>2.9</v>
-      </c>
-      <c r="P175">
-        <v>3.5</v>
-      </c>
-      <c r="Q175">
-        <v>-0.25</v>
-      </c>
-      <c r="R175">
-        <v>1.825</v>
-      </c>
-      <c r="S175">
-        <v>1.975</v>
-      </c>
-      <c r="T175">
-        <v>1.75</v>
-      </c>
-      <c r="U175">
-        <v>1.85</v>
-      </c>
-      <c r="V175">
-        <v>1.95</v>
-      </c>
-      <c r="W175">
-        <v>-1</v>
-      </c>
-      <c r="X175">
-        <v>1.9</v>
-      </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA175">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16731,7 +16731,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7624465</v>
+        <v>7624517</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16743,76 +16743,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F183" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G183" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183">
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K183">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L183">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="M183">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N183">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O183">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P183">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q183">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R183">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S183">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T183">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U183">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V183">
+        <v>1.975</v>
+      </c>
+      <c r="W183">
+        <v>-1</v>
+      </c>
+      <c r="X183">
         <v>1.8</v>
       </c>
-      <c r="W183">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X183">
-        <v>-1</v>
-      </c>
       <c r="Y183">
         <v>-1</v>
       </c>
       <c r="Z183">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA183">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB183">
         <v>-1</v>
       </c>
       <c r="AC183">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16909,7 +16909,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7624517</v>
+        <v>7624465</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16921,76 +16921,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185">
         <v>0</v>
       </c>
       <c r="J185" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K185">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="L185">
-        <v>2.75</v>
+        <v>3.9</v>
       </c>
       <c r="M185">
+        <v>7</v>
+      </c>
+      <c r="N185">
+        <v>1.65</v>
+      </c>
+      <c r="O185">
         <v>3.4</v>
       </c>
-      <c r="N185">
-        <v>2.15</v>
-      </c>
-      <c r="O185">
-        <v>2.8</v>
-      </c>
       <c r="P185">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q185">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R185">
+        <v>1.9</v>
+      </c>
+      <c r="S185">
+        <v>1.9</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
         <v>1.8</v>
       </c>
-      <c r="S185">
-        <v>2</v>
-      </c>
-      <c r="T185">
-        <v>1.75</v>
-      </c>
-      <c r="U185">
-        <v>1.825</v>
-      </c>
-      <c r="V185">
-        <v>1.975</v>
-      </c>
       <c r="W185">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X185">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
+        <v>0.45</v>
+      </c>
+      <c r="AA185">
         <v>-0.5</v>
       </c>
-      <c r="AA185">
-        <v>0.5</v>
-      </c>
       <c r="AB185">
         <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7624664</v>
+        <v>7624657</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,73 +17277,73 @@
         <v>45296.46875</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L189">
         <v>2.8</v>
       </c>
       <c r="M189">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="O189">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W189">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17354,7 +17354,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7656900</v>
+        <v>7624664</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17366,76 +17366,76 @@
         <v>45296.46875</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190">
         <v>1</v>
       </c>
       <c r="J190" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K190">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L190">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M190">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N190">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O190">
+        <v>2.7</v>
+      </c>
+      <c r="P190">
         <v>3</v>
       </c>
-      <c r="P190">
-        <v>2.625</v>
-      </c>
       <c r="Q190">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R190">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S190">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T190">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U190">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V190">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA190">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7624657</v>
+        <v>7656900</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,55 +17455,55 @@
         <v>45296.46875</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H191">
+        <v>0</v>
+      </c>
+      <c r="I191">
         <v>1</v>
-      </c>
-      <c r="I191">
-        <v>4</v>
       </c>
       <c r="J191" t="s">
         <v>49</v>
       </c>
       <c r="K191">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L191">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M191">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N191">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="O191">
         <v>3</v>
       </c>
       <c r="P191">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
         <v>2</v>
       </c>
       <c r="U191">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17512,19 +17512,19 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.8500000000000001</v>
+        <v>1.625</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB191">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC191">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -18778,7 +18778,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7567343</v>
+        <v>7567341</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18790,76 +18790,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
         <v>1</v>
       </c>
-      <c r="I206">
-        <v>0</v>
-      </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K206">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M206">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N206">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O206">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P206">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
         <v>1.95</v>
       </c>
-      <c r="S206">
-        <v>1.85</v>
-      </c>
       <c r="T206">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U206">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W206">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X206">
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z206">
+        <v>-1</v>
+      </c>
+      <c r="AA206">
         <v>0.95</v>
       </c>
-      <c r="AA206">
-        <v>-1</v>
-      </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7567341</v>
+        <v>7567343</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L208">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M208">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N208">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P208">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q208">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R208">
+        <v>1.95</v>
+      </c>
+      <c r="S208">
         <v>1.85</v>
       </c>
-      <c r="S208">
-        <v>1.95</v>
-      </c>
       <c r="T208">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U208">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V208">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA208">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -22098,13 +22098,13 @@
         <v>6.5</v>
       </c>
       <c r="N243">
-        <v>1.615</v>
+        <v>1.571</v>
       </c>
       <c r="O243">
         <v>3.1</v>
       </c>
       <c r="P243">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q243">
         <v>-0.75</v>
@@ -22116,13 +22116,13 @@
         <v>1.95</v>
       </c>
       <c r="T243">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U243">
+        <v>1.75</v>
+      </c>
+      <c r="V243">
         <v>2.05</v>
-      </c>
-      <c r="V243">
-        <v>1.75</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22172,10 +22172,10 @@
         <v>2.5</v>
       </c>
       <c r="N244">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="O244">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P244">
         <v>1.909</v>
@@ -22184,19 +22184,19 @@
         <v>0.5</v>
       </c>
       <c r="R244">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S244">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T244">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U244">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V244">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22246,31 +22246,31 @@
         <v>5</v>
       </c>
       <c r="N245">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O245">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P245">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Q245">
         <v>-1.25</v>
       </c>
       <c r="R245">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S245">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T245">
         <v>2.25</v>
       </c>
       <c r="U245">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V245">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22320,31 +22320,31 @@
         <v>7.5</v>
       </c>
       <c r="N246">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O246">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P246">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q246">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R246">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S246">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T246">
         <v>2.25</v>
       </c>
       <c r="U246">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V246">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W246">
         <v>0</v>

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -17265,7 +17265,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7624664</v>
+        <v>7624657</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17277,73 +17277,73 @@
         <v>45296.46875</v>
       </c>
       <c r="F189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G189" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K189">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="L189">
         <v>2.8</v>
       </c>
       <c r="M189">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="N189">
-        <v>2.4</v>
+        <v>4.333</v>
       </c>
       <c r="O189">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P189">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="Q189">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R189">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S189">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="T189">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U189">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V189">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W189">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X189">
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z189">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB189">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17443,7 +17443,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>7624657</v>
+        <v>7624664</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17455,73 +17455,73 @@
         <v>45296.46875</v>
       </c>
       <c r="F191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H191">
+        <v>2</v>
+      </c>
+      <c r="I191">
         <v>1</v>
       </c>
-      <c r="I191">
-        <v>4</v>
-      </c>
       <c r="J191" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K191">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L191">
         <v>2.8</v>
       </c>
       <c r="M191">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N191">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="O191">
+        <v>2.7</v>
+      </c>
+      <c r="P191">
         <v>3</v>
       </c>
-      <c r="P191">
-        <v>1.85</v>
-      </c>
       <c r="Q191">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T191">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U191">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V191">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W191">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X191">
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA191">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB191">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -18867,7 +18867,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7567342</v>
+        <v>7567343</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18879,76 +18879,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H207">
         <v>1</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K207">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="L207">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M207">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="N207">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O207">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P207">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R207">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="S207">
-        <v>2.075</v>
+        <v>1.85</v>
       </c>
       <c r="T207">
         <v>1.75</v>
       </c>
       <c r="U207">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="V207">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X207">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB207">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18956,7 +18956,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7567343</v>
+        <v>7567342</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18968,76 +18968,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F208" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G208" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H208">
         <v>1</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K208">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L208">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M208">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N208">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O208">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P208">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q208">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S208">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T208">
         <v>1.75</v>
       </c>
       <c r="U208">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V208">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC208">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="209" spans="1:29">

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -103,22 +103,22 @@
     <t>Algeria Division 1</t>
   </si>
   <si>
-    <t>JS Kabylie</t>
+    <t>Paradou AC</t>
   </si>
   <si>
-    <t>ASO Chlef</t>
+    <t>CS Constantine</t>
   </si>
   <si>
     <t>MC El Bayadh</t>
   </si>
   <si>
-    <t>Paradou AC</t>
+    <t>JS Kabylie</t>
   </si>
   <si>
     <t>USM Khenchela</t>
   </si>
   <si>
-    <t>CS Constantine</t>
+    <t>ASO Chlef</t>
   </si>
   <si>
     <t>USM Alger</t>
@@ -127,19 +127,19 @@
     <t>JS Saoura</t>
   </si>
   <si>
-    <t>NC Magra</t>
-  </si>
-  <si>
     <t>CR Belouizdad</t>
-  </si>
-  <si>
-    <t>ES Setif</t>
   </si>
   <si>
     <t>US Biskra</t>
   </si>
   <si>
     <t>MC Oran</t>
+  </si>
+  <si>
+    <t>NC Magra</t>
+  </si>
+  <si>
+    <t>ES Setif</t>
   </si>
   <si>
     <t>RC Arba</t>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6687020</v>
+        <v>6687391</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,10 +634,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -646,25 +646,25 @@
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
         <v>1.8</v>
@@ -673,16 +673,16 @@
         <v>2</v>
       </c>
       <c r="T2">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.6659999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -697,10 +697,10 @@
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6687387</v>
+        <v>6687389</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>1.363</v>
       </c>
       <c r="O3">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R3">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA3">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -812,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6687391</v>
+        <v>6687020</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,10 +901,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>46</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.666</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
         <v>1.8</v>
@@ -940,16 +940,16 @@
         <v>2</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>0.6499999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -964,10 +964,10 @@
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6687389</v>
+        <v>6687387</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="L7">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="N7">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O7">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P7">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q7">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R7">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W7">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6765583</v>
+        <v>6765522</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1527,52 +1527,52 @@
         <v>34</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L12">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V12">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1581,16 +1581,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6765522</v>
+        <v>6765519</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,76 +1610,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N13">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="O13">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P13">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R13">
+        <v>1.9</v>
+      </c>
+      <c r="S13">
+        <v>1.9</v>
+      </c>
+      <c r="T13">
         <v>1.75</v>
       </c>
-      <c r="S13">
-        <v>2.05</v>
-      </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
       <c r="U13">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6765588</v>
+        <v>6765586</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,76 +1699,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L14">
         <v>3.2</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N14">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P14">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q14">
         <v>-0.75</v>
       </c>
       <c r="R14">
+        <v>1.925</v>
+      </c>
+      <c r="S14">
+        <v>1.875</v>
+      </c>
+      <c r="T14">
+        <v>1.75</v>
+      </c>
+      <c r="U14">
+        <v>1.775</v>
+      </c>
+      <c r="V14">
         <v>2.025</v>
       </c>
-      <c r="S14">
-        <v>1.775</v>
-      </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
-      <c r="V14">
-        <v>1.85</v>
-      </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA14">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6765586</v>
+        <v>6765585</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,76 +1788,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="P15">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
         <v>1.75</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.4625</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB15">
+        <v>0.4375</v>
+      </c>
+      <c r="AC15">
         <v>-0.5</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>1.025</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6765585</v>
+        <v>6765583</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1877,76 +1877,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
         <v>2.8</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="N16">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q16">
         <v>-0.25</v>
       </c>
       <c r="R16">
+        <v>1.725</v>
+      </c>
+      <c r="S16">
+        <v>2.075</v>
+      </c>
+      <c r="T16">
+        <v>2</v>
+      </c>
+      <c r="U16">
+        <v>2.05</v>
+      </c>
+      <c r="V16">
         <v>1.75</v>
       </c>
-      <c r="S16">
-        <v>2.05</v>
-      </c>
-      <c r="T16">
-        <v>1.75</v>
-      </c>
-      <c r="U16">
-        <v>1.875</v>
-      </c>
-      <c r="V16">
-        <v>1.925</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA16">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6765519</v>
+        <v>6765588</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,16 +1966,16 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
@@ -1990,37 +1990,37 @@
         <v>4.2</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O17">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P17">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
         <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T17">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y17">
         <v>-1</v>
@@ -2029,13 +2029,13 @@
         <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB17">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6743978</v>
+        <v>6858630</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,76 +2144,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L19">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N19">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O19">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P19">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S19">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T19">
         <v>1.75</v>
       </c>
       <c r="U19">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V19">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB19">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6744005</v>
+        <v>6744018</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,58 +2233,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>46</v>
       </c>
       <c r="K20">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="N20">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="O20">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
+        <v>1.9</v>
+      </c>
+      <c r="T20">
         <v>1.75</v>
       </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W20">
-        <v>0.3999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2293,16 +2293,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA20">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6743989</v>
+        <v>6744005</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,58 +2322,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
         <v>46</v>
       </c>
       <c r="K21">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
         <v>3.75</v>
       </c>
       <c r="P21">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2382,16 +2382,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2414,7 +2414,7 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6744018</v>
+        <v>6743989</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,13 +2500,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2515,43 +2515,43 @@
         <v>46</v>
       </c>
       <c r="K23">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L23">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N23">
-        <v>1.85</v>
+        <v>1.5</v>
       </c>
       <c r="O23">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
+        <v>1.975</v>
+      </c>
+      <c r="V23">
         <v>1.825</v>
       </c>
-      <c r="V23">
-        <v>1.975</v>
-      </c>
       <c r="W23">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2560,13 +2560,13 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB23">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
         <v>-1</v>
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6858630</v>
+        <v>6743297</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,76 +2589,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>38</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>2.375</v>
+        <v>1.285</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M24">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="N24">
-        <v>2.45</v>
+        <v>1.166</v>
       </c>
       <c r="O24">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="P24">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R24">
-        <v>2.075</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V24">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X24">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.3625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6743297</v>
+        <v>6743978</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,13 +2678,13 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2693,25 +2693,25 @@
         <v>46</v>
       </c>
       <c r="K25">
-        <v>1.285</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>4.5</v>
+        <v>2.9</v>
       </c>
       <c r="M25">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="N25">
-        <v>1.166</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="P25">
-        <v>17</v>
+        <v>3.6</v>
       </c>
       <c r="Q25">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
         <v>1.825</v>
@@ -2720,16 +2720,16 @@
         <v>1.975</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W25">
-        <v>0.1659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2738,16 +2738,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6872724</v>
+        <v>6872721</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,58 +2767,58 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
       </c>
       <c r="K26">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N26">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T26">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2827,16 +2827,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2859,7 +2859,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2945,7 +2945,7 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6872726</v>
+        <v>6872724</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,76 +3034,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="L29">
+        <v>3.25</v>
+      </c>
+      <c r="M29">
+        <v>6.5</v>
+      </c>
+      <c r="N29">
+        <v>1.65</v>
+      </c>
+      <c r="O29">
         <v>3.1</v>
       </c>
-      <c r="M29">
-        <v>4.2</v>
-      </c>
-      <c r="N29">
-        <v>2.2</v>
-      </c>
-      <c r="O29">
-        <v>2.9</v>
-      </c>
       <c r="P29">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U29">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X29">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
+        <v>0.45</v>
+      </c>
+      <c r="AA29">
         <v>-0.5</v>
       </c>
-      <c r="AA29">
-        <v>0.4375</v>
-      </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3123,7 +3123,7 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6872721</v>
+        <v>6872725</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,58 +3212,58 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>46</v>
       </c>
       <c r="K31">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L31">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M31">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N31">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R31">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W31">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3272,13 +3272,13 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6872725</v>
+        <v>6872726</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,76 +3301,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>1.285</v>
+        <v>1.85</v>
       </c>
       <c r="L32">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="N32">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P32">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="Q32">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
+        <v>1.925</v>
+      </c>
+      <c r="S32">
+        <v>1.875</v>
+      </c>
+      <c r="T32">
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>1.8</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
         <v>1.9</v>
       </c>
-      <c r="S32">
-        <v>1.9</v>
-      </c>
-      <c r="T32">
-        <v>2.25</v>
-      </c>
-      <c r="U32">
-        <v>1.85</v>
-      </c>
-      <c r="V32">
-        <v>1.95</v>
-      </c>
-      <c r="W32">
-        <v>0.25</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>0.4375</v>
       </c>
       <c r="AB32">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3393,7 +3393,7 @@
         <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>4</v>
@@ -3467,7 +3467,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6888610</v>
+        <v>6888613</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3482,55 +3482,55 @@
         <v>29</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>46</v>
       </c>
       <c r="K34">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L34">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="N34">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P34">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q34">
         <v>-1.25</v>
       </c>
       <c r="R34">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U34">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W34">
-        <v>0.25</v>
+        <v>0.363</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3539,16 +3539,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6888614</v>
+        <v>6888612</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3568,76 +3568,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="L35">
         <v>3.2</v>
       </c>
       <c r="M35">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N35">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P35">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>1.75</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA35">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6888613</v>
+        <v>6888611</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,13 +3657,13 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3672,43 +3672,43 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L36">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M36">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O36">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q36">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
         <v>2.25</v>
       </c>
       <c r="U36">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V36">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W36">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3717,13 +3717,13 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6888612</v>
+        <v>6888614</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,76 +3746,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="L37">
         <v>3.2</v>
       </c>
       <c r="M37">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N37">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O37">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T37">
         <v>1.75</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V37">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z37">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC37">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6888611</v>
+        <v>6888609</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M38">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB38">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6888609</v>
+        <v>6888610</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,70 +3924,70 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>1.666</v>
+        <v>1.25</v>
       </c>
       <c r="L39">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="N39">
-        <v>1.833</v>
+        <v>1.25</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P39">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="Q39">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R39">
+        <v>1.775</v>
+      </c>
+      <c r="S39">
         <v>2.025</v>
       </c>
-      <c r="S39">
+      <c r="T39">
+        <v>2</v>
+      </c>
+      <c r="U39">
         <v>1.775</v>
       </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>1.95</v>
-      </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA39">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -4016,7 +4016,7 @@
         <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4194,7 +4194,7 @@
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4283,7 +4283,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4369,10 +4369,10 @@
         <v>45184.625</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4458,10 +4458,10 @@
         <v>45185.5</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4639,7 +4639,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4713,7 +4713,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>7239829</v>
+        <v>7230929</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4725,73 +4725,73 @@
         <v>45191.5</v>
       </c>
       <c r="F48" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" t="s">
         <v>34</v>
       </c>
-      <c r="G48" t="s">
-        <v>43</v>
-      </c>
       <c r="H48">
         <v>2</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="L48">
         <v>3</v>
       </c>
       <c r="M48">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N48">
-        <v>3.25</v>
+        <v>2.375</v>
       </c>
       <c r="O48">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P48">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S48">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W48">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
         <v>-1</v>
@@ -4802,7 +4802,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>7230929</v>
+        <v>7239829</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4814,73 +4814,73 @@
         <v>45191.5</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H49">
         <v>2</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K49">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="L49">
         <v>3</v>
       </c>
       <c r="M49">
-        <v>2.1</v>
+        <v>3.75</v>
       </c>
       <c r="N49">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O49">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P49">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X49">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4903,10 +4903,10 @@
         <v>45191.625</v>
       </c>
       <c r="F50" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
         <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>32</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4992,10 +4992,10 @@
         <v>45192.5</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7230932</v>
+        <v>7230931</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,76 +5081,76 @@
         <v>45192.625</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N52">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O52">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q52">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U52">
+        <v>1.825</v>
+      </c>
+      <c r="V52">
         <v>1.975</v>
       </c>
-      <c r="V52">
-        <v>1.825</v>
-      </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X52">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7230931</v>
+        <v>7230932</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,76 +5170,76 @@
         <v>45192.625</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K53">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M53">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O53">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P53">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q53">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U53">
+        <v>1.975</v>
+      </c>
+      <c r="V53">
         <v>1.825</v>
       </c>
-      <c r="V53">
-        <v>1.975</v>
-      </c>
       <c r="W53">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5259,7 +5259,7 @@
         <v>45192.625</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G54" t="s">
         <v>31</v>
@@ -5348,7 +5348,7 @@
         <v>45196.5</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7230936</v>
+        <v>7230934</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,34 +5437,34 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O56">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P56">
         <v>3.75</v>
@@ -5473,40 +5473,40 @@
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
         <v>1.75</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W56">
+        <v>-1</v>
+      </c>
+      <c r="X56">
+        <v>1.9</v>
+      </c>
+      <c r="Y56">
+        <v>-1</v>
+      </c>
+      <c r="Z56">
+        <v>-0.5</v>
+      </c>
+      <c r="AA56">
+        <v>0.5125</v>
+      </c>
+      <c r="AB56">
+        <v>-1</v>
+      </c>
+      <c r="AC56">
         <v>1</v>
-      </c>
-      <c r="X56">
-        <v>-1</v>
-      </c>
-      <c r="Y56">
-        <v>-1</v>
-      </c>
-      <c r="Z56">
-        <v>0.8</v>
-      </c>
-      <c r="AA56">
-        <v>-1</v>
-      </c>
-      <c r="AB56">
-        <v>0.825</v>
-      </c>
-      <c r="AC56">
-        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7230948</v>
+        <v>7230936</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,10 +5526,10 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5541,43 +5541,43 @@
         <v>46</v>
       </c>
       <c r="K57">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O57">
         <v>3</v>
       </c>
       <c r="P57">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q57">
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>1.75</v>
       </c>
       <c r="U57">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5586,13 +5586,13 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5603,7 +5603,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7230934</v>
+        <v>7230948</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,76 +5615,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>3.2</v>
       </c>
       <c r="L58">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M58">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
         <v>1.75</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X58">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA58">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,10 +5793,10 @@
         <v>45199.625</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5808,25 +5808,25 @@
         <v>46</v>
       </c>
       <c r="K60">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N60">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R60">
         <v>1.95</v>
@@ -5835,16 +5835,16 @@
         <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5853,16 +5853,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,10 +5882,10 @@
         <v>45199.625</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5897,25 +5897,25 @@
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
         <v>1.95</v>
@@ -5924,16 +5924,16 @@
         <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -6060,7 +6060,7 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7230941</v>
+        <v>7230940</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,76 +6149,76 @@
         <v>45205.625</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L64">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P64">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
         <v>1.825</v>
       </c>
-      <c r="S64">
-        <v>1.975</v>
-      </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,7 +6226,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7230940</v>
+        <v>7230941</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6238,76 +6238,76 @@
         <v>45205.625</v>
       </c>
       <c r="F65" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" t="s">
         <v>40</v>
       </c>
-      <c r="G65" t="s">
-        <v>32</v>
-      </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K65">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N65">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
+        <v>1.825</v>
+      </c>
+      <c r="S65">
         <v>1.975</v>
       </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y65">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6327,7 +6327,7 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>33</v>
@@ -6419,7 +6419,7 @@
         <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6594,7 +6594,7 @@
         <v>45206.625</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6686,7 +6686,7 @@
         <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6864,7 +6864,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6950,10 +6950,10 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7039,10 +7039,10 @@
         <v>45240.48958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7220,7 +7220,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
         <v>44</v>
@@ -7395,7 +7395,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>43</v>
@@ -7573,10 +7573,10 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>45244.625</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -7751,10 +7751,10 @@
         <v>45247.47569444445</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>45247.53125</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
@@ -8110,7 +8110,7 @@
         <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8196,10 +8196,10 @@
         <v>45248.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8285,7 +8285,7 @@
         <v>45248.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8374,10 +8374,10 @@
         <v>45249.625</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8463,10 +8463,10 @@
         <v>45254.46875</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>45254.46875</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -8730,10 +8730,10 @@
         <v>45255.53125</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8911,7 +8911,7 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9000,7 +9000,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9086,7 +9086,7 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>33</v>
@@ -9175,7 +9175,7 @@
         <v>45262.53125</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9267,7 +9267,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,10 +9353,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9445,7 +9445,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9620,7 +9620,7 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>44</v>
@@ -9798,10 +9798,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9887,10 +9887,10 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7567197</v>
+        <v>7567876</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,10 +9976,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9991,61 +9991,61 @@
         <v>48</v>
       </c>
       <c r="K107">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M107">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="N107">
+        <v>6</v>
+      </c>
+      <c r="O107">
+        <v>3.1</v>
+      </c>
+      <c r="P107">
+        <v>1.65</v>
+      </c>
+      <c r="Q107">
+        <v>0.75</v>
+      </c>
+      <c r="R107">
+        <v>1.975</v>
+      </c>
+      <c r="S107">
+        <v>1.825</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>2</v>
+      </c>
+      <c r="V107">
+        <v>1.8</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
         <v>2.1</v>
       </c>
-      <c r="O107">
-        <v>2.9</v>
-      </c>
-      <c r="P107">
-        <v>3.5</v>
-      </c>
-      <c r="Q107">
-        <v>-0.25</v>
-      </c>
-      <c r="R107">
-        <v>1.825</v>
-      </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>1.75</v>
-      </c>
-      <c r="U107">
-        <v>1.85</v>
-      </c>
-      <c r="V107">
-        <v>1.95</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
-      <c r="X107">
-        <v>1.9</v>
-      </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7567876</v>
+        <v>7567197</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,10 +10065,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F108" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10080,61 +10080,61 @@
         <v>48</v>
       </c>
       <c r="K108">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M108">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="N108">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P108">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
+        <v>1.825</v>
+      </c>
+      <c r="S108">
         <v>1.975</v>
       </c>
-      <c r="S108">
-        <v>1.825</v>
-      </c>
       <c r="T108">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,10 +10154,10 @@
         <v>45275.53125</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10243,10 +10243,10 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G110" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10335,7 +10335,7 @@
         <v>45</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10424,7 +10424,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10599,10 +10599,10 @@
         <v>45276.625</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G114" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10688,10 +10688,10 @@
         <v>45288.625</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7624516</v>
+        <v>7624465</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,49 +10777,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F116" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
         <v>46</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="M116">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N116">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P116">
         <v>4.75</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T116">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
         <v>2</v>
@@ -10828,7 +10828,7 @@
         <v>1.8</v>
       </c>
       <c r="W116">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10837,16 +10837,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7624517</v>
+        <v>7624516</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,76 +10866,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K117">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L117">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M117">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N117">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O117">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P117">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
+        <v>1.85</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
+        <v>2</v>
+      </c>
+      <c r="U117">
+        <v>2</v>
+      </c>
+      <c r="V117">
         <v>1.8</v>
       </c>
-      <c r="S117">
-        <v>2</v>
-      </c>
-      <c r="T117">
-        <v>1.75</v>
-      </c>
-      <c r="U117">
-        <v>1.825</v>
-      </c>
-      <c r="V117">
-        <v>1.975</v>
-      </c>
       <c r="W117">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X117">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA117">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7624465</v>
+        <v>7624517</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,76 +10955,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L118">
-        <v>3.9</v>
+        <v>2.75</v>
       </c>
       <c r="M118">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="P118">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U118">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
+        <v>1.975</v>
+      </c>
+      <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
         <v>1.8</v>
       </c>
-      <c r="W118">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,10 +11044,10 @@
         <v>45289.5</v>
       </c>
       <c r="F119" t="s">
+        <v>41</v>
+      </c>
+      <c r="G119" t="s">
         <v>39</v>
-      </c>
-      <c r="G119" t="s">
-        <v>41</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7624597</v>
+        <v>7624498</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N120">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O120">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7624498</v>
+        <v>7624597</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11222,76 +11222,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
       </c>
       <c r="K121">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L121">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N121">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P121">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
         <v>2</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11299,7 +11299,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7624664</v>
+        <v>7656900</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,76 +11311,76 @@
         <v>45296.46875</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
         <v>41</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L122">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M122">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N122">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O122">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T122">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7656900</v>
+        <v>7624657</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,55 +11400,55 @@
         <v>45296.46875</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M123">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N123">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O123">
         <v>3</v>
       </c>
       <c r="P123">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W123">
         <v>-1</v>
@@ -11457,19 +11457,19 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7624657</v>
+        <v>7624664</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,73 +11489,73 @@
         <v>45296.46875</v>
       </c>
       <c r="F124" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
         <v>1</v>
       </c>
-      <c r="I124">
-        <v>4</v>
-      </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L124">
         <v>2.8</v>
       </c>
       <c r="M124">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N124">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="O124">
+        <v>2.7</v>
+      </c>
+      <c r="P124">
         <v>3</v>
       </c>
-      <c r="P124">
-        <v>1.85</v>
-      </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
         <v>-1</v>
@@ -11578,7 +11578,7 @@
         <v>45296.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -11667,10 +11667,10 @@
         <v>45296.60416666666</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11848,7 +11848,7 @@
         <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11934,10 +11934,10 @@
         <v>45300.625</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12023,10 +12023,10 @@
         <v>45302.53125</v>
       </c>
       <c r="F130" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12201,10 +12201,10 @@
         <v>45303.46875</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12379,7 +12379,7 @@
         <v>45304.5</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
         <v>31</v>
@@ -12468,10 +12468,10 @@
         <v>45304.53125</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12557,7 +12557,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
         <v>44</v>
@@ -12646,7 +12646,7 @@
         <v>45305.625</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12738,7 +12738,7 @@
         <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12824,7 +12824,7 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G139" t="s">
         <v>33</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7567343</v>
+        <v>7567341</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,76 +12913,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G140" t="s">
         <v>39</v>
       </c>
       <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>0</v>
-      </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R140">
+        <v>1.85</v>
+      </c>
+      <c r="S140">
         <v>1.95</v>
       </c>
-      <c r="S140">
-        <v>1.85</v>
-      </c>
       <c r="T140">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z140">
+        <v>-1</v>
+      </c>
+      <c r="AA140">
         <v>0.95</v>
       </c>
-      <c r="AA140">
-        <v>-1</v>
-      </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7567341</v>
+        <v>7567343</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,76 +13002,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
         <v>41</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K141">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N141">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
         <v>1.85</v>
       </c>
-      <c r="S141">
-        <v>1.95</v>
-      </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,10 +13091,10 @@
         <v>45310.48958333334</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13183,7 +13183,7 @@
         <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13269,7 +13269,7 @@
         <v>45310.53125</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G144" t="s">
         <v>44</v>
@@ -13361,7 +13361,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,10 +13536,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13551,31 +13551,31 @@
         <v>48</v>
       </c>
       <c r="K147">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M147">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N147">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2</v>
@@ -13590,16 +13590,16 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13613,7 +13613,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13625,10 +13625,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G148" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13640,31 +13640,31 @@
         <v>48</v>
       </c>
       <c r="K148">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O148">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
         <v>2</v>
@@ -13679,16 +13679,16 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13717,7 +13717,7 @@
         <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13803,10 +13803,10 @@
         <v>45317.53125</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13892,7 +13892,7 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G151" t="s">
         <v>43</v>
@@ -14058,7 +14058,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7680045</v>
+        <v>7680043</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14070,58 +14070,58 @@
         <v>45318.5</v>
       </c>
       <c r="F153" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>46</v>
       </c>
       <c r="K153">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L153">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M153">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="N153">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O153">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P153">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>1.05</v>
+        <v>0.222</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14130,16 +14130,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7680043</v>
+        <v>7680045</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,58 +14159,58 @@
         <v>45318.5</v>
       </c>
       <c r="F154" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
         <v>46</v>
       </c>
       <c r="K154">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L154">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M154">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="N154">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q154">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
+        <v>1.775</v>
+      </c>
+      <c r="S154">
+        <v>2.025</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
         <v>1.95</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.85</v>
       </c>
-      <c r="T154">
-        <v>2.5</v>
-      </c>
-      <c r="U154">
-        <v>1.925</v>
-      </c>
-      <c r="V154">
-        <v>1.875</v>
-      </c>
       <c r="W154">
-        <v>0.222</v>
+        <v>1.05</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14219,16 +14219,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14248,7 +14248,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14340,7 +14340,7 @@
         <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14426,10 +14426,10 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G157" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14518,7 +14518,7 @@
         <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14607,7 +14607,7 @@
         <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14693,10 +14693,10 @@
         <v>45331.48958333334</v>
       </c>
       <c r="F160" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14782,7 +14782,7 @@
         <v>45331.53125</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14859,7 +14859,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7768216</v>
+        <v>7768217</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14871,10 +14871,10 @@
         <v>45332.5</v>
       </c>
       <c r="F162" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -14886,43 +14886,43 @@
         <v>46</v>
       </c>
       <c r="K162">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L162">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M162">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N162">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O162">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P162">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="Q162">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R162">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T162">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U162">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V162">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W162">
-        <v>1.5</v>
+        <v>0.363</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14931,13 +14931,13 @@
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB162">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14948,7 +14948,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7768217</v>
+        <v>7768216</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14960,10 +14960,10 @@
         <v>45332.5</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -14975,43 +14975,43 @@
         <v>46</v>
       </c>
       <c r="K163">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M163">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N163">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O163">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P163">
-        <v>9.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q163">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="S163">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T163">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U163">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V163">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W163">
-        <v>0.363</v>
+        <v>1.5</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15020,13 +15020,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA163">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15049,10 +15049,10 @@
         <v>45332.5</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15138,7 +15138,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G165" t="s">
         <v>45</v>
@@ -15230,7 +15230,7 @@
         <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15319,7 +15319,7 @@
         <v>31</v>
       </c>
       <c r="G167" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7768219</v>
+        <v>7768182</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,76 +15405,76 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K168">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L168">
+        <v>2.9</v>
+      </c>
+      <c r="M168">
+        <v>3.75</v>
+      </c>
+      <c r="N168">
+        <v>2.375</v>
+      </c>
+      <c r="O168">
+        <v>2.9</v>
+      </c>
+      <c r="P168">
         <v>3</v>
       </c>
-      <c r="M168">
-        <v>4.2</v>
-      </c>
-      <c r="N168">
-        <v>1.833</v>
-      </c>
-      <c r="O168">
-        <v>2.8</v>
-      </c>
-      <c r="P168">
-        <v>4.5</v>
-      </c>
       <c r="Q168">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S168">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T168">
         <v>1.75</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X168">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA168">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15482,7 +15482,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7768182</v>
+        <v>7768219</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15494,76 +15494,76 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G169" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K169">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L169">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M169">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N169">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O169">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P169">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R169">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S169">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T169">
         <v>1.75</v>
       </c>
       <c r="U169">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X169">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA169">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>45338.53125</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G170" t="s">
         <v>44</v>
@@ -15675,7 +15675,7 @@
         <v>45</v>
       </c>
       <c r="G171" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15764,7 +15764,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15927,7 +15927,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7823443</v>
+        <v>7823447</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15939,76 +15939,76 @@
         <v>45345.5</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174" t="s">
+        <v>46</v>
+      </c>
+      <c r="K174">
+        <v>2.875</v>
+      </c>
+      <c r="L174">
+        <v>2.75</v>
+      </c>
+      <c r="M174">
+        <v>2.5</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174">
+        <v>2.9</v>
+      </c>
+      <c r="P174">
+        <v>3.6</v>
+      </c>
+      <c r="Q174">
+        <v>-0.25</v>
+      </c>
+      <c r="R174">
+        <v>1.775</v>
+      </c>
+      <c r="S174">
+        <v>2.025</v>
+      </c>
+      <c r="T174">
+        <v>2.25</v>
+      </c>
+      <c r="U174">
+        <v>2.05</v>
+      </c>
+      <c r="V174">
+        <v>1.75</v>
+      </c>
+      <c r="W174">
         <v>1</v>
       </c>
-      <c r="J174" t="s">
-        <v>47</v>
-      </c>
-      <c r="K174">
-        <v>1.8</v>
-      </c>
-      <c r="L174">
-        <v>3.1</v>
-      </c>
-      <c r="M174">
-        <v>4.2</v>
-      </c>
-      <c r="N174">
-        <v>1.615</v>
-      </c>
-      <c r="O174">
-        <v>3.25</v>
-      </c>
-      <c r="P174">
-        <v>5.25</v>
-      </c>
-      <c r="Q174">
-        <v>-0.75</v>
-      </c>
-      <c r="R174">
-        <v>1.8</v>
-      </c>
-      <c r="S174">
-        <v>2</v>
-      </c>
-      <c r="T174">
-        <v>2</v>
-      </c>
-      <c r="U174">
-        <v>1.9</v>
-      </c>
-      <c r="V174">
-        <v>1.9</v>
-      </c>
-      <c r="W174">
-        <v>-1</v>
-      </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z174">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA174">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB174">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC174">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16016,7 +16016,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7823447</v>
+        <v>7823443</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16028,76 +16028,76 @@
         <v>45345.5</v>
       </c>
       <c r="F175" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K175">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L175">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M175">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N175">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O175">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P175">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q175">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R175">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S175">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U175">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V175">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W175">
+        <v>-1</v>
+      </c>
+      <c r="X175">
+        <v>-1</v>
+      </c>
+      <c r="Y175">
+        <v>4.25</v>
+      </c>
+      <c r="Z175">
+        <v>-1</v>
+      </c>
+      <c r="AA175">
         <v>1</v>
       </c>
-      <c r="X175">
-        <v>-1</v>
-      </c>
-      <c r="Y175">
-        <v>-1</v>
-      </c>
-      <c r="Z175">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA175">
-        <v>-1</v>
-      </c>
       <c r="AB175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16206,7 +16206,7 @@
         <v>45346.5</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
         <v>33</v>
@@ -16283,7 +16283,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7823446</v>
+        <v>7823445</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16295,13 +16295,13 @@
         <v>45346.53125</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16310,43 +16310,43 @@
         <v>46</v>
       </c>
       <c r="K178">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M178">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="N178">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="O178">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P178">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R178">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
+        <v>1.875</v>
+      </c>
+      <c r="V178">
         <v>1.925</v>
       </c>
-      <c r="V178">
-        <v>1.875</v>
-      </c>
       <c r="W178">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16355,13 +16355,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB178">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16372,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7823445</v>
+        <v>7823446</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,13 +16384,13 @@
         <v>45346.53125</v>
       </c>
       <c r="F179" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -16399,43 +16399,43 @@
         <v>46</v>
       </c>
       <c r="K179">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L179">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N179">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="O179">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P179">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q179">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S179">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
+        <v>1.925</v>
+      </c>
+      <c r="V179">
         <v>1.875</v>
       </c>
-      <c r="V179">
-        <v>1.925</v>
-      </c>
       <c r="W179">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16444,13 +16444,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA179">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC179">
         <v>-1</v>

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,12 +103,6 @@
     <t>Algeria Division 1</t>
   </si>
   <si>
-    <t>Paradou AC</t>
-  </si>
-  <si>
-    <t>CS Constantine</t>
-  </si>
-  <si>
     <t>MC El Bayadh</t>
   </si>
   <si>
@@ -118,7 +112,13 @@
     <t>USM Khenchela</t>
   </si>
   <si>
+    <t>CS Constantine</t>
+  </si>
+  <si>
     <t>ASO Chlef</t>
+  </si>
+  <si>
+    <t>Paradou AC</t>
   </si>
   <si>
     <t>USM Alger</t>
@@ -127,22 +127,22 @@
     <t>JS Saoura</t>
   </si>
   <si>
-    <t>CR Belouizdad</t>
+    <t>MC Oran</t>
+  </si>
+  <si>
+    <t>ES Setif</t>
   </si>
   <si>
     <t>US Biskra</t>
   </si>
   <si>
-    <t>MC Oran</t>
+    <t>RC Arba</t>
   </si>
   <si>
     <t>NC Magra</t>
   </si>
   <si>
-    <t>ES Setif</t>
-  </si>
-  <si>
-    <t>RC Arba</t>
+    <t>CR Belouizdad</t>
   </si>
   <si>
     <t>MC Alger</t>
@@ -154,10 +154,10 @@
     <t>US Souf</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC179"/>
+  <dimension ref="A1:AC181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6687391</v>
+        <v>6687019</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,70 +634,70 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M2">
-        <v>7</v>
+        <v>2.4</v>
       </c>
       <c r="N2">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>2.45</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R2">
+        <v>2.05</v>
+      </c>
+      <c r="S2">
+        <v>1.75</v>
+      </c>
+      <c r="T2">
+        <v>1.75</v>
+      </c>
+      <c r="U2">
         <v>1.8</v>
       </c>
-      <c r="S2">
-        <v>2</v>
-      </c>
-      <c r="T2">
-        <v>2.25</v>
-      </c>
-      <c r="U2">
-        <v>1.9</v>
-      </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W2">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
+        <v>0.75</v>
+      </c>
+      <c r="AB2">
         <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
         <v>-1</v>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6687389</v>
+        <v>6687020</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -732,46 +732,46 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>1.363</v>
+        <v>1.666</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Q3">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.363</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -780,16 +780,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC3">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6687019</v>
+        <v>6687390</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,43 +812,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L4">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M4">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O4">
         <v>2.9</v>
       </c>
       <c r="P4">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T4">
         <v>1.75</v>
@@ -863,22 +863,22 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y4">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6687020</v>
+        <v>6687389</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -910,46 +910,46 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="N5">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.925</v>
+      </c>
+      <c r="T5">
+        <v>2.5</v>
+      </c>
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>1.75</v>
-      </c>
-      <c r="U5">
-        <v>1.95</v>
-      </c>
-      <c r="V5">
-        <v>1.85</v>
-      </c>
       <c r="W5">
-        <v>0.6659999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.875</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
+        <v>-1</v>
+      </c>
+      <c r="AC5">
         <v>0.8</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>0.475</v>
-      </c>
-      <c r="AC5">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6687390</v>
+        <v>6687387</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,73 +990,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K6">
+        <v>1.5</v>
+      </c>
+      <c r="L6">
+        <v>3.6</v>
+      </c>
+      <c r="M6">
+        <v>6.5</v>
+      </c>
+      <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
+        <v>3.6</v>
+      </c>
+      <c r="P6">
+        <v>6.5</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
         <v>1.95</v>
       </c>
-      <c r="L6">
-        <v>2.875</v>
-      </c>
-      <c r="M6">
-        <v>4</v>
-      </c>
-      <c r="N6">
-        <v>2.05</v>
-      </c>
-      <c r="O6">
-        <v>2.9</v>
-      </c>
-      <c r="P6">
-        <v>3.8</v>
-      </c>
-      <c r="Q6">
-        <v>-0.5</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T6">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6687387</v>
+        <v>6687391</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1079,73 +1079,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
         <v>47</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
+        <v>1.444</v>
       </c>
       <c r="L7">
         <v>3.6</v>
       </c>
       <c r="M7">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O7">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q7">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>2.25</v>
       </c>
       <c r="U7">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC7">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1168,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>1.444</v>
@@ -1257,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10">
         <v>1.909</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>2.375</v>
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6765522</v>
+        <v>6765585</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,37 +1524,37 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L12">
+        <v>2.8</v>
+      </c>
+      <c r="M12">
         <v>4</v>
       </c>
-      <c r="M12">
-        <v>8</v>
-      </c>
       <c r="N12">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="P12">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
         <v>1.75</v>
@@ -1563,34 +1563,34 @@
         <v>2.05</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U12">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W12">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC12">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6765519</v>
+        <v>6765588</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1610,16 +1610,16 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>48</v>
@@ -1634,37 +1634,37 @@
         <v>4.2</v>
       </c>
       <c r="N13">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O13">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P13">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q13">
         <v>-0.75</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T13">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="Y13">
         <v>-1</v>
@@ -1673,13 +1673,13 @@
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1699,10 +1699,10 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>1.7</v>
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6765585</v>
+        <v>6765584</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,49 +1788,49 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L15">
         <v>2.8</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>2.05</v>
       </c>
       <c r="O15">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
         <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
         <v>1.875</v>
@@ -1839,25 +1839,25 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X15">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA15">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1877,10 +1877,10 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -1889,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>2.8</v>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6765588</v>
+        <v>6765522</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1966,76 +1966,76 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L17">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>4.2</v>
+        <v>7.5</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="S17">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X17">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
+        <v>-0</v>
+      </c>
+      <c r="AB17">
+        <v>-1</v>
+      </c>
+      <c r="AC17">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB17">
-        <v>-1</v>
-      </c>
-      <c r="AC17">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2043,7 +2043,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6765584</v>
+        <v>6765519</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2055,73 +2055,73 @@
         <v>45108.54166666666</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N18">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB18">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2144,10 +2144,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2233,10 +2233,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
         <v>2.2</v>
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6744005</v>
+        <v>6743989</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,58 +2322,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N21">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O21">
         <v>3.75</v>
       </c>
       <c r="P21">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q21">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R21">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2382,16 +2382,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6743977</v>
+        <v>6743978</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,76 +2411,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L22">
+        <v>2.9</v>
+      </c>
+      <c r="M22">
         <v>3.6</v>
       </c>
-      <c r="M22">
-        <v>7</v>
-      </c>
       <c r="N22">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P22">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U22">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V22">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X22">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC22">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6743989</v>
+        <v>6744005</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,58 +2500,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="N23">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O23">
         <v>3.75</v>
       </c>
       <c r="P23">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q23">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2560,16 +2560,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6743297</v>
+        <v>6743977</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,61 +2589,61 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K24">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L24">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N24">
-        <v>1.166</v>
+        <v>1.363</v>
       </c>
       <c r="O24">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="P24">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Q24">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R24">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W24">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y24">
         <v>-1</v>
@@ -2652,13 +2652,13 @@
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6743978</v>
+        <v>6743297</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,40 +2678,40 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1.285</v>
       </c>
       <c r="L25">
-        <v>2.9</v>
+        <v>4.5</v>
       </c>
       <c r="M25">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="N25">
-        <v>2.1</v>
+        <v>1.166</v>
       </c>
       <c r="O25">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="P25">
-        <v>3.6</v>
+        <v>17</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R25">
         <v>1.825</v>
@@ -2720,16 +2720,16 @@
         <v>1.975</v>
       </c>
       <c r="T25">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="V25">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>1.1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2738,16 +2738,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB25">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6872721</v>
+        <v>6872727</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,13 +2767,13 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -2782,58 +2782,58 @@
         <v>46</v>
       </c>
       <c r="K26">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L26">
+        <v>3.4</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>1.65</v>
+      </c>
+      <c r="O26">
+        <v>3.3</v>
+      </c>
+      <c r="P26">
+        <v>4.75</v>
+      </c>
+      <c r="Q26">
+        <v>-0.75</v>
+      </c>
+      <c r="R26">
+        <v>1.95</v>
+      </c>
+      <c r="S26">
+        <v>1.85</v>
+      </c>
+      <c r="T26">
+        <v>2</v>
+      </c>
+      <c r="U26">
+        <v>1.75</v>
+      </c>
+      <c r="V26">
+        <v>2.05</v>
+      </c>
+      <c r="W26">
+        <v>-1</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
         <v>3.75</v>
       </c>
-      <c r="M26">
-        <v>7</v>
-      </c>
-      <c r="N26">
-        <v>1.363</v>
-      </c>
-      <c r="O26">
-        <v>4.2</v>
-      </c>
-      <c r="P26">
-        <v>7</v>
-      </c>
-      <c r="Q26">
-        <v>-1.25</v>
-      </c>
-      <c r="R26">
-        <v>2.025</v>
-      </c>
-      <c r="S26">
-        <v>1.775</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>1.925</v>
-      </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
-      <c r="W26">
-        <v>0.363</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>0.75</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6872723</v>
+        <v>6872724</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,76 +2856,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>47</v>
       </c>
       <c r="K27">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="L27">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N27">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O27">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q27">
+        <v>-0.75</v>
+      </c>
+      <c r="R27">
+        <v>1.9</v>
+      </c>
+      <c r="S27">
+        <v>1.9</v>
+      </c>
+      <c r="T27">
+        <v>1.75</v>
+      </c>
+      <c r="U27">
+        <v>1.75</v>
+      </c>
+      <c r="V27">
+        <v>2.05</v>
+      </c>
+      <c r="W27">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>0.45</v>
+      </c>
+      <c r="AA27">
         <v>-0.5</v>
       </c>
-      <c r="R27">
-        <v>1.8</v>
-      </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>2.25</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.8</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
-      <c r="Y27">
-        <v>3.2</v>
-      </c>
-      <c r="Z27">
-        <v>-1</v>
-      </c>
-      <c r="AA27">
-        <v>1</v>
-      </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6872722</v>
+        <v>6872721</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,73 +2945,73 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>1.45</v>
+        <v>1.444</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N28">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O28">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="Q28">
+        <v>-1.25</v>
+      </c>
+      <c r="R28">
+        <v>2.025</v>
+      </c>
+      <c r="S28">
+        <v>1.775</v>
+      </c>
+      <c r="T28">
+        <v>2</v>
+      </c>
+      <c r="U28">
+        <v>1.925</v>
+      </c>
+      <c r="V28">
+        <v>1.875</v>
+      </c>
+      <c r="W28">
+        <v>0.363</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
         <v>-0.5</v>
       </c>
-      <c r="R28">
-        <v>1.95</v>
-      </c>
-      <c r="S28">
-        <v>1.85</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>2.025</v>
-      </c>
-      <c r="V28">
-        <v>1.775</v>
-      </c>
-      <c r="W28">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>0.95</v>
-      </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB28">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6872724</v>
+        <v>6872725</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,40 +3034,40 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
         <v>1</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
       <c r="J29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K29">
-        <v>1.55</v>
+        <v>1.285</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M29">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="N29">
-        <v>1.65</v>
+        <v>1.25</v>
       </c>
       <c r="O29">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R29">
         <v>1.9</v>
@@ -3076,16 +3076,16 @@
         <v>1.9</v>
       </c>
       <c r="T29">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W29">
-        <v>0.6499999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3094,16 +3094,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6872727</v>
+        <v>6872726</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,76 +3123,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K30">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L30">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N30">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O30">
+        <v>2.9</v>
+      </c>
+      <c r="P30">
         <v>3.3</v>
       </c>
-      <c r="P30">
-        <v>4.75</v>
-      </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T30">
         <v>2</v>
       </c>
       <c r="U30">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V30">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y30">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB30">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6872725</v>
+        <v>6872723</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,13 +3212,13 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3227,61 +3227,61 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L31">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="N31">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q31">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T31">
         <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6872726</v>
+        <v>6872722</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3304,73 +3304,73 @@
         <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
+        <v>1.45</v>
+      </c>
+      <c r="L32">
+        <v>3.6</v>
+      </c>
+      <c r="M32">
+        <v>6.5</v>
+      </c>
+      <c r="N32">
         <v>1.85</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>3.1</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>4.2</v>
       </c>
-      <c r="N32">
-        <v>2.2</v>
-      </c>
-      <c r="O32">
-        <v>2.9</v>
-      </c>
-      <c r="P32">
-        <v>3.3</v>
-      </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
         <v>2</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X32">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA32">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC32">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3378,7 +3378,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6888615</v>
+        <v>6888609</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3390,76 +3390,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>3.5</v>
+        <v>1.666</v>
       </c>
       <c r="L33">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M33">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N33">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O33">
         <v>3</v>
       </c>
       <c r="P33">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q33">
         <v>-0.5</v>
       </c>
       <c r="R33">
+        <v>2.025</v>
+      </c>
+      <c r="S33">
         <v>1.775</v>
       </c>
-      <c r="S33">
-        <v>2.025</v>
-      </c>
       <c r="T33">
         <v>2</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
+        <v>-1</v>
+      </c>
+      <c r="AA33">
         <v>0.7749999999999999</v>
       </c>
-      <c r="AA33">
-        <v>-1</v>
-      </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3479,10 +3479,10 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>1.4</v>
@@ -3568,7 +3568,7 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
         <v>1.727</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6888611</v>
+        <v>6888614</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,73 +3657,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F36" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
         <v>3</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>46</v>
       </c>
       <c r="K36">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="L36">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N36">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O36">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T36">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U36">
+        <v>1.775</v>
+      </c>
+      <c r="V36">
         <v>2.025</v>
       </c>
-      <c r="V36">
-        <v>1.775</v>
-      </c>
       <c r="W36">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB36">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6888614</v>
+        <v>6888611</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,73 +3746,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>1</v>
-      </c>
-      <c r="I37">
-        <v>3</v>
       </c>
       <c r="J37" t="s">
         <v>47</v>
       </c>
       <c r="K37">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N37">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P37">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
+        <v>2.025</v>
+      </c>
+      <c r="V37">
         <v>1.775</v>
       </c>
-      <c r="V37">
-        <v>2.025</v>
-      </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6888609</v>
+        <v>6888615</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>1.666</v>
+        <v>3.5</v>
       </c>
       <c r="L38">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N38">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O38">
         <v>3</v>
       </c>
       <c r="P38">
-        <v>4.2</v>
+        <v>5.25</v>
       </c>
       <c r="Q38">
         <v>-0.5</v>
       </c>
       <c r="R38">
+        <v>1.775</v>
+      </c>
+      <c r="S38">
         <v>2.025</v>
       </c>
-      <c r="S38">
-        <v>1.775</v>
-      </c>
       <c r="T38">
         <v>2</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X38">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA38">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3924,10 +3924,10 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
         <v>1.25</v>
@@ -4013,10 +4013,10 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4025,7 +4025,7 @@
         <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
         <v>2.3</v>
@@ -4105,7 +4105,7 @@
         <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K41">
         <v>1.727</v>
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7129059</v>
+        <v>7130198</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,7 +4194,7 @@
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4203,46 +4203,46 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>1.6</v>
+      </c>
+      <c r="O42">
         <v>3.4</v>
       </c>
-      <c r="N42">
-        <v>2.2</v>
-      </c>
-      <c r="O42">
-        <v>3.2</v>
-      </c>
       <c r="P42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
+        <v>1.825</v>
+      </c>
+      <c r="S42">
         <v>1.975</v>
       </c>
-      <c r="S42">
-        <v>1.825</v>
-      </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4251,16 +4251,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7130198</v>
+        <v>7129059</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,10 +4280,10 @@
         <v>45184.5</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4292,46 +4292,46 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K43">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N43">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
+        <v>1.975</v>
+      </c>
+      <c r="S43">
         <v>1.825</v>
       </c>
-      <c r="S43">
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
         <v>1.975</v>
       </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>1.925</v>
-      </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4369,10 +4369,10 @@
         <v>45184.625</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>1.6</v>
@@ -4458,10 +4458,10 @@
         <v>45185.5</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4470,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2.7</v>
@@ -4559,7 +4559,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
         <v>1.333</v>
@@ -4639,7 +4639,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47">
         <v>1.615</v>
@@ -4728,7 +4728,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45191.5</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K49">
         <v>1.95</v>
@@ -4903,10 +4903,10 @@
         <v>45191.625</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4992,10 +4992,10 @@
         <v>45192.5</v>
       </c>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>1.333</v>
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7230931</v>
+        <v>7230933</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,46 +5084,46 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M52">
+        <v>3.75</v>
+      </c>
+      <c r="N52">
+        <v>1.8</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
         <v>4.5</v>
       </c>
-      <c r="N52">
-        <v>1.65</v>
-      </c>
-      <c r="O52">
-        <v>3.2</v>
-      </c>
-      <c r="P52">
-        <v>5.25</v>
-      </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U52">
         <v>1.825</v>
@@ -5132,7 +5132,7 @@
         <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5141,7 +5141,7 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>45192.625</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>36</v>
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7230933</v>
+        <v>7230931</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,49 +5259,49 @@
         <v>45192.625</v>
       </c>
       <c r="F54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N54">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P54">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U54">
         <v>1.825</v>
@@ -5310,7 +5310,7 @@
         <v>1.975</v>
       </c>
       <c r="W54">
-        <v>0.8</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5319,7 +5319,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5348,7 +5348,7 @@
         <v>45196.5</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7230934</v>
+        <v>7230948</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,76 +5437,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K56">
         <v>3.2</v>
       </c>
       <c r="L56">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M56">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N56">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S56">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
         <v>1.75</v>
       </c>
       <c r="U56">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA56">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5526,10 +5526,10 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5538,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -5603,7 +5603,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7230948</v>
+        <v>7230934</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,76 +5615,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K58">
         <v>3.2</v>
       </c>
       <c r="L58">
+        <v>2.8</v>
+      </c>
+      <c r="M58">
+        <v>2.25</v>
+      </c>
+      <c r="N58">
+        <v>1.95</v>
+      </c>
+      <c r="O58">
         <v>2.9</v>
       </c>
-      <c r="M58">
-        <v>2.2</v>
-      </c>
-      <c r="N58">
-        <v>2.05</v>
-      </c>
-      <c r="O58">
-        <v>3</v>
-      </c>
       <c r="P58">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
         <v>1.75</v>
       </c>
       <c r="U58">
+        <v>1.8</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
         <v>1.9</v>
       </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
-      <c r="W58">
-        <v>1.05</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,10 +5793,10 @@
         <v>45199.625</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5805,28 +5805,28 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N60">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
         <v>1.95</v>
@@ -5835,16 +5835,16 @@
         <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5853,16 +5853,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA60">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,10 +5882,10 @@
         <v>45199.625</v>
       </c>
       <c r="F61" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5894,28 +5894,28 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K61">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N61">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O61">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R61">
         <v>1.95</v>
@@ -5924,16 +5924,16 @@
         <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -5983,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K62">
         <v>1.727</v>
@@ -6060,7 +6060,7 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
         <v>1.571</v>
@@ -6149,10 +6149,10 @@
         <v>45205.625</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>5</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>1.833</v>
@@ -6238,10 +6238,10 @@
         <v>45205.625</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7230951</v>
+        <v>7230943</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6327,76 +6327,76 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66">
+        <v>1.909</v>
+      </c>
+      <c r="L66">
+        <v>3.1</v>
+      </c>
+      <c r="M66">
+        <v>3.75</v>
+      </c>
+      <c r="N66">
+        <v>1.8</v>
+      </c>
+      <c r="O66">
+        <v>3.2</v>
+      </c>
+      <c r="P66">
+        <v>4</v>
+      </c>
+      <c r="Q66">
+        <v>-0.5</v>
+      </c>
+      <c r="R66">
+        <v>1.825</v>
+      </c>
+      <c r="S66">
+        <v>1.975</v>
+      </c>
+      <c r="T66">
+        <v>2</v>
+      </c>
+      <c r="U66">
+        <v>1.775</v>
+      </c>
+      <c r="V66">
+        <v>2.025</v>
+      </c>
+      <c r="W66">
+        <v>-1</v>
+      </c>
+      <c r="X66">
+        <v>-1</v>
+      </c>
+      <c r="Y66">
         <v>3</v>
       </c>
-      <c r="J66" t="s">
-        <v>47</v>
-      </c>
-      <c r="K66">
-        <v>1.5</v>
-      </c>
-      <c r="L66">
-        <v>3.5</v>
-      </c>
-      <c r="M66">
-        <v>6</v>
-      </c>
-      <c r="N66">
-        <v>1.444</v>
-      </c>
-      <c r="O66">
-        <v>3.5</v>
-      </c>
-      <c r="P66">
-        <v>7.5</v>
-      </c>
-      <c r="Q66">
-        <v>-1.25</v>
-      </c>
-      <c r="R66">
-        <v>2.025</v>
-      </c>
-      <c r="S66">
-        <v>1.775</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
-      <c r="U66">
-        <v>1.825</v>
-      </c>
-      <c r="V66">
-        <v>1.975</v>
-      </c>
-      <c r="W66">
-        <v>-1</v>
-      </c>
-      <c r="X66">
-        <v>-1</v>
-      </c>
-      <c r="Y66">
-        <v>6.5</v>
-      </c>
       <c r="Z66">
         <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB66">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6416,10 +6416,10 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>1.8</v>
@@ -6493,7 +6493,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7230943</v>
+        <v>7230951</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6505,56 +6505,56 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K68">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L68">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="N68">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O68">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R68">
+        <v>2.025</v>
+      </c>
+      <c r="S68">
+        <v>1.775</v>
+      </c>
+      <c r="T68">
+        <v>2.25</v>
+      </c>
+      <c r="U68">
         <v>1.825</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>1.975</v>
       </c>
-      <c r="T68">
-        <v>2</v>
-      </c>
-      <c r="U68">
-        <v>1.775</v>
-      </c>
-      <c r="V68">
-        <v>2.025</v>
-      </c>
       <c r="W68">
         <v>-1</v>
       </c>
@@ -6562,19 +6562,19 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>45206.625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K69">
         <v>1.533</v>
@@ -6686,7 +6686,7 @@
         <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K70">
         <v>3.5</v>
@@ -6775,7 +6775,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>1.833</v>
@@ -6864,7 +6864,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6873,7 +6873,7 @@
         <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>3.1</v>
@@ -6950,10 +6950,10 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>1.4</v>
@@ -7039,10 +7039,10 @@
         <v>45240.48958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
         <v>1.909</v>
@@ -7131,7 +7131,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7140,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7205,7 +7205,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>7427226</v>
+        <v>7427225</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7217,13 +7217,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -7232,61 +7232,61 @@
         <v>47</v>
       </c>
       <c r="K76">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L76">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N76">
-        <v>1.285</v>
+        <v>1.6</v>
       </c>
       <c r="O76">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>11</v>
+        <v>5.75</v>
       </c>
       <c r="Q76">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R76">
+        <v>1.85</v>
+      </c>
+      <c r="S76">
         <v>1.95</v>
       </c>
-      <c r="S76">
-        <v>1.85</v>
-      </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X76">
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC76">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>7427225</v>
+        <v>7427226</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7306,13 +7306,13 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -7321,61 +7321,61 @@
         <v>46</v>
       </c>
       <c r="K77">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L77">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M77">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N77">
-        <v>1.6</v>
+        <v>1.285</v>
       </c>
       <c r="O77">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P77">
-        <v>5.75</v>
+        <v>11</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R77">
+        <v>1.95</v>
+      </c>
+      <c r="S77">
         <v>1.85</v>
       </c>
-      <c r="S77">
-        <v>1.95</v>
-      </c>
       <c r="T77">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U77">
+        <v>2</v>
+      </c>
+      <c r="V77">
         <v>1.8</v>
       </c>
-      <c r="V77">
-        <v>2</v>
-      </c>
       <c r="W77">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA77">
-        <v>-1</v>
-      </c>
       <c r="AB77">
+        <v>-1</v>
+      </c>
+      <c r="AC77">
         <v>0.8</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7395,7 +7395,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>43</v>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7487,7 +7487,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7573,10 +7573,10 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>2.7</v>
@@ -7662,7 +7662,7 @@
         <v>45244.625</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
         <v>1.727</v>
@@ -7751,10 +7751,10 @@
         <v>45247.47569444445</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>1.4</v>
@@ -7840,7 +7840,7 @@
         <v>45247.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
         <v>45</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K83">
         <v>1.571</v>
@@ -7929,10 +7929,10 @@
         <v>45247.53125</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K85">
         <v>1.533</v>
@@ -8110,7 +8110,7 @@
         <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8119,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K86">
         <v>2.6</v>
@@ -8196,10 +8196,10 @@
         <v>45248.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K87">
         <v>1.833</v>
@@ -8285,7 +8285,7 @@
         <v>45248.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K88">
         <v>1.8</v>
@@ -8374,10 +8374,10 @@
         <v>45249.625</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K89">
         <v>1.363</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7480688</v>
+        <v>7480684</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F90" t="s">
+        <v>41</v>
+      </c>
+      <c r="G90" t="s">
         <v>29</v>
       </c>
-      <c r="G90" t="s">
-        <v>30</v>
-      </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>48</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="N90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
         <v>3.8</v>
       </c>
       <c r="Q90">
+        <v>-0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.75</v>
+      </c>
+      <c r="S90">
+        <v>2.05</v>
+      </c>
+      <c r="T90">
+        <v>1.75</v>
+      </c>
+      <c r="U90">
+        <v>1.75</v>
+      </c>
+      <c r="V90">
+        <v>2.05</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>1.9</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>1.975</v>
-      </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>1.925</v>
-      </c>
-      <c r="V90">
-        <v>1.875</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>2</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7480684</v>
+        <v>7480688</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>48</v>
       </c>
       <c r="K91">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L91">
+        <v>3.2</v>
+      </c>
+      <c r="M91">
+        <v>4.75</v>
+      </c>
+      <c r="N91">
+        <v>1.95</v>
+      </c>
+      <c r="O91">
         <v>3</v>
-      </c>
-      <c r="M91">
-        <v>4.25</v>
-      </c>
-      <c r="N91">
-        <v>2</v>
-      </c>
-      <c r="O91">
-        <v>2.9</v>
       </c>
       <c r="P91">
         <v>3.8</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB91">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8641,7 +8641,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>44</v>
@@ -8730,10 +8730,10 @@
         <v>45255.53125</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8831,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K94">
         <v>1.727</v>
@@ -8908,10 +8908,10 @@
         <v>45261.46875</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K95">
         <v>1.571</v>
@@ -9000,7 +9000,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K96">
         <v>1.4</v>
@@ -9086,10 +9086,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
         <v>1.5</v>
@@ -9175,7 +9175,7 @@
         <v>45262.53125</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K98">
         <v>1.25</v>
@@ -9267,7 +9267,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,10 +9353,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>1.727</v>
@@ -9445,7 +9445,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K101">
         <v>1.571</v>
@@ -9531,10 +9531,10 @@
         <v>45268.46875</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K102">
         <v>2.5</v>
@@ -9620,7 +9620,7 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G103" t="s">
         <v>44</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>1.533</v>
@@ -9721,7 +9721,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.4</v>
@@ -9798,10 +9798,10 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9887,10 +9887,10 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9979,7 +9979,7 @@
         <v>44</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10065,7 +10065,7 @@
         <v>45275.46875</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
         <v>35</v>
@@ -10154,11 +10154,11 @@
         <v>45275.53125</v>
       </c>
       <c r="F109" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s">
         <v>30</v>
       </c>
-      <c r="G109" t="s">
-        <v>32</v>
-      </c>
       <c r="H109">
         <v>2</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
         <v>1.533</v>
@@ -10243,10 +10243,10 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F110" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s">
         <v>34</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10335,7 +10335,7 @@
         <v>45</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10344,7 +10344,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
         <v>3.75</v>
@@ -10424,7 +10424,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K112">
         <v>1.5</v>
@@ -10513,7 +10513,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>1.363</v>
@@ -10599,10 +10599,10 @@
         <v>45276.625</v>
       </c>
       <c r="F114" t="s">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s">
         <v>39</v>
-      </c>
-      <c r="G114" t="s">
-        <v>38</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>2.1</v>
@@ -10688,10 +10688,10 @@
         <v>45288.625</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>1.7</v>
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7624465</v>
+        <v>7624516</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,49 +10777,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
         <v>1</v>
       </c>
-      <c r="I116">
-        <v>0</v>
-      </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K116">
-        <v>1.4</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
-        <v>3.9</v>
+        <v>2.875</v>
       </c>
       <c r="M116">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="N116">
-        <v>1.65</v>
+        <v>1.833</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P116">
         <v>4.75</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T116">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U116">
         <v>2</v>
@@ -10828,7 +10828,7 @@
         <v>1.8</v>
       </c>
       <c r="W116">
-        <v>0.6499999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10837,16 +10837,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.45</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7624516</v>
+        <v>7624465</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10866,49 +10866,49 @@
         <v>45289.46875</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K117">
-        <v>1.909</v>
+        <v>1.4</v>
       </c>
       <c r="L117">
-        <v>2.875</v>
+        <v>3.9</v>
       </c>
       <c r="M117">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="N117">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O117">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
         <v>4.75</v>
       </c>
       <c r="Q117">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T117">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U117">
         <v>2</v>
@@ -10917,7 +10917,7 @@
         <v>1.8</v>
       </c>
       <c r="W117">
-        <v>0.833</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10926,16 +10926,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8500000000000001</v>
+        <v>0.45</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB117">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10955,7 +10955,7 @@
         <v>45289.46875</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G118" t="s">
         <v>36</v>
@@ -11044,10 +11044,10 @@
         <v>45289.5</v>
       </c>
       <c r="F119" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K119">
         <v>1.45</v>
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7624498</v>
+        <v>7624597</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L120">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O120">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P120">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q120">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA120">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7624597</v>
+        <v>7624498</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11222,76 +11222,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
       </c>
       <c r="K121">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N121">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O121">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P121">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R121">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S121">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
         <v>2</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11299,7 +11299,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>7656900</v>
+        <v>7624657</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11311,55 +11311,55 @@
         <v>45296.46875</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K122">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M122">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N122">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="O122">
         <v>3</v>
       </c>
       <c r="P122">
-        <v>2.625</v>
+        <v>1.85</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T122">
         <v>2</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11368,19 +11368,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7624657</v>
+        <v>7624664</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,73 +11400,73 @@
         <v>45296.46875</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H123">
+        <v>2</v>
+      </c>
+      <c r="I123">
         <v>1</v>
-      </c>
-      <c r="I123">
-        <v>4</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L123">
         <v>2.8</v>
       </c>
       <c r="M123">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N123">
-        <v>4.333</v>
+        <v>2.4</v>
       </c>
       <c r="O123">
+        <v>2.7</v>
+      </c>
+      <c r="P123">
         <v>3</v>
       </c>
-      <c r="P123">
-        <v>1.85</v>
-      </c>
       <c r="Q123">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U123">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V123">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
         <v>-1</v>
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7624664</v>
+        <v>7656900</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,13 +11489,13 @@
         <v>45296.46875</v>
       </c>
       <c r="F124" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11504,61 +11504,61 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L124">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O124">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11578,7 +11578,7 @@
         <v>45296.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -11590,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11667,10 +11667,10 @@
         <v>45296.60416666666</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11759,7 +11759,7 @@
         <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11768,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11848,7 +11848,7 @@
         <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11934,10 +11934,10 @@
         <v>45300.625</v>
       </c>
       <c r="F129" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11946,7 +11946,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>2.5</v>
@@ -12023,10 +12023,10 @@
         <v>45302.53125</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12035,7 +12035,7 @@
         <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>2.9</v>
@@ -12124,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -12201,10 +12201,10 @@
         <v>45303.46875</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12290,7 +12290,7 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
         <v>45</v>
@@ -12302,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K133">
         <v>1.25</v>
@@ -12379,10 +12379,10 @@
         <v>45304.5</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12468,10 +12468,10 @@
         <v>45304.53125</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12480,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12557,7 +12557,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
         <v>44</v>
@@ -12646,7 +12646,7 @@
         <v>45305.625</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12738,7 +12738,7 @@
         <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K138">
         <v>1.45</v>
@@ -12824,10 +12824,10 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7567341</v>
+        <v>7567343</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,76 +12913,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>47</v>
       </c>
       <c r="K140">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N140">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O140">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P140">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
         <v>1.85</v>
       </c>
-      <c r="S140">
-        <v>1.95</v>
-      </c>
       <c r="T140">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7567343</v>
+        <v>7567341</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13005,73 +13005,73 @@
         <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
         <v>1</v>
-      </c>
-      <c r="I141">
-        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>46</v>
       </c>
       <c r="K141">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="L141">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M141">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="N141">
-        <v>2.15</v>
+        <v>1.615</v>
       </c>
       <c r="O141">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P141">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q141">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R141">
+        <v>1.85</v>
+      </c>
+      <c r="S141">
         <v>1.95</v>
       </c>
-      <c r="S141">
-        <v>1.85</v>
-      </c>
       <c r="T141">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U141">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z141">
+        <v>-1</v>
+      </c>
+      <c r="AA141">
         <v>0.95</v>
       </c>
-      <c r="AA141">
-        <v>-1</v>
-      </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,10 +13091,10 @@
         <v>45310.48958333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13183,7 +13183,7 @@
         <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,7 +13192,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143">
         <v>1.8</v>
@@ -13269,7 +13269,7 @@
         <v>45310.53125</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G144" t="s">
         <v>44</v>
@@ -13361,7 +13361,7 @@
         <v>43</v>
       </c>
       <c r="G145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K145">
         <v>1.222</v>
@@ -13459,7 +13459,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K146">
         <v>3.9</v>
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,10 +13536,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13551,31 +13551,31 @@
         <v>48</v>
       </c>
       <c r="K147">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L147">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N147">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P147">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
         <v>2</v>
@@ -13590,16 +13590,16 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13613,7 +13613,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13625,10 +13625,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13640,31 +13640,31 @@
         <v>48</v>
       </c>
       <c r="K148">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L148">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M148">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N148">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P148">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
         <v>2</v>
@@ -13679,16 +13679,16 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA148">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13714,10 +13714,10 @@
         <v>45317.47916666666</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13726,7 +13726,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>1.85</v>
@@ -13803,10 +13803,10 @@
         <v>45317.53125</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13892,7 +13892,7 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G151" t="s">
         <v>43</v>
@@ -13904,7 +13904,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K151">
         <v>3.5</v>
@@ -13984,7 +13984,7 @@
         <v>44</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14058,7 +14058,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7680043</v>
+        <v>7680045</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14070,58 +14070,58 @@
         <v>45318.5</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K153">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M153">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="N153">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O153">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P153">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q153">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
+        <v>1.775</v>
+      </c>
+      <c r="S153">
+        <v>2.025</v>
+      </c>
+      <c r="T153">
+        <v>2</v>
+      </c>
+      <c r="U153">
         <v>1.95</v>
       </c>
-      <c r="S153">
+      <c r="V153">
         <v>1.85</v>
       </c>
-      <c r="T153">
-        <v>2.5</v>
-      </c>
-      <c r="U153">
-        <v>1.925</v>
-      </c>
-      <c r="V153">
-        <v>1.875</v>
-      </c>
       <c r="W153">
-        <v>0.222</v>
+        <v>1.05</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14130,16 +14130,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7680045</v>
+        <v>7680043</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,58 +14159,58 @@
         <v>45318.5</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L154">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M154">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="N154">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O154">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P154">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R154">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T154">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U154">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W154">
-        <v>1.05</v>
+        <v>0.222</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14219,16 +14219,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB154">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC154">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14248,7 +14248,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14260,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K155">
         <v>1.727</v>
@@ -14340,7 +14340,7 @@
         <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14349,7 +14349,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
         <v>1.5</v>
@@ -14426,11 +14426,11 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F157" t="s">
+        <v>42</v>
+      </c>
+      <c r="G157" t="s">
         <v>37</v>
       </c>
-      <c r="G157" t="s">
-        <v>39</v>
-      </c>
       <c r="H157">
         <v>2</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K157">
         <v>1.5</v>
@@ -14518,7 +14518,7 @@
         <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14527,7 +14527,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K158">
         <v>2.1</v>
@@ -14604,10 +14604,10 @@
         <v>45326.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G159" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14616,7 +14616,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K159">
         <v>2.9</v>
@@ -14693,10 +14693,10 @@
         <v>45331.48958333334</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14782,10 +14782,10 @@
         <v>45331.53125</v>
       </c>
       <c r="F161" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K161">
         <v>1.8</v>
@@ -14859,7 +14859,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7768217</v>
+        <v>7768215</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14874,55 +14874,55 @@
         <v>30</v>
       </c>
       <c r="G162" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K162">
-        <v>1.571</v>
+        <v>1.5</v>
       </c>
       <c r="L162">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M162">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N162">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="O162">
         <v>3.6</v>
       </c>
       <c r="P162">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q162">
         <v>-1.25</v>
       </c>
       <c r="R162">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T162">
         <v>2</v>
       </c>
       <c r="U162">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V162">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W162">
-        <v>0.363</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X162">
         <v>-1</v>
@@ -14934,13 +14934,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA162">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AB162">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC162">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14960,7 +14960,7 @@
         <v>45332.5</v>
       </c>
       <c r="F163" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
         <v>36</v>
@@ -14972,7 +14972,7 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K163">
         <v>2.375</v>
@@ -15037,7 +15037,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7768215</v>
+        <v>7768217</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15052,55 +15052,55 @@
         <v>32</v>
       </c>
       <c r="G164" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
         <v>1</v>
       </c>
-      <c r="I164">
-        <v>0</v>
-      </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K164">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M164">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N164">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="O164">
         <v>3.6</v>
       </c>
       <c r="P164">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q164">
         <v>-1.25</v>
       </c>
       <c r="R164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S164">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T164">
         <v>2</v>
       </c>
       <c r="U164">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V164">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W164">
-        <v>0.3999999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15112,13 +15112,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA164">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC164">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:29">
@@ -15138,7 +15138,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G165" t="s">
         <v>45</v>
@@ -15150,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K165">
         <v>1.166</v>
@@ -15230,7 +15230,7 @@
         <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15239,7 +15239,7 @@
         <v>5</v>
       </c>
       <c r="J166" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>1.727</v>
@@ -15316,10 +15316,10 @@
         <v>45337.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15328,7 +15328,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K167">
         <v>2.15</v>
@@ -15393,7 +15393,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7768182</v>
+        <v>7768219</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15405,76 +15405,76 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K168">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L168">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M168">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N168">
-        <v>2.375</v>
+        <v>1.833</v>
       </c>
       <c r="O168">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P168">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R168">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="S168">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T168">
         <v>1.75</v>
       </c>
       <c r="U168">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X168">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y168">
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>1.075</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB168">
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15482,7 +15482,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>7768219</v>
+        <v>7768182</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15494,76 +15494,76 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F169" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G169" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K169">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L169">
+        <v>2.9</v>
+      </c>
+      <c r="M169">
+        <v>3.75</v>
+      </c>
+      <c r="N169">
+        <v>2.375</v>
+      </c>
+      <c r="O169">
+        <v>2.9</v>
+      </c>
+      <c r="P169">
         <v>3</v>
       </c>
-      <c r="M169">
-        <v>4.2</v>
-      </c>
-      <c r="N169">
-        <v>1.833</v>
-      </c>
-      <c r="O169">
-        <v>2.8</v>
-      </c>
-      <c r="P169">
-        <v>4.5</v>
-      </c>
       <c r="Q169">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.95</v>
+        <v>2.075</v>
       </c>
       <c r="S169">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T169">
         <v>1.75</v>
       </c>
       <c r="U169">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W169">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X169">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y169">
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA169">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB169">
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15583,7 +15583,7 @@
         <v>45338.53125</v>
       </c>
       <c r="F170" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G170" t="s">
         <v>44</v>
@@ -15595,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K170">
         <v>1.571</v>
@@ -15675,7 +15675,7 @@
         <v>45</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K171">
         <v>4.5</v>
@@ -15764,7 +15764,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K173">
         <v>1.571</v>
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K174">
         <v>2.875</v>
@@ -16028,10 +16028,10 @@
         <v>45345.5</v>
       </c>
       <c r="F175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16040,7 +16040,7 @@
         <v>1</v>
       </c>
       <c r="J175" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K175">
         <v>1.8</v>
@@ -16105,7 +16105,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7823444</v>
+        <v>7823442</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16117,10 +16117,10 @@
         <v>45346.5</v>
       </c>
       <c r="F176" t="s">
+        <v>30</v>
+      </c>
+      <c r="G176" t="s">
         <v>31</v>
-      </c>
-      <c r="G176" t="s">
-        <v>43</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16132,61 +16132,61 @@
         <v>48</v>
       </c>
       <c r="K176">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="L176">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="M176">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="N176">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O176">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P176">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S176">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T176">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U176">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB176">
         <v>-1</v>
       </c>
       <c r="AC176">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16194,7 +16194,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7823442</v>
+        <v>7823444</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16206,10 +16206,10 @@
         <v>45346.5</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G177" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -16221,61 +16221,61 @@
         <v>48</v>
       </c>
       <c r="K177">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="L177">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="M177">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="N177">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="O177">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P177">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S177">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V177">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W177">
         <v>-1</v>
       </c>
       <c r="X177">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA177">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
         <v>-1</v>
       </c>
       <c r="AC177">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16283,7 +16283,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7823445</v>
+        <v>7823446</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16295,58 +16295,58 @@
         <v>45346.53125</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K178">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L178">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="N178">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="O178">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P178">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="Q178">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
+        <v>1.925</v>
+      </c>
+      <c r="V178">
         <v>1.875</v>
       </c>
-      <c r="V178">
-        <v>1.925</v>
-      </c>
       <c r="W178">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16355,13 +16355,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA178">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16372,7 +16372,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7823446</v>
+        <v>7823445</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,76 +16384,224 @@
         <v>45346.53125</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K179">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M179">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="O179">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P179">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R179">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S179">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
+        <v>1.875</v>
+      </c>
+      <c r="V179">
         <v>1.925</v>
       </c>
-      <c r="V179">
+      <c r="W179">
+        <v>0.25</v>
+      </c>
+      <c r="X179">
+        <v>-1</v>
+      </c>
+      <c r="Y179">
+        <v>-1</v>
+      </c>
+      <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB179">
+        <v>0.875</v>
+      </c>
+      <c r="AC179">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>7883991</v>
+      </c>
+      <c r="C180" t="s">
+        <v>28</v>
+      </c>
+      <c r="D180" t="s">
+        <v>28</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45352.5</v>
+      </c>
+      <c r="F180" t="s">
+        <v>34</v>
+      </c>
+      <c r="G180" t="s">
+        <v>39</v>
+      </c>
+      <c r="K180">
+        <v>1.727</v>
+      </c>
+      <c r="L180">
+        <v>3.2</v>
+      </c>
+      <c r="M180">
+        <v>4.5</v>
+      </c>
+      <c r="N180">
+        <v>1.571</v>
+      </c>
+      <c r="O180">
+        <v>3.4</v>
+      </c>
+      <c r="P180">
+        <v>5.5</v>
+      </c>
+      <c r="Q180">
+        <v>-0.75</v>
+      </c>
+      <c r="R180">
+        <v>1.8</v>
+      </c>
+      <c r="S180">
+        <v>2</v>
+      </c>
+      <c r="T180">
+        <v>2</v>
+      </c>
+      <c r="U180">
+        <v>1.925</v>
+      </c>
+      <c r="V180">
         <v>1.875</v>
       </c>
-      <c r="W179">
-        <v>0.45</v>
-      </c>
-      <c r="X179">
-        <v>-1</v>
-      </c>
-      <c r="Y179">
-        <v>-1</v>
-      </c>
-      <c r="Z179">
-        <v>0.8</v>
-      </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.925</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+      <c r="Y180">
+        <v>0</v>
+      </c>
+      <c r="Z180">
+        <v>0</v>
+      </c>
+      <c r="AA180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>7883992</v>
+      </c>
+      <c r="C181" t="s">
+        <v>28</v>
+      </c>
+      <c r="D181" t="s">
+        <v>28</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45352.5</v>
+      </c>
+      <c r="F181" t="s">
+        <v>41</v>
+      </c>
+      <c r="G181" t="s">
+        <v>37</v>
+      </c>
+      <c r="K181">
+        <v>1.727</v>
+      </c>
+      <c r="L181">
+        <v>3.2</v>
+      </c>
+      <c r="M181">
+        <v>4.5</v>
+      </c>
+      <c r="N181">
+        <v>1.95</v>
+      </c>
+      <c r="O181">
+        <v>3.1</v>
+      </c>
+      <c r="P181">
+        <v>3.8</v>
+      </c>
+      <c r="Q181">
+        <v>-0.5</v>
+      </c>
+      <c r="R181">
+        <v>2</v>
+      </c>
+      <c r="S181">
+        <v>1.8</v>
+      </c>
+      <c r="T181">
+        <v>1.75</v>
+      </c>
+      <c r="U181">
+        <v>1.75</v>
+      </c>
+      <c r="V181">
+        <v>2.05</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,16 @@
     <t>Algeria Division 1</t>
   </si>
   <si>
+    <t>JS Kabylie</t>
+  </si>
+  <si>
     <t>MC El Bayadh</t>
   </si>
   <si>
-    <t>JS Kabylie</t>
+    <t>ASO Chlef</t>
+  </si>
+  <si>
+    <t>Paradou AC</t>
   </si>
   <si>
     <t>USM Khenchela</t>
@@ -115,25 +121,10 @@
     <t>CS Constantine</t>
   </si>
   <si>
-    <t>ASO Chlef</t>
-  </si>
-  <si>
-    <t>Paradou AC</t>
-  </si>
-  <si>
     <t>USM Alger</t>
   </si>
   <si>
     <t>JS Saoura</t>
-  </si>
-  <si>
-    <t>MC Oran</t>
-  </si>
-  <si>
-    <t>ES Setif</t>
-  </si>
-  <si>
-    <t>US Biskra</t>
   </si>
   <si>
     <t>RC Arba</t>
@@ -142,7 +133,16 @@
     <t>NC Magra</t>
   </si>
   <si>
+    <t>US Biskra</t>
+  </si>
+  <si>
+    <t>ES Setif</t>
+  </si>
+  <si>
     <t>CR Belouizdad</t>
+  </si>
+  <si>
+    <t>MC Oran</t>
   </si>
   <si>
     <t>MC Alger</t>
@@ -154,10 +154,10 @@
     <t>US Souf</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC181"/>
+  <dimension ref="A1:AC185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6687019</v>
+        <v>6687020</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,73 +634,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
       <c r="K2">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="L2">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M2">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N2">
+        <v>1.666</v>
+      </c>
+      <c r="O2">
         <v>3</v>
       </c>
-      <c r="O2">
-        <v>2.9</v>
-      </c>
       <c r="P2">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>1.75</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6687020</v>
+        <v>6687019</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,73 +723,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
       <c r="K3">
-        <v>1.666</v>
+        <v>3.1</v>
       </c>
       <c r="L3">
+        <v>2.8</v>
+      </c>
+      <c r="M3">
+        <v>2.4</v>
+      </c>
+      <c r="N3">
         <v>3</v>
       </c>
-      <c r="M3">
-        <v>6</v>
-      </c>
-      <c r="N3">
-        <v>1.666</v>
-      </c>
       <c r="O3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T3">
         <v>1.75</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W3">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
+        <v>0.75</v>
+      </c>
+      <c r="AB3">
         <v>0.8</v>
       </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>0.475</v>
-      </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6687390</v>
+        <v>6687387</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,73 +812,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
+        <v>1.5</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>6.5</v>
+      </c>
+      <c r="N4">
+        <v>1.5</v>
+      </c>
+      <c r="O4">
+        <v>3.6</v>
+      </c>
+      <c r="P4">
+        <v>6.5</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
         <v>1.95</v>
       </c>
-      <c r="L4">
-        <v>2.875</v>
-      </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>2.05</v>
-      </c>
-      <c r="O4">
-        <v>2.9</v>
-      </c>
-      <c r="P4">
-        <v>3.8</v>
-      </c>
-      <c r="Q4">
-        <v>-0.5</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6687389</v>
+        <v>6687391</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,55 +901,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>1.363</v>
+        <v>1.444</v>
       </c>
       <c r="L5">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O5">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -958,16 +958,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6687387</v>
+        <v>6687390</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,73 +990,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6">
+        <v>1.95</v>
+      </c>
+      <c r="L6">
+        <v>2.875</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>2.05</v>
+      </c>
+      <c r="O6">
+        <v>2.9</v>
+      </c>
+      <c r="P6">
+        <v>3.8</v>
+      </c>
+      <c r="Q6">
+        <v>-0.5</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
+        <v>1.75</v>
+      </c>
+      <c r="U6">
+        <v>1.8</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>1.9</v>
+      </c>
+      <c r="Y6">
+        <v>-1</v>
+      </c>
+      <c r="Z6">
+        <v>-1</v>
+      </c>
+      <c r="AA6">
+        <v>0.8</v>
+      </c>
+      <c r="AB6">
+        <v>-1</v>
+      </c>
+      <c r="AC6">
         <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6">
-        <v>1.5</v>
-      </c>
-      <c r="L6">
-        <v>3.6</v>
-      </c>
-      <c r="M6">
-        <v>6.5</v>
-      </c>
-      <c r="N6">
-        <v>1.5</v>
-      </c>
-      <c r="O6">
-        <v>3.6</v>
-      </c>
-      <c r="P6">
-        <v>6.5</v>
-      </c>
-      <c r="Q6">
-        <v>-1</v>
-      </c>
-      <c r="R6">
-        <v>1.95</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>2.025</v>
-      </c>
-      <c r="V6">
-        <v>1.775</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>5.5</v>
-      </c>
-      <c r="Z6">
-        <v>-1</v>
-      </c>
-      <c r="AA6">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AB6">
-        <v>-1</v>
-      </c>
-      <c r="AC6">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6687391</v>
+        <v>6687389</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,52 +1082,52 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M7">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N7">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P7">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q7">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R7">
+        <v>1.875</v>
+      </c>
+      <c r="S7">
+        <v>1.925</v>
+      </c>
+      <c r="T7">
+        <v>2.5</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+      <c r="V7">
         <v>1.8</v>
       </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>1.9</v>
-      </c>
-      <c r="V7">
-        <v>1.9</v>
-      </c>
       <c r="W7">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1136,16 +1136,16 @@
         <v>-1</v>
       </c>
       <c r="Z7">
+        <v>0.875</v>
+      </c>
+      <c r="AA7">
+        <v>-1</v>
+      </c>
+      <c r="AB7">
+        <v>-1</v>
+      </c>
+      <c r="AC7">
         <v>0.8</v>
-      </c>
-      <c r="AA7">
-        <v>-1</v>
-      </c>
-      <c r="AB7">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC7">
-        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8">
         <v>1.444</v>
@@ -1257,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>1.909</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>2.375</v>
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6765585</v>
+        <v>6765584</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,46 +1524,46 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L12">
         <v>2.8</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12">
         <v>2.05</v>
       </c>
       <c r="O12">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S12">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T12">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
         <v>1.875</v>
@@ -1572,25 +1572,25 @@
         <v>1.925</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X12">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA12">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6765588</v>
+        <v>6765583</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1616,70 +1616,70 @@
         <v>34</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M13">
-        <v>4.2</v>
+        <v>2.55</v>
       </c>
       <c r="N13">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q13">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S13">
-        <v>1.775</v>
+        <v>2.075</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC13">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1702,7 +1702,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1711,7 +1711,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K14">
         <v>1.7</v>
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6765584</v>
+        <v>6765588</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,73 +1791,73 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L15">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T15">
         <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6765583</v>
+        <v>6765522</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,55 +1880,55 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>2.8</v>
+        <v>1.363</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>2.55</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R16">
-        <v>1.725</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>2.075</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V16">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1937,16 +1937,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB16">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6765522</v>
+        <v>6765585</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,37 +1969,37 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="L17">
+        <v>2.8</v>
+      </c>
+      <c r="M17">
         <v>4</v>
       </c>
-      <c r="M17">
-        <v>8</v>
-      </c>
       <c r="N17">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="P17">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
         <v>1.75</v>
@@ -2008,34 +2008,34 @@
         <v>2.05</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V17">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W17">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC17">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2144,10 +2144,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6744018</v>
+        <v>6743977</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,76 +2233,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
         <v>38</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K20">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L20">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N20">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O20">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P20">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T20">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB20">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6743989</v>
+        <v>6743297</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,58 +2322,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M21">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="N21">
-        <v>1.5</v>
+        <v>1.166</v>
       </c>
       <c r="O21">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P21">
-        <v>5.5</v>
+        <v>17</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R21">
+        <v>1.825</v>
+      </c>
+      <c r="S21">
         <v>1.975</v>
       </c>
-      <c r="S21">
+      <c r="T21">
+        <v>2.5</v>
+      </c>
+      <c r="U21">
         <v>1.825</v>
       </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
+      <c r="V21">
         <v>1.975</v>
       </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
       <c r="W21">
-        <v>0.5</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2382,16 +2382,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
+        <v>-1</v>
+      </c>
+      <c r="AC21">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC21">
-        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6743978</v>
+        <v>6744005</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,58 +2411,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="L22">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N22">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O22">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="P22">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="Q22">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R22">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S22">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U22">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
-        <v>1.1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2471,16 +2471,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB22">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6744005</v>
+        <v>6743978</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,58 +2500,58 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K23">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M23">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="P23">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q23">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
+        <v>1.825</v>
+      </c>
+      <c r="S23">
+        <v>1.975</v>
+      </c>
+      <c r="T23">
+        <v>1.75</v>
+      </c>
+      <c r="U23">
+        <v>1.75</v>
+      </c>
+      <c r="V23">
         <v>2.05</v>
       </c>
-      <c r="S23">
-        <v>1.75</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
       <c r="W23">
-        <v>0.3999999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2560,16 +2560,16 @@
         <v>-1</v>
       </c>
       <c r="Z23">
+        <v>0.825</v>
+      </c>
+      <c r="AA23">
+        <v>-1</v>
+      </c>
+      <c r="AB23">
+        <v>0.375</v>
+      </c>
+      <c r="AC23">
         <v>-0.5</v>
-      </c>
-      <c r="AA23">
-        <v>0.375</v>
-      </c>
-      <c r="AB23">
-        <v>-1</v>
-      </c>
-      <c r="AC23">
-        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2577,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6743977</v>
+        <v>6743989</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2589,76 +2589,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>1.444</v>
+        <v>1.666</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="N24">
-        <v>1.363</v>
+        <v>1.5</v>
       </c>
       <c r="O24">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P24">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="Q24">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X24">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6743297</v>
+        <v>6744018</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,49 +2678,49 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
+        <v>2.875</v>
+      </c>
+      <c r="M25">
+        <v>3.2</v>
+      </c>
+      <c r="N25">
+        <v>1.85</v>
+      </c>
+      <c r="O25">
+        <v>2.9</v>
+      </c>
+      <c r="P25">
         <v>4.5</v>
       </c>
-      <c r="M25">
-        <v>9</v>
-      </c>
-      <c r="N25">
-        <v>1.166</v>
-      </c>
-      <c r="O25">
-        <v>6</v>
-      </c>
-      <c r="P25">
-        <v>17</v>
-      </c>
       <c r="Q25">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U25">
         <v>1.825</v>
@@ -2729,7 +2729,7 @@
         <v>1.975</v>
       </c>
       <c r="W25">
-        <v>0.1659999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2738,16 +2738,16 @@
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6872727</v>
+        <v>6872724</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,49 +2767,49 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
       </c>
       <c r="K26">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="L26">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="N26">
         <v>1.65</v>
       </c>
       <c r="O26">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q26">
         <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U26">
         <v>1.75</v>
@@ -2818,25 +2818,25 @@
         <v>2.05</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA26">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6872724</v>
+        <v>6872726</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,76 +2856,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K27">
-        <v>1.55</v>
+        <v>1.85</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>6.5</v>
+        <v>4.2</v>
       </c>
       <c r="N27">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P27">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>1.925</v>
+      </c>
+      <c r="S27">
+        <v>1.875</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>1.8</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
         <v>1.9</v>
       </c>
-      <c r="S27">
-        <v>1.9</v>
-      </c>
-      <c r="T27">
-        <v>1.75</v>
-      </c>
-      <c r="U27">
-        <v>1.75</v>
-      </c>
-      <c r="V27">
-        <v>2.05</v>
-      </c>
-      <c r="W27">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="X27">
-        <v>-1</v>
-      </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6872721</v>
+        <v>6872725</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,58 +2945,58 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
         <v>33</v>
       </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K28">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N28">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O28">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P28">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q28">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R28">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S28">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W28">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -3005,13 +3005,13 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC28">
         <v>-1</v>
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6872725</v>
+        <v>6872723</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,13 +3034,13 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F29" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3049,61 +3049,61 @@
         <v>47</v>
       </c>
       <c r="K29">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L29">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M29">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="N29">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q29">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V29">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6872726</v>
+        <v>6872721</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,61 +3123,61 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K30">
-        <v>1.85</v>
+        <v>1.444</v>
       </c>
       <c r="L30">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
+        <v>7</v>
+      </c>
+      <c r="N30">
+        <v>1.363</v>
+      </c>
+      <c r="O30">
         <v>4.2</v>
       </c>
-      <c r="N30">
-        <v>2.2</v>
-      </c>
-      <c r="O30">
-        <v>2.9</v>
-      </c>
       <c r="P30">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q30">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
+        <v>2.025</v>
+      </c>
+      <c r="S30">
+        <v>1.775</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+      <c r="U30">
         <v>1.925</v>
       </c>
-      <c r="S30">
+      <c r="V30">
         <v>1.875</v>
       </c>
-      <c r="T30">
-        <v>2</v>
-      </c>
-      <c r="U30">
-        <v>2</v>
-      </c>
-      <c r="V30">
-        <v>1.8</v>
-      </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X30">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
@@ -3186,13 +3186,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.4375</v>
+        <v>0.3875</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC30">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6872723</v>
+        <v>6872727</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,55 +3212,55 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>1.8</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M31">
-        <v>4.333</v>
+        <v>6</v>
       </c>
       <c r="N31">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O31">
         <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q31">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W31">
         <v>-1</v>
@@ -3269,19 +3269,19 @@
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AC31">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3301,7 +3301,7 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3313,7 +3313,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K32">
         <v>1.45</v>
@@ -3378,7 +3378,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6888609</v>
+        <v>6888611</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3390,76 +3390,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N33">
-        <v>1.833</v>
+        <v>1.65</v>
       </c>
       <c r="O33">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q33">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
+        <v>1.9</v>
+      </c>
+      <c r="S33">
+        <v>1.9</v>
+      </c>
+      <c r="T33">
+        <v>2.25</v>
+      </c>
+      <c r="U33">
         <v>2.025</v>
       </c>
-      <c r="S33">
+      <c r="V33">
         <v>1.775</v>
       </c>
-      <c r="T33">
-        <v>2</v>
-      </c>
-      <c r="U33">
-        <v>1.95</v>
-      </c>
-      <c r="V33">
-        <v>1.85</v>
-      </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X33">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC33">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3467,7 +3467,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6888613</v>
+        <v>6888609</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3479,76 +3479,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L34">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="M34">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="N34">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="O34">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="Q34">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R34">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T34">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6888612</v>
+        <v>6888615</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3568,58 +3568,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>1.727</v>
+        <v>3.5</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N35">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O35">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
+        <v>1.775</v>
+      </c>
+      <c r="S35">
+        <v>2.025</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+      <c r="U35">
         <v>1.875</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>1.925</v>
       </c>
-      <c r="T35">
-        <v>1.75</v>
-      </c>
-      <c r="U35">
-        <v>1.9</v>
-      </c>
-      <c r="V35">
-        <v>1.9</v>
-      </c>
       <c r="W35">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3628,16 +3628,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.4375</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3660,7 +3660,7 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3669,7 +3669,7 @@
         <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>1.8</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6888611</v>
+        <v>6888613</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,58 +3746,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L37">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M37">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="N37">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O37">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q37">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T37">
         <v>2.25</v>
       </c>
       <c r="U37">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W37">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3806,13 +3806,13 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB37">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
         <v>-1</v>
@@ -3823,7 +3823,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6888615</v>
+        <v>6888612</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,76 +3835,76 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>3.5</v>
+        <v>1.727</v>
       </c>
       <c r="L38">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="N38">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q38">
+        <v>-0.75</v>
+      </c>
+      <c r="R38">
+        <v>1.875</v>
+      </c>
+      <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
+        <v>1.75</v>
+      </c>
+      <c r="U38">
+        <v>1.9</v>
+      </c>
+      <c r="V38">
+        <v>1.9</v>
+      </c>
+      <c r="W38">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>0.4375</v>
+      </c>
+      <c r="AA38">
         <v>-0.5</v>
       </c>
-      <c r="R38">
-        <v>1.775</v>
-      </c>
-      <c r="S38">
-        <v>2.025</v>
-      </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>1.875</v>
-      </c>
-      <c r="V38">
-        <v>1.925</v>
-      </c>
-      <c r="W38">
-        <v>0.7</v>
-      </c>
-      <c r="X38">
-        <v>-1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA38">
-        <v>-1</v>
-      </c>
       <c r="AB38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3924,10 +3924,10 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3936,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
         <v>1.25</v>
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6913588</v>
+        <v>6913587</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,76 +4013,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>46</v>
       </c>
       <c r="K40">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
+        <v>1.925</v>
+      </c>
+      <c r="S40">
+        <v>1.875</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>1.9</v>
+      </c>
+      <c r="V40">
+        <v>1.9</v>
+      </c>
+      <c r="W40">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X40">
+        <v>-1</v>
+      </c>
+      <c r="Y40">
+        <v>-1</v>
+      </c>
+      <c r="Z40">
+        <v>0.4625</v>
+      </c>
+      <c r="AA40">
         <v>-0.5</v>
       </c>
-      <c r="R40">
-        <v>1.95</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
-      </c>
-      <c r="T40">
-        <v>2.5</v>
-      </c>
-      <c r="U40">
-        <v>2</v>
-      </c>
-      <c r="V40">
-        <v>1.8</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
-      <c r="X40">
-        <v>-1</v>
-      </c>
-      <c r="Y40">
-        <v>2.6</v>
-      </c>
-      <c r="Z40">
-        <v>-1</v>
-      </c>
-      <c r="AA40">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6913587</v>
+        <v>6913588</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4102,76 +4102,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="s">
         <v>47</v>
       </c>
       <c r="K41">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N41">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V41">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W41">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z41">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC41">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7130198</v>
+        <v>7129059</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4191,10 +4191,10 @@
         <v>45184.5</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4203,46 +4203,46 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K42">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N42">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O42">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
+        <v>1.975</v>
+      </c>
+      <c r="S42">
         <v>1.825</v>
       </c>
-      <c r="S42">
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
         <v>1.975</v>
       </c>
-      <c r="T42">
-        <v>2</v>
-      </c>
-      <c r="U42">
-        <v>1.925</v>
-      </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4251,16 +4251,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7129059</v>
+        <v>7130198</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,10 +4280,10 @@
         <v>45184.5</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4292,46 +4292,46 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L43">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M43">
+        <v>5</v>
+      </c>
+      <c r="N43">
+        <v>1.6</v>
+      </c>
+      <c r="O43">
         <v>3.4</v>
       </c>
-      <c r="N43">
-        <v>2.2</v>
-      </c>
-      <c r="O43">
-        <v>3.2</v>
-      </c>
       <c r="P43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q43">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R43">
+        <v>1.825</v>
+      </c>
+      <c r="S43">
         <v>1.975</v>
       </c>
-      <c r="S43">
-        <v>1.825</v>
-      </c>
       <c r="T43">
         <v>2</v>
       </c>
       <c r="U43">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4369,10 +4369,10 @@
         <v>45184.625</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4381,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>1.6</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7130200</v>
+        <v>7130570</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45185.5</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>46</v>
       </c>
       <c r="K45">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="L45">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M45">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N45">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O45">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P45">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q45">
+        <v>-1.5</v>
+      </c>
+      <c r="R45">
+        <v>1.925</v>
+      </c>
+      <c r="S45">
+        <v>1.875</v>
+      </c>
+      <c r="T45">
+        <v>2.25</v>
+      </c>
+      <c r="U45">
+        <v>1.85</v>
+      </c>
+      <c r="V45">
+        <v>1.95</v>
+      </c>
+      <c r="W45">
         <v>0.25</v>
       </c>
-      <c r="R45">
-        <v>1.9</v>
-      </c>
-      <c r="S45">
-        <v>1.9</v>
-      </c>
-      <c r="T45">
-        <v>1.75</v>
-      </c>
-      <c r="U45">
-        <v>1.875</v>
-      </c>
-      <c r="V45">
-        <v>1.925</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA45">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7130570</v>
+        <v>7130200</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45185.5</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>47</v>
       </c>
       <c r="K46">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="L46">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M46">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N46">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O46">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P46">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q46">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
+        <v>1.9</v>
+      </c>
+      <c r="S46">
+        <v>1.9</v>
+      </c>
+      <c r="T46">
+        <v>1.75</v>
+      </c>
+      <c r="U46">
+        <v>1.875</v>
+      </c>
+      <c r="V46">
         <v>1.925</v>
       </c>
-      <c r="S46">
-        <v>1.875</v>
-      </c>
-      <c r="T46">
-        <v>2.25</v>
-      </c>
-      <c r="U46">
-        <v>1.85</v>
-      </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
       <c r="W46">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB46">
+        <v>-1</v>
+      </c>
+      <c r="AC46">
         <v>0.925</v>
-      </c>
-      <c r="AA46">
-        <v>-1</v>
-      </c>
-      <c r="AB46">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC46">
-        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47">
         <v>1.615</v>
@@ -4728,7 +4728,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4814,7 +4814,7 @@
         <v>45191.5</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G49" t="s">
         <v>43</v>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K49">
         <v>1.95</v>
@@ -4903,10 +4903,10 @@
         <v>45191.625</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -4992,10 +4992,10 @@
         <v>45192.5</v>
       </c>
       <c r="F51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5004,7 +5004,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K51">
         <v>1.333</v>
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7230933</v>
+        <v>7230931</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5081,49 +5081,49 @@
         <v>45192.625</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K52">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L52">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="N52">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O52">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R52">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S52">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U52">
         <v>1.825</v>
@@ -5132,7 +5132,7 @@
         <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.8</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5141,7 +5141,7 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -5170,7 +5170,7 @@
         <v>45192.625</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s">
         <v>36</v>
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7230931</v>
+        <v>7230933</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,49 +5259,49 @@
         <v>45192.625</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
+        <v>3.75</v>
+      </c>
+      <c r="N54">
+        <v>1.8</v>
+      </c>
+      <c r="O54">
+        <v>3</v>
+      </c>
+      <c r="P54">
         <v>4.5</v>
       </c>
-      <c r="N54">
-        <v>1.65</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
-      <c r="P54">
-        <v>5.25</v>
-      </c>
       <c r="Q54">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U54">
         <v>1.825</v>
@@ -5310,7 +5310,7 @@
         <v>1.975</v>
       </c>
       <c r="W54">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5319,7 +5319,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5348,7 +5348,7 @@
         <v>45196.5</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5360,7 +5360,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K55">
         <v>1.8</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7230948</v>
+        <v>7230936</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,10 +5437,10 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5449,46 +5449,46 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L56">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="N56">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O56">
         <v>3</v>
       </c>
       <c r="P56">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T56">
         <v>1.75</v>
       </c>
       <c r="U56">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V56">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W56">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5497,13 +5497,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7230936</v>
+        <v>7230934</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,34 +5526,34 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G57" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L57">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P57">
         <v>3.75</v>
@@ -5562,40 +5562,40 @@
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
         <v>1.75</v>
       </c>
       <c r="U57">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W57">
+        <v>-1</v>
+      </c>
+      <c r="X57">
+        <v>1.9</v>
+      </c>
+      <c r="Y57">
+        <v>-1</v>
+      </c>
+      <c r="Z57">
+        <v>-0.5</v>
+      </c>
+      <c r="AA57">
+        <v>0.5125</v>
+      </c>
+      <c r="AB57">
+        <v>-1</v>
+      </c>
+      <c r="AC57">
         <v>1</v>
-      </c>
-      <c r="X57">
-        <v>-1</v>
-      </c>
-      <c r="Y57">
-        <v>-1</v>
-      </c>
-      <c r="Z57">
-        <v>0.8</v>
-      </c>
-      <c r="AA57">
-        <v>-1</v>
-      </c>
-      <c r="AB57">
-        <v>0.825</v>
-      </c>
-      <c r="AC57">
-        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5603,7 +5603,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7230934</v>
+        <v>7230948</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,76 +5615,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F58" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>3.2</v>
       </c>
       <c r="L58">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="M58">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="O58">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
         <v>1.75</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X58">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AA58">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC58">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>1.333</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,10 +5793,10 @@
         <v>45199.625</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5805,28 +5805,28 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L60">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N60">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P60">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q60">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R60">
         <v>1.95</v>
@@ -5835,16 +5835,16 @@
         <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5853,16 +5853,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,10 +5882,10 @@
         <v>45199.625</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5894,28 +5894,28 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K61">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L61">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M61">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P61">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q61">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R61">
         <v>1.95</v>
@@ -5924,16 +5924,16 @@
         <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U61">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V61">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W61">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA61">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>43</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H62">
         <v>5</v>
@@ -5983,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K62">
         <v>1.727</v>
@@ -6060,7 +6060,7 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F63" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>36</v>
@@ -6072,7 +6072,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
         <v>1.571</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7230940</v>
+        <v>7230941</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,76 +6149,76 @@
         <v>45205.625</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L64">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M64">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R64">
+        <v>1.825</v>
+      </c>
+      <c r="S64">
         <v>1.975</v>
       </c>
-      <c r="S64">
-        <v>1.825</v>
-      </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y64">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,7 +6226,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7230941</v>
+        <v>7230940</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6238,76 +6238,76 @@
         <v>45205.625</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K65">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L65">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M65">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N65">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P65">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
+        <v>1.975</v>
+      </c>
+      <c r="S65">
         <v>1.825</v>
       </c>
-      <c r="S65">
-        <v>1.975</v>
-      </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6339,7 +6339,7 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K66">
         <v>1.909</v>
@@ -6416,10 +6416,10 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6428,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>1.8</v>
@@ -6505,10 +6505,10 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6517,7 +6517,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>1.5</v>
@@ -6594,7 +6594,7 @@
         <v>45206.625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6606,7 +6606,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>1.533</v>
@@ -6686,7 +6686,7 @@
         <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K70">
         <v>3.5</v>
@@ -6775,7 +6775,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6784,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>1.833</v>
@@ -6864,7 +6864,7 @@
         <v>45</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6873,7 +6873,7 @@
         <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72">
         <v>3.1</v>
@@ -6950,10 +6950,10 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -6962,7 +6962,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
         <v>1.4</v>
@@ -7039,10 +7039,10 @@
         <v>45240.48958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
         <v>1.909</v>
@@ -7131,7 +7131,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7140,7 +7140,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>3</v>
@@ -7217,7 +7217,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>44</v>
@@ -7229,7 +7229,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>1.571</v>
@@ -7306,7 +7306,7 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
         <v>39</v>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K77">
         <v>1.444</v>
@@ -7395,7 +7395,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>43</v>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7487,7 +7487,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7573,10 +7573,10 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80">
         <v>2.7</v>
@@ -7662,7 +7662,7 @@
         <v>45244.625</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
         <v>1.727</v>
@@ -7751,10 +7751,10 @@
         <v>45247.47569444445</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
         <v>1.4</v>
@@ -7840,7 +7840,7 @@
         <v>45247.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G83" t="s">
         <v>45</v>
@@ -7852,7 +7852,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>1.571</v>
@@ -7929,10 +7929,10 @@
         <v>45247.53125</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>2</v>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K85">
         <v>1.533</v>
@@ -8110,7 +8110,7 @@
         <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8119,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K86">
         <v>2.6</v>
@@ -8196,10 +8196,10 @@
         <v>45248.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G87" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8208,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>1.833</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K88">
         <v>1.8</v>
@@ -8374,10 +8374,10 @@
         <v>45249.625</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8386,7 +8386,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>1.363</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7480684</v>
+        <v>7480688</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>48</v>
       </c>
       <c r="K90">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L90">
+        <v>3.2</v>
+      </c>
+      <c r="M90">
+        <v>4.75</v>
+      </c>
+      <c r="N90">
+        <v>1.95</v>
+      </c>
+      <c r="O90">
         <v>3</v>
-      </c>
-      <c r="M90">
-        <v>4.25</v>
-      </c>
-      <c r="N90">
-        <v>2</v>
-      </c>
-      <c r="O90">
-        <v>2.9</v>
       </c>
       <c r="P90">
         <v>3.8</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U90">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7480688</v>
+        <v>7480684</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
         <v>48</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L91">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M91">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="N91">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P91">
         <v>3.8</v>
       </c>
       <c r="Q91">
+        <v>-0.25</v>
+      </c>
+      <c r="R91">
+        <v>1.75</v>
+      </c>
+      <c r="S91">
+        <v>2.05</v>
+      </c>
+      <c r="T91">
+        <v>1.75</v>
+      </c>
+      <c r="U91">
+        <v>1.75</v>
+      </c>
+      <c r="V91">
+        <v>2.05</v>
+      </c>
+      <c r="W91">
+        <v>-1</v>
+      </c>
+      <c r="X91">
+        <v>1.9</v>
+      </c>
+      <c r="Y91">
+        <v>-1</v>
+      </c>
+      <c r="Z91">
         <v>-0.5</v>
       </c>
-      <c r="R91">
-        <v>1.975</v>
-      </c>
-      <c r="S91">
-        <v>1.825</v>
-      </c>
-      <c r="T91">
-        <v>2</v>
-      </c>
-      <c r="U91">
-        <v>1.925</v>
-      </c>
-      <c r="V91">
-        <v>1.875</v>
-      </c>
-      <c r="W91">
-        <v>-1</v>
-      </c>
-      <c r="X91">
-        <v>2</v>
-      </c>
-      <c r="Y91">
-        <v>-1</v>
-      </c>
-      <c r="Z91">
-        <v>-1</v>
-      </c>
       <c r="AA91">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC91">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8641,7 +8641,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
         <v>44</v>
@@ -8730,7 +8730,7 @@
         <v>45255.53125</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>39</v>
@@ -8822,7 +8822,7 @@
         <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8831,7 +8831,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.727</v>
@@ -8908,10 +8908,10 @@
         <v>45261.46875</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>1.571</v>
@@ -9000,7 +9000,7 @@
         <v>43</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>1.4</v>
@@ -9086,10 +9086,10 @@
         <v>45261.58333333334</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9098,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>1.5</v>
@@ -9175,7 +9175,7 @@
         <v>45262.53125</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K98">
         <v>1.25</v>
@@ -9267,7 +9267,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9353,10 +9353,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K100">
         <v>1.727</v>
@@ -9445,7 +9445,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9454,7 +9454,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>1.571</v>
@@ -9531,10 +9531,10 @@
         <v>45268.46875</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>2.5</v>
@@ -9620,7 +9620,7 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
         <v>44</v>
@@ -9632,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>1.533</v>
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7537791</v>
+        <v>7537790</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,76 +9709,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K104">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L104">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N104">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="O104">
         <v>2.875</v>
       </c>
       <c r="P104">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="U104">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V104">
+        <v>1.825</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
         <v>1.875</v>
       </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
       <c r="Y104">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7537790</v>
+        <v>7537791</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,76 +9798,76 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K105">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M105">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N105">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O105">
         <v>2.875</v>
       </c>
       <c r="P105">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S105">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T105">
         <v>2</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>45269.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
         <v>39</v>
@@ -9964,7 +9964,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7567876</v>
+        <v>7567197</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,10 +9976,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F107" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -9991,61 +9991,61 @@
         <v>48</v>
       </c>
       <c r="K107">
-        <v>4.75</v>
+        <v>2</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M107">
-        <v>1.727</v>
+        <v>3.6</v>
       </c>
       <c r="N107">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="O107">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P107">
-        <v>1.65</v>
+        <v>3.5</v>
       </c>
       <c r="Q107">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
+        <v>1.825</v>
+      </c>
+      <c r="S107">
         <v>1.975</v>
       </c>
-      <c r="S107">
-        <v>1.825</v>
-      </c>
       <c r="T107">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="Y107">
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10053,7 +10053,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7567197</v>
+        <v>7567876</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10065,10 +10065,10 @@
         <v>45275.46875</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10080,61 +10080,61 @@
         <v>48</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>4.75</v>
       </c>
       <c r="L108">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M108">
-        <v>3.6</v>
+        <v>1.727</v>
       </c>
       <c r="N108">
+        <v>6</v>
+      </c>
+      <c r="O108">
+        <v>3.1</v>
+      </c>
+      <c r="P108">
+        <v>1.65</v>
+      </c>
+      <c r="Q108">
+        <v>0.75</v>
+      </c>
+      <c r="R108">
+        <v>1.975</v>
+      </c>
+      <c r="S108">
+        <v>1.825</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
+        <v>1.8</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
         <v>2.1</v>
       </c>
-      <c r="O108">
-        <v>2.9</v>
-      </c>
-      <c r="P108">
-        <v>3.5</v>
-      </c>
-      <c r="Q108">
-        <v>-0.25</v>
-      </c>
-      <c r="R108">
-        <v>1.825</v>
-      </c>
-      <c r="S108">
-        <v>1.975</v>
-      </c>
-      <c r="T108">
-        <v>1.75</v>
-      </c>
-      <c r="U108">
-        <v>1.85</v>
-      </c>
-      <c r="V108">
-        <v>1.95</v>
-      </c>
-      <c r="W108">
-        <v>-1</v>
-      </c>
-      <c r="X108">
-        <v>1.9</v>
-      </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA108">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10154,10 +10154,10 @@
         <v>45275.53125</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K109">
         <v>1.533</v>
@@ -10243,10 +10243,10 @@
         <v>45275.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -10335,7 +10335,7 @@
         <v>45</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -10344,7 +10344,7 @@
         <v>3</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
         <v>3.75</v>
@@ -10424,7 +10424,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10433,7 +10433,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>1.5</v>
@@ -10513,7 +10513,7 @@
         <v>43</v>
       </c>
       <c r="G113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>1.363</v>
@@ -10599,7 +10599,7 @@
         <v>45276.625</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
         <v>39</v>
@@ -10611,7 +10611,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K114">
         <v>2.1</v>
@@ -10688,10 +10688,10 @@
         <v>45288.625</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10700,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>1.7</v>
@@ -10765,7 +10765,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7624516</v>
+        <v>7624517</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10777,76 +10777,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K116">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L116">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="M116">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="N116">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O116">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P116">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q116">
+        <v>-0.25</v>
+      </c>
+      <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
+        <v>2</v>
+      </c>
+      <c r="T116">
+        <v>1.75</v>
+      </c>
+      <c r="U116">
+        <v>1.825</v>
+      </c>
+      <c r="V116">
+        <v>1.975</v>
+      </c>
+      <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>1.8</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
         <v>-0.5</v>
       </c>
-      <c r="R116">
-        <v>1.85</v>
-      </c>
-      <c r="S116">
-        <v>1.95</v>
-      </c>
-      <c r="T116">
-        <v>2</v>
-      </c>
-      <c r="U116">
-        <v>2</v>
-      </c>
-      <c r="V116">
-        <v>1.8</v>
-      </c>
-      <c r="W116">
-        <v>0.833</v>
-      </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB116">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10866,7 +10866,7 @@
         <v>45289.46875</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G117" t="s">
         <v>45</v>
@@ -10878,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K117">
         <v>1.4</v>
@@ -10943,7 +10943,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7624517</v>
+        <v>7624516</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10955,76 +10955,76 @@
         <v>45289.46875</v>
       </c>
       <c r="F118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L118">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="M118">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O118">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
+        <v>1.95</v>
+      </c>
+      <c r="T118">
+        <v>2</v>
+      </c>
+      <c r="U118">
+        <v>2</v>
+      </c>
+      <c r="V118">
         <v>1.8</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
-      <c r="T118">
-        <v>1.75</v>
-      </c>
-      <c r="U118">
-        <v>1.825</v>
-      </c>
-      <c r="V118">
-        <v>1.975</v>
-      </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X118">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA118">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11044,10 +11044,10 @@
         <v>45289.5</v>
       </c>
       <c r="F119" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11056,7 +11056,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>1.45</v>
@@ -11121,7 +11121,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7624597</v>
+        <v>7624498</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11133,76 +11133,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="s">
         <v>48</v>
       </c>
       <c r="K120">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="M120">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N120">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O120">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P120">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S120">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11210,7 +11210,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7624498</v>
+        <v>7624597</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11222,76 +11222,76 @@
         <v>45289.58333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
       </c>
       <c r="K121">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="L121">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N121">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O121">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P121">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q121">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T121">
         <v>2</v>
       </c>
       <c r="U121">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA121">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11314,7 +11314,7 @@
         <v>45</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -11323,7 +11323,7 @@
         <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>3</v>
@@ -11388,7 +11388,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7624664</v>
+        <v>7656900</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,13 +11400,13 @@
         <v>45296.46875</v>
       </c>
       <c r="F123" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -11415,61 +11415,61 @@
         <v>47</v>
       </c>
       <c r="K123">
-        <v>2.2</v>
+        <v>1.833</v>
       </c>
       <c r="L123">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N123">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="O123">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11477,7 +11477,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7656900</v>
+        <v>7624664</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,13 +11489,13 @@
         <v>45296.46875</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -11504,61 +11504,61 @@
         <v>46</v>
       </c>
       <c r="K124">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M124">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N124">
-        <v>2.875</v>
+        <v>2.4</v>
       </c>
       <c r="O124">
+        <v>2.7</v>
+      </c>
+      <c r="P124">
         <v>3</v>
       </c>
-      <c r="P124">
-        <v>2.625</v>
-      </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA124">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11578,7 +11578,7 @@
         <v>45296.48958333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
         <v>35</v>
@@ -11590,7 +11590,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>2.25</v>
@@ -11667,7 +11667,7 @@
         <v>45296.60416666666</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
         <v>39</v>
@@ -11759,7 +11759,7 @@
         <v>36</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -11768,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K127">
         <v>1.727</v>
@@ -11848,7 +11848,7 @@
         <v>43</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -11934,10 +11934,10 @@
         <v>45300.625</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -11946,7 +11946,7 @@
         <v>3</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K129">
         <v>2.5</v>
@@ -12023,10 +12023,10 @@
         <v>45302.53125</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12035,7 +12035,7 @@
         <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K130">
         <v>2.9</v>
@@ -12124,7 +12124,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -12201,10 +12201,10 @@
         <v>45303.46875</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -12290,7 +12290,7 @@
         <v>45304.45833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>45</v>
@@ -12302,7 +12302,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
         <v>1.25</v>
@@ -12382,7 +12382,7 @@
         <v>39</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12468,10 +12468,10 @@
         <v>45304.53125</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -12480,7 +12480,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>1.85</v>
@@ -12557,7 +12557,7 @@
         <v>45304.58333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
         <v>44</v>
@@ -12646,7 +12646,7 @@
         <v>45305.625</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G137" t="s">
         <v>43</v>
@@ -12738,7 +12738,7 @@
         <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12747,7 +12747,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>1.45</v>
@@ -12812,7 +12812,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7567342</v>
+        <v>7567341</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12824,76 +12824,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L139">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="N139">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O139">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="P139">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R139">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="S139">
-        <v>2.075</v>
+        <v>1.95</v>
       </c>
       <c r="T139">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V139">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB139">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12901,7 +12901,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7567343</v>
+        <v>7567342</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12913,76 +12913,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K140">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="L140">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M140">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N140">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P140">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S140">
-        <v>1.85</v>
+        <v>2.075</v>
       </c>
       <c r="T140">
         <v>1.75</v>
       </c>
       <c r="U140">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V140">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W140">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y140">
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AC140">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12990,7 +12990,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>7567341</v>
+        <v>7567343</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -13002,76 +13002,76 @@
         <v>45310.47916666666</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="s">
         <v>46</v>
       </c>
       <c r="K141">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L141">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M141">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N141">
-        <v>1.615</v>
+        <v>2.15</v>
       </c>
       <c r="O141">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
+        <v>1.95</v>
+      </c>
+      <c r="S141">
         <v>1.85</v>
       </c>
-      <c r="S141">
-        <v>1.95</v>
-      </c>
       <c r="T141">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U141">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
         <v>-1</v>
       </c>
       <c r="AC141">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13091,10 +13091,10 @@
         <v>45310.48958333334</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13183,7 +13183,7 @@
         <v>36</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13192,7 +13192,7 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K143">
         <v>1.8</v>
@@ -13269,7 +13269,7 @@
         <v>45310.53125</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G144" t="s">
         <v>44</v>
@@ -13370,7 +13370,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>1.222</v>
@@ -13459,7 +13459,7 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K146">
         <v>3.9</v>
@@ -13524,7 +13524,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>7624533</v>
+        <v>7590958</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13536,10 +13536,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -13551,31 +13551,31 @@
         <v>48</v>
       </c>
       <c r="K147">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="L147">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="M147">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N147">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2</v>
@@ -13590,16 +13590,16 @@
         <v>-1</v>
       </c>
       <c r="X147">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA147">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB147">
         <v>-1</v>
@@ -13613,7 +13613,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>7590958</v>
+        <v>7624533</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13625,10 +13625,10 @@
         <v>45314.54166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13640,31 +13640,31 @@
         <v>48</v>
       </c>
       <c r="K148">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="L148">
-        <v>2.9</v>
+        <v>3.75</v>
       </c>
       <c r="M148">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N148">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="O148">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="Q148">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T148">
         <v>2</v>
@@ -13679,16 +13679,16 @@
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB148">
         <v>-1</v>
@@ -13714,10 +13714,10 @@
         <v>45317.47916666666</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -13726,7 +13726,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K149">
         <v>1.85</v>
@@ -13803,10 +13803,10 @@
         <v>45317.53125</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13815,7 +13815,7 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K150">
         <v>1.85</v>
@@ -13892,7 +13892,7 @@
         <v>45317.54166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G151" t="s">
         <v>43</v>
@@ -13904,7 +13904,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K151">
         <v>3.5</v>
@@ -13984,7 +13984,7 @@
         <v>44</v>
       </c>
       <c r="G152" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14058,7 +14058,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7680045</v>
+        <v>7680043</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14070,58 +14070,58 @@
         <v>45318.5</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K153">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="L153">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="M153">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="N153">
-        <v>2.05</v>
+        <v>1.222</v>
       </c>
       <c r="O153">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="P153">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R153">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U153">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V153">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W153">
-        <v>1.05</v>
+        <v>0.222</v>
       </c>
       <c r="X153">
         <v>-1</v>
@@ -14130,16 +14130,16 @@
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC153">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14147,7 +14147,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7680043</v>
+        <v>7680045</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14159,58 +14159,58 @@
         <v>45318.5</v>
       </c>
       <c r="F154" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G154" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K154">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="L154">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="M154">
-        <v>10</v>
+        <v>4.2</v>
       </c>
       <c r="N154">
-        <v>1.222</v>
+        <v>2.05</v>
       </c>
       <c r="O154">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="P154">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q154">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R154">
+        <v>1.775</v>
+      </c>
+      <c r="S154">
+        <v>2.025</v>
+      </c>
+      <c r="T154">
+        <v>2</v>
+      </c>
+      <c r="U154">
         <v>1.95</v>
       </c>
-      <c r="S154">
+      <c r="V154">
         <v>1.85</v>
       </c>
-      <c r="T154">
-        <v>2.5</v>
-      </c>
-      <c r="U154">
-        <v>1.925</v>
-      </c>
-      <c r="V154">
-        <v>1.875</v>
-      </c>
       <c r="W154">
-        <v>0.222</v>
+        <v>1.05</v>
       </c>
       <c r="X154">
         <v>-1</v>
@@ -14219,16 +14219,16 @@
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14248,7 +14248,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
         <v>36</v>
@@ -14260,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K155">
         <v>1.727</v>
@@ -14340,7 +14340,7 @@
         <v>35</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H156">
         <v>3</v>
@@ -14349,7 +14349,7 @@
         <v>1</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K156">
         <v>1.5</v>
@@ -14426,11 +14426,11 @@
         <v>45321.58333333334</v>
       </c>
       <c r="F157" t="s">
+        <v>41</v>
+      </c>
+      <c r="G157" t="s">
         <v>42</v>
       </c>
-      <c r="G157" t="s">
-        <v>37</v>
-      </c>
       <c r="H157">
         <v>2</v>
       </c>
@@ -14438,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K157">
         <v>1.5</v>
@@ -14518,7 +14518,7 @@
         <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14527,7 +14527,7 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K158">
         <v>2.1</v>
@@ -14604,10 +14604,10 @@
         <v>45326.47916666666</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -14616,7 +14616,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K159">
         <v>2.9</v>
@@ -14693,10 +14693,10 @@
         <v>45331.48958333334</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14782,10 +14782,10 @@
         <v>45331.53125</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -14794,7 +14794,7 @@
         <v>1</v>
       </c>
       <c r="J161" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K161">
         <v>1.8</v>
@@ -14871,10 +14871,10 @@
         <v>45332.5</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -14883,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K162">
         <v>1.5</v>
@@ -14948,7 +14948,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7768216</v>
+        <v>7768217</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14960,10 +14960,10 @@
         <v>45332.5</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -14972,46 +14972,46 @@
         <v>1</v>
       </c>
       <c r="J163" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K163">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L163">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="M163">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="N163">
-        <v>2.5</v>
+        <v>1.363</v>
       </c>
       <c r="O163">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="P163">
-        <v>3.1</v>
+        <v>9.5</v>
       </c>
       <c r="Q163">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R163">
-        <v>1.7</v>
+        <v>1.925</v>
       </c>
       <c r="S163">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>1.5</v>
+        <v>0.363</v>
       </c>
       <c r="X163">
         <v>-1</v>
@@ -15020,13 +15020,13 @@
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AA163">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB163">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15037,7 +15037,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7768217</v>
+        <v>7768216</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15049,10 +15049,10 @@
         <v>45332.5</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15061,46 +15061,46 @@
         <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K164">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L164">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="M164">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="N164">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="O164">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="P164">
-        <v>9.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q164">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.925</v>
+        <v>1.7</v>
       </c>
       <c r="S164">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T164">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U164">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>0.363</v>
+        <v>1.5</v>
       </c>
       <c r="X164">
         <v>-1</v>
@@ -15109,13 +15109,13 @@
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>-0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AA164">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AC164">
         <v>-1</v>
@@ -15138,7 +15138,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G165" t="s">
         <v>45</v>
@@ -15150,7 +15150,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K165">
         <v>1.166</v>
@@ -15230,7 +15230,7 @@
         <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H166">
         <v>1</v>
@@ -15239,7 +15239,7 @@
         <v>5</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K166">
         <v>1.727</v>
@@ -15316,10 +15316,10 @@
         <v>45337.47916666666</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H167">
         <v>3</v>
@@ -15328,7 +15328,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K167">
         <v>2.15</v>
@@ -15405,10 +15405,10 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15494,7 +15494,7 @@
         <v>45338.47916666666</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G169" t="s">
         <v>35</v>
@@ -15506,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K169">
         <v>2</v>
@@ -15583,7 +15583,7 @@
         <v>45338.53125</v>
       </c>
       <c r="F170" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G170" t="s">
         <v>44</v>
@@ -15595,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="J170" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K170">
         <v>1.571</v>
@@ -15684,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K171">
         <v>4.5</v>
@@ -15764,7 +15764,7 @@
         <v>36</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -15853,7 +15853,7 @@
         <v>43</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -15862,7 +15862,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K173">
         <v>1.571</v>
@@ -15927,7 +15927,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7823447</v>
+        <v>7823443</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15939,76 +15939,76 @@
         <v>45345.5</v>
       </c>
       <c r="F174" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J174" t="s">
         <v>47</v>
       </c>
       <c r="K174">
-        <v>2.875</v>
+        <v>1.8</v>
       </c>
       <c r="L174">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M174">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N174">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O174">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P174">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q174">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R174">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S174">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T174">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U174">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V174">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W174">
+        <v>-1</v>
+      </c>
+      <c r="X174">
+        <v>-1</v>
+      </c>
+      <c r="Y174">
+        <v>4.25</v>
+      </c>
+      <c r="Z174">
+        <v>-1</v>
+      </c>
+      <c r="AA174">
         <v>1</v>
       </c>
-      <c r="X174">
-        <v>-1</v>
-      </c>
-      <c r="Y174">
-        <v>-1</v>
-      </c>
-      <c r="Z174">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA174">
-        <v>-1</v>
-      </c>
       <c r="AB174">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16016,7 +16016,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7823443</v>
+        <v>7823447</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16028,76 +16028,76 @@
         <v>45345.5</v>
       </c>
       <c r="F175" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G175" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="s">
         <v>46</v>
       </c>
       <c r="K175">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="L175">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M175">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="N175">
-        <v>1.615</v>
+        <v>2</v>
       </c>
       <c r="O175">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P175">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q175">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R175">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T175">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U175">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V175">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA175">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC175">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -16117,10 +16117,10 @@
         <v>45346.5</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G176" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -16206,7 +16206,7 @@
         <v>45346.5</v>
       </c>
       <c r="F177" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G177" t="s">
         <v>43</v>
@@ -16295,10 +16295,10 @@
         <v>45346.53125</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H178">
         <v>3</v>
@@ -16307,7 +16307,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K178">
         <v>1.444</v>
@@ -16384,7 +16384,7 @@
         <v>45346.53125</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G179" t="s">
         <v>45</v>
@@ -16396,7 +16396,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K179">
         <v>1.666</v>
@@ -16461,7 +16461,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7883991</v>
+        <v>7883992</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16473,10 +16473,19 @@
         <v>45352.5</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" t="s">
+        <v>48</v>
       </c>
       <c r="K180">
         <v>1.727</v>
@@ -16488,46 +16497,52 @@
         <v>4.5</v>
       </c>
       <c r="N180">
-        <v>1.571</v>
+        <v>2.3</v>
       </c>
       <c r="O180">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="P180">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q180">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S180">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T180">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V180">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X180">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="Y180">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA180">
-        <v>0</v>
+        <v>0.4125</v>
+      </c>
+      <c r="AB180">
+        <v>0.5125</v>
+      </c>
+      <c r="AC180">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16535,7 +16550,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7883992</v>
+        <v>7883993</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16544,63 +16559,359 @@
         <v>28</v>
       </c>
       <c r="E181" s="2">
-        <v>45352.5</v>
+        <v>45353.5</v>
       </c>
       <c r="F181" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G181" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K181">
+        <v>2.4</v>
+      </c>
+      <c r="L181">
+        <v>2.9</v>
+      </c>
+      <c r="M181">
+        <v>2.8</v>
+      </c>
+      <c r="N181">
+        <v>2.45</v>
+      </c>
+      <c r="O181">
+        <v>3</v>
+      </c>
+      <c r="P181">
+        <v>2.625</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>1.85</v>
+      </c>
+      <c r="S181">
+        <v>1.95</v>
+      </c>
+      <c r="T181">
+        <v>2.25</v>
+      </c>
+      <c r="U181">
+        <v>1.85</v>
+      </c>
+      <c r="V181">
+        <v>1.95</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+      <c r="Y181">
+        <v>0</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>7883987</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182" t="s">
+        <v>28</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45353.53125</v>
+      </c>
+      <c r="F182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G182" t="s">
+        <v>30</v>
+      </c>
+      <c r="K182">
+        <v>1.8</v>
+      </c>
+      <c r="L182">
+        <v>3.1</v>
+      </c>
+      <c r="M182">
+        <v>4.5</v>
+      </c>
+      <c r="N182">
+        <v>1.833</v>
+      </c>
+      <c r="O182">
+        <v>3.1</v>
+      </c>
+      <c r="P182">
+        <v>4.333</v>
+      </c>
+      <c r="Q182">
+        <v>-0.5</v>
+      </c>
+      <c r="R182">
+        <v>1.85</v>
+      </c>
+      <c r="S182">
+        <v>1.95</v>
+      </c>
+      <c r="T182">
+        <v>2</v>
+      </c>
+      <c r="U182">
+        <v>2.025</v>
+      </c>
+      <c r="V182">
+        <v>1.775</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+      <c r="Y182">
+        <v>0</v>
+      </c>
+      <c r="Z182">
+        <v>0</v>
+      </c>
+      <c r="AA182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>7883988</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183" t="s">
+        <v>28</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45353.54166666666</v>
+      </c>
+      <c r="F183" t="s">
+        <v>36</v>
+      </c>
+      <c r="G183" t="s">
+        <v>34</v>
+      </c>
+      <c r="K183">
+        <v>2.25</v>
+      </c>
+      <c r="L183">
+        <v>3</v>
+      </c>
+      <c r="M183">
+        <v>3.1</v>
+      </c>
+      <c r="N183">
+        <v>2.1</v>
+      </c>
+      <c r="O183">
+        <v>3</v>
+      </c>
+      <c r="P183">
+        <v>3.4</v>
+      </c>
+      <c r="Q183">
+        <v>-0.25</v>
+      </c>
+      <c r="R183">
+        <v>1.8</v>
+      </c>
+      <c r="S183">
+        <v>2</v>
+      </c>
+      <c r="T183">
+        <v>2</v>
+      </c>
+      <c r="U183">
+        <v>1.9</v>
+      </c>
+      <c r="V183">
+        <v>1.9</v>
+      </c>
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+      <c r="Y183">
+        <v>0</v>
+      </c>
+      <c r="Z183">
+        <v>0</v>
+      </c>
+      <c r="AA183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>7883991</v>
+      </c>
+      <c r="C184" t="s">
+        <v>28</v>
+      </c>
+      <c r="D184" t="s">
+        <v>28</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45353.54166666666</v>
+      </c>
+      <c r="F184" t="s">
+        <v>32</v>
+      </c>
+      <c r="G184" t="s">
+        <v>39</v>
+      </c>
+      <c r="K184">
         <v>1.727</v>
       </c>
-      <c r="L181">
+      <c r="L184">
         <v>3.2</v>
       </c>
-      <c r="M181">
+      <c r="M184">
         <v>4.5</v>
       </c>
-      <c r="N181">
-        <v>1.95</v>
-      </c>
-      <c r="O181">
-        <v>3.1</v>
-      </c>
-      <c r="P181">
+      <c r="N184">
+        <v>1.4</v>
+      </c>
+      <c r="O184">
         <v>3.8</v>
       </c>
-      <c r="Q181">
-        <v>-0.5</v>
-      </c>
-      <c r="R181">
-        <v>2</v>
-      </c>
-      <c r="S181">
+      <c r="P184">
+        <v>7</v>
+      </c>
+      <c r="Q184">
+        <v>-1</v>
+      </c>
+      <c r="R184">
+        <v>1.775</v>
+      </c>
+      <c r="S184">
+        <v>2.025</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
         <v>1.8</v>
       </c>
-      <c r="T181">
+      <c r="V184">
+        <v>2</v>
+      </c>
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+      <c r="Y184">
+        <v>0</v>
+      </c>
+      <c r="Z184">
+        <v>0</v>
+      </c>
+      <c r="AA184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>7883989</v>
+      </c>
+      <c r="C185" t="s">
+        <v>28</v>
+      </c>
+      <c r="D185" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45353.58333333334</v>
+      </c>
+      <c r="F185" t="s">
+        <v>40</v>
+      </c>
+      <c r="G185" t="s">
+        <v>43</v>
+      </c>
+      <c r="K185">
+        <v>2.7</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>2.5</v>
+      </c>
+      <c r="N185">
+        <v>2.875</v>
+      </c>
+      <c r="O185">
+        <v>3</v>
+      </c>
+      <c r="P185">
+        <v>2.375</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>2.05</v>
+      </c>
+      <c r="S185">
         <v>1.75</v>
       </c>
-      <c r="U181">
-        <v>1.75</v>
-      </c>
-      <c r="V181">
-        <v>2.05</v>
-      </c>
-      <c r="W181">
-        <v>0</v>
-      </c>
-      <c r="X181">
-        <v>0</v>
-      </c>
-      <c r="Y181">
-        <v>0</v>
-      </c>
-      <c r="Z181">
-        <v>0</v>
-      </c>
-      <c r="AA181">
+      <c r="T185">
+        <v>2</v>
+      </c>
+      <c r="U185">
+        <v>2.025</v>
+      </c>
+      <c r="V185">
+        <v>1.775</v>
+      </c>
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>0</v>
+      </c>
+      <c r="AA185">
         <v>0</v>
       </c>
     </row>

--- a/Algeria Division 1/Algeria Division 1.xlsx
+++ b/Algeria Division 1/Algeria Division 1.xlsx
@@ -103,7 +103,10 @@
     <t>Algeria Division 1</t>
   </si>
   <si>
-    <t>JS Kabylie</t>
+    <t>Paradou AC</t>
+  </si>
+  <si>
+    <t>USM Khenchela</t>
   </si>
   <si>
     <t>MC El Bayadh</t>
@@ -112,10 +115,7 @@
     <t>ASO Chlef</t>
   </si>
   <si>
-    <t>Paradou AC</t>
-  </si>
-  <si>
-    <t>USM Khenchela</t>
+    <t>JS Kabylie</t>
   </si>
   <si>
     <t>CS Constantine</t>
@@ -127,22 +127,22 @@
     <t>JS Saoura</t>
   </si>
   <si>
-    <t>RC Arba</t>
+    <t>MC Oran</t>
   </si>
   <si>
     <t>NC Magra</t>
   </si>
   <si>
+    <t>ES Setif</t>
+  </si>
+  <si>
     <t>US Biskra</t>
   </si>
   <si>
-    <t>ES Setif</t>
+    <t>RC Arba</t>
   </si>
   <si>
     <t>CR Belouizdad</t>
-  </si>
-  <si>
-    <t>MC Oran</t>
   </si>
   <si>
     <t>MC Alger</t>
@@ -157,10 +157,10 @@
     <t>H</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6687020</v>
+        <v>6687391</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -634,10 +634,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -646,25 +646,25 @@
         <v>46</v>
       </c>
       <c r="K2">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>1.666</v>
+        <v>1.65</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
         <v>1.8</v>
@@ -673,16 +673,16 @@
         <v>2</v>
       </c>
       <c r="T2">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>0.6659999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -697,10 +697,10 @@
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6687019</v>
+        <v>6687390</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -723,43 +723,43 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>47</v>
       </c>
       <c r="K3">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="L3">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
         <v>2.9</v>
       </c>
       <c r="P3">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
         <v>1.75</v>
@@ -774,22 +774,22 @@
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y3">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -797,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6687387</v>
+        <v>6687019</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -812,52 +812,52 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="M4">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P4">
-        <v>6.5</v>
+        <v>2.45</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -866,19 +866,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>5.5</v>
+        <v>1.45</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6687391</v>
+        <v>6687387</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -901,73 +901,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="L5">
         <v>3.6</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="N5">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q5">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W5">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6687390</v>
+        <v>6687020</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -990,73 +990,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L6">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="O6">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T6">
         <v>1.75</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X6">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1079,7 +1079,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1168,7 +1168,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1257,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9">
         <v>1.333</v>
@@ -1509,7 +1509,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6765584</v>
+        <v>6765585</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,46 +1524,46 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>2.8</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>2.05</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="P12">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="Q12">
         <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U12">
         <v>1.875</v>
@@ -1572,25 +1572,25 @@
         <v>1.925</v>
       </c>
       <c r="W12">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB12">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1687,7 +1687,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6765586</v>
+        <v>6765588</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,73 +1702,73 @@
         <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="L14">
         <v>3.2</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.65</v>
+        <v>1.727</v>
       </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q14">
         <v>-0.75</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T14">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1776,7 +1776,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6765588</v>
+        <v>6765586</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,73 +1791,73 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>1.727</v>
+        <v>1.65</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P15">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q15">
         <v>-0.75</v>
       </c>
       <c r="R15">
+        <v>1.925</v>
+      </c>
+      <c r="S15">
+        <v>1.875</v>
+      </c>
+      <c r="T15">
+        <v>1.75</v>
+      </c>
+      <c r="U15">
+        <v>1.775</v>
+      </c>
+      <c r="V15">
         <v>2.025</v>
       </c>
-      <c r="S15">
-        <v>1.775</v>
-      </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA15">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1865,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6765522</v>
+        <v>6765584</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1880,55 +1880,55 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
         <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
       </c>
       <c r="J16" t="s">
         <v>46</v>
       </c>
       <c r="K16">
-        <v>1.363</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N16">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
         <v>2.25</v>
       </c>
       <c r="U16">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="X16">
         <v>-1</v>
@@ -1937,16 +1937,16 @@
         <v>-1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA16">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC16">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6765585</v>
+        <v>6765522</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,37 +1969,37 @@
         <v>42</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1.363</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="O17">
-        <v>2.7</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R17">
         <v>1.75</v>
@@ -2008,34 +2008,34 @@
         <v>2.05</v>
       </c>
       <c r="T17">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X17">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.5249999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2058,7 +2058,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2067,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18">
         <v>1.8</v>
@@ -2132,7 +2132,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6858630</v>
+        <v>6744018</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,76 +2144,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M19">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
-        <v>2.45</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="P19">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q19">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
         <v>1.75</v>
       </c>
       <c r="U19">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X19">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA19">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC19">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6743977</v>
+        <v>6743978</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2233,76 +2233,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K20">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L20">
+        <v>2.9</v>
+      </c>
+      <c r="M20">
         <v>3.6</v>
       </c>
-      <c r="M20">
-        <v>7</v>
-      </c>
       <c r="N20">
-        <v>1.363</v>
+        <v>2.1</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="P20">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q20">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X20">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC20">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6743297</v>
+        <v>6744005</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2325,7 +2325,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2337,43 +2337,43 @@
         <v>46</v>
       </c>
       <c r="K21">
-        <v>1.285</v>
+        <v>1.615</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N21">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P21">
-        <v>17</v>
+        <v>7.5</v>
       </c>
       <c r="Q21">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T21">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.1659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2382,16 +2382,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>0.375</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6744005</v>
+        <v>6743297</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2411,10 +2411,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2426,43 +2426,43 @@
         <v>46</v>
       </c>
       <c r="K22">
-        <v>1.615</v>
+        <v>1.285</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N22">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="P22">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R22">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S22">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W22">
-        <v>0.3999999999999999</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2471,16 +2471,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>0.375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2488,7 +2488,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6743978</v>
+        <v>6858630</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2500,76 +2500,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L23">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O23">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="P23">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="Q23">
         <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>2.075</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T23">
         <v>1.75</v>
       </c>
       <c r="U23">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="V23">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W23">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB23">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,10 +2589,10 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2666,7 +2666,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6744018</v>
+        <v>6743977</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2678,76 +2678,76 @@
         <v>45111.54166666666</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L25">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="N25">
-        <v>1.85</v>
+        <v>1.363</v>
       </c>
       <c r="O25">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P25">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="Q25">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2755,7 +2755,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6872724</v>
+        <v>6872721</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2767,58 +2767,58 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>46</v>
       </c>
       <c r="K26">
-        <v>1.55</v>
+        <v>1.444</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N26">
-        <v>1.65</v>
+        <v>1.363</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="P26">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T26">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>0.6499999999999999</v>
+        <v>0.363</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2827,16 +2827,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.45</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>0.3875</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6872726</v>
+        <v>6872722</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2856,76 +2856,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K27">
+        <v>1.45</v>
+      </c>
+      <c r="L27">
+        <v>3.6</v>
+      </c>
+      <c r="M27">
+        <v>6.5</v>
+      </c>
+      <c r="N27">
         <v>1.85</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>3.1</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>4.2</v>
       </c>
-      <c r="N27">
-        <v>2.2</v>
-      </c>
-      <c r="O27">
-        <v>2.9</v>
-      </c>
-      <c r="P27">
-        <v>3.3</v>
-      </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T27">
         <v>2</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X27">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA27">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6872725</v>
+        <v>6872723</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2945,76 +2945,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>1.285</v>
+        <v>1.8</v>
       </c>
       <c r="L28">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M28">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="N28">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="O28">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P28">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="Q28">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W28">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X28">
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z28">
         <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6872723</v>
+        <v>6872724</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3034,76 +3034,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="L29">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>4.333</v>
+        <v>6.5</v>
       </c>
       <c r="N29">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P29">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
+        <v>-0.75</v>
+      </c>
+      <c r="R29">
+        <v>1.9</v>
+      </c>
+      <c r="S29">
+        <v>1.9</v>
+      </c>
+      <c r="T29">
+        <v>1.75</v>
+      </c>
+      <c r="U29">
+        <v>1.75</v>
+      </c>
+      <c r="V29">
+        <v>2.05</v>
+      </c>
+      <c r="W29">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X29">
+        <v>-1</v>
+      </c>
+      <c r="Y29">
+        <v>-1</v>
+      </c>
+      <c r="Z29">
+        <v>0.45</v>
+      </c>
+      <c r="AA29">
         <v>-0.5</v>
       </c>
-      <c r="R29">
-        <v>1.8</v>
-      </c>
-      <c r="S29">
-        <v>2</v>
-      </c>
-      <c r="T29">
-        <v>2.25</v>
-      </c>
-      <c r="U29">
-        <v>2</v>
-      </c>
-      <c r="V29">
-        <v>1.8</v>
-      </c>
-      <c r="W29">
-        <v>-1</v>
-      </c>
-      <c r="X29">
-        <v>-1</v>
-      </c>
-      <c r="Y29">
-        <v>3.2</v>
-      </c>
-      <c r="Z29">
-        <v>-1</v>
-      </c>
-      <c r="AA29">
-        <v>1</v>
-      </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3111,7 +3111,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6872721</v>
+        <v>6872725</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3123,58 +3123,58 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>46</v>
       </c>
       <c r="K30">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N30">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O30">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R30">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W30">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3183,13 +3183,13 @@
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB30">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3200,7 +3200,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6872727</v>
+        <v>6872726</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3212,76 +3212,76 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>47</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L31">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="N31">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O31">
+        <v>2.9</v>
+      </c>
+      <c r="P31">
         <v>3.3</v>
       </c>
-      <c r="P31">
-        <v>4.75</v>
-      </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
         <v>2</v>
       </c>
       <c r="U31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y31">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB31">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6872722</v>
+        <v>6872727</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3301,40 +3301,40 @@
         <v>45114.55208333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K32">
-        <v>1.45</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M32">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N32">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q32">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
         <v>1.95</v>
@@ -3346,28 +3346,28 @@
         <v>2</v>
       </c>
       <c r="U32">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="V32">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
+        <v>-1</v>
+      </c>
+      <c r="Y32">
+        <v>3.75</v>
+      </c>
+      <c r="Z32">
+        <v>-1</v>
+      </c>
+      <c r="AA32">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
-      <c r="Y32">
-        <v>-1</v>
-      </c>
-      <c r="Z32">
-        <v>0.95</v>
-      </c>
-      <c r="AA32">
-        <v>-1</v>
-      </c>
       <c r="AB32">
-        <v>1.025</v>
+        <v>0.75</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3378,7 +3378,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6888611</v>
+        <v>6888615</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3393,55 +3393,55 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
         <v>46</v>
       </c>
       <c r="K33">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>2.9</v>
+        <v>2.875</v>
       </c>
       <c r="M33">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="N33">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P33">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U33">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W33">
-        <v>0.6499999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3450,13 +3450,13 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA33">
         <v>-1</v>
       </c>
       <c r="AB33">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3479,7 +3479,7 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G34" t="s">
         <v>43</v>
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K34">
         <v>1.666</v>
@@ -3556,7 +3556,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6888615</v>
+        <v>6888614</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3568,73 +3568,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>1.8</v>
+      </c>
+      <c r="L35">
+        <v>3.2</v>
+      </c>
+      <c r="M35">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>46</v>
-      </c>
-      <c r="K35">
-        <v>3.5</v>
-      </c>
-      <c r="L35">
-        <v>2.875</v>
-      </c>
-      <c r="M35">
-        <v>2.1</v>
-      </c>
       <c r="N35">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O35">
         <v>3</v>
       </c>
       <c r="P35">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q35">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>1.85</v>
+      </c>
+      <c r="S35">
+        <v>1.95</v>
+      </c>
+      <c r="T35">
+        <v>1.75</v>
+      </c>
+      <c r="U35">
         <v>1.775</v>
       </c>
-      <c r="S35">
+      <c r="V35">
         <v>2.025</v>
       </c>
-      <c r="T35">
-        <v>2</v>
-      </c>
-      <c r="U35">
-        <v>1.875</v>
-      </c>
-      <c r="V35">
-        <v>1.925</v>
-      </c>
       <c r="W35">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X35">
         <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
+        <v>0.95</v>
+      </c>
+      <c r="AB35">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AA35">
-        <v>-1</v>
-      </c>
-      <c r="AB35">
-        <v>0.875</v>
       </c>
       <c r="AC35">
         <v>-1</v>
@@ -3645,7 +3645,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6888614</v>
+        <v>6888611</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3657,73 +3657,73 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N36">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P36">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U36">
+        <v>2.025</v>
+      </c>
+      <c r="V36">
         <v>1.775</v>
       </c>
-      <c r="V36">
-        <v>2.025</v>
-      </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X36">
         <v>-1</v>
       </c>
       <c r="Y36">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AC36">
         <v>-1</v>
@@ -3734,7 +3734,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6888613</v>
+        <v>6888610</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3746,58 +3746,58 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>46</v>
       </c>
       <c r="K37">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L37">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M37">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="N37">
-        <v>1.363</v>
+        <v>1.25</v>
       </c>
       <c r="O37">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P37">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q37">
         <v>-1.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S37">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V37">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W37">
-        <v>0.363</v>
+        <v>0.25</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3806,16 +3806,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA37">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3835,7 +3835,7 @@
         <v>45117.55208333334</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -3912,7 +3912,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6888610</v>
+        <v>6888613</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,55 +3927,55 @@
         <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>46</v>
       </c>
       <c r="K39">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="N39">
-        <v>1.25</v>
+        <v>1.363</v>
       </c>
       <c r="O39">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="Q39">
         <v>-1.25</v>
       </c>
       <c r="R39">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>0.25</v>
+        <v>0.363</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3984,16 +3984,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4001,7 +4001,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6913587</v>
+        <v>6913588</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4013,76 +4013,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>2.3</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="N40">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z40">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4090,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6913588</v>
+        <v>6913587</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4102,76 +4102,76 @@
         <v>45122.55208333334</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K41">
-        <v>2.3</v>
+        <v>1.727</v>
       </c>
       <c r="L41">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M41">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="Q41">
+        <v>-0.75</v>
+      </c>
+      <c r="R41">
+        <v>1.925</v>
+      </c>
+      <c r="S41">
+        <v>1.875</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>1.9</v>
+      </c>
+      <c r="V41">
+        <v>1.9</v>
+      </c>
+      <c r="W41">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X41">
+        <v>-1</v>
+      </c>
+      <c r="Y41">
+        <v>-1</v>
+      </c>
+      <c r="Z41">
+        <v>0.4625</v>
+      </c>
+      <c r="AA41">
         <v>-0.5</v>
       </c>
-      <c r="R41">
-        <v>1.95</v>
-      </c>
-      <c r="S41">
-        <v>1.85</v>
-      </c>
-      <c r="T41">
-        <v>2.5</v>
-      </c>
-      <c r="U41">
-        <v>2</v>
-      </c>
-      <c r="V41">
-        <v>1.8</v>
-      </c>
-      <c r="W41">
-        <v>-1</v>
-      </c>
-      <c r="X41">
-        <v>-1</v>
-      </c>
-      <c r="Y41">
-        <v>2.6</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
-      <c r="AA41">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AB41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4179,7 +4179,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>7129059</v>
+        <v>7130198</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,7 +4194,7 @@
         <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4206,43 +4206,43 @@
         <v>46</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>1.6</v>
+      </c>
+      <c r="O42">
         <v>3.4</v>
       </c>
-      <c r="N42">
-        <v>2.2</v>
-      </c>
-      <c r="O42">
-        <v>3.2</v>
-      </c>
       <c r="P42">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
+        <v>1.825</v>
+      </c>
+      <c r="S42">
         <v>1.975</v>
       </c>
-      <c r="S42">
-        <v>1.825</v>
-      </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.2</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4251,16 +4251,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB42">
         <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>7130198</v>
+        <v>7129059</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4280,10 +4280,10 @@
         <v>45184.5</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4295,43 +4295,43 @@
         <v>46</v>
       </c>
       <c r="K43">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="L43">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M43">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N43">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="O43">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R43">
+        <v>1.975</v>
+      </c>
+      <c r="S43">
         <v>1.825</v>
       </c>
-      <c r="S43">
+      <c r="T43">
+        <v>2</v>
+      </c>
+      <c r="U43">
         <v>1.975</v>
       </c>
-      <c r="T43">
-        <v>2</v>
-      </c>
-      <c r="U43">
-        <v>1.925</v>
-      </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>0.6000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="X43">
         <v>-1</v>
@@ -4340,16 +4340,16 @@
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA43">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
         <v>-1</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4369,10 +4369,10 @@
         <v>45184.625</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4446,7 +4446,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>7130570</v>
+        <v>7130200</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4458,76 +4458,76 @@
         <v>45185.5</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K45">
-        <v>1.333</v>
+        <v>2.7</v>
       </c>
       <c r="L45">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="M45">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N45">
-        <v>1.25</v>
+        <v>3.3</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="P45">
-        <v>10</v>
+        <v>2.15</v>
       </c>
       <c r="Q45">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
+        <v>1.9</v>
+      </c>
+      <c r="S45">
+        <v>1.9</v>
+      </c>
+      <c r="T45">
+        <v>1.75</v>
+      </c>
+      <c r="U45">
+        <v>1.875</v>
+      </c>
+      <c r="V45">
         <v>1.925</v>
       </c>
-      <c r="S45">
-        <v>1.875</v>
-      </c>
-      <c r="T45">
-        <v>2.25</v>
-      </c>
-      <c r="U45">
-        <v>1.85</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
       <c r="W45">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z45">
+        <v>-1</v>
+      </c>
+      <c r="AA45">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB45">
+        <v>-1</v>
+      </c>
+      <c r="AC45">
         <v>0.925</v>
-      </c>
-      <c r="AA45">
-        <v>-1</v>
-      </c>
-      <c r="AB45">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC45">
-        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4535,7 +4535,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>7130200</v>
+        <v>7130570</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4547,76 +4547,76 @@
         <v>45185.5</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2.7</v>
+        <v>1.333</v>
       </c>
       <c r="L46">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="N46">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="O46">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P46">
-        <v>2.15</v>
+        <v>10</v>
       </c>
       <c r="Q46">
+        <v>-1.5</v>
+      </c>
+      <c r="R46">
+        <v>1.925</v>
+      </c>
+      <c r="S46">
+        <v>1.875</v>
+      </c>
+      <c r="T46">
+        <v>2.25</v>
+      </c>
+      <c r="U46">
+        <v>1.85</v>
+      </c>
+      <c r="V46">
+        <v>1.95</v>
+      </c>
+      <c r="W46">
         <v>0.25</v>
       </c>
-      <c r="R46">
-        <v>1.9</v>
-      </c>
-      <c r="S46">
-        <v>1.9</v>
-      </c>
-      <c r="T46">
-        <v>1.75</v>
-      </c>
-      <c r="U46">
-        <v>1.875</v>
-      </c>
-      <c r="V46">
-        <v>1.925</v>
-      </c>
-      <c r="W46">
-        <v>-1</v>
-      </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC46">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4639,7 +4639,7 @@
         <v>36</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4728,7 +4728,7 @@
         <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4737,7 +4737,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K48">
         <v>3.3</v>
@@ -4903,11 +4903,11 @@
         <v>45191.625</v>
       </c>
       <c r="F50" t="s">
+        <v>33</v>
+      </c>
+      <c r="G50" t="s">
         <v>29</v>
       </c>
-      <c r="G50" t="s">
-        <v>32</v>
-      </c>
       <c r="H50">
         <v>0</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2.1</v>
@@ -4992,7 +4992,7 @@
         <v>45192.5</v>
       </c>
       <c r="F51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s">
         <v>38</v>
@@ -5069,7 +5069,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>7230931</v>
+        <v>7230933</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5084,10 +5084,10 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -5096,34 +5096,34 @@
         <v>46</v>
       </c>
       <c r="K52">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M52">
+        <v>3.75</v>
+      </c>
+      <c r="N52">
+        <v>1.8</v>
+      </c>
+      <c r="O52">
+        <v>3</v>
+      </c>
+      <c r="P52">
         <v>4.5</v>
       </c>
-      <c r="N52">
-        <v>1.65</v>
-      </c>
-      <c r="O52">
-        <v>3.2</v>
-      </c>
-      <c r="P52">
-        <v>5.25</v>
-      </c>
       <c r="Q52">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U52">
         <v>1.825</v>
@@ -5132,7 +5132,7 @@
         <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.6499999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5141,7 +5141,7 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA52">
         <v>-1</v>
@@ -5158,7 +5158,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>7230932</v>
+        <v>7230931</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5170,76 +5170,76 @@
         <v>45192.625</v>
       </c>
       <c r="F53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N53">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O53">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q53">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U53">
+        <v>1.825</v>
+      </c>
+      <c r="V53">
         <v>1.975</v>
       </c>
-      <c r="V53">
-        <v>1.825</v>
-      </c>
       <c r="W53">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X53">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA53">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.4875</v>
+        <v>0.825</v>
       </c>
       <c r="AC53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5247,7 +5247,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>7230933</v>
+        <v>7230932</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5259,76 +5259,76 @@
         <v>45192.625</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P54">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>1.75</v>
       </c>
       <c r="U54">
+        <v>1.975</v>
+      </c>
+      <c r="V54">
         <v>1.825</v>
       </c>
-      <c r="V54">
-        <v>1.975</v>
-      </c>
       <c r="W54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB54">
-        <v>0.825</v>
+        <v>0.4875</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5348,7 +5348,7 @@
         <v>45196.5</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>35</v>
@@ -5425,7 +5425,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7230936</v>
+        <v>7230948</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5437,10 +5437,10 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5452,43 +5452,43 @@
         <v>46</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M56">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="N56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O56">
         <v>3</v>
       </c>
       <c r="P56">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S56">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
         <v>1.75</v>
       </c>
       <c r="U56">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V56">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5497,13 +5497,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5514,7 +5514,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>7230934</v>
+        <v>7230936</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5526,34 +5526,34 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="N57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P57">
         <v>3.75</v>
@@ -5562,40 +5562,40 @@
         <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T57">
         <v>1.75</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X57">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA57">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5603,7 +5603,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>7230948</v>
+        <v>7230934</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5615,76 +5615,76 @@
         <v>45198.48958333334</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>3.2</v>
       </c>
       <c r="L58">
+        <v>2.8</v>
+      </c>
+      <c r="M58">
+        <v>2.25</v>
+      </c>
+      <c r="N58">
+        <v>1.95</v>
+      </c>
+      <c r="O58">
         <v>2.9</v>
       </c>
-      <c r="M58">
-        <v>2.2</v>
-      </c>
-      <c r="N58">
-        <v>2.05</v>
-      </c>
-      <c r="O58">
-        <v>3</v>
-      </c>
       <c r="P58">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q58">
         <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="S58">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T58">
         <v>1.75</v>
       </c>
       <c r="U58">
+        <v>1.8</v>
+      </c>
+      <c r="V58">
+        <v>2</v>
+      </c>
+      <c r="W58">
+        <v>-1</v>
+      </c>
+      <c r="X58">
         <v>1.9</v>
       </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
-      <c r="W58">
-        <v>1.05</v>
-      </c>
-      <c r="X58">
-        <v>-1</v>
-      </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AB58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5707,7 +5707,7 @@
         <v>43</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -5781,7 +5781,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>7230938</v>
+        <v>7230939</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,10 +5793,10 @@
         <v>45199.625</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5808,25 +5808,25 @@
         <v>46</v>
       </c>
       <c r="K60">
-        <v>1.285</v>
+        <v>1.363</v>
       </c>
       <c r="L60">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="M60">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N60">
-        <v>1.285</v>
+        <v>1.666</v>
       </c>
       <c r="O60">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P60">
-        <v>9</v>
+        <v>4.75</v>
       </c>
       <c r="Q60">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R60">
         <v>1.95</v>
@@ -5835,16 +5835,16 @@
         <v>1.85</v>
       </c>
       <c r="T60">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>0.2849999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5853,16 +5853,16 @@
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA60">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5870,7 +5870,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>7230939</v>
+        <v>7230938</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5882,10 +5882,10 @@
         <v>45199.625</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5897,25 +5897,25 @@
         <v>46</v>
       </c>
       <c r="K61">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L61">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M61">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N61">
-        <v>1.666</v>
+        <v>1.285</v>
       </c>
       <c r="O61">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P61">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="Q61">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R61">
         <v>1.95</v>
@@ -5924,16 +5924,16 @@
         <v>1.85</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
-        <v>0.6659999999999999</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X61">
         <v>-1</v>
@@ -5942,16 +5942,16 @@
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB61">
         <v>-1</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5959,7 +5959,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7230950</v>
+        <v>7230942</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5971,58 +5971,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F62" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>46</v>
       </c>
       <c r="K62">
-        <v>1.727</v>
+        <v>1.571</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N62">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P62">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="Q62">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T62">
         <v>2</v>
       </c>
       <c r="U62">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V62">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6031,13 +6031,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6048,7 +6048,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7230942</v>
+        <v>7230950</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6060,58 +6060,58 @@
         <v>45205.48958333334</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
         <v>3</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>46</v>
       </c>
       <c r="K63">
-        <v>1.571</v>
+        <v>1.727</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>4.333</v>
+      </c>
+      <c r="N63">
+        <v>1.5</v>
+      </c>
+      <c r="O63">
         <v>3.5</v>
       </c>
-      <c r="M63">
-        <v>5.25</v>
-      </c>
-      <c r="N63">
-        <v>1.666</v>
-      </c>
-      <c r="O63">
-        <v>3.3</v>
-      </c>
       <c r="P63">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
         <v>2</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W63">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6120,13 +6120,13 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC63">
         <v>-1</v>
@@ -6137,7 +6137,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7230941</v>
+        <v>7230940</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6149,76 +6149,76 @@
         <v>45205.625</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
         <v>48</v>
       </c>
       <c r="K64">
-        <v>1.727</v>
+        <v>1.833</v>
       </c>
       <c r="L64">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N64">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P64">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q64">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
         <v>1.825</v>
       </c>
-      <c r="S64">
-        <v>1.975</v>
-      </c>
       <c r="T64">
         <v>2</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V64">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z64">
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6226,7 +6226,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7230940</v>
+        <v>7230941</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6238,76 +6238,76 @@
         <v>45205.625</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>47</v>
       </c>
       <c r="K65">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="L65">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M65">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="N65">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O65">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
+        <v>1.825</v>
+      </c>
+      <c r="S65">
         <v>1.975</v>
       </c>
-      <c r="S65">
-        <v>1.825</v>
-      </c>
       <c r="T65">
         <v>2</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y65">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-1</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6315,7 +6315,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7230943</v>
+        <v>7230944</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6327,34 +6327,34 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K66">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="L66">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M66">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N66">
         <v>1.8</v>
       </c>
       <c r="O66">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P66">
         <v>4</v>
@@ -6363,40 +6363,40 @@
         <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T66">
         <v>2</v>
       </c>
       <c r="U66">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X66">
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA66">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,7 +6404,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7230944</v>
+        <v>7230951</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6416,76 +6416,76 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F67" t="s">
+        <v>42</v>
+      </c>
+      <c r="G67" t="s">
         <v>30</v>
       </c>
-      <c r="G67" t="s">
-        <v>31</v>
-      </c>
       <c r="H67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="L67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N67">
-        <v>1.8</v>
+        <v>1.444</v>
       </c>
       <c r="O67">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R67">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S67">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Z67">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6493,7 +6493,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7230951</v>
+        <v>7230943</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6505,76 +6505,76 @@
         <v>45206.48958333334</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68" t="s">
+        <v>48</v>
+      </c>
+      <c r="K68">
+        <v>1.909</v>
+      </c>
+      <c r="L68">
+        <v>3.1</v>
+      </c>
+      <c r="M68">
+        <v>3.75</v>
+      </c>
+      <c r="N68">
+        <v>1.8</v>
+      </c>
+      <c r="O68">
+        <v>3.2</v>
+      </c>
+      <c r="P68">
+        <v>4</v>
+      </c>
+      <c r="Q68">
+        <v>-0.5</v>
+      </c>
+      <c r="R68">
+        <v>1.825</v>
+      </c>
+      <c r="S68">
+        <v>1.975</v>
+      </c>
+      <c r="T68">
+        <v>2</v>
+      </c>
+      <c r="U68">
+        <v>1.775</v>
+      </c>
+      <c r="V68">
+        <v>2.025</v>
+      </c>
+      <c r="W68">
+        <v>-1</v>
+      </c>
+      <c r="X68">
+        <v>-1</v>
+      </c>
+      <c r="Y68">
         <v>3</v>
       </c>
-      <c r="J68" t="s">
-        <v>47</v>
-      </c>
-      <c r="K68">
-        <v>1.5</v>
-      </c>
-      <c r="L68">
-        <v>3.5</v>
-      </c>
-      <c r="M68">
-        <v>6</v>
-      </c>
-      <c r="N68">
-        <v>1.444</v>
-      </c>
-      <c r="O68">
-        <v>3.5</v>
-      </c>
-      <c r="P68">
-        <v>7.5</v>
-      </c>
-      <c r="Q68">
-        <v>-1.25</v>
-      </c>
-      <c r="R68">
-        <v>2.025</v>
-      </c>
-      <c r="S68">
-        <v>1.775</v>
-      </c>
-      <c r="T68">
-        <v>2.25</v>
-      </c>
-      <c r="U68">
-        <v>1.825</v>
-      </c>
-      <c r="V68">
-        <v>1.975</v>
-      </c>
-      <c r="W68">
-        <v>-1</v>
-      </c>
-      <c r="X68">
-        <v>-1</v>
-      </c>
-      <c r="Y68">
-        <v>6.5</v>
-      </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.7749999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6594,7 +6594,7 @@
         <v>45206.625</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
         <v>35</v>
@@ -6686,7 +6686,7 @@
         <v>45</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K70">
         <v>3.5</v>
@@ -6775,7 +6775,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6849,7 +6849,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>7427220</v>
+        <v>7427219</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6861,76 +6861,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F72" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L72">
-        <v>2.875</v>
+        <v>3.8</v>
       </c>
       <c r="M72">
-        <v>2.25</v>
+        <v>7.5</v>
       </c>
       <c r="N72">
-        <v>2.875</v>
+        <v>1.4</v>
       </c>
       <c r="O72">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R72">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S72">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T72">
         <v>2</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6938,7 +6938,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>7427219</v>
+        <v>7427220</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6950,76 +6950,76 @@
         <v>45240.47916666666</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G73" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>4</v>
+      </c>
+      <c r="J73" t="s">
+        <v>48</v>
+      </c>
+      <c r="K73">
+        <v>3.1</v>
+      </c>
+      <c r="L73">
+        <v>2.875</v>
+      </c>
+      <c r="M73">
+        <v>2.25</v>
+      </c>
+      <c r="N73">
+        <v>2.875</v>
+      </c>
+      <c r="O73">
+        <v>2.875</v>
+      </c>
+      <c r="P73">
+        <v>2.375</v>
+      </c>
+      <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.75</v>
+      </c>
+      <c r="S73">
+        <v>2.05</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>1.8</v>
+      </c>
+      <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>1.375</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>1.05</v>
+      </c>
+      <c r="AB73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73" t="s">
-        <v>46</v>
-      </c>
-      <c r="K73">
-        <v>1.4</v>
-      </c>
-      <c r="L73">
-        <v>3.8</v>
-      </c>
-      <c r="M73">
-        <v>7.5</v>
-      </c>
-      <c r="N73">
-        <v>1.4</v>
-      </c>
-      <c r="O73">
-        <v>3.6</v>
-      </c>
-      <c r="P73">
-        <v>7</v>
-      </c>
-      <c r="Q73">
-        <v>-1</v>
-      </c>
-      <c r="R73">
-        <v>1.8</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.9</v>
-      </c>
-      <c r="V73">
-        <v>1.9</v>
-      </c>
-      <c r="W73">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>-0</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
-      </c>
       <c r="AC73">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7039,10 +7039,10 @@
         <v>45240.48958333334</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7131,7 +7131,7 @@
         <v>35</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -7306,10 +7306,10 @@
         <v>45241.45833333334</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H77">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K77">
         <v>1.444</v>
@@ -7395,7 +7395,7 @@
         <v>45241.54166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>43</v>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7487,7 +7487,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K79">
         <v>1.571</v>
@@ -7573,10 +7573,10 @@
         <v>45244.45833333334</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7585,7 +7585,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>2.7</v>
@@ -7662,7 +7662,7 @@
         <v>45244.625</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -7763,7 +7763,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82">
         <v>1.4</v>
@@ -7840,7 +7840,7 @@
         <v>45247.47916666666</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>45</v>
@@ -7929,10 +7929,10 @@
         <v>45247.53125</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8119,7 +8119,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>2.6</v>
@@ -8196,10 +8196,10 @@
         <v>45248.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8285,7 +8285,7 @@
         <v>45248.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G88" t="s">
         <v>35</v>
@@ -8374,10 +8374,10 @@
         <v>45249.625</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8451,7 +8451,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7480688</v>
+        <v>7480684</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8463,76 +8463,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="L90">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="N90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O90">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P90">
         <v>3.8</v>
       </c>
       <c r="Q90">
+        <v>-0.25</v>
+      </c>
+      <c r="R90">
+        <v>1.75</v>
+      </c>
+      <c r="S90">
+        <v>2.05</v>
+      </c>
+      <c r="T90">
+        <v>1.75</v>
+      </c>
+      <c r="U90">
+        <v>1.75</v>
+      </c>
+      <c r="V90">
+        <v>2.05</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>1.9</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>1.975</v>
-      </c>
-      <c r="S90">
-        <v>1.825</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>1.925</v>
-      </c>
-      <c r="V90">
-        <v>1.875</v>
-      </c>
-      <c r="W90">
-        <v>-1</v>
-      </c>
-      <c r="X90">
-        <v>2</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AC90">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8540,7 +8540,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7480684</v>
+        <v>7480688</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8552,76 +8552,76 @@
         <v>45254.46875</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K91">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="L91">
+        <v>3.2</v>
+      </c>
+      <c r="M91">
+        <v>4.75</v>
+      </c>
+      <c r="N91">
+        <v>1.95</v>
+      </c>
+      <c r="O91">
         <v>3</v>
-      </c>
-      <c r="M91">
-        <v>4.25</v>
-      </c>
-      <c r="N91">
-        <v>2</v>
-      </c>
-      <c r="O91">
-        <v>2.9</v>
       </c>
       <c r="P91">
         <v>3.8</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U91">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.5249999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB91">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8641,7 +8641,7 @@
         <v>45255.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>44</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K92">
         <v>1.4</v>
@@ -8730,10 +8730,10 @@
         <v>45255.53125</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8742,7 +8742,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K93">
         <v>1.833</v>
@@ -8822,7 +8822,7 @@
         <v>36</v>
       </c>
       <c r="G94" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -8908,10 +8908,10 @@
         <v>45261.46875</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -9089,7 +9089,7 @@
         <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9175,7 +9175,7 @@
         <v>45262.53125</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
         <v>45</v>
@@ -9267,7 +9267,7 @@
         <v>36</v>
       </c>
       <c r="G99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -9276,7 +9276,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>1.666</v>
@@ -9353,10 +9353,10 @@
         <v>45262.58333333334</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>1.727</v>
@@ -9445,7 +9445,7 @@
         <v>43</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9531,10 +9531,10 @@
         <v>45268.46875</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>2</v>
@@ -9620,7 +9620,7 @@
         <v>45268.58333333334</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
         <v>44</v>
@@ -9697,7 +9697,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7537790</v>
+        <v>7537791</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9709,13 +9709,13 @@
         <v>45269.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -9724,61 +9724,61 @@
         <v>48</v>
       </c>
       <c r="K104">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="M104">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N104">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="O104">
         <v>2.875</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T104">
         <v>2</v>
       </c>
       <c r="U104">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V104">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.4</v>
+        <v>0.75</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9786,7 +9786,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7537791</v>
+        <v>7537790</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9798,13 +9798,13 @@
         <v>45269.458